--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
         <v>24</v>
@@ -2126,13 +2126,13 @@
         <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2188,13 +2188,13 @@
         <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2560,13 +2560,13 @@
         <v>69</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2625,7 +2625,7 @@
         <v>24</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s">
         <v>24</v>
@@ -2746,13 +2746,13 @@
         <v>77</v>
       </c>
       <c r="R22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2808,13 +2808,13 @@
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2994,13 +2994,13 @@
         <v>87</v>
       </c>
       <c r="R26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3056,13 +3056,13 @@
         <v>90</v>
       </c>
       <c r="R27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3180,13 +3180,13 @@
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3304,10 +3304,10 @@
         <v>99</v>
       </c>
       <c r="R31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T31" t="s">
         <v>24</v>
@@ -3366,10 +3366,10 @@
         <v>102</v>
       </c>
       <c r="R32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s">
         <v>24</v>
@@ -3431,7 +3431,7 @@
         <v>24</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s">
         <v>24</v>
@@ -3552,13 +3552,13 @@
         <v>20</v>
       </c>
       <c r="R35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>24</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s">
         <v>24</v>
@@ -3738,10 +3738,10 @@
         <v>20</v>
       </c>
       <c r="R38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S38">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T38" t="s">
         <v>24</v>
@@ -3800,13 +3800,13 @@
         <v>118</v>
       </c>
       <c r="R39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3924,13 +3924,13 @@
         <v>122</v>
       </c>
       <c r="R41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3986,10 +3986,10 @@
         <v>20</v>
       </c>
       <c r="R42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T42" t="s">
         <v>24</v>
@@ -4110,10 +4110,10 @@
         <v>20</v>
       </c>
       <c r="R44" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T44" t="s">
         <v>24</v>
@@ -4234,10 +4234,10 @@
         <v>20</v>
       </c>
       <c r="R46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="T46" t="s">
         <v>24</v>
@@ -4296,13 +4296,13 @@
         <v>136</v>
       </c>
       <c r="R47" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4358,13 +4358,13 @@
         <v>136</v>
       </c>
       <c r="R48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4420,13 +4420,13 @@
         <v>140</v>
       </c>
       <c r="R49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4482,10 +4482,10 @@
         <v>143</v>
       </c>
       <c r="R50" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T50" t="s">
         <v>24</v>
@@ -5660,10 +5660,10 @@
         <v>191</v>
       </c>
       <c r="R69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T69" t="s">
         <v>24</v>
@@ -5849,7 +5849,7 @@
         <v>24</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T72" t="s">
         <v>24</v>
@@ -5911,7 +5911,7 @@
         <v>29</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" t="s">
         <v>29</v>
@@ -6342,13 +6342,13 @@
         <v>20</v>
       </c>
       <c r="R80" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T80" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -8512,13 +8512,13 @@
         <v>20</v>
       </c>
       <c r="R115" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T115" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="1">
-        <v>NaN</v>
+        <v>11.7</v>
       </c>
       <c r="K2" s="1">
         <v>11.69</v>
@@ -1533,7 +1533,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="1">
-        <v>NaN</v>
+        <v>11.05</v>
       </c>
       <c r="K3" s="1">
         <v>9.2</v>
@@ -1592,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K4" s="1">
         <v>6.49</v>
@@ -1651,7 +1651,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="1">
-        <v>NaN</v>
+        <v>1.63</v>
       </c>
       <c r="K5" s="1">
         <v>5.41</v>
@@ -1710,7 +1710,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="1">
-        <v>NaN</v>
+        <v>11.05</v>
       </c>
       <c r="K6" s="1">
         <v>12.42</v>
@@ -1769,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K7" s="1">
         <v>14.25</v>
@@ -1828,7 +1828,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="1">
-        <v>NaN</v>
+        <v>11.05</v>
       </c>
       <c r="K8" s="1">
         <v>25.3</v>
@@ -1887,7 +1887,7 @@
         <v>22</v>
       </c>
       <c r="J9" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K9" s="1">
         <v>33.24</v>
@@ -1946,7 +1946,7 @@
         <v>22</v>
       </c>
       <c r="J10" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K10" s="1">
         <v>25.28</v>
@@ -2005,7 +2005,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="J12" s="1">
-        <v>NaN</v>
+        <v>9.43</v>
       </c>
       <c r="K12" s="1">
         <v>19.62</v>
@@ -2123,7 +2123,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="1">
-        <v>NaN</v>
+        <v>9.43</v>
       </c>
       <c r="K13" s="1">
         <v>8.24</v>
@@ -2182,7 +2182,7 @@
         <v>47</v>
       </c>
       <c r="J14" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K14" s="1">
         <v>14.07</v>
@@ -2241,7 +2241,7 @@
         <v>47</v>
       </c>
       <c r="J15" s="1">
-        <v>NaN</v>
+        <v>30.88</v>
       </c>
       <c r="K15" s="1">
         <v>25.71</v>
@@ -2300,7 +2300,7 @@
         <v>47</v>
       </c>
       <c r="J16" s="1">
-        <v>NaN</v>
+        <v>11.05</v>
       </c>
       <c r="K16" s="1">
         <v>9.2</v>
@@ -2359,7 +2359,7 @@
         <v>47</v>
       </c>
       <c r="J17" s="1">
-        <v>NaN</v>
+        <v>16.25</v>
       </c>
       <c r="K17" s="1">
         <v>13.53</v>
@@ -2418,7 +2418,7 @@
         <v>47</v>
       </c>
       <c r="J18" s="1">
-        <v>NaN</v>
+        <v>9.1</v>
       </c>
       <c r="K18" s="1">
         <v>7.58</v>
@@ -2477,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K19" s="1">
         <v>17.59</v>
@@ -2536,7 +2536,7 @@
         <v>22</v>
       </c>
       <c r="J20" s="1">
-        <v>NaN</v>
+        <v>10.4</v>
       </c>
       <c r="K20" s="1">
         <v>29.44</v>
@@ -2595,7 +2595,7 @@
         <v>47</v>
       </c>
       <c r="J21" s="1">
-        <v>NaN</v>
+        <v>7.15</v>
       </c>
       <c r="K21" s="1">
         <v>5.95</v>
@@ -2654,7 +2654,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K22" s="1">
         <v>12.66</v>
@@ -2713,7 +2713,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="1">
-        <v>NaN</v>
+        <v>6.17</v>
       </c>
       <c r="K23" s="1">
         <v>15.42</v>
@@ -2772,7 +2772,7 @@
         <v>22</v>
       </c>
       <c r="J24" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K24" s="1">
         <v>12.66</v>
@@ -2831,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="J25" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K25" s="1">
         <v>15.48</v>
@@ -2890,7 +2890,7 @@
         <v>47</v>
       </c>
       <c r="J26" s="1">
-        <v>NaN</v>
+        <v>9.75</v>
       </c>
       <c r="K26" s="1">
         <v>8.12</v>
@@ -2949,7 +2949,7 @@
         <v>22</v>
       </c>
       <c r="J27" s="1">
-        <v>NaN</v>
+        <v>8.45</v>
       </c>
       <c r="K27" s="1">
         <v>11.61</v>
@@ -3008,7 +3008,7 @@
         <v>22</v>
       </c>
       <c r="J28" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K28" s="1">
         <v>23.75</v>
@@ -3067,7 +3067,7 @@
         <v>22</v>
       </c>
       <c r="J29" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K29" s="1">
         <v>17.94</v>
@@ -3126,7 +3126,7 @@
         <v>22</v>
       </c>
       <c r="J30" s="1">
-        <v>NaN</v>
+        <v>6.83</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>22</v>
       </c>
       <c r="J31" s="1">
-        <v>NaN</v>
+        <v>12.03</v>
       </c>
       <c r="K31" s="1">
         <v>10.01</v>
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="J32" s="1">
-        <v>NaN</v>
+        <v>27.95</v>
       </c>
       <c r="K32" s="1">
         <v>12.8</v>
@@ -3303,7 +3303,7 @@
         <v>22</v>
       </c>
       <c r="J33" s="1">
-        <v>NaN</v>
+        <v>6.17</v>
       </c>
       <c r="K33" s="1">
         <v>14.14</v>
@@ -3362,7 +3362,7 @@
         <v>22</v>
       </c>
       <c r="J34" s="1">
-        <v>NaN</v>
+        <v>13.65</v>
       </c>
       <c r="K34" s="1">
         <v>23.3</v>
@@ -3421,7 +3421,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="1">
-        <v>NaN</v>
+        <v>10.4</v>
       </c>
       <c r="K35" s="1">
         <v>38.97</v>
@@ -3480,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="J36" s="1">
-        <v>NaN</v>
+        <v>11.05</v>
       </c>
       <c r="K36" s="1">
         <v>32.16</v>
@@ -3539,7 +3539,7 @@
         <v>22</v>
       </c>
       <c r="J37" s="1">
-        <v>NaN</v>
+        <v>11.7</v>
       </c>
       <c r="K37" s="1">
         <v>25.77</v>
@@ -3598,7 +3598,7 @@
         <v>22</v>
       </c>
       <c r="J38" s="1">
-        <v>NaN</v>
+        <v>10.4</v>
       </c>
       <c r="K38" s="1">
         <v>22.51</v>
@@ -3657,7 +3657,7 @@
         <v>22</v>
       </c>
       <c r="J39" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K39" s="1">
         <v>17.59</v>
@@ -3716,7 +3716,7 @@
         <v>22</v>
       </c>
       <c r="J40" s="1">
-        <v>NaN</v>
+        <v>10.08</v>
       </c>
       <c r="K40" s="1">
         <v>8.39</v>
@@ -3775,7 +3775,7 @@
         <v>22</v>
       </c>
       <c r="J41" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K41" s="1">
         <v>7.74</v>
@@ -3834,7 +3834,7 @@
         <v>22</v>
       </c>
       <c r="J42" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K42" s="1">
         <v>13.72</v>
@@ -3893,7 +3893,7 @@
         <v>22</v>
       </c>
       <c r="J43" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K43" s="1">
         <v>6.49</v>
@@ -3952,7 +3952,7 @@
         <v>22</v>
       </c>
       <c r="J44" s="1">
-        <v>NaN</v>
+        <v>24.05</v>
       </c>
       <c r="K44" s="1">
         <v>14.02</v>
@@ -4011,7 +4011,7 @@
         <v>22</v>
       </c>
       <c r="J45" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K45" s="1">
         <v>6.49</v>
@@ -4070,7 +4070,7 @@
         <v>22</v>
       </c>
       <c r="J46" s="1">
-        <v>NaN</v>
+        <v>26.32</v>
       </c>
       <c r="K46" s="1">
         <v>20.82</v>
@@ -4129,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="J47" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K47" s="1">
         <v>14.07</v>
@@ -4188,7 +4188,7 @@
         <v>22</v>
       </c>
       <c r="J48" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K48" s="1">
         <v>8.37</v>
@@ -4247,7 +4247,7 @@
         <v>22</v>
       </c>
       <c r="J49" s="1">
-        <v>NaN</v>
+        <v>16.9</v>
       </c>
       <c r="K49" s="1">
         <v>7.74</v>
@@ -4306,7 +4306,7 @@
         <v>22</v>
       </c>
       <c r="J50" s="1">
-        <v>NaN</v>
+        <v>16.25</v>
       </c>
       <c r="K50" s="1">
         <v>19.62</v>
@@ -4365,7 +4365,7 @@
         <v>22</v>
       </c>
       <c r="J51" s="1">
-        <v>NaN</v>
+        <v>3.25</v>
       </c>
       <c r="K51" s="1">
         <v>7.71</v>
@@ -4424,7 +4424,7 @@
         <v>47</v>
       </c>
       <c r="J52" s="1">
-        <v>NaN</v>
+        <v>6.17</v>
       </c>
       <c r="K52" s="1">
         <v>5.14</v>
@@ -4483,7 +4483,7 @@
         <v>47</v>
       </c>
       <c r="J53" s="1">
-        <v>NaN</v>
+        <v>6.17</v>
       </c>
       <c r="K53" s="1">
         <v>5.14</v>
@@ -4542,7 +4542,7 @@
         <v>47</v>
       </c>
       <c r="J54" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K54" s="1">
         <v>6.49</v>
@@ -4601,7 +4601,7 @@
         <v>22</v>
       </c>
       <c r="J55" s="1">
-        <v>NaN</v>
+        <v>11.7</v>
       </c>
       <c r="K55" s="1">
         <v>14.61</v>
@@ -4660,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="J56" s="1">
-        <v>NaN</v>
+        <v>12.03</v>
       </c>
       <c r="K56" s="1">
         <v>63.08</v>
@@ -4719,7 +4719,7 @@
         <v>22</v>
       </c>
       <c r="J57" s="1">
-        <v>NaN</v>
+        <v>10.08</v>
       </c>
       <c r="K57" s="1">
         <v>10.49</v>
@@ -4778,7 +4778,7 @@
         <v>22</v>
       </c>
       <c r="J58" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K58" s="1">
         <v>11.37</v>
@@ -4837,7 +4837,7 @@
         <v>22</v>
       </c>
       <c r="J59" s="1">
-        <v>NaN</v>
+        <v>5.85</v>
       </c>
       <c r="K59" s="1">
         <v>26.79</v>
@@ -4896,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="J60" s="1">
-        <v>NaN</v>
+        <v>6.17</v>
       </c>
       <c r="K60" s="1">
         <v>23.65</v>
@@ -4955,7 +4955,7 @@
         <v>22</v>
       </c>
       <c r="J61" s="1">
-        <v>NaN</v>
+        <v>6.5</v>
       </c>
       <c r="K61" s="1">
         <v>20.02</v>
@@ -5014,7 +5014,7 @@
         <v>22</v>
       </c>
       <c r="J62" s="1">
-        <v>NaN</v>
+        <v>6.83</v>
       </c>
       <c r="K62" s="1">
         <v>16.17</v>
@@ -5073,7 +5073,7 @@
         <v>22</v>
       </c>
       <c r="J63" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K63" s="1">
         <v>35.07</v>
@@ -5132,7 +5132,7 @@
         <v>22</v>
       </c>
       <c r="J64" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K64" s="1">
         <v>29.55</v>
@@ -5191,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="J65" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K65" s="1">
         <v>22.73</v>
@@ -5250,7 +5250,7 @@
         <v>47</v>
       </c>
       <c r="J66" s="1">
-        <v>NaN</v>
+        <v>12.03</v>
       </c>
       <c r="K66" s="1">
         <v>10.01</v>
@@ -5309,7 +5309,7 @@
         <v>47</v>
       </c>
       <c r="J67" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K67" s="1">
         <v>6.49</v>
@@ -5368,7 +5368,7 @@
         <v>22</v>
       </c>
       <c r="J68" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K68" s="1">
         <v>10.82</v>
@@ -5427,7 +5427,7 @@
         <v>22</v>
       </c>
       <c r="J69" s="1">
-        <v>NaN</v>
+        <v>1.63</v>
       </c>
       <c r="K69" s="1">
         <v>5.41</v>
@@ -5486,7 +5486,7 @@
         <v>22</v>
       </c>
       <c r="J70" s="1">
-        <v>NaN</v>
+        <v>15.6</v>
       </c>
       <c r="K70" s="1">
         <v>11.69</v>
@@ -5545,7 +5545,7 @@
         <v>22</v>
       </c>
       <c r="J71" s="1">
-        <v>NaN</v>
+        <v>15.6</v>
       </c>
       <c r="K71" s="1">
         <v>22.73</v>
@@ -5604,7 +5604,7 @@
         <v>22</v>
       </c>
       <c r="J72" s="1">
-        <v>NaN</v>
+        <v>6.17</v>
       </c>
       <c r="K72" s="1">
         <v>4.88</v>
@@ -5663,7 +5663,7 @@
         <v>22</v>
       </c>
       <c r="J73" s="1">
-        <v>NaN</v>
+        <v>13.97</v>
       </c>
       <c r="K73" s="1">
         <v>14.25</v>
@@ -5722,7 +5722,7 @@
         <v>22</v>
       </c>
       <c r="J74" s="1">
-        <v>NaN</v>
+        <v>10.08</v>
       </c>
       <c r="K74" s="1">
         <v>10.91</v>
@@ -5781,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="J75" s="1">
-        <v>NaN</v>
+        <v>12.03</v>
       </c>
       <c r="K75" s="1">
         <v>16.52</v>
@@ -5840,7 +5840,7 @@
         <v>22</v>
       </c>
       <c r="J76" s="1">
-        <v>NaN</v>
+        <v>12.35</v>
       </c>
       <c r="K76" s="1">
         <v>12.85</v>
@@ -5899,7 +5899,7 @@
         <v>22</v>
       </c>
       <c r="J77" s="1">
-        <v>NaN</v>
+        <v>12.35</v>
       </c>
       <c r="K77" s="1">
         <v>23.14</v>
@@ -5958,7 +5958,7 @@
         <v>22</v>
       </c>
       <c r="J78" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K78" s="1">
         <v>27.06</v>
@@ -6017,7 +6017,7 @@
         <v>22</v>
       </c>
       <c r="J79" s="1">
-        <v>NaN</v>
+        <v>8.45</v>
       </c>
       <c r="K79" s="1">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="J80" s="1">
-        <v>NaN</v>
+        <v>13.97</v>
       </c>
       <c r="K80" s="1">
         <v>11.64</v>
@@ -6135,7 +6135,7 @@
         <v>22</v>
       </c>
       <c r="J81" s="1">
-        <v>NaN</v>
+        <v>13.97</v>
       </c>
       <c r="K81" s="1">
         <v>32.58</v>
@@ -6194,7 +6194,7 @@
         <v>47</v>
       </c>
       <c r="J82" s="1">
-        <v>NaN</v>
+        <v>9.43</v>
       </c>
       <c r="K82" s="1">
         <v>7.85</v>
@@ -6253,7 +6253,7 @@
         <v>47</v>
       </c>
       <c r="J83" s="1">
-        <v>NaN</v>
+        <v>11.38</v>
       </c>
       <c r="K83" s="1">
         <v>9.47</v>
@@ -6312,7 +6312,7 @@
         <v>47</v>
       </c>
       <c r="J84" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K84" s="1">
         <v>10.55</v>
@@ -6371,7 +6371,7 @@
         <v>47</v>
       </c>
       <c r="J85" s="1">
-        <v>NaN</v>
+        <v>10.08</v>
       </c>
       <c r="K85" s="1">
         <v>8.39</v>
@@ -6430,7 +6430,7 @@
         <v>47</v>
       </c>
       <c r="J86" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K86" s="1">
         <v>10.55</v>
@@ -6489,7 +6489,7 @@
         <v>47</v>
       </c>
       <c r="J87" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K87" s="1">
         <v>10.55</v>
@@ -6548,7 +6548,7 @@
         <v>47</v>
       </c>
       <c r="J88" s="1">
-        <v>NaN</v>
+        <v>13.97</v>
       </c>
       <c r="K88" s="1">
         <v>11.64</v>
@@ -6607,7 +6607,7 @@
         <v>47</v>
       </c>
       <c r="J89" s="1">
-        <v>NaN</v>
+        <v>13.97</v>
       </c>
       <c r="K89" s="1">
         <v>11.64</v>
@@ -6666,7 +6666,7 @@
         <v>47</v>
       </c>
       <c r="J90" s="1">
-        <v>NaN</v>
+        <v>10.72</v>
       </c>
       <c r="K90" s="1">
         <v>8.93</v>
@@ -6725,7 +6725,7 @@
         <v>47</v>
       </c>
       <c r="J91" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K91" s="1">
         <v>10.82</v>
@@ -6784,7 +6784,7 @@
         <v>47</v>
       </c>
       <c r="J92" s="1">
-        <v>NaN</v>
+        <v>13.97</v>
       </c>
       <c r="K92" s="1">
         <v>11.64</v>
@@ -6843,7 +6843,7 @@
         <v>47</v>
       </c>
       <c r="J93" s="1">
-        <v>NaN</v>
+        <v>11.7</v>
       </c>
       <c r="K93" s="1">
         <v>9.74</v>
@@ -6902,7 +6902,7 @@
         <v>47</v>
       </c>
       <c r="J94" s="1">
-        <v>NaN</v>
+        <v>11.7</v>
       </c>
       <c r="K94" s="1">
         <v>9.74</v>
@@ -6961,7 +6961,7 @@
         <v>47</v>
       </c>
       <c r="J95" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K95" s="1">
         <v>10.82</v>
@@ -7020,7 +7020,7 @@
         <v>47</v>
       </c>
       <c r="J96" s="1">
-        <v>NaN</v>
+        <v>11.7</v>
       </c>
       <c r="K96" s="1">
         <v>9.74</v>
@@ -7079,7 +7079,7 @@
         <v>47</v>
       </c>
       <c r="J97" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K97" s="1">
         <v>10.82</v>
@@ -7138,7 +7138,7 @@
         <v>47</v>
       </c>
       <c r="J98" s="1">
-        <v>NaN</v>
+        <v>5.85</v>
       </c>
       <c r="K98" s="1">
         <v>4.87</v>
@@ -7197,7 +7197,7 @@
         <v>47</v>
       </c>
       <c r="J99" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K99" s="1">
         <v>10.55</v>
@@ -7256,7 +7256,7 @@
         <v>47</v>
       </c>
       <c r="J100" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K100" s="1">
         <v>10.82</v>
@@ -7315,7 +7315,7 @@
         <v>47</v>
       </c>
       <c r="J101" s="1">
-        <v>NaN</v>
+        <v>10.72</v>
       </c>
       <c r="K101" s="1">
         <v>8.93</v>
@@ -7374,7 +7374,7 @@
         <v>47</v>
       </c>
       <c r="J102" s="1">
-        <v>NaN</v>
+        <v>7.15</v>
       </c>
       <c r="K102" s="1">
         <v>5.95</v>
@@ -7433,7 +7433,7 @@
         <v>47</v>
       </c>
       <c r="J103" s="1">
-        <v>NaN</v>
+        <v>11.05</v>
       </c>
       <c r="K103" s="1">
         <v>9.2</v>
@@ -7492,7 +7492,7 @@
         <v>47</v>
       </c>
       <c r="J104" s="1">
-        <v>NaN</v>
+        <v>12.68</v>
       </c>
       <c r="K104" s="1">
         <v>10.55</v>
@@ -7551,7 +7551,7 @@
         <v>47</v>
       </c>
       <c r="J105" s="1">
-        <v>NaN</v>
+        <v>11.7</v>
       </c>
       <c r="K105" s="1">
         <v>9.74</v>
@@ -7610,7 +7610,7 @@
         <v>47</v>
       </c>
       <c r="J106" s="1">
-        <v>NaN</v>
+        <v>7.8</v>
       </c>
       <c r="K106" s="1">
         <v>6.49</v>
@@ -7669,7 +7669,7 @@
         <v>47</v>
       </c>
       <c r="J107" s="1">
-        <v>NaN</v>
+        <v>4.55</v>
       </c>
       <c r="K107" s="1">
         <v>3.79</v>
@@ -7728,7 +7728,7 @@
         <v>47</v>
       </c>
       <c r="J108" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K108" s="1">
         <v>10.82</v>
@@ -7787,7 +7787,7 @@
         <v>47</v>
       </c>
       <c r="J109" s="1">
-        <v>NaN</v>
+        <v>10.72</v>
       </c>
       <c r="K109" s="1">
         <v>8.93</v>
@@ -7846,7 +7846,7 @@
         <v>47</v>
       </c>
       <c r="J110" s="1">
-        <v>NaN</v>
+        <v>10.72</v>
       </c>
       <c r="K110" s="1">
         <v>8.93</v>
@@ -7905,7 +7905,7 @@
         <v>47</v>
       </c>
       <c r="J111" s="1">
-        <v>NaN</v>
+        <v>10.72</v>
       </c>
       <c r="K111" s="1">
         <v>8.93</v>
@@ -7964,7 +7964,7 @@
         <v>47</v>
       </c>
       <c r="J112" s="1">
-        <v>NaN</v>
+        <v>11.05</v>
       </c>
       <c r="K112" s="1">
         <v>9.2</v>
@@ -8023,7 +8023,7 @@
         <v>47</v>
       </c>
       <c r="J113" s="1">
-        <v>NaN</v>
+        <v>10.72</v>
       </c>
       <c r="K113" s="1">
         <v>8.93</v>
@@ -8082,7 +8082,7 @@
         <v>47</v>
       </c>
       <c r="J114" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K114" s="1">
         <v>10.82</v>
@@ -8141,7 +8141,7 @@
         <v>47</v>
       </c>
       <c r="J115" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K115" s="1">
         <v>10.82</v>
@@ -8200,7 +8200,7 @@
         <v>47</v>
       </c>
       <c r="J116" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K116" s="1">
         <v>10.82</v>
@@ -8259,7 +8259,7 @@
         <v>47</v>
       </c>
       <c r="J117" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K117" s="1">
         <v>10.82</v>
@@ -8318,7 +8318,7 @@
         <v>47</v>
       </c>
       <c r="J118" s="1">
-        <v>NaN</v>
+        <v>9.75</v>
       </c>
       <c r="K118" s="1">
         <v>8.12</v>
@@ -8377,7 +8377,7 @@
         <v>47</v>
       </c>
       <c r="J119" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K119" s="1">
         <v>10.82</v>
@@ -8436,7 +8436,7 @@
         <v>47</v>
       </c>
       <c r="J120" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K120" s="1">
         <v>10.82</v>
@@ -8495,7 +8495,7 @@
         <v>47</v>
       </c>
       <c r="J121" s="1">
-        <v>NaN</v>
+        <v>15.6</v>
       </c>
       <c r="K121" s="1">
         <v>12.99</v>
@@ -8554,7 +8554,7 @@
         <v>47</v>
       </c>
       <c r="J122" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K122" s="1">
         <v>10.82</v>
@@ -8613,7 +8613,7 @@
         <v>47</v>
       </c>
       <c r="J123" s="1">
-        <v>NaN</v>
+        <v>6.5</v>
       </c>
       <c r="K123" s="1">
         <v>5.41</v>
@@ -8672,7 +8672,7 @@
         <v>47</v>
       </c>
       <c r="J124" s="1">
-        <v>NaN</v>
+        <v>9.75</v>
       </c>
       <c r="K124" s="1">
         <v>8.12</v>
@@ -8731,7 +8731,7 @@
         <v>47</v>
       </c>
       <c r="J125" s="1">
-        <v>NaN</v>
+        <v>6.5</v>
       </c>
       <c r="K125" s="1">
         <v>5.41</v>
@@ -8790,7 +8790,7 @@
         <v>47</v>
       </c>
       <c r="J126" s="1">
-        <v>NaN</v>
+        <v>10.4</v>
       </c>
       <c r="K126" s="1">
         <v>8.66</v>
@@ -8849,7 +8849,7 @@
         <v>47</v>
       </c>
       <c r="J127" s="1">
-        <v>NaN</v>
+        <v>6.5</v>
       </c>
       <c r="K127" s="1">
         <v>5.41</v>
@@ -8908,7 +8908,7 @@
         <v>47</v>
       </c>
       <c r="J128" s="1">
-        <v>NaN</v>
+        <v>14.3</v>
       </c>
       <c r="K128" s="1">
         <v>11.91</v>
@@ -8967,7 +8967,7 @@
         <v>47</v>
       </c>
       <c r="J129" s="1">
-        <v>NaN</v>
+        <v>13</v>
       </c>
       <c r="K129" s="1">
         <v>10.82</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="378">
   <si>
     <t>id</t>
   </si>
@@ -993,6 +993,190 @@
   </si>
   <si>
     <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.</t>
+  </si>
+  <si>
+    <t>Catalan Paprika-Rubbed Cheese, 4.2-5.2 oz</t>
+  </si>
+  <si>
+    <t>4.2-5.2 oz</t>
+  </si>
+  <si>
+    <t>This delicious cheese is aged for 4 months and generously rubbed with paprika and extra-virgin olive oil, with a beautiful marbling of paprika throughout. Boasting a creamy texture and a slightly grassy, yet mild, buttery flavor. Its beautiful red rind adds an earthy, smoky crust, making it a delight for the senses. Enjoy this cheese with olives, almonds, tinned fish, or fresh or dried fruit. For the perfect pairing, savor it with an oaky chardonnay, a fruity pinot noir, or a dry cider.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Catalan, with her unique "spice," embodies a blend of sweetness, determination, and an undeniable love for food.</t>
+  </si>
+  <si>
+    <t>Catalan Paprika-Rubbed Cheese, 5.3-6.3 oz</t>
+  </si>
+  <si>
+    <t>5.3-6.3 oz</t>
+  </si>
+  <si>
+    <t>Catalan Paprika-Rubbed Cheese, 6.4-7.4 oz</t>
+  </si>
+  <si>
+    <t>6.4-7.4 oz</t>
+  </si>
+  <si>
+    <t>Gogo Gouda, 5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t>5.9 -6.9 oz</t>
+  </si>
+  <si>
+    <t>Gouda! A wonderfully versatile cheese. This young 4-month aged version has a sweet aroma and a smooth fudgy texture. It is buttery with a tangy nutty flavor. Perfect as a snacking cheese or melted onto your favorite sandwich. Pairs well with fruit jams, smoked meats, breads, Riesling, Chardonnay, or a crisp amber ale.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into your experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.Like this cheese, Gogo is young and springy! She always makes sure to come say hi out in the field and is often found nuzzling up on you in the most inopportune times. One of our loveliest and most friendly cows for sure!</t>
+  </si>
+  <si>
+    <t>Gogo Gouda, 7.0-8.0 oz</t>
+  </si>
+  <si>
+    <t>7.0-8.0 oz</t>
+  </si>
+  <si>
+    <t>Heidi of the Hills Cheese, 4.8-5.8 oz</t>
+  </si>
+  <si>
+    <t>4.8-5.8 oz</t>
+  </si>
+  <si>
+    <t>A clean buttery flavor is taken to complex depths with an earthy mushroom savoriness. Made in the style of European Alpine Cheeses, similar to Gruyere or Comte. Aged 12 months, with a salty bite, enjoy sliced or grated. This is an excellent choice to use with quiches, potatoes, ham, tarts or on top of any pasta. Pairs well with white wine, such as Riesling.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese</t>
+  </si>
+  <si>
+    <t>Heidi of the Hills Cheese, 5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t>5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t>Heidi of the Hills Cheese, 7.1-8.3 oz</t>
+  </si>
+  <si>
+    <t>7.1-8.3 oz</t>
+  </si>
+  <si>
+    <t>Heidi of the Mountains Cheese</t>
+  </si>
+  <si>
+    <t>Firm yet creamy and smooth. A clean buttery flavor is taken to complex depths with nutty caramel notes. You are greeted with little savory explosions from crystals that have formed over this cheese's 15-month aging. Made in the style of European Alpine Cheeses similar to Gruyere or Comte. An excellent choice to use with quiches, potatoes, ham, or tarts. Pairs well with white wine, such as Riesling.</t>
+  </si>
+  <si>
+    <t>Henni Penni Hispanico Special 18 month Reserve, 4.8-5.8 oz</t>
+  </si>
+  <si>
+    <t>This special 18-month aged, natural rind, hard cheese is sure to please! Similar to a well-aged Parmesan or Romano, it boasts a funky sharpness, balanced by flavors of caramel and nuts. This cheese is excellent grated on pasta, risotto, salad, or would be a welcome addition to any cheeseboard.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.Henni Penni was with us for 10 years! Mother to many, we loved her dearly. She was an all-star milker and was beautiful with a sturdy build and a dark amber coat. Her off-spring Hibiscus &amp; Hazelnut still provide beautifully for us on the farm.</t>
+  </si>
+  <si>
+    <t>Henni Penni Hispanico Special 18 Month Reserve, 5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henni Penni Hispanico Special 18 Month Reserve, 7-8 oz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8 oz </t>
+  </si>
+  <si>
+    <t>Live Culture Yogurt</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
+Purchase of raw dairy products requires you to agree to our product liability agreement .</t>
+  </si>
+  <si>
+    <t>Live Culture Yogurt in Special Jar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
+Purchase of raw dairy products requires you to agree to our product liability agreement .
+$3 jar return! These come in customized pint jars that you can decide to keep or return for $3 credit back to your account. Just slip a paper with your name in it upon return.</t>
+  </si>
+  <si>
+    <t>Lucianna Toma Rustica 5 -5.9oz</t>
+  </si>
+  <si>
+    <t>This 6-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
+  </si>
+  <si>
+    <t>Lucianna Toma Rustica 6 -7.4oz</t>
+  </si>
+  <si>
+    <t>Lucianna Toma Rustica Cheese 7.5-8.8 oz</t>
+  </si>
+  <si>
+    <t>This 4-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
+  </si>
+  <si>
+    <t>Ophelia Asiago - Special 12 month Aged</t>
+  </si>
+  <si>
+    <t>With a peppery bite, and a fruity grassy smokiness, this cheese has developed character over 12 months. Small pockets of crystals add little bursts of umami. Pleasantly crumbly, it is perfect for grating over many dishes such as salads, pastas, and soups, but also stands on its own on any cheese board.</t>
+  </si>
+  <si>
+    <t>Ophelia Asiago Cheese - Limited</t>
+  </si>
+  <si>
+    <t>LIMITED!! From the green pastures of the Willamette Valley of Oregon, comes this 8 month aged, naturally rinded, Asiago-style cheese. It is fruity, pleasantly sharp, and savory that is great on its own or accompanying some bread, pasta, or vegetables. Slice off a piece or grate it over your favorite meal!Ophelia has been with us from the early days! Like this is the first variety of our burgeoning aged cheese line, Ophelia is the mother of many of our dairy cows. A steadfast member of the herd, we can always rely on her matronly lead.Each of our cheeses is named after one of our beloved dairy cows. It’s an homage to where our milk comes from and an opportunity for you to get to know each of these wonderful ladies.</t>
+  </si>
+  <si>
+    <t>Raw A2/A2 Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2/A2 milk is a type of milk that is believed to be easier to digest than regular milk, making it a good choice for people who are lactose intolerant or have trouble digesting regular milk. A2/A2 milk is produced by cows that have been selectively bred to only produce the A2 protein. We have a 4 A2/A2 cows that are producing a limited quantity of this milk just for our FFCSA Herd Share members! The price includes a $3 bottle deposit that is credited to your account when returned.
+Purchase of raw dairy products requires you to agree to our product liability agreement.</t>
+  </si>
+  <si>
+    <t>Raw Cultured Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tangy and probiotic rich superfood, delicious on toast, melted on veggies or used in baked goods. 1/2 pound cakes, frozen.
+Purchase of raw dairy products requires you to agree to our product liability agreement  .</t>
+  </si>
+  <si>
+    <t>Raw Cultured Buttermilk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great way to get in extra probiotics, it is delicious, drink it straight from the jar or used in baking.
+Purchase of raw dairy products requires you to agree to our product liability agreement  . </t>
+  </si>
+  <si>
+    <t>Raw Farmer's Cheese</t>
+  </si>
+  <si>
+    <t>12 oz raw, handmade cheese!This soft, spreadable cheese is slightly crumbly with a fantastic smooth texture akin to chevre. It is slightly tangy but ultimately mild in flavor - great for burritos, sandwiches, bagels, or freshly baked bread!</t>
+  </si>
+  <si>
+    <t>Raw Fresh Sweet Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh cream contains a significant amount of Vitamin B2, which encourages good health in the body. So good in coffee, whipped into cream. Add it to iced beverages for a decadent treat.
+Purchase of raw dairy products requires you to agree to our product liability agreement   . </t>
+  </si>
+  <si>
+    <t>Raw Fresh Whole Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream on top. A complete, natural food containing more amino acids, antimicrobials, vitamins, minerals, and fatty acids than pasteurized milk.There is a $3 deposit included in the "value" of this item. Return the jar clean and dry to the following locations, with the plastic lid, and receive $3 back!1. Any Deck Family Farm farmers market booth2. Deck Family Farm "FFCSA jar return tote" with your name on a slip of paper inside3. Your designated drop site with your name on a slip of paper insidePurchase of raw dairy products requires you to agree to our product liability agreement . </t>
+  </si>
+  <si>
+    <t>Raw Sweet Cream Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deck Family Farm's butter is made from organic pasture raised Jersey cows. Have you ever wondered what the benefits of raw butter are? Fat from Raw (unpasteurized) butter:Contains Omega-3 fatty acidsIs absorbed immediately by the small intestines and liver where it is turned into energy.Full of immune boosting fat soluble vitamins only found in saturated animal fats, including A, B6, B12, K, &amp; DContains Lauric Acid (also found in breast milk and coconut milk) and a is great source of healthy cholesterol and antioxidants.
+Purchase of raw dairy products requires you to agree to our product liability agreement     . </t>
+  </si>
+  <si>
+    <t>Raw Whey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made with raw cows milk, and packed with protein, vitamins, minerals and enzymes, this raw "sweet" whey is made during the cheese making process when it separates from the curds. Because it is has never been heated, all the beneficial enzymes are still intact. There are a limitless number of ways to go about getting it in your diet, but here are a few ideas: ~Use it as a substitute for milk in baking~Use to kickstart lacto-fermented vegetables/pickles~Use for soaking grains and legumes to make it them more digestible (more on that here https://nourishedkitchen.com/soaking-grains/)~Add to smoothies or milkshakes~Use in meat marinades with your favorite herbs, the enzymes will help break down the proteins~Make a pie!
+Purchase of raw dairy products requires you to agree to our product liability agreement      . </t>
+  </si>
+  <si>
+    <t>Sour Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This thick, rich sour cream is perfect to dollop onto soups or into spicy burritos!
+Purchase of raw dairy products requires you to agree to our product liability agreement  . </t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S157"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -8997,6 +9181,1658 @@
         <v>23</v>
       </c>
     </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>136</v>
+      </c>
+      <c r="B130">
+        <v>911651</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>320</v>
+      </c>
+      <c r="E130" t="s">
+        <v>321</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>47</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>23</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>137</v>
+      </c>
+      <c r="B131">
+        <v>911647</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E131" t="s">
+        <v>324</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>47</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>28</v>
+      </c>
+      <c r="P131" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>23</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>911648</v>
+      </c>
+      <c r="C132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" t="s">
+        <v>325</v>
+      </c>
+      <c r="E132" t="s">
+        <v>326</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>47</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>28</v>
+      </c>
+      <c r="P132" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>23</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>139</v>
+      </c>
+      <c r="B133">
+        <v>957423</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" t="s">
+        <v>327</v>
+      </c>
+      <c r="E133" t="s">
+        <v>328</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>47</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>28</v>
+      </c>
+      <c r="P133" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>23</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>140</v>
+      </c>
+      <c r="B134">
+        <v>957424</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
+        <v>330</v>
+      </c>
+      <c r="E134" t="s">
+        <v>331</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>47</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>28</v>
+      </c>
+      <c r="P134" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>23</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>141</v>
+      </c>
+      <c r="B135">
+        <v>936388</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>332</v>
+      </c>
+      <c r="E135" t="s">
+        <v>333</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>47</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>28</v>
+      </c>
+      <c r="P135" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>23</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>142</v>
+      </c>
+      <c r="B136">
+        <v>936387</v>
+      </c>
+      <c r="C136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" t="s">
+        <v>335</v>
+      </c>
+      <c r="E136" t="s">
+        <v>336</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>47</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>28</v>
+      </c>
+      <c r="P136" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>23</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>143</v>
+      </c>
+      <c r="B137">
+        <v>824228</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>337</v>
+      </c>
+      <c r="E137" t="s">
+        <v>338</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>47</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>28</v>
+      </c>
+      <c r="P137" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>23</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>144</v>
+      </c>
+      <c r="B138">
+        <v>805463</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>339</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>47</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>28</v>
+      </c>
+      <c r="P138" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>23</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>146</v>
+      </c>
+      <c r="B139">
+        <v>866256</v>
+      </c>
+      <c r="C139" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" t="s">
+        <v>341</v>
+      </c>
+      <c r="E139" t="s">
+        <v>333</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>47</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>28</v>
+      </c>
+      <c r="P139" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>23</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>147</v>
+      </c>
+      <c r="B140">
+        <v>805464</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="s">
+        <v>343</v>
+      </c>
+      <c r="E140" t="s">
+        <v>336</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>47</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>28</v>
+      </c>
+      <c r="P140" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>23</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>145</v>
+      </c>
+      <c r="B141">
+        <v>842611</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" t="s">
+        <v>344</v>
+      </c>
+      <c r="E141" t="s">
+        <v>345</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>47</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>28</v>
+      </c>
+      <c r="P141" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>23</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>148</v>
+      </c>
+      <c r="B142">
+        <v>805465</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" t="s">
+        <v>346</v>
+      </c>
+      <c r="E142" t="s">
+        <v>347</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>47</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>0</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>28</v>
+      </c>
+      <c r="P142" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>23</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>149</v>
+      </c>
+      <c r="B143">
+        <v>881794</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" t="s">
+        <v>349</v>
+      </c>
+      <c r="E143" t="s">
+        <v>347</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>47</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>0</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>28</v>
+      </c>
+      <c r="P143" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>23</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>836358</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" t="s">
+        <v>351</v>
+      </c>
+      <c r="E144" t="s">
+        <v>347</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>47</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>28</v>
+      </c>
+      <c r="P144" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>23</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>151</v>
+      </c>
+      <c r="B145">
+        <v>867239</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>353</v>
+      </c>
+      <c r="E145" t="s">
+        <v>347</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>47</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>0</v>
+      </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>28</v>
+      </c>
+      <c r="P145" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>23</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>805466</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>354</v>
+      </c>
+      <c r="E146" t="s">
+        <v>347</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>47</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0</v>
+      </c>
+      <c r="L146" s="1">
+        <v>0</v>
+      </c>
+      <c r="M146" s="1">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>23</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>153</v>
+      </c>
+      <c r="B147">
+        <v>805468</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>356</v>
+      </c>
+      <c r="E147" t="s">
+        <v>347</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>47</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0</v>
+      </c>
+      <c r="M147" s="1">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>28</v>
+      </c>
+      <c r="P147" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>805469</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
+        <v>358</v>
+      </c>
+      <c r="E148" t="s">
+        <v>347</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>47</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>0</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>28</v>
+      </c>
+      <c r="P148" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>23</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>805461</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" t="s">
+        <v>360</v>
+      </c>
+      <c r="E149" t="s">
+        <v>347</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>47</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>0</v>
+      </c>
+      <c r="M149" s="1">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>28</v>
+      </c>
+      <c r="P149" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>23</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>156</v>
+      </c>
+      <c r="B150">
+        <v>805470</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" t="s">
+        <v>362</v>
+      </c>
+      <c r="E150" t="s">
+        <v>347</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>47</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L150" s="1">
+        <v>0</v>
+      </c>
+      <c r="M150" s="1">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>23</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>805471</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" t="s">
+        <v>364</v>
+      </c>
+      <c r="E151" t="s">
+        <v>347</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>47</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0</v>
+      </c>
+      <c r="L151" s="1">
+        <v>0</v>
+      </c>
+      <c r="M151" s="1">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>28</v>
+      </c>
+      <c r="P151" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>23</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>158</v>
+      </c>
+      <c r="B152">
+        <v>805472</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" t="s">
+        <v>366</v>
+      </c>
+      <c r="E152" t="s">
+        <v>347</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>47</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>0</v>
+      </c>
+      <c r="M152" s="1">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>28</v>
+      </c>
+      <c r="P152" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>23</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>805473</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" t="s">
+        <v>368</v>
+      </c>
+      <c r="E153" t="s">
+        <v>347</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>47</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0</v>
+      </c>
+      <c r="L153" s="1">
+        <v>0</v>
+      </c>
+      <c r="M153" s="1">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>28</v>
+      </c>
+      <c r="P153" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>23</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>805474</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>370</v>
+      </c>
+      <c r="E154" t="s">
+        <v>347</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>47</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>0</v>
+      </c>
+      <c r="M154" s="1">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>28</v>
+      </c>
+      <c r="P154" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>23</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>805475</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="s">
+        <v>372</v>
+      </c>
+      <c r="E155" t="s">
+        <v>347</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>47</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0</v>
+      </c>
+      <c r="L155" s="1">
+        <v>0</v>
+      </c>
+      <c r="M155" s="1">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>28</v>
+      </c>
+      <c r="P155" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>23</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>162</v>
+      </c>
+      <c r="B156">
+        <v>805476</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" t="s">
+        <v>374</v>
+      </c>
+      <c r="E156" t="s">
+        <v>347</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>47</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>0</v>
+      </c>
+      <c r="M156" s="1">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>28</v>
+      </c>
+      <c r="P156" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>23</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>163</v>
+      </c>
+      <c r="B157">
+        <v>805477</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" t="s">
+        <v>376</v>
+      </c>
+      <c r="E157" t="s">
+        <v>347</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>47</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L157" s="1">
+        <v>0</v>
+      </c>
+      <c r="M157" s="1">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>28</v>
+      </c>
+      <c r="P157" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>23</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="388">
   <si>
     <t>id</t>
   </si>
@@ -1073,17 +1073,17 @@
     <t xml:space="preserve">7-8 oz </t>
   </si>
   <si>
-    <t>Live Culture Yogurt</t>
-  </si>
-  <si>
-    <t>package</t>
+    <t>Live Culture Yogurt, 1 quart</t>
   </si>
   <si>
     <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
 Purchase of raw dairy products requires you to agree to our product liability agreement .</t>
   </si>
   <si>
-    <t>Live Culture Yogurt in Special Jar</t>
+    <t>Live Culture Yogurt, 8oz</t>
+  </si>
+  <si>
+    <t>Live Culture Yogurt, glass jar 1 pint</t>
   </si>
   <si>
     <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
@@ -1091,34 +1091,52 @@
 $3 jar return! These come in customized pint jars that you can decide to keep or return for $3 credit back to your account. Just slip a paper with your name in it upon return.</t>
   </si>
   <si>
-    <t>Lucianna Toma Rustica 5 -5.9oz</t>
+    <t>Lucianna Toma Rustica Cheese, 7.5-8.8 oz</t>
+  </si>
+  <si>
+    <t>7.5-8.8 oz</t>
+  </si>
+  <si>
+    <t>This 4-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
+  </si>
+  <si>
+    <t>Lucianna Toma Rustica, 5-5.9 oz</t>
+  </si>
+  <si>
+    <t>5-5.9 oz</t>
   </si>
   <si>
     <t>This 6-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
   </si>
   <si>
-    <t>Lucianna Toma Rustica 6 -7.4oz</t>
-  </si>
-  <si>
-    <t>Lucianna Toma Rustica Cheese 7.5-8.8 oz</t>
-  </si>
-  <si>
-    <t>This 4-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
-  </si>
-  <si>
-    <t>Ophelia Asiago - Special 12 month Aged</t>
+    <t>Lucianna Toma Rustica, 6-7.4 oz</t>
+  </si>
+  <si>
+    <t>6-7.4 oz</t>
+  </si>
+  <si>
+    <t>Ophelia Asiago - Special 12 month Aged, 5.8-6.8 oz</t>
+  </si>
+  <si>
+    <t>5.8-6.8 oz</t>
   </si>
   <si>
     <t>With a peppery bite, and a fruity grassy smokiness, this cheese has developed character over 12 months. Small pockets of crystals add little bursts of umami. Pleasantly crumbly, it is perfect for grating over many dishes such as salads, pastas, and soups, but also stands on its own on any cheese board.</t>
   </si>
   <si>
-    <t>Ophelia Asiago Cheese - Limited</t>
+    <t>Ophelia Asiago Cheese - Limited, 5.9-7.1 oz</t>
+  </si>
+  <si>
+    <t>5.9-7.1 oz</t>
   </si>
   <si>
     <t>LIMITED!! From the green pastures of the Willamette Valley of Oregon, comes this 8 month aged, naturally rinded, Asiago-style cheese. It is fruity, pleasantly sharp, and savory that is great on its own or accompanying some bread, pasta, or vegetables. Slice off a piece or grate it over your favorite meal!Ophelia has been with us from the early days! Like this is the first variety of our burgeoning aged cheese line, Ophelia is the mother of many of our dairy cows. A steadfast member of the herd, we can always rely on her matronly lead.Each of our cheeses is named after one of our beloved dairy cows. It’s an homage to where our milk comes from and an opportunity for you to get to know each of these wonderful ladies.</t>
   </si>
   <si>
     <t>Raw A2/A2 Milk</t>
+  </si>
+  <si>
+    <t>1/2 gallon</t>
   </si>
   <si>
     <t xml:space="preserve">A2/A2 milk is a type of milk that is believed to be easier to digest than regular milk, making it a good choice for people who are lactose intolerant or have trouble digesting regular milk. A2/A2 milk is produced by cows that have been selectively bred to only produce the A2 protein. We have a 4 A2/A2 cows that are producing a limited quantity of this milk just for our FFCSA Herd Share members! The price includes a $3 bottle deposit that is credited to your account when returned.
@@ -1128,6 +1146,9 @@
     <t>Raw Cultured Butter</t>
   </si>
   <si>
+    <t>0.5 lbs</t>
+  </si>
+  <si>
     <t xml:space="preserve">A tangy and probiotic rich superfood, delicious on toast, melted on veggies or used in baked goods. 1/2 pound cakes, frozen.
 Purchase of raw dairy products requires you to agree to our product liability agreement  .</t>
   </si>
@@ -1152,10 +1173,16 @@
 Purchase of raw dairy products requires you to agree to our product liability agreement   . </t>
   </si>
   <si>
-    <t>Raw Fresh Whole Milk</t>
+    <t>Raw Fresh Whole Milk, 1/2 gallon</t>
   </si>
   <si>
     <t xml:space="preserve">Cream on top. A complete, natural food containing more amino acids, antimicrobials, vitamins, minerals, and fatty acids than pasteurized milk.There is a $3 deposit included in the "value" of this item. Return the jar clean and dry to the following locations, with the plastic lid, and receive $3 back!1. Any Deck Family Farm farmers market booth2. Deck Family Farm "FFCSA jar return tote" with your name on a slip of paper inside3. Your designated drop site with your name on a slip of paper insidePurchase of raw dairy products requires you to agree to our product liability agreement . </t>
+  </si>
+  <si>
+    <t>Raw Fresh Whole Milk, 1/4 gallon</t>
+  </si>
+  <si>
+    <t>1/4 gallon</t>
   </si>
   <si>
     <t>Raw Sweet Cream Butter</t>
@@ -1173,6 +1200,9 @@
   </si>
   <si>
     <t>Sour Cream</t>
+  </si>
+  <si>
+    <t>package</t>
   </si>
   <si>
     <t xml:space="preserve">This thick, rich sour cream is perfect to dollop onto soups or into spicy burritos!
@@ -1558,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:S159"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -9198,7 +9228,7 @@
         <v>321</v>
       </c>
       <c r="F130" s="1">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="G130" s="2">
         <v>0</v>
@@ -9210,16 +9240,16 @@
         <v>47</v>
       </c>
       <c r="J130" s="1">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="K130" s="1">
-        <v>0</v>
+        <v>8.98</v>
       </c>
       <c r="L130" s="1">
-        <v>0</v>
+        <v>14.89</v>
       </c>
       <c r="M130" s="1">
-        <v>0</v>
+        <v>16.62</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -9257,7 +9287,7 @@
         <v>324</v>
       </c>
       <c r="F131" s="1">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -9269,16 +9299,16 @@
         <v>47</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>18.63</v>
       </c>
       <c r="M131" s="1">
-        <v>0</v>
+        <v>20.79</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -9316,7 +9346,7 @@
         <v>326</v>
       </c>
       <c r="F132" s="1">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -9328,16 +9358,16 @@
         <v>47</v>
       </c>
       <c r="J132" s="1">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="K132" s="1">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="L132" s="1">
-        <v>0</v>
+        <v>19.63</v>
       </c>
       <c r="M132" s="1">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -9375,7 +9405,7 @@
         <v>328</v>
       </c>
       <c r="F133" s="1">
-        <v>0</v>
+        <v>19.23</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -9387,16 +9417,16 @@
         <v>47</v>
       </c>
       <c r="J133" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="L133" s="1">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="M133" s="1">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -9434,7 +9464,7 @@
         <v>331</v>
       </c>
       <c r="F134" s="1">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -9446,16 +9476,16 @@
         <v>47</v>
       </c>
       <c r="J134" s="1">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="L134" s="1">
-        <v>0</v>
+        <v>19.63</v>
       </c>
       <c r="M134" s="1">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -9493,7 +9523,7 @@
         <v>333</v>
       </c>
       <c r="F135" s="1">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -9505,16 +9535,16 @@
         <v>47</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
+        <v>8.98</v>
       </c>
       <c r="L135" s="1">
-        <v>0</v>
+        <v>14.89</v>
       </c>
       <c r="M135" s="1">
-        <v>0</v>
+        <v>16.62</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -9552,7 +9582,7 @@
         <v>336</v>
       </c>
       <c r="F136" s="1">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -9564,16 +9594,16 @@
         <v>47</v>
       </c>
       <c r="J136" s="1">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K136" s="1">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="L136" s="1">
-        <v>0</v>
+        <v>18.63</v>
       </c>
       <c r="M136" s="1">
-        <v>0</v>
+        <v>20.79</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -9611,7 +9641,7 @@
         <v>338</v>
       </c>
       <c r="F137" s="1">
-        <v>0</v>
+        <v>21.89</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -9623,16 +9653,16 @@
         <v>47</v>
       </c>
       <c r="J137" s="1">
-        <v>0</v>
+        <v>14.23</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="L137" s="1">
-        <v>0</v>
+        <v>19.63</v>
       </c>
       <c r="M137" s="1">
-        <v>0</v>
+        <v>21.91</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -9670,7 +9700,7 @@
         <v>19</v>
       </c>
       <c r="F138" s="1">
-        <v>0</v>
+        <v>31.92</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -9682,16 +9712,16 @@
         <v>47</v>
       </c>
       <c r="J138" s="1">
-        <v>0</v>
+        <v>20.75</v>
       </c>
       <c r="K138" s="1">
-        <v>0</v>
+        <v>17.28</v>
       </c>
       <c r="L138" s="1">
-        <v>0</v>
+        <v>28.63</v>
       </c>
       <c r="M138" s="1">
-        <v>0</v>
+        <v>31.95</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -9729,7 +9759,7 @@
         <v>333</v>
       </c>
       <c r="F139" s="1">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -9741,16 +9771,16 @@
         <v>47</v>
       </c>
       <c r="J139" s="1">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>8.98</v>
       </c>
       <c r="L139" s="1">
-        <v>0</v>
+        <v>14.89</v>
       </c>
       <c r="M139" s="1">
-        <v>0</v>
+        <v>16.62</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -9788,7 +9818,7 @@
         <v>336</v>
       </c>
       <c r="F140" s="1">
-        <v>0</v>
+        <v>19.23</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -9800,16 +9830,16 @@
         <v>47</v>
       </c>
       <c r="J140" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="L140" s="1">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="M140" s="1">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -9847,7 +9877,7 @@
         <v>345</v>
       </c>
       <c r="F141" s="1">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -9859,16 +9889,16 @@
         <v>47</v>
       </c>
       <c r="J141" s="1">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="K141" s="1">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="L141" s="1">
-        <v>0</v>
+        <v>19.63</v>
       </c>
       <c r="M141" s="1">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -9903,10 +9933,10 @@
         <v>346</v>
       </c>
       <c r="E142" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="F142" s="1">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -9918,16 +9948,16 @@
         <v>47</v>
       </c>
       <c r="J142" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K142" s="1">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="L142" s="1">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="M142" s="1">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -9936,7 +9966,7 @@
         <v>28</v>
       </c>
       <c r="P142" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q142" t="s">
         <v>23</v>
@@ -9950,22 +9980,22 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B143">
-        <v>881794</v>
+        <v>999998</v>
       </c>
       <c r="C143" t="s">
         <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E143" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="F143" s="1">
-        <v>0</v>
+        <v>9.23</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -9977,16 +10007,16 @@
         <v>47</v>
       </c>
       <c r="J143" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K143" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L143" s="1">
-        <v>0</v>
+        <v>8.28</v>
       </c>
       <c r="M143" s="1">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -9995,7 +10025,7 @@
         <v>28</v>
       </c>
       <c r="P143" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q143" t="s">
         <v>23</v>
@@ -10009,22 +10039,22 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144">
-        <v>836358</v>
+        <v>881794</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E144" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="F144" s="1">
-        <v>0</v>
+        <v>13.85</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -10036,16 +10066,16 @@
         <v>47</v>
       </c>
       <c r="J144" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K144" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L144" s="1">
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="M144" s="1">
-        <v>0</v>
+        <v>13.86</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -10054,7 +10084,7 @@
         <v>28</v>
       </c>
       <c r="P144" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q144" t="s">
         <v>23</v>
@@ -10063,27 +10093,27 @@
         <v>0</v>
       </c>
       <c r="S144" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B145">
-        <v>867239</v>
+        <v>805466</v>
       </c>
       <c r="C145" t="s">
         <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E145" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F145" s="1">
-        <v>0</v>
+        <v>22.66</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -10095,16 +10125,16 @@
         <v>47</v>
       </c>
       <c r="J145" s="1">
-        <v>0</v>
+        <v>14.73</v>
       </c>
       <c r="K145" s="1">
-        <v>0</v>
+        <v>12.26</v>
       </c>
       <c r="L145" s="1">
-        <v>0</v>
+        <v>20.33</v>
       </c>
       <c r="M145" s="1">
-        <v>0</v>
+        <v>22.68</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -10113,7 +10143,7 @@
         <v>28</v>
       </c>
       <c r="P145" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q145" t="s">
         <v>23</v>
@@ -10127,10 +10157,10 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B146">
-        <v>805466</v>
+        <v>836358</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
@@ -10139,10 +10169,10 @@
         <v>354</v>
       </c>
       <c r="E146" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F146" s="1">
-        <v>0</v>
+        <v>19.23</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -10154,16 +10184,16 @@
         <v>47</v>
       </c>
       <c r="J146" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K146" s="1">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="L146" s="1">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="M146" s="1">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -10172,7 +10202,7 @@
         <v>28</v>
       </c>
       <c r="P146" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q146" t="s">
         <v>23</v>
@@ -10186,22 +10216,22 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B147">
-        <v>805468</v>
+        <v>867239</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E147" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="F147" s="1">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -10213,16 +10243,16 @@
         <v>47</v>
       </c>
       <c r="J147" s="1">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K147" s="1">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="L147" s="1">
-        <v>0</v>
+        <v>18.63</v>
       </c>
       <c r="M147" s="1">
-        <v>0</v>
+        <v>20.79</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -10231,7 +10261,7 @@
         <v>28</v>
       </c>
       <c r="P147" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q147" t="s">
         <v>23</v>
@@ -10245,22 +10275,22 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148">
-        <v>805469</v>
+        <v>805468</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E148" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F148" s="1">
-        <v>0</v>
+        <v>29.62</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -10272,16 +10302,16 @@
         <v>47</v>
       </c>
       <c r="J148" s="1">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="K148" s="1">
-        <v>0</v>
+        <v>16.03</v>
       </c>
       <c r="L148" s="1">
-        <v>0</v>
+        <v>26.57</v>
       </c>
       <c r="M148" s="1">
-        <v>0</v>
+        <v>29.65</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -10290,7 +10320,7 @@
         <v>28</v>
       </c>
       <c r="P148" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q148" t="s">
         <v>23</v>
@@ -10304,22 +10334,22 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149">
-        <v>805461</v>
+        <v>805469</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E149" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F149" s="1">
-        <v>0</v>
+        <v>32.69</v>
       </c>
       <c r="G149" s="2">
         <v>0</v>
@@ -10331,16 +10361,16 @@
         <v>47</v>
       </c>
       <c r="J149" s="1">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="K149" s="1">
-        <v>0</v>
+        <v>17.69</v>
       </c>
       <c r="L149" s="1">
-        <v>0</v>
+        <v>29.32</v>
       </c>
       <c r="M149" s="1">
-        <v>0</v>
+        <v>32.72</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -10349,7 +10379,7 @@
         <v>28</v>
       </c>
       <c r="P149" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q149" t="s">
         <v>23</v>
@@ -10358,27 +10388,27 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150">
-        <v>805470</v>
+        <v>805461</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E150" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F150" s="1">
-        <v>0</v>
+        <v>23.08</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -10390,16 +10420,16 @@
         <v>47</v>
       </c>
       <c r="J150" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K150" s="1">
-        <v>0</v>
+        <v>12.49</v>
       </c>
       <c r="L150" s="1">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="M150" s="1">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -10408,7 +10438,7 @@
         <v>28</v>
       </c>
       <c r="P150" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q150" t="s">
         <v>23</v>
@@ -10422,22 +10452,22 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151">
-        <v>805471</v>
+        <v>805470</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E151" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F151" s="1">
-        <v>0</v>
+        <v>21.54</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
@@ -10449,16 +10479,16 @@
         <v>47</v>
       </c>
       <c r="J151" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K151" s="1">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="L151" s="1">
-        <v>0</v>
+        <v>19.32</v>
       </c>
       <c r="M151" s="1">
-        <v>0</v>
+        <v>21.56</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -10467,7 +10497,7 @@
         <v>28</v>
       </c>
       <c r="P151" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q151" t="s">
         <v>23</v>
@@ -10481,22 +10511,22 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152">
-        <v>805472</v>
+        <v>805471</v>
       </c>
       <c r="C152" t="s">
         <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E152" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="F152" s="1">
-        <v>0</v>
+        <v>16.92</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -10508,16 +10538,16 @@
         <v>47</v>
       </c>
       <c r="J152" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K152" s="1">
-        <v>0</v>
+        <v>9.16</v>
       </c>
       <c r="L152" s="1">
-        <v>0</v>
+        <v>15.18</v>
       </c>
       <c r="M152" s="1">
-        <v>0</v>
+        <v>16.94</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -10526,7 +10556,7 @@
         <v>28</v>
       </c>
       <c r="P152" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q152" t="s">
         <v>23</v>
@@ -10540,22 +10570,22 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153">
-        <v>805473</v>
+        <v>805472</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E153" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="F153" s="1">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
@@ -10567,16 +10597,16 @@
         <v>47</v>
       </c>
       <c r="J153" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K153" s="1">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="L153" s="1">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="M153" s="1">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -10585,7 +10615,7 @@
         <v>28</v>
       </c>
       <c r="P153" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q153" t="s">
         <v>23</v>
@@ -10599,22 +10629,22 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154">
-        <v>805474</v>
+        <v>805473</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E154" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="F154" s="1">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="G154" s="2">
         <v>0</v>
@@ -10626,16 +10656,16 @@
         <v>47</v>
       </c>
       <c r="J154" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K154" s="1">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="L154" s="1">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="M154" s="1">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -10644,7 +10674,7 @@
         <v>28</v>
       </c>
       <c r="P154" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q154" t="s">
         <v>23</v>
@@ -10658,22 +10688,22 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155">
-        <v>805475</v>
+        <v>805474</v>
       </c>
       <c r="C155" t="s">
         <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E155" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F155" s="1">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -10685,16 +10715,16 @@
         <v>47</v>
       </c>
       <c r="J155" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K155" s="1">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="L155" s="1">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="M155" s="1">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -10703,7 +10733,7 @@
         <v>28</v>
       </c>
       <c r="P155" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q155" t="s">
         <v>23</v>
@@ -10717,22 +10747,22 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B156">
-        <v>805476</v>
+        <v>999999</v>
       </c>
       <c r="C156" t="s">
         <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E156" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="F156" s="1">
-        <v>0</v>
+        <v>9.23</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -10744,16 +10774,16 @@
         <v>47</v>
       </c>
       <c r="J156" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K156" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L156" s="1">
-        <v>0</v>
+        <v>8.28</v>
       </c>
       <c r="M156" s="1">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -10762,7 +10792,7 @@
         <v>28</v>
       </c>
       <c r="P156" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q156" t="s">
         <v>23</v>
@@ -10776,22 +10806,22 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B157">
-        <v>805477</v>
+        <v>805475</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E157" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F157" s="1">
-        <v>0</v>
+        <v>18.46</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -10803,16 +10833,16 @@
         <v>47</v>
       </c>
       <c r="J157" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K157" s="1">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="L157" s="1">
-        <v>0</v>
+        <v>16.56</v>
       </c>
       <c r="M157" s="1">
-        <v>0</v>
+        <v>18.48</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -10821,7 +10851,7 @@
         <v>28</v>
       </c>
       <c r="P157" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q157" t="s">
         <v>23</v>
@@ -10830,6 +10860,124 @@
         <v>0</v>
       </c>
       <c r="S157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>162</v>
+      </c>
+      <c r="B158">
+        <v>805476</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" t="s">
+        <v>383</v>
+      </c>
+      <c r="E158" t="s">
+        <v>58</v>
+      </c>
+      <c r="F158" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>47</v>
+      </c>
+      <c r="J158" s="1">
+        <v>7</v>
+      </c>
+      <c r="K158" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="L158" s="1">
+        <v>9.66</v>
+      </c>
+      <c r="M158" s="1">
+        <v>10.78</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>28</v>
+      </c>
+      <c r="P158" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>805477</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" t="s">
+        <v>385</v>
+      </c>
+      <c r="E159" t="s">
+        <v>386</v>
+      </c>
+      <c r="F159" s="1">
+        <v>18.46</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>47</v>
+      </c>
+      <c r="J159" s="1">
+        <v>12</v>
+      </c>
+      <c r="K159" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="L159" s="1">
+        <v>16.56</v>
+      </c>
+      <c r="M159" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>28</v>
+      </c>
+      <c r="P159" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>23</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="386">
   <si>
     <t>id</t>
   </si>
@@ -1050,12 +1050,6 @@
   </si>
   <si>
     <t>7.1-8.3 oz</t>
-  </si>
-  <si>
-    <t>Heidi of the Mountains Cheese</t>
-  </si>
-  <si>
-    <t>Firm yet creamy and smooth. A clean buttery flavor is taken to complex depths with nutty caramel notes. You are greeted with little savory explosions from crystals that have formed over this cheese's 15-month aging. Made in the style of European Alpine Cheeses similar to Gruyere or Comte. An excellent choice to use with quiches, potatoes, ham, or tarts. Pairs well with white wine, such as Riesling.</t>
   </si>
   <si>
     <t>Henni Penni Hispanico Special 18 month Reserve, 4.8-5.8 oz</t>
@@ -1588,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S159"/>
+  <dimension ref="A1:S158"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -7025,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -9685,10 +9679,10 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B138">
-        <v>805463</v>
+        <v>866256</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
@@ -9697,10 +9691,10 @@
         <v>339</v>
       </c>
       <c r="E138" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="F138" s="1">
-        <v>31.92</v>
+        <v>16.6</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -9712,16 +9706,16 @@
         <v>47</v>
       </c>
       <c r="J138" s="1">
-        <v>20.75</v>
+        <v>10.79</v>
       </c>
       <c r="K138" s="1">
-        <v>17.28</v>
+        <v>8.98</v>
       </c>
       <c r="L138" s="1">
-        <v>28.63</v>
+        <v>14.89</v>
       </c>
       <c r="M138" s="1">
-        <v>31.95</v>
+        <v>16.62</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -9744,10 +9738,10 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139">
-        <v>866256</v>
+        <v>805464</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
@@ -9756,10 +9750,10 @@
         <v>341</v>
       </c>
       <c r="E139" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F139" s="1">
-        <v>16.6</v>
+        <v>19.23</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -9771,16 +9765,16 @@
         <v>47</v>
       </c>
       <c r="J139" s="1">
-        <v>10.79</v>
+        <v>12.5</v>
       </c>
       <c r="K139" s="1">
-        <v>8.98</v>
+        <v>10.41</v>
       </c>
       <c r="L139" s="1">
-        <v>14.89</v>
+        <v>17.25</v>
       </c>
       <c r="M139" s="1">
-        <v>16.62</v>
+        <v>19.25</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -9789,7 +9783,7 @@
         <v>28</v>
       </c>
       <c r="P139" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q139" t="s">
         <v>23</v>
@@ -9803,22 +9797,22 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B140">
-        <v>805464</v>
+        <v>842611</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
       </c>
       <c r="D140" t="s">
+        <v>342</v>
+      </c>
+      <c r="E140" t="s">
         <v>343</v>
       </c>
-      <c r="E140" t="s">
-        <v>336</v>
-      </c>
       <c r="F140" s="1">
-        <v>19.23</v>
+        <v>21.88</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -9830,16 +9824,16 @@
         <v>47</v>
       </c>
       <c r="J140" s="1">
-        <v>12.5</v>
+        <v>14.22</v>
       </c>
       <c r="K140" s="1">
-        <v>10.41</v>
+        <v>11.84</v>
       </c>
       <c r="L140" s="1">
-        <v>17.25</v>
+        <v>19.63</v>
       </c>
       <c r="M140" s="1">
-        <v>19.25</v>
+        <v>21.9</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -9848,7 +9842,7 @@
         <v>28</v>
       </c>
       <c r="P140" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q140" t="s">
         <v>23</v>
@@ -9862,10 +9856,10 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B141">
-        <v>842611</v>
+        <v>805465</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
@@ -9874,10 +9868,10 @@
         <v>344</v>
       </c>
       <c r="E141" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="F141" s="1">
-        <v>21.88</v>
+        <v>15.38</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -9889,16 +9883,16 @@
         <v>47</v>
       </c>
       <c r="J141" s="1">
-        <v>14.22</v>
+        <v>10</v>
       </c>
       <c r="K141" s="1">
-        <v>11.84</v>
+        <v>8.32</v>
       </c>
       <c r="L141" s="1">
-        <v>19.63</v>
+        <v>13.8</v>
       </c>
       <c r="M141" s="1">
-        <v>21.9</v>
+        <v>15.4</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -9907,7 +9901,7 @@
         <v>28</v>
       </c>
       <c r="P141" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q141" t="s">
         <v>23</v>
@@ -9916,15 +9910,15 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B142">
-        <v>805465</v>
+        <v>999998</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
@@ -9933,10 +9927,10 @@
         <v>346</v>
       </c>
       <c r="E142" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="F142" s="1">
-        <v>15.38</v>
+        <v>9.23</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -9948,16 +9942,16 @@
         <v>47</v>
       </c>
       <c r="J142" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K142" s="1">
-        <v>8.32</v>
+        <v>5</v>
       </c>
       <c r="L142" s="1">
-        <v>13.8</v>
+        <v>8.28</v>
       </c>
       <c r="M142" s="1">
-        <v>15.4</v>
+        <v>9.24</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -9966,7 +9960,7 @@
         <v>28</v>
       </c>
       <c r="P142" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q142" t="s">
         <v>23</v>
@@ -9980,22 +9974,22 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B143">
-        <v>999998</v>
+        <v>881794</v>
       </c>
       <c r="C143" t="s">
         <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E143" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="F143" s="1">
-        <v>9.23</v>
+        <v>13.85</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -10007,16 +10001,16 @@
         <v>47</v>
       </c>
       <c r="J143" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K143" s="1">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="L143" s="1">
-        <v>8.28</v>
+        <v>12.42</v>
       </c>
       <c r="M143" s="1">
-        <v>9.24</v>
+        <v>13.86</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -10025,7 +10019,7 @@
         <v>28</v>
       </c>
       <c r="P143" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q143" t="s">
         <v>23</v>
@@ -10039,10 +10033,10 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B144">
-        <v>881794</v>
+        <v>805466</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
@@ -10051,10 +10045,10 @@
         <v>349</v>
       </c>
       <c r="E144" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="F144" s="1">
-        <v>13.85</v>
+        <v>22.66</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -10066,16 +10060,16 @@
         <v>47</v>
       </c>
       <c r="J144" s="1">
-        <v>9</v>
+        <v>14.73</v>
       </c>
       <c r="K144" s="1">
-        <v>7.5</v>
+        <v>12.26</v>
       </c>
       <c r="L144" s="1">
-        <v>12.42</v>
+        <v>20.33</v>
       </c>
       <c r="M144" s="1">
-        <v>13.86</v>
+        <v>22.68</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -10084,7 +10078,7 @@
         <v>28</v>
       </c>
       <c r="P144" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q144" t="s">
         <v>23</v>
@@ -10093,27 +10087,27 @@
         <v>0</v>
       </c>
       <c r="S144" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B145">
-        <v>805466</v>
+        <v>836358</v>
       </c>
       <c r="C145" t="s">
         <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E145" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F145" s="1">
-        <v>22.66</v>
+        <v>19.23</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -10125,16 +10119,16 @@
         <v>47</v>
       </c>
       <c r="J145" s="1">
-        <v>14.73</v>
+        <v>12.5</v>
       </c>
       <c r="K145" s="1">
-        <v>12.26</v>
+        <v>10.41</v>
       </c>
       <c r="L145" s="1">
-        <v>20.33</v>
+        <v>17.25</v>
       </c>
       <c r="M145" s="1">
-        <v>22.68</v>
+        <v>19.25</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -10143,7 +10137,7 @@
         <v>28</v>
       </c>
       <c r="P145" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q145" t="s">
         <v>23</v>
@@ -10157,22 +10151,22 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146">
-        <v>836358</v>
+        <v>867239</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E146" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F146" s="1">
-        <v>19.23</v>
+        <v>20.77</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -10184,16 +10178,16 @@
         <v>47</v>
       </c>
       <c r="J146" s="1">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="K146" s="1">
-        <v>10.41</v>
+        <v>11.24</v>
       </c>
       <c r="L146" s="1">
-        <v>17.25</v>
+        <v>18.63</v>
       </c>
       <c r="M146" s="1">
-        <v>19.25</v>
+        <v>20.79</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -10202,7 +10196,7 @@
         <v>28</v>
       </c>
       <c r="P146" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q146" t="s">
         <v>23</v>
@@ -10216,10 +10210,10 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B147">
-        <v>867239</v>
+        <v>805468</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
@@ -10231,7 +10225,7 @@
         <v>358</v>
       </c>
       <c r="F147" s="1">
-        <v>20.77</v>
+        <v>29.62</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -10243,16 +10237,16 @@
         <v>47</v>
       </c>
       <c r="J147" s="1">
-        <v>13.5</v>
+        <v>19.25</v>
       </c>
       <c r="K147" s="1">
-        <v>11.24</v>
+        <v>16.03</v>
       </c>
       <c r="L147" s="1">
-        <v>18.63</v>
+        <v>26.57</v>
       </c>
       <c r="M147" s="1">
-        <v>20.79</v>
+        <v>29.65</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -10261,7 +10255,7 @@
         <v>28</v>
       </c>
       <c r="P147" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q147" t="s">
         <v>23</v>
@@ -10275,22 +10269,22 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B148">
-        <v>805468</v>
+        <v>805469</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E148" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F148" s="1">
-        <v>29.62</v>
+        <v>32.69</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -10302,16 +10296,16 @@
         <v>47</v>
       </c>
       <c r="J148" s="1">
-        <v>19.25</v>
+        <v>21.25</v>
       </c>
       <c r="K148" s="1">
-        <v>16.03</v>
+        <v>17.69</v>
       </c>
       <c r="L148" s="1">
-        <v>26.57</v>
+        <v>29.32</v>
       </c>
       <c r="M148" s="1">
-        <v>29.65</v>
+        <v>32.72</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -10320,7 +10314,7 @@
         <v>28</v>
       </c>
       <c r="P148" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q148" t="s">
         <v>23</v>
@@ -10334,22 +10328,22 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B149">
-        <v>805469</v>
+        <v>805461</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E149" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F149" s="1">
-        <v>32.69</v>
+        <v>23.08</v>
       </c>
       <c r="G149" s="2">
         <v>0</v>
@@ -10361,16 +10355,16 @@
         <v>47</v>
       </c>
       <c r="J149" s="1">
-        <v>21.25</v>
+        <v>15</v>
       </c>
       <c r="K149" s="1">
-        <v>17.69</v>
+        <v>12.49</v>
       </c>
       <c r="L149" s="1">
-        <v>29.32</v>
+        <v>20.7</v>
       </c>
       <c r="M149" s="1">
-        <v>32.72</v>
+        <v>23.1</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -10379,7 +10373,7 @@
         <v>28</v>
       </c>
       <c r="P149" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q149" t="s">
         <v>23</v>
@@ -10388,27 +10382,27 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B150">
-        <v>805461</v>
+        <v>805470</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E150" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F150" s="1">
-        <v>23.08</v>
+        <v>21.54</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -10420,16 +10414,16 @@
         <v>47</v>
       </c>
       <c r="J150" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K150" s="1">
-        <v>12.49</v>
+        <v>11.66</v>
       </c>
       <c r="L150" s="1">
-        <v>20.7</v>
+        <v>19.32</v>
       </c>
       <c r="M150" s="1">
-        <v>23.1</v>
+        <v>21.56</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -10438,7 +10432,7 @@
         <v>28</v>
       </c>
       <c r="P150" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q150" t="s">
         <v>23</v>
@@ -10452,22 +10446,22 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B151">
-        <v>805470</v>
+        <v>805471</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E151" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="F151" s="1">
-        <v>21.54</v>
+        <v>16.92</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
@@ -10479,16 +10473,16 @@
         <v>47</v>
       </c>
       <c r="J151" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K151" s="1">
-        <v>11.66</v>
+        <v>9.16</v>
       </c>
       <c r="L151" s="1">
-        <v>19.32</v>
+        <v>15.18</v>
       </c>
       <c r="M151" s="1">
-        <v>21.56</v>
+        <v>16.94</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -10511,10 +10505,10 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B152">
-        <v>805471</v>
+        <v>805472</v>
       </c>
       <c r="C152" t="s">
         <v>19</v>
@@ -10523,10 +10517,10 @@
         <v>371</v>
       </c>
       <c r="E152" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="F152" s="1">
-        <v>16.92</v>
+        <v>15.38</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -10538,16 +10532,16 @@
         <v>47</v>
       </c>
       <c r="J152" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K152" s="1">
-        <v>9.16</v>
+        <v>8.32</v>
       </c>
       <c r="L152" s="1">
-        <v>15.18</v>
+        <v>13.8</v>
       </c>
       <c r="M152" s="1">
-        <v>16.94</v>
+        <v>15.4</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -10570,10 +10564,10 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B153">
-        <v>805472</v>
+        <v>805473</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
@@ -10582,7 +10576,7 @@
         <v>373</v>
       </c>
       <c r="E153" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="F153" s="1">
         <v>15.38</v>
@@ -10629,10 +10623,10 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B154">
-        <v>805473</v>
+        <v>805474</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
@@ -10641,7 +10635,7 @@
         <v>375</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>364</v>
       </c>
       <c r="F154" s="1">
         <v>15.38</v>
@@ -10688,10 +10682,10 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B155">
-        <v>805474</v>
+        <v>999999</v>
       </c>
       <c r="C155" t="s">
         <v>19</v>
@@ -10700,10 +10694,10 @@
         <v>377</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F155" s="1">
-        <v>15.38</v>
+        <v>9.23</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -10715,16 +10709,16 @@
         <v>47</v>
       </c>
       <c r="J155" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K155" s="1">
-        <v>8.32</v>
+        <v>5</v>
       </c>
       <c r="L155" s="1">
-        <v>13.8</v>
+        <v>8.28</v>
       </c>
       <c r="M155" s="1">
-        <v>15.4</v>
+        <v>9.24</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -10733,7 +10727,7 @@
         <v>28</v>
       </c>
       <c r="P155" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q155" t="s">
         <v>23</v>
@@ -10747,10 +10741,10 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B156">
-        <v>999999</v>
+        <v>805475</v>
       </c>
       <c r="C156" t="s">
         <v>19</v>
@@ -10759,10 +10753,10 @@
         <v>379</v>
       </c>
       <c r="E156" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F156" s="1">
-        <v>9.23</v>
+        <v>18.46</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -10774,16 +10768,16 @@
         <v>47</v>
       </c>
       <c r="J156" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K156" s="1">
-        <v>5</v>
+        <v>9.99</v>
       </c>
       <c r="L156" s="1">
-        <v>8.28</v>
+        <v>16.56</v>
       </c>
       <c r="M156" s="1">
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -10792,7 +10786,7 @@
         <v>28</v>
       </c>
       <c r="P156" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q156" t="s">
         <v>23</v>
@@ -10806,10 +10800,10 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B157">
-        <v>805475</v>
+        <v>805476</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
@@ -10818,10 +10812,10 @@
         <v>381</v>
       </c>
       <c r="E157" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="F157" s="1">
-        <v>18.46</v>
+        <v>10.77</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -10833,16 +10827,16 @@
         <v>47</v>
       </c>
       <c r="J157" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K157" s="1">
-        <v>9.99</v>
+        <v>5.83</v>
       </c>
       <c r="L157" s="1">
-        <v>16.56</v>
+        <v>9.66</v>
       </c>
       <c r="M157" s="1">
-        <v>18.48</v>
+        <v>10.78</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -10865,10 +10859,10 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B158">
-        <v>805476</v>
+        <v>805477</v>
       </c>
       <c r="C158" t="s">
         <v>19</v>
@@ -10877,10 +10871,10 @@
         <v>383</v>
       </c>
       <c r="E158" t="s">
-        <v>58</v>
+        <v>384</v>
       </c>
       <c r="F158" s="1">
-        <v>10.77</v>
+        <v>18.46</v>
       </c>
       <c r="G158" s="2">
         <v>0</v>
@@ -10892,16 +10886,16 @@
         <v>47</v>
       </c>
       <c r="J158" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K158" s="1">
-        <v>5.83</v>
+        <v>9.99</v>
       </c>
       <c r="L158" s="1">
-        <v>9.66</v>
+        <v>16.56</v>
       </c>
       <c r="M158" s="1">
-        <v>10.78</v>
+        <v>18.48</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -10910,7 +10904,7 @@
         <v>28</v>
       </c>
       <c r="P158" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q158" t="s">
         <v>23</v>
@@ -10919,65 +10913,6 @@
         <v>0</v>
       </c>
       <c r="S158" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>163</v>
-      </c>
-      <c r="B159">
-        <v>805477</v>
-      </c>
-      <c r="C159" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" t="s">
-        <v>385</v>
-      </c>
-      <c r="E159" t="s">
-        <v>386</v>
-      </c>
-      <c r="F159" s="1">
-        <v>18.46</v>
-      </c>
-      <c r="G159" s="2">
-        <v>0</v>
-      </c>
-      <c r="H159" s="2">
-        <v>0</v>
-      </c>
-      <c r="I159" t="s">
-        <v>47</v>
-      </c>
-      <c r="J159" s="1">
-        <v>12</v>
-      </c>
-      <c r="K159" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="L159" s="1">
-        <v>16.56</v>
-      </c>
-      <c r="M159" s="1">
-        <v>18.48</v>
-      </c>
-      <c r="N159">
-        <v>1</v>
-      </c>
-      <c r="O159" t="s">
-        <v>28</v>
-      </c>
-      <c r="P159" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>23</v>
-      </c>
-      <c r="R159">
-        <v>0</v>
-      </c>
-      <c r="S159" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2293,13 +2293,13 @@
         <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>23</v>
       </c>
       <c r="R13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S13" t="s">
         <v>23</v>
@@ -2709,7 +2709,7 @@
         <v>23</v>
       </c>
       <c r="R19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S19" t="s">
         <v>23</v>
@@ -2768,7 +2768,7 @@
         <v>23</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>
@@ -2883,13 +2883,13 @@
         <v>76</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>23</v>
       </c>
       <c r="R26">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
@@ -3178,13 +3178,13 @@
         <v>89</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>23</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="s">
         <v>23</v>
@@ -3535,7 +3535,7 @@
         <v>23</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S33" t="s">
         <v>23</v>
@@ -3650,13 +3650,13 @@
         <v>19</v>
       </c>
       <c r="Q35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="s">
         <v>23</v>
@@ -3768,13 +3768,13 @@
         <v>19</v>
       </c>
       <c r="Q37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3830,7 +3830,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -3886,13 +3886,13 @@
         <v>117</v>
       </c>
       <c r="Q39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4004,13 +4004,13 @@
         <v>121</v>
       </c>
       <c r="Q41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4181,13 +4181,13 @@
         <v>19</v>
       </c>
       <c r="Q44" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R44">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4302,7 +4302,7 @@
         <v>23</v>
       </c>
       <c r="R46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
@@ -4358,13 +4358,13 @@
         <v>135</v>
       </c>
       <c r="Q47" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4417,13 +4417,13 @@
         <v>135</v>
       </c>
       <c r="Q48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4476,13 +4476,13 @@
         <v>139</v>
       </c>
       <c r="Q49" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
         <v>23</v>
       </c>
       <c r="R50">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S50" t="s">
         <v>23</v>
@@ -5656,13 +5656,13 @@
         <v>190</v>
       </c>
       <c r="Q69" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
         <v>23</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S72" t="s">
         <v>23</v>
@@ -8370,13 +8370,13 @@
         <v>19</v>
       </c>
       <c r="Q115" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S115" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -9918,7 +9918,7 @@
         <v>164</v>
       </c>
       <c r="B142">
-        <v>999998</v>
+        <v>990715</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
@@ -10685,7 +10685,7 @@
         <v>165</v>
       </c>
       <c r="B155">
-        <v>999999</v>
+        <v>990712</v>
       </c>
       <c r="C155" t="s">
         <v>19</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -10697,7 +10697,7 @@
         <v>378</v>
       </c>
       <c r="F155" s="1">
-        <v>9.23</v>
+        <v>8.92</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -10709,16 +10709,16 @@
         <v>47</v>
       </c>
       <c r="J155" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K155" s="1">
-        <v>5</v>
+        <v>4.83</v>
       </c>
       <c r="L155" s="1">
-        <v>8.28</v>
+        <v>8</v>
       </c>
       <c r="M155" s="1">
-        <v>9.24</v>
+        <v>8.93</v>
       </c>
       <c r="N155">
         <v>1</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -88,6 +88,9 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1703,13 +1703,13 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1723,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1759,10 +1759,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1821,7 +1821,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1939,13 +1939,13 @@
         <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
         <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2293,13 +2293,13 @@
         <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>56</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>56</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>63</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>23</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S19" t="s">
         <v>23</v>
@@ -2768,7 +2768,7 @@
         <v>23</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>
@@ -2824,7 +2824,7 @@
         <v>73</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>76</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>81</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>84</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>23</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
@@ -3178,13 +3178,13 @@
         <v>89</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>92</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3296,13 +3296,13 @@
         <v>19</v>
       </c>
       <c r="Q29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3349,19 +3349,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s">
         <v>19</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>23</v>
       </c>
       <c r="R31">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S31" t="s">
         <v>23</v>
@@ -3473,13 +3473,13 @@
         <v>101</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3591,13 +3591,13 @@
         <v>106</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3650,13 +3650,13 @@
         <v>19</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S36" t="s">
         <v>23</v>
@@ -3768,13 +3768,13 @@
         <v>19</v>
       </c>
       <c r="Q37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3830,7 +3830,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -3886,13 +3886,13 @@
         <v>117</v>
       </c>
       <c r="Q39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -3909,7 +3909,7 @@
         <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -3945,13 +3945,13 @@
         <v>119</v>
       </c>
       <c r="Q40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4004,13 +4004,13 @@
         <v>121</v>
       </c>
       <c r="Q41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
         <v>126</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4181,13 +4181,13 @@
         <v>19</v>
       </c>
       <c r="Q44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>130</v>
       </c>
       <c r="Q45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>23</v>
       </c>
       <c r="R46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
@@ -4358,13 +4358,13 @@
         <v>135</v>
       </c>
       <c r="Q47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4417,13 +4417,13 @@
         <v>135</v>
       </c>
       <c r="Q48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4476,13 +4476,13 @@
         <v>139</v>
       </c>
       <c r="Q49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
         <v>23</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S50" t="s">
         <v>23</v>
@@ -4594,7 +4594,7 @@
         <v>145</v>
       </c>
       <c r="Q51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>148</v>
       </c>
       <c r="Q52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>151</v>
       </c>
       <c r="Q53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>153</v>
       </c>
       <c r="Q54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>156</v>
       </c>
       <c r="Q55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4883,19 +4883,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P56" t="s">
         <v>159</v>
       </c>
       <c r="Q56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>162</v>
       </c>
       <c r="Q57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>19</v>
       </c>
       <c r="Q58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5066,13 +5066,13 @@
         <v>167</v>
       </c>
       <c r="Q59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
         <v>167</v>
       </c>
       <c r="Q60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5184,7 +5184,7 @@
         <v>167</v>
       </c>
       <c r="Q61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5243,13 +5243,13 @@
         <v>167</v>
       </c>
       <c r="Q62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5296,19 +5296,19 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P63" t="s">
         <v>176</v>
       </c>
       <c r="Q63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5355,19 +5355,19 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P64" t="s">
         <v>176</v>
       </c>
       <c r="Q64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5420,13 +5420,13 @@
         <v>176</v>
       </c>
       <c r="Q65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5479,13 +5479,13 @@
         <v>183</v>
       </c>
       <c r="Q66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5538,13 +5538,13 @@
         <v>186</v>
       </c>
       <c r="Q67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -5561,7 +5561,7 @@
         <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5597,7 +5597,7 @@
         <v>188</v>
       </c>
       <c r="Q68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5656,13 +5656,13 @@
         <v>190</v>
       </c>
       <c r="Q69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -5715,7 +5715,7 @@
         <v>193</v>
       </c>
       <c r="Q70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5774,13 +5774,13 @@
         <v>193</v>
       </c>
       <c r="Q71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5892,13 +5892,13 @@
         <v>19</v>
       </c>
       <c r="Q73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>202</v>
       </c>
       <c r="Q74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6010,13 +6010,13 @@
         <v>204</v>
       </c>
       <c r="Q75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6069,13 +6069,13 @@
         <v>206</v>
       </c>
       <c r="Q76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
         <v>209</v>
       </c>
       <c r="Q77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>212</v>
       </c>
       <c r="Q78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6240,19 +6240,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P79" t="s">
         <v>19</v>
       </c>
       <c r="Q79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6305,13 +6305,13 @@
         <v>19</v>
       </c>
       <c r="Q80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -6364,13 +6364,13 @@
         <v>217</v>
       </c>
       <c r="Q81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6423,7 +6423,7 @@
         <v>220</v>
       </c>
       <c r="Q82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>222</v>
       </c>
       <c r="Q83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>225</v>
       </c>
       <c r="Q84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>227</v>
       </c>
       <c r="Q85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>229</v>
       </c>
       <c r="Q86" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>231</v>
       </c>
       <c r="Q87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6777,13 +6777,13 @@
         <v>233</v>
       </c>
       <c r="Q88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6830,19 +6830,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P89" t="s">
         <v>235</v>
       </c>
       <c r="Q89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6895,7 +6895,7 @@
         <v>238</v>
       </c>
       <c r="Q90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>240</v>
       </c>
       <c r="Q91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>243</v>
       </c>
       <c r="Q92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7072,7 +7072,7 @@
         <v>246</v>
       </c>
       <c r="Q93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7131,13 +7131,13 @@
         <v>248</v>
       </c>
       <c r="Q94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7190,7 +7190,7 @@
         <v>250</v>
       </c>
       <c r="Q95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>252</v>
       </c>
       <c r="Q96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         <v>255</v>
       </c>
       <c r="Q97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         <v>257</v>
       </c>
       <c r="Q98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>259</v>
       </c>
       <c r="Q99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         <v>261</v>
       </c>
       <c r="Q100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>263</v>
       </c>
       <c r="Q101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7603,13 +7603,13 @@
         <v>265</v>
       </c>
       <c r="Q102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7662,7 +7662,7 @@
         <v>267</v>
       </c>
       <c r="Q103" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>269</v>
       </c>
       <c r="Q104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>271</v>
       </c>
       <c r="Q105" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7839,7 +7839,7 @@
         <v>274</v>
       </c>
       <c r="Q106" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7898,7 +7898,7 @@
         <v>274</v>
       </c>
       <c r="Q107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -7957,13 +7957,13 @@
         <v>279</v>
       </c>
       <c r="Q108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R108">
         <v>0</v>
       </c>
       <c r="S108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>281</v>
       </c>
       <c r="Q109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>283</v>
       </c>
       <c r="Q110" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>285</v>
       </c>
       <c r="Q111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>287</v>
       </c>
       <c r="Q112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>289</v>
       </c>
       <c r="Q113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>291</v>
       </c>
       <c r="Q114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8370,13 +8370,13 @@
         <v>19</v>
       </c>
       <c r="Q115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R115">
         <v>0</v>
       </c>
       <c r="S115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -8429,7 +8429,7 @@
         <v>294</v>
       </c>
       <c r="Q116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -8488,13 +8488,13 @@
         <v>296</v>
       </c>
       <c r="Q117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R117">
         <v>0</v>
       </c>
       <c r="S117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -8547,7 +8547,7 @@
         <v>299</v>
       </c>
       <c r="Q118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -8606,7 +8606,7 @@
         <v>301</v>
       </c>
       <c r="Q119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>303</v>
       </c>
       <c r="Q120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8724,13 +8724,13 @@
         <v>287</v>
       </c>
       <c r="Q121" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R121">
         <v>0</v>
       </c>
       <c r="S121" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -8783,7 +8783,7 @@
         <v>308</v>
       </c>
       <c r="Q122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R122">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>308</v>
       </c>
       <c r="Q123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8901,13 +8901,13 @@
         <v>311</v>
       </c>
       <c r="Q124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R124">
         <v>0</v>
       </c>
       <c r="S124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -8960,13 +8960,13 @@
         <v>311</v>
       </c>
       <c r="Q125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9019,7 +9019,7 @@
         <v>314</v>
       </c>
       <c r="Q126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R126">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>19</v>
       </c>
       <c r="Q127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9137,13 +9137,13 @@
         <v>317</v>
       </c>
       <c r="Q128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R128">
         <v>0</v>
       </c>
       <c r="S128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -9196,7 +9196,7 @@
         <v>319</v>
       </c>
       <c r="Q129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R129">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P130" t="s">
         <v>322</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -9308,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P131" t="s">
         <v>322</v>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9367,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P132" t="s">
         <v>322</v>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P133" t="s">
         <v>329</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P134" t="s">
         <v>329</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P135" t="s">
         <v>334</v>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P136" t="s">
         <v>334</v>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9662,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P137" t="s">
         <v>334</v>
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9721,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P138" t="s">
         <v>340</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P139" t="s">
         <v>340</v>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P140" t="s">
         <v>340</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9898,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P141" t="s">
         <v>345</v>
@@ -9957,7 +9957,7 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P142" t="s">
         <v>345</v>
@@ -10016,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P143" t="s">
         <v>348</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P144" t="s">
         <v>351</v>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -10134,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P145" t="s">
         <v>354</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P146" t="s">
         <v>354</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P147" t="s">
         <v>359</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P148" t="s">
         <v>362</v>
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P149" t="s">
         <v>365</v>
@@ -10429,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P150" t="s">
         <v>368</v>
@@ -10488,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P151" t="s">
         <v>370</v>
@@ -10547,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P152" t="s">
         <v>372</v>
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P153" t="s">
         <v>374</v>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P154" t="s">
         <v>376</v>
@@ -10724,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P155" t="s">
         <v>376</v>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P156" t="s">
         <v>380</v>
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P157" t="s">
         <v>382</v>
@@ -10901,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P158" t="s">
         <v>385</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Pricelist" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Variables" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="392">
   <si>
     <t>id</t>
   </si>
@@ -1201,6 +1202,24 @@
   <si>
     <t xml:space="preserve">This thick, rich sour cream is perfect to dollop onto soups or into spicy burritos!
 Purchase of raw dairy products requires you to agree to our product liability agreement  . </t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
+  </si>
+  <si>
+    <t>WHOLESALE_DISCOUNT</t>
+  </si>
+  <si>
+    <t>MEMBER_MARKUP</t>
+  </si>
+  <si>
+    <t>GUEST_MARKUP</t>
   </si>
 </sst>
 </file>
@@ -10920,4 +10939,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.5412</v>
+      </c>
+      <c r="B2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.6574</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.8496</v>
+      </c>
+      <c r="B5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1710,7 +1710,7 @@
         <v>19.37</v>
       </c>
       <c r="M2" s="1">
-        <v>21.62</v>
+        <v>22.21</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>15.25</v>
       </c>
       <c r="M3" s="1">
-        <v>17.02</v>
+        <v>17.48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>10.76</v>
       </c>
       <c r="M4" s="1">
-        <v>12.01</v>
+        <v>12.34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>8.97</v>
       </c>
       <c r="M5" s="1">
-        <v>10.01</v>
+        <v>10.28</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>20.59</v>
       </c>
       <c r="M6" s="1">
-        <v>22.97</v>
+        <v>23.6</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>23.61</v>
       </c>
       <c r="M7" s="1">
-        <v>26.35</v>
+        <v>27.07</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>41.93</v>
       </c>
       <c r="M8" s="1">
-        <v>46.8</v>
+        <v>48.07</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>55.1</v>
       </c>
       <c r="M9" s="1">
-        <v>61.49</v>
+        <v>63.16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>41.89</v>
       </c>
       <c r="M10" s="1">
-        <v>46.75</v>
+        <v>48.02</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>32.52</v>
       </c>
       <c r="M12" s="1">
-        <v>36.29</v>
+        <v>37.28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>13.66</v>
       </c>
       <c r="M13" s="1">
-        <v>15.24</v>
+        <v>15.66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2418,7 +2418,7 @@
         <v>23.32</v>
       </c>
       <c r="M14" s="1">
-        <v>26.03</v>
+        <v>26.74</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2477,7 +2477,7 @@
         <v>42.61</v>
       </c>
       <c r="M15" s="1">
-        <v>47.55</v>
+        <v>48.84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>15.25</v>
       </c>
       <c r="M16" s="1">
-        <v>17.02</v>
+        <v>17.48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>22.42</v>
       </c>
       <c r="M17" s="1">
-        <v>25.03</v>
+        <v>25.71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>12.56</v>
       </c>
       <c r="M18" s="1">
-        <v>14.01</v>
+        <v>14.4</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         <v>29.15</v>
       </c>
       <c r="M19" s="1">
-        <v>32.53</v>
+        <v>33.42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>48.8</v>
       </c>
       <c r="M20" s="1">
-        <v>54.45</v>
+        <v>55.94</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2831,7 +2831,7 @@
         <v>9.87</v>
       </c>
       <c r="M21" s="1">
-        <v>11.01</v>
+        <v>11.31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2890,7 +2890,7 @@
         <v>20.99</v>
       </c>
       <c r="M22" s="1">
-        <v>23.42</v>
+        <v>24.06</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>25.56</v>
       </c>
       <c r="M23" s="1">
-        <v>28.53</v>
+        <v>29.31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>20.99</v>
       </c>
       <c r="M24" s="1">
-        <v>23.42</v>
+        <v>24.06</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>25.65</v>
       </c>
       <c r="M25" s="1">
-        <v>28.63</v>
+        <v>29.41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3126,7 +3126,7 @@
         <v>13.45</v>
       </c>
       <c r="M26" s="1">
-        <v>15.02</v>
+        <v>15.42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3185,7 +3185,7 @@
         <v>19.24</v>
       </c>
       <c r="M27" s="1">
-        <v>21.47</v>
+        <v>22.06</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3244,7 +3244,7 @@
         <v>39.36</v>
       </c>
       <c r="M28" s="1">
-        <v>43.92</v>
+        <v>45.12</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>29.74</v>
       </c>
       <c r="M29" s="1">
-        <v>33.18</v>
+        <v>34.09</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3421,7 +3421,7 @@
         <v>16.59</v>
       </c>
       <c r="M31" s="1">
-        <v>18.52</v>
+        <v>19.02</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>21.21</v>
       </c>
       <c r="M32" s="1">
-        <v>23.67</v>
+        <v>24.32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>23.43</v>
       </c>
       <c r="M33" s="1">
-        <v>26.15</v>
+        <v>26.86</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3598,7 +3598,7 @@
         <v>38.62</v>
       </c>
       <c r="M34" s="1">
-        <v>43.09</v>
+        <v>44.27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>64.58</v>
       </c>
       <c r="M35" s="1">
-        <v>72.07</v>
+        <v>74.04</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3716,7 +3716,7 @@
         <v>53.29</v>
       </c>
       <c r="M36" s="1">
-        <v>59.47</v>
+        <v>61.1</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3775,7 +3775,7 @@
         <v>42.71</v>
       </c>
       <c r="M37" s="1">
-        <v>47.66</v>
+        <v>48.96</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -3834,7 +3834,7 @@
         <v>37.31</v>
       </c>
       <c r="M38" s="1">
-        <v>41.64</v>
+        <v>42.78</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>29.15</v>
       </c>
       <c r="M39" s="1">
-        <v>32.53</v>
+        <v>33.42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3952,7 +3952,7 @@
         <v>13.9</v>
       </c>
       <c r="M40" s="1">
-        <v>15.52</v>
+        <v>15.94</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>12.83</v>
       </c>
       <c r="M41" s="1">
-        <v>14.31</v>
+        <v>14.7</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4070,7 +4070,7 @@
         <v>22.74</v>
       </c>
       <c r="M42" s="1">
-        <v>25.38</v>
+        <v>26.07</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>10.76</v>
       </c>
       <c r="M43" s="1">
-        <v>12.01</v>
+        <v>12.34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>23.23</v>
       </c>
       <c r="M44" s="1">
-        <v>25.93</v>
+        <v>26.63</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>10.76</v>
       </c>
       <c r="M45" s="1">
-        <v>12.01</v>
+        <v>12.34</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>34.51</v>
       </c>
       <c r="M46" s="1">
-        <v>38.51</v>
+        <v>39.56</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         <v>23.32</v>
       </c>
       <c r="M47" s="1">
-        <v>26.03</v>
+        <v>26.74</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -4424,7 +4424,7 @@
         <v>13.88</v>
       </c>
       <c r="M48" s="1">
-        <v>15.49</v>
+        <v>15.91</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -4483,7 +4483,7 @@
         <v>12.83</v>
       </c>
       <c r="M49" s="1">
-        <v>14.31</v>
+        <v>14.7</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>32.52</v>
       </c>
       <c r="M50" s="1">
-        <v>36.29</v>
+        <v>37.28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>12.78</v>
       </c>
       <c r="M51" s="1">
-        <v>14.26</v>
+        <v>14.65</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>8.52</v>
       </c>
       <c r="M52" s="1">
-        <v>9.51</v>
+        <v>9.77</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>8.52</v>
       </c>
       <c r="M53" s="1">
-        <v>9.51</v>
+        <v>9.77</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>10.76</v>
       </c>
       <c r="M54" s="1">
-        <v>12.01</v>
+        <v>12.34</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>24.22</v>
       </c>
       <c r="M55" s="1">
-        <v>27.03</v>
+        <v>27.76</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -4896,7 +4896,7 @@
         <v>104.54</v>
       </c>
       <c r="M56" s="1">
-        <v>116.67</v>
+        <v>119.85</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -4955,7 +4955,7 @@
         <v>17.38</v>
       </c>
       <c r="M57" s="1">
-        <v>19.39</v>
+        <v>19.92</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>18.84</v>
       </c>
       <c r="M58" s="1">
-        <v>21.02</v>
+        <v>21.59</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -5073,7 +5073,7 @@
         <v>44.4</v>
       </c>
       <c r="M59" s="1">
-        <v>49.55</v>
+        <v>50.9</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>39.2</v>
       </c>
       <c r="M60" s="1">
-        <v>43.74</v>
+        <v>44.94</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>33.19</v>
       </c>
       <c r="M61" s="1">
-        <v>37.04</v>
+        <v>38.05</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>26.8</v>
       </c>
       <c r="M62" s="1">
-        <v>29.9</v>
+        <v>30.72</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -5309,7 +5309,7 @@
         <v>58.12</v>
       </c>
       <c r="M63" s="1">
-        <v>64.87</v>
+        <v>66.63</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -5368,7 +5368,7 @@
         <v>48.98</v>
       </c>
       <c r="M64" s="1">
-        <v>54.65</v>
+        <v>56.14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -5427,7 +5427,7 @@
         <v>37.67</v>
       </c>
       <c r="M65" s="1">
-        <v>42.04</v>
+        <v>43.19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -5486,7 +5486,7 @@
         <v>16.59</v>
       </c>
       <c r="M66" s="1">
-        <v>18.52</v>
+        <v>19.02</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -5545,7 +5545,7 @@
         <v>10.76</v>
       </c>
       <c r="M67" s="1">
-        <v>12.01</v>
+        <v>12.34</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>17.94</v>
       </c>
       <c r="M68" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -5663,7 +5663,7 @@
         <v>8.97</v>
       </c>
       <c r="M69" s="1">
-        <v>10.01</v>
+        <v>10.28</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -5722,7 +5722,7 @@
         <v>19.37</v>
       </c>
       <c r="M70" s="1">
-        <v>21.62</v>
+        <v>22.21</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>37.67</v>
       </c>
       <c r="M71" s="1">
-        <v>42.04</v>
+        <v>43.19</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>8.1</v>
       </c>
       <c r="M72" s="1">
-        <v>9.03</v>
+        <v>9.28</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -5899,7 +5899,7 @@
         <v>23.62</v>
       </c>
       <c r="M73" s="1">
-        <v>26.36</v>
+        <v>27.08</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -5958,7 +5958,7 @@
         <v>18.07</v>
       </c>
       <c r="M74" s="1">
-        <v>20.17</v>
+        <v>20.72</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>27.38</v>
       </c>
       <c r="M75" s="1">
-        <v>30.56</v>
+        <v>31.39</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -6076,7 +6076,7 @@
         <v>21.3</v>
       </c>
       <c r="M76" s="1">
-        <v>23.77</v>
+        <v>24.42</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -6135,7 +6135,7 @@
         <v>38.35</v>
       </c>
       <c r="M77" s="1">
-        <v>42.79</v>
+        <v>43.96</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>44.85</v>
       </c>
       <c r="M78" s="1">
-        <v>50.05</v>
+        <v>51.41</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -6312,7 +6312,7 @@
         <v>19.29</v>
       </c>
       <c r="M80" s="1">
-        <v>21.52</v>
+        <v>22.11</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -6371,7 +6371,7 @@
         <v>54</v>
       </c>
       <c r="M81" s="1">
-        <v>60.26</v>
+        <v>61.9</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -6430,7 +6430,7 @@
         <v>13.01</v>
       </c>
       <c r="M82" s="1">
-        <v>14.51</v>
+        <v>14.91</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>15.7</v>
       </c>
       <c r="M83" s="1">
-        <v>17.52</v>
+        <v>17.99</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -6548,7 +6548,7 @@
         <v>17.49</v>
       </c>
       <c r="M84" s="1">
-        <v>19.52</v>
+        <v>20.05</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -6607,7 +6607,7 @@
         <v>13.9</v>
       </c>
       <c r="M85" s="1">
-        <v>15.52</v>
+        <v>15.94</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -6666,7 +6666,7 @@
         <v>17.49</v>
       </c>
       <c r="M86" s="1">
-        <v>19.52</v>
+        <v>20.05</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>17.49</v>
       </c>
       <c r="M87" s="1">
-        <v>19.52</v>
+        <v>20.05</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>19.29</v>
       </c>
       <c r="M88" s="1">
-        <v>21.52</v>
+        <v>22.11</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -6843,7 +6843,7 @@
         <v>19.29</v>
       </c>
       <c r="M89" s="1">
-        <v>21.52</v>
+        <v>22.11</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -6902,7 +6902,7 @@
         <v>14.8</v>
       </c>
       <c r="M90" s="1">
-        <v>16.52</v>
+        <v>16.97</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -6961,7 +6961,7 @@
         <v>17.94</v>
       </c>
       <c r="M91" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>19.29</v>
       </c>
       <c r="M92" s="1">
-        <v>21.52</v>
+        <v>22.11</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -7079,7 +7079,7 @@
         <v>16.15</v>
       </c>
       <c r="M93" s="1">
-        <v>18.02</v>
+        <v>18.51</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -7138,7 +7138,7 @@
         <v>16.15</v>
       </c>
       <c r="M94" s="1">
-        <v>18.02</v>
+        <v>18.51</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -7197,7 +7197,7 @@
         <v>17.94</v>
       </c>
       <c r="M95" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -7256,7 +7256,7 @@
         <v>16.15</v>
       </c>
       <c r="M96" s="1">
-        <v>18.02</v>
+        <v>18.51</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>17.94</v>
       </c>
       <c r="M97" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -7374,7 +7374,7 @@
         <v>8.07</v>
       </c>
       <c r="M98" s="1">
-        <v>9.01</v>
+        <v>9.25</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>17.49</v>
       </c>
       <c r="M99" s="1">
-        <v>19.52</v>
+        <v>20.05</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>17.94</v>
       </c>
       <c r="M100" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -7551,7 +7551,7 @@
         <v>14.8</v>
       </c>
       <c r="M101" s="1">
-        <v>16.52</v>
+        <v>16.97</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -7610,7 +7610,7 @@
         <v>9.87</v>
       </c>
       <c r="M102" s="1">
-        <v>11.01</v>
+        <v>11.31</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -7669,7 +7669,7 @@
         <v>15.25</v>
       </c>
       <c r="M103" s="1">
-        <v>17.02</v>
+        <v>17.48</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -7728,7 +7728,7 @@
         <v>17.49</v>
       </c>
       <c r="M104" s="1">
-        <v>19.52</v>
+        <v>20.05</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -7787,7 +7787,7 @@
         <v>16.15</v>
       </c>
       <c r="M105" s="1">
-        <v>18.02</v>
+        <v>18.51</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>10.76</v>
       </c>
       <c r="M106" s="1">
-        <v>12.01</v>
+        <v>12.34</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -7905,7 +7905,7 @@
         <v>6.28</v>
       </c>
       <c r="M107" s="1">
-        <v>7.01</v>
+        <v>7.2</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -7964,7 +7964,7 @@
         <v>17.94</v>
       </c>
       <c r="M108" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>14.8</v>
       </c>
       <c r="M109" s="1">
-        <v>16.52</v>
+        <v>16.97</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -8082,7 +8082,7 @@
         <v>14.8</v>
       </c>
       <c r="M110" s="1">
-        <v>16.52</v>
+        <v>16.97</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -8141,7 +8141,7 @@
         <v>14.8</v>
       </c>
       <c r="M111" s="1">
-        <v>16.52</v>
+        <v>16.97</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -8200,7 +8200,7 @@
         <v>15.25</v>
       </c>
       <c r="M112" s="1">
-        <v>17.02</v>
+        <v>17.48</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -8259,7 +8259,7 @@
         <v>14.8</v>
       </c>
       <c r="M113" s="1">
-        <v>16.52</v>
+        <v>16.97</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -8318,7 +8318,7 @@
         <v>17.94</v>
       </c>
       <c r="M114" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>17.94</v>
       </c>
       <c r="M115" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -8436,7 +8436,7 @@
         <v>17.94</v>
       </c>
       <c r="M116" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -8495,7 +8495,7 @@
         <v>17.94</v>
       </c>
       <c r="M117" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -8554,7 +8554,7 @@
         <v>13.45</v>
       </c>
       <c r="M118" s="1">
-        <v>15.02</v>
+        <v>15.42</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         <v>17.94</v>
       </c>
       <c r="M119" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>17.94</v>
       </c>
       <c r="M120" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -8731,7 +8731,7 @@
         <v>21.53</v>
       </c>
       <c r="M121" s="1">
-        <v>24.02</v>
+        <v>24.68</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -8790,7 +8790,7 @@
         <v>17.94</v>
       </c>
       <c r="M122" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -8849,7 +8849,7 @@
         <v>8.97</v>
       </c>
       <c r="M123" s="1">
-        <v>10.01</v>
+        <v>10.28</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>13.45</v>
       </c>
       <c r="M124" s="1">
-        <v>15.02</v>
+        <v>15.42</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -8967,7 +8967,7 @@
         <v>8.97</v>
       </c>
       <c r="M125" s="1">
-        <v>10.01</v>
+        <v>10.28</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -9026,7 +9026,7 @@
         <v>14.35</v>
       </c>
       <c r="M126" s="1">
-        <v>16.02</v>
+        <v>16.45</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -9085,7 +9085,7 @@
         <v>8.97</v>
       </c>
       <c r="M127" s="1">
-        <v>10.01</v>
+        <v>10.28</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -9144,7 +9144,7 @@
         <v>19.73</v>
       </c>
       <c r="M128" s="1">
-        <v>22.02</v>
+        <v>22.62</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>17.94</v>
       </c>
       <c r="M129" s="1">
-        <v>20.02</v>
+        <v>20.57</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -9262,7 +9262,7 @@
         <v>14.89</v>
       </c>
       <c r="M130" s="1">
-        <v>16.62</v>
+        <v>17.07</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -9321,7 +9321,7 @@
         <v>18.63</v>
       </c>
       <c r="M131" s="1">
-        <v>20.79</v>
+        <v>21.36</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>19.63</v>
       </c>
       <c r="M132" s="1">
-        <v>21.9</v>
+        <v>22.5</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -9439,7 +9439,7 @@
         <v>17.25</v>
       </c>
       <c r="M133" s="1">
-        <v>19.25</v>
+        <v>19.77</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -9498,7 +9498,7 @@
         <v>19.63</v>
       </c>
       <c r="M134" s="1">
-        <v>21.9</v>
+        <v>22.5</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -9557,7 +9557,7 @@
         <v>14.89</v>
       </c>
       <c r="M135" s="1">
-        <v>16.62</v>
+        <v>17.07</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -9616,7 +9616,7 @@
         <v>18.63</v>
       </c>
       <c r="M136" s="1">
-        <v>20.79</v>
+        <v>21.36</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -9675,7 +9675,7 @@
         <v>19.63</v>
       </c>
       <c r="M137" s="1">
-        <v>21.91</v>
+        <v>22.51</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -9734,7 +9734,7 @@
         <v>14.89</v>
       </c>
       <c r="M138" s="1">
-        <v>16.62</v>
+        <v>17.07</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -9793,7 +9793,7 @@
         <v>17.25</v>
       </c>
       <c r="M139" s="1">
-        <v>19.25</v>
+        <v>19.77</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -9852,7 +9852,7 @@
         <v>19.63</v>
       </c>
       <c r="M140" s="1">
-        <v>21.9</v>
+        <v>22.5</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -9911,7 +9911,7 @@
         <v>13.8</v>
       </c>
       <c r="M141" s="1">
-        <v>15.4</v>
+        <v>15.81</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -9970,7 +9970,7 @@
         <v>8.28</v>
       </c>
       <c r="M142" s="1">
-        <v>9.24</v>
+        <v>9.49</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -10029,7 +10029,7 @@
         <v>12.42</v>
       </c>
       <c r="M143" s="1">
-        <v>13.86</v>
+        <v>14.24</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -10088,7 +10088,7 @@
         <v>20.33</v>
       </c>
       <c r="M144" s="1">
-        <v>22.68</v>
+        <v>23.3</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -10147,7 +10147,7 @@
         <v>17.25</v>
       </c>
       <c r="M145" s="1">
-        <v>19.25</v>
+        <v>19.77</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -10206,7 +10206,7 @@
         <v>18.63</v>
       </c>
       <c r="M146" s="1">
-        <v>20.79</v>
+        <v>21.36</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -10265,7 +10265,7 @@
         <v>26.57</v>
       </c>
       <c r="M147" s="1">
-        <v>29.65</v>
+        <v>30.46</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -10324,7 +10324,7 @@
         <v>29.32</v>
       </c>
       <c r="M148" s="1">
-        <v>32.72</v>
+        <v>33.61</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -10383,7 +10383,7 @@
         <v>20.7</v>
       </c>
       <c r="M149" s="1">
-        <v>23.1</v>
+        <v>23.73</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -10442,7 +10442,7 @@
         <v>19.32</v>
       </c>
       <c r="M150" s="1">
-        <v>21.56</v>
+        <v>22.15</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -10501,7 +10501,7 @@
         <v>15.18</v>
       </c>
       <c r="M151" s="1">
-        <v>16.94</v>
+        <v>17.4</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -10560,7 +10560,7 @@
         <v>13.8</v>
       </c>
       <c r="M152" s="1">
-        <v>15.4</v>
+        <v>15.81</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -10619,7 +10619,7 @@
         <v>13.8</v>
       </c>
       <c r="M153" s="1">
-        <v>15.4</v>
+        <v>15.81</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -10678,7 +10678,7 @@
         <v>13.8</v>
       </c>
       <c r="M154" s="1">
-        <v>15.4</v>
+        <v>15.81</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -10737,7 +10737,7 @@
         <v>8</v>
       </c>
       <c r="M155" s="1">
-        <v>8.93</v>
+        <v>9.17</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -10796,7 +10796,7 @@
         <v>16.56</v>
       </c>
       <c r="M156" s="1">
-        <v>18.48</v>
+        <v>18.98</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -10855,7 +10855,7 @@
         <v>9.66</v>
       </c>
       <c r="M157" s="1">
-        <v>10.78</v>
+        <v>11.07</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -10914,7 +10914,7 @@
         <v>16.56</v>
       </c>
       <c r="M158" s="1">
-        <v>18.48</v>
+        <v>18.98</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8496</v>
+        <v>0.9</v>
       </c>
       <c r="B5" t="s">
         <v>391</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="401">
   <si>
     <t>id</t>
   </si>
@@ -71,7 +71,7 @@
     <t>visible</t>
   </si>
   <si>
-    <t/>
+    <t>Pasture Raised Pork</t>
   </si>
   <si>
     <t>Baby Back Ribs</t>
@@ -124,6 +124,9 @@
     <t>1.20 - 1.50 lbs</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Pork Chop, Boneless</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>Our Pasture-Raised Pork Tenderloin from Deck Family Farm is a lean, tender cut prized for its delicate flavor and versatility. Raised on open pastures, our pigs enjoy a natural diet and humane care, resulting in exceptional meat that’s both juicy and flavorful. Whether roasted, grilled, or pan-seared, this premium cut is perfect for elegant meals or comforting weeknight dinners.</t>
   </si>
   <si>
+    <t>Fruits/Nuts Honey</t>
+  </si>
+  <si>
     <t>Raw Honey, 1 pint</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
   </si>
   <si>
     <t>1/2 lb</t>
+  </si>
+  <si>
+    <t>Beef, 100% grassfed</t>
   </si>
   <si>
     <t>Bavette Steak</t>
@@ -455,6 +464,9 @@
 Instructions: Chop or grind into small pieces, simmer on low with a small amount of water, strain through a fine sieve, let fat harden in fridge. Remove the fat block from the liquid at the bottom. Cook fat to 230 degrees F to clarify.</t>
   </si>
   <si>
+    <t>Roasters &amp; Turkeys</t>
+  </si>
+  <si>
     <t>Chicken Feet, 1lb bag</t>
   </si>
   <si>
@@ -578,6 +590,9 @@
     <t>Turkey Feet are a nutrient-rich treat, perfect for making savory broths or adding depth to soups and stews. Our turkeys, including Bourbon, Bronze, and White breeds, are pasture-raised, with up to 20% of their diet consisting of fresh grass, herbs, and clover. They roam freely in fields, ensuring they are well-fed and happy. These high-quality, flavorful turkey feet are a great way to make use of every part of the bird while enjoying the natural, rich taste that comes from a diet rooted in fresh, sustainable forage.</t>
   </si>
   <si>
+    <t>Spring Lamb</t>
+  </si>
+  <si>
     <t>Ground Lamb</t>
   </si>
   <si>
@@ -669,6 +684,9 @@
   </si>
   <si>
     <t>Our Pasture-Raised Rack of Lamb from Deck Family Farm is a premium, tender cut known for its delicate flavor and elegant presentation. Raised on lush pastures, our lambs enjoy a natural diet, which results in rich, juicy meat with a clean, earthy taste. Whether roasted whole or sliced into chops, this cut is perfect for special occasions or gourmet weeknight meals.</t>
+  </si>
+  <si>
+    <t>Sausages &amp; N Free Cures</t>
   </si>
   <si>
     <t>Bacon Ends &amp; Pieces, Pork</t>
@@ -846,6 +864,9 @@
 Ingredients: Beef, Sea Salt, Brown Sugar, Sugar, Organic Dry Tamari (Organic Tamari, (Water, Organic Soybeans, Salt, Organic Alcohol) Organic Maltodextrin), Yeast, Pineapple Juice and Ascorbic Acid (Vitamin C), Dried Maple Syrup (Dextrose, Natural Maple Flavor), Black Pepper, Garlic, Onion, Cultured Celery Powder, Ginger</t>
   </si>
   <si>
+    <t>Eggs, Organic Layers</t>
+  </si>
+  <si>
     <t>Organic Pasture Raised Chicken Eggs, 1 dozen</t>
   </si>
   <si>
@@ -859,6 +880,9 @@
   </si>
   <si>
     <t>1/2 dozen</t>
+  </si>
+  <si>
+    <t>Hyland Processing</t>
   </si>
   <si>
     <t>Blueberry Maple Sausage Links</t>
@@ -994,6 +1018,9 @@
   </si>
   <si>
     <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.</t>
+  </si>
+  <si>
+    <t>Creamy Cow Dairy</t>
   </si>
   <si>
     <t>Catalan Paprika-Rubbed Cheese, 4.2-5.2 oz</t>
@@ -1955,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -1978,7 +2005,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -2014,7 +2041,7 @@
         <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
         <v>25</v>
@@ -2037,10 +2064,10 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>17</v>
@@ -2073,7 +2100,7 @@
         <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s">
         <v>25</v>
@@ -2096,10 +2123,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>19.5</v>
@@ -2132,7 +2159,7 @@
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
@@ -2155,10 +2182,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
         <v>19.5</v>
@@ -2191,7 +2218,7 @@
         <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
         <v>25</v>
@@ -2208,16 +2235,16 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1">
         <v>12</v>
@@ -2250,7 +2277,7 @@
         <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
         <v>25</v>
@@ -2273,10 +2300,10 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>14.5</v>
@@ -2309,7 +2336,7 @@
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
         <v>25</v>
@@ -2332,10 +2359,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>14.5</v>
@@ -2368,7 +2395,7 @@
         <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" t="s">
         <v>23</v>
@@ -2388,13 +2415,13 @@
         <v>806161</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1">
         <v>26</v>
@@ -2406,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1">
         <v>16.9</v>
@@ -2427,7 +2454,7 @@
         <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q14" t="s">
         <v>25</v>
@@ -2447,13 +2474,13 @@
         <v>941000</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1">
         <v>47.5</v>
@@ -2465,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1">
         <v>30.88</v>
@@ -2486,7 +2513,7 @@
         <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q15" t="s">
         <v>25</v>
@@ -2506,13 +2533,13 @@
         <v>940998</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1">
         <v>17</v>
@@ -2524,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1">
         <v>11.05</v>
@@ -2545,7 +2572,7 @@
         <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="s">
         <v>25</v>
@@ -2565,13 +2592,13 @@
         <v>806159</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1">
         <v>25</v>
@@ -2583,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1">
         <v>16.25</v>
@@ -2604,7 +2631,7 @@
         <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q17" t="s">
         <v>25</v>
@@ -2624,13 +2651,13 @@
         <v>940994</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1">
         <v>14</v>
@@ -2642,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1">
         <v>9.1</v>
@@ -2663,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q18" t="s">
         <v>25</v>
@@ -2683,13 +2710,13 @@
         <v>960228</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1">
         <v>26</v>
@@ -2722,7 +2749,7 @@
         <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="s">
         <v>23</v>
@@ -2742,13 +2769,13 @@
         <v>813072</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1">
         <v>16</v>
@@ -2781,7 +2808,7 @@
         <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q20" t="s">
         <v>23</v>
@@ -2801,10 +2828,10 @@
         <v>922135</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -2819,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1">
         <v>7.15</v>
@@ -2840,7 +2867,7 @@
         <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
         <v>25</v>
@@ -2860,13 +2887,13 @@
         <v>813075</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1">
         <v>26</v>
@@ -2899,7 +2926,7 @@
         <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="s">
         <v>25</v>
@@ -2919,13 +2946,13 @@
         <v>805660</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1">
         <v>9.5</v>
@@ -2958,7 +2985,7 @@
         <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" t="s">
         <v>23</v>
@@ -2978,13 +3005,13 @@
         <v>825832</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1">
         <v>26</v>
@@ -3017,7 +3044,7 @@
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q24" t="s">
         <v>25</v>
@@ -3037,13 +3064,13 @@
         <v>841579</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1">
         <v>26</v>
@@ -3076,7 +3103,7 @@
         <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q25" t="s">
         <v>25</v>
@@ -3096,10 +3123,10 @@
         <v>825834</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
         <v>32</v>
@@ -3114,7 +3141,7 @@
         <v>3.5</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1">
         <v>9.75</v>
@@ -3135,7 +3162,7 @@
         <v>23</v>
       </c>
       <c r="P26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q26" t="s">
         <v>23</v>
@@ -3155,13 +3182,13 @@
         <v>813076</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>13</v>
@@ -3194,7 +3221,7 @@
         <v>23</v>
       </c>
       <c r="P27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q27" t="s">
         <v>25</v>
@@ -3214,13 +3241,13 @@
         <v>813071</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1">
         <v>19.5</v>
@@ -3253,7 +3280,7 @@
         <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q28" t="s">
         <v>25</v>
@@ -3273,13 +3300,13 @@
         <v>894281</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F29" s="1">
         <v>19.5</v>
@@ -3312,7 +3339,7 @@
         <v>23</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="s">
         <v>25</v>
@@ -3329,16 +3356,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1">
         <v>10.5</v>
@@ -3371,7 +3398,7 @@
         <v>25</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
         <v>25</v>
@@ -3391,13 +3418,13 @@
         <v>805667</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1">
         <v>18.5</v>
@@ -3430,7 +3457,7 @@
         <v>23</v>
       </c>
       <c r="P31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q31" t="s">
         <v>23</v>
@@ -3450,13 +3477,13 @@
         <v>813067</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1">
         <v>43</v>
@@ -3489,7 +3516,7 @@
         <v>23</v>
       </c>
       <c r="P32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q32" t="s">
         <v>25</v>
@@ -3509,13 +3536,13 @@
         <v>825833</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1">
         <v>9.5</v>
@@ -3548,7 +3575,7 @@
         <v>23</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="s">
         <v>23</v>
@@ -3568,13 +3595,13 @@
         <v>869027</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F34" s="1">
         <v>21</v>
@@ -3607,7 +3634,7 @@
         <v>23</v>
       </c>
       <c r="P34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q34" t="s">
         <v>25</v>
@@ -3627,13 +3654,13 @@
         <v>856878</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1">
         <v>16</v>
@@ -3666,7 +3693,7 @@
         <v>23</v>
       </c>
       <c r="P35" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q35" t="s">
         <v>25</v>
@@ -3686,13 +3713,13 @@
         <v>941001</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1">
         <v>17</v>
@@ -3725,7 +3752,7 @@
         <v>23</v>
       </c>
       <c r="P36" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="s">
         <v>23</v>
@@ -3745,13 +3772,13 @@
         <v>941002</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1">
         <v>18</v>
@@ -3784,7 +3811,7 @@
         <v>23</v>
       </c>
       <c r="P37" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q37" t="s">
         <v>25</v>
@@ -3804,13 +3831,13 @@
         <v>805658</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F38" s="1">
         <v>16</v>
@@ -3843,7 +3870,7 @@
         <v>23</v>
       </c>
       <c r="P38" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q38" t="s">
         <v>23</v>
@@ -3863,13 +3890,13 @@
         <v>813074</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1">
         <v>26</v>
@@ -3902,7 +3929,7 @@
         <v>23</v>
       </c>
       <c r="P39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q39" t="s">
         <v>25</v>
@@ -3922,10 +3949,10 @@
         <v>805664</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
@@ -3961,7 +3988,7 @@
         <v>23</v>
       </c>
       <c r="P40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q40" t="s">
         <v>25</v>
@@ -3981,13 +4008,13 @@
         <v>825830</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1">
         <v>26</v>
@@ -4020,7 +4047,7 @@
         <v>23</v>
       </c>
       <c r="P41" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q41" t="s">
         <v>25</v>
@@ -4040,13 +4067,13 @@
         <v>805701</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F42" s="1">
         <v>19.5</v>
@@ -4079,7 +4106,7 @@
         <v>23</v>
       </c>
       <c r="P42" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q42" t="s">
         <v>23</v>
@@ -4099,13 +4126,13 @@
         <v>805688</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F43" s="1">
         <v>12</v>
@@ -4138,7 +4165,7 @@
         <v>23</v>
       </c>
       <c r="P43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q43" t="s">
         <v>25</v>
@@ -4158,13 +4185,13 @@
         <v>805716</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F44" s="1">
         <v>37</v>
@@ -4197,7 +4224,7 @@
         <v>23</v>
       </c>
       <c r="P44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q44" t="s">
         <v>25</v>
@@ -4217,13 +4244,13 @@
         <v>805689</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F45" s="1">
         <v>12</v>
@@ -4256,7 +4283,7 @@
         <v>23</v>
       </c>
       <c r="P45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q45" t="s">
         <v>25</v>
@@ -4276,13 +4303,13 @@
         <v>805668</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F46" s="1">
         <v>40.5</v>
@@ -4315,7 +4342,7 @@
         <v>23</v>
       </c>
       <c r="P46" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q46" t="s">
         <v>23</v>
@@ -4335,13 +4362,13 @@
         <v>929452</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F47" s="1">
         <v>26</v>
@@ -4374,7 +4401,7 @@
         <v>23</v>
       </c>
       <c r="P47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q47" t="s">
         <v>25</v>
@@ -4394,13 +4421,13 @@
         <v>894282</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1">
         <v>26</v>
@@ -4433,7 +4460,7 @@
         <v>23</v>
       </c>
       <c r="P48" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q48" t="s">
         <v>25</v>
@@ -4453,13 +4480,13 @@
         <v>813069</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F49" s="1">
         <v>26</v>
@@ -4492,7 +4519,7 @@
         <v>23</v>
       </c>
       <c r="P49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q49" t="s">
         <v>25</v>
@@ -4512,13 +4539,13 @@
         <v>814845</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F50" s="1">
         <v>25</v>
@@ -4551,7 +4578,7 @@
         <v>23</v>
       </c>
       <c r="P50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q50" t="s">
         <v>23</v>
@@ -4571,13 +4598,13 @@
         <v>883799</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F51" s="1">
         <v>5</v>
@@ -4610,7 +4637,7 @@
         <v>23</v>
       </c>
       <c r="P51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q51" t="s">
         <v>25</v>
@@ -4630,13 +4657,13 @@
         <v>813079</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F52" s="1">
         <v>9.5</v>
@@ -4648,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52" s="1">
         <v>6.17</v>
@@ -4669,7 +4696,7 @@
         <v>23</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q52" t="s">
         <v>25</v>
@@ -4689,13 +4716,13 @@
         <v>818957</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F53" s="1">
         <v>9.5</v>
@@ -4707,7 +4734,7 @@
         <v>0.5</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53" s="1">
         <v>6.17</v>
@@ -4728,7 +4755,7 @@
         <v>23</v>
       </c>
       <c r="P53" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q53" t="s">
         <v>25</v>
@@ -4748,13 +4775,13 @@
         <v>805677</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F54" s="1">
         <v>12</v>
@@ -4766,7 +4793,7 @@
         <v>0.5</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J54" s="1">
         <v>7.8</v>
@@ -4787,7 +4814,7 @@
         <v>23</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q54" t="s">
         <v>25</v>
@@ -4807,13 +4834,13 @@
         <v>805669</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1">
         <v>18</v>
@@ -4846,7 +4873,7 @@
         <v>23</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q55" t="s">
         <v>25</v>
@@ -4866,13 +4893,13 @@
         <v>900315</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F56" s="1">
         <v>18.5</v>
@@ -4905,7 +4932,7 @@
         <v>25</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q56" t="s">
         <v>25</v>
@@ -4925,13 +4952,13 @@
         <v>805676</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F57" s="1">
         <v>15.5</v>
@@ -4964,7 +4991,7 @@
         <v>23</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q57" t="s">
         <v>25</v>
@@ -4984,13 +5011,13 @@
         <v>805679</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F58" s="1">
         <v>12</v>
@@ -5023,7 +5050,7 @@
         <v>23</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q58" t="s">
         <v>25</v>
@@ -5043,13 +5070,13 @@
         <v>805673</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F59" s="1">
         <v>9</v>
@@ -5082,7 +5109,7 @@
         <v>23</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q59" t="s">
         <v>25</v>
@@ -5102,13 +5129,13 @@
         <v>953035</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F60" s="1">
         <v>9.5</v>
@@ -5141,7 +5168,7 @@
         <v>23</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q60" t="s">
         <v>25</v>
@@ -5161,13 +5188,13 @@
         <v>953036</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F61" s="1">
         <v>10</v>
@@ -5200,7 +5227,7 @@
         <v>23</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q61" t="s">
         <v>25</v>
@@ -5220,13 +5247,13 @@
         <v>953039</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F62" s="1">
         <v>10.5</v>
@@ -5259,7 +5286,7 @@
         <v>23</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q62" t="s">
         <v>25</v>
@@ -5276,16 +5303,16 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F63" s="1">
         <v>12</v>
@@ -5318,7 +5345,7 @@
         <v>25</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q63" t="s">
         <v>25</v>
@@ -5335,16 +5362,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
@@ -5377,7 +5404,7 @@
         <v>25</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q64" t="s">
         <v>25</v>
@@ -5397,13 +5424,13 @@
         <v>805661</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F65" s="1">
         <v>12</v>
@@ -5436,7 +5463,7 @@
         <v>23</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q65" t="s">
         <v>25</v>
@@ -5456,13 +5483,13 @@
         <v>805685</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F66" s="1">
         <v>18.5</v>
@@ -5474,7 +5501,7 @@
         <v>3.8</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J66" s="1">
         <v>12.03</v>
@@ -5495,7 +5522,7 @@
         <v>23</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q66" t="s">
         <v>25</v>
@@ -5515,13 +5542,13 @@
         <v>814849</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F67" s="1">
         <v>12</v>
@@ -5533,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J67" s="1">
         <v>7.8</v>
@@ -5554,7 +5581,7 @@
         <v>23</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q67" t="s">
         <v>25</v>
@@ -5574,10 +5601,10 @@
         <v>813092</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
         <v>27</v>
@@ -5613,7 +5640,7 @@
         <v>23</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q68" t="s">
         <v>25</v>
@@ -5633,10 +5660,10 @@
         <v>825835</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
         <v>32</v>
@@ -5672,7 +5699,7 @@
         <v>23</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q69" t="s">
         <v>25</v>
@@ -5692,13 +5719,13 @@
         <v>922133</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F70" s="1">
         <v>24</v>
@@ -5731,7 +5758,7 @@
         <v>23</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q70" t="s">
         <v>25</v>
@@ -5751,13 +5778,13 @@
         <v>913064</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F71" s="1">
         <v>24</v>
@@ -5790,7 +5817,7 @@
         <v>23</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q71" t="s">
         <v>25</v>
@@ -5810,13 +5837,13 @@
         <v>939774</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F72" s="1">
         <v>9.5</v>
@@ -5849,7 +5876,7 @@
         <v>23</v>
       </c>
       <c r="P72" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q72" t="s">
         <v>23</v>
@@ -5869,13 +5896,13 @@
         <v>825839</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F73" s="1">
         <v>21.5</v>
@@ -5908,7 +5935,7 @@
         <v>23</v>
       </c>
       <c r="P73" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q73" t="s">
         <v>23</v>
@@ -5928,13 +5955,13 @@
         <v>805703</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F74" s="1">
         <v>15.5</v>
@@ -5967,7 +5994,7 @@
         <v>23</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q74" t="s">
         <v>25</v>
@@ -5987,13 +6014,13 @@
         <v>805705</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F75" s="1">
         <v>18.5</v>
@@ -6026,7 +6053,7 @@
         <v>23</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q75" t="s">
         <v>25</v>
@@ -6046,13 +6073,13 @@
         <v>825840</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F76" s="1">
         <v>19</v>
@@ -6085,7 +6112,7 @@
         <v>23</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q76" t="s">
         <v>25</v>
@@ -6105,13 +6132,13 @@
         <v>805710</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F77" s="1">
         <v>19</v>
@@ -6144,7 +6171,7 @@
         <v>23</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q77" t="s">
         <v>25</v>
@@ -6164,13 +6191,13 @@
         <v>805711</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F78" s="1">
         <v>20</v>
@@ -6203,7 +6230,7 @@
         <v>23</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q78" t="s">
         <v>25</v>
@@ -6220,16 +6247,16 @@
         <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" s="1">
         <v>13</v>
@@ -6262,7 +6289,7 @@
         <v>25</v>
       </c>
       <c r="P79" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q79" t="s">
         <v>25</v>
@@ -6282,13 +6309,13 @@
         <v>805712</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F80" s="1">
         <v>21.5</v>
@@ -6321,7 +6348,7 @@
         <v>23</v>
       </c>
       <c r="P80" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q80" t="s">
         <v>25</v>
@@ -6341,13 +6368,13 @@
         <v>805659</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F81" s="1">
         <v>21.5</v>
@@ -6380,7 +6407,7 @@
         <v>23</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q81" t="s">
         <v>25</v>
@@ -6400,13 +6427,13 @@
         <v>805653</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F82" s="1">
         <v>14.5</v>
@@ -6418,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J82" s="1">
         <v>9.43</v>
@@ -6439,7 +6466,7 @@
         <v>23</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q82" t="s">
         <v>25</v>
@@ -6459,13 +6486,13 @@
         <v>805724</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E83" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F83" s="1">
         <v>17.5</v>
@@ -6477,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J83" s="1">
         <v>11.38</v>
@@ -6498,7 +6525,7 @@
         <v>23</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q83" t="s">
         <v>25</v>
@@ -6518,13 +6545,13 @@
         <v>813084</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F84" s="1">
         <v>19.5</v>
@@ -6536,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J84" s="1">
         <v>12.68</v>
@@ -6557,7 +6584,7 @@
         <v>23</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q84" t="s">
         <v>25</v>
@@ -6577,13 +6604,13 @@
         <v>813086</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E85" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F85" s="1">
         <v>15.5</v>
@@ -6595,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J85" s="1">
         <v>10.08</v>
@@ -6616,7 +6643,7 @@
         <v>23</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q85" t="s">
         <v>25</v>
@@ -6636,13 +6663,13 @@
         <v>805686</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F86" s="1">
         <v>19.5</v>
@@ -6654,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J86" s="1">
         <v>12.68</v>
@@ -6675,7 +6702,7 @@
         <v>23</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q86" t="s">
         <v>25</v>
@@ -6695,13 +6722,13 @@
         <v>805693</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E87" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F87" s="1">
         <v>19.5</v>
@@ -6713,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J87" s="1">
         <v>12.68</v>
@@ -6734,7 +6761,7 @@
         <v>23</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q87" t="s">
         <v>25</v>
@@ -6754,13 +6781,13 @@
         <v>882704</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F88" s="1">
         <v>21.5</v>
@@ -6772,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J88" s="1">
         <v>13.97</v>
@@ -6793,7 +6820,7 @@
         <v>23</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q88" t="s">
         <v>25</v>
@@ -6813,13 +6840,13 @@
         <v>963826</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E89" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F89" s="1">
         <v>21.5</v>
@@ -6831,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J89" s="1">
         <v>13.97</v>
@@ -6852,7 +6879,7 @@
         <v>25</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q89" t="s">
         <v>25</v>
@@ -6872,13 +6899,13 @@
         <v>805713</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E90" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F90" s="1">
         <v>16.5</v>
@@ -6890,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J90" s="1">
         <v>10.72</v>
@@ -6911,7 +6938,7 @@
         <v>23</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q90" t="s">
         <v>25</v>
@@ -6931,13 +6958,13 @@
         <v>827440</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F91" s="1">
         <v>20</v>
@@ -6949,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J91" s="1">
         <v>13</v>
@@ -6970,7 +6997,7 @@
         <v>23</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q91" t="s">
         <v>25</v>
@@ -6990,13 +7017,13 @@
         <v>901753</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F92" s="1">
         <v>21.5</v>
@@ -7008,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J92" s="1">
         <v>13.97</v>
@@ -7029,7 +7056,7 @@
         <v>23</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q92" t="s">
         <v>25</v>
@@ -7049,13 +7076,13 @@
         <v>859028</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F93" s="1">
         <v>18</v>
@@ -7067,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J93" s="1">
         <v>11.7</v>
@@ -7088,7 +7115,7 @@
         <v>23</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q93" t="s">
         <v>25</v>
@@ -7108,13 +7135,13 @@
         <v>805675</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E94" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F94" s="1">
         <v>18</v>
@@ -7126,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J94" s="1">
         <v>11.7</v>
@@ -7147,7 +7174,7 @@
         <v>23</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q94" t="s">
         <v>25</v>
@@ -7167,13 +7194,13 @@
         <v>805719</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E95" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F95" s="1">
         <v>20</v>
@@ -7185,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J95" s="1">
         <v>13</v>
@@ -7206,7 +7233,7 @@
         <v>23</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q95" t="s">
         <v>25</v>
@@ -7226,13 +7253,13 @@
         <v>805720</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E96" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F96" s="1">
         <v>18</v>
@@ -7244,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J96" s="1">
         <v>11.7</v>
@@ -7265,7 +7292,7 @@
         <v>23</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q96" t="s">
         <v>25</v>
@@ -7285,13 +7312,13 @@
         <v>805721</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D97" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E97" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F97" s="1">
         <v>20</v>
@@ -7303,7 +7330,7 @@
         <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J97" s="1">
         <v>13</v>
@@ -7324,7 +7351,7 @@
         <v>23</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q97" t="s">
         <v>25</v>
@@ -7344,13 +7371,13 @@
         <v>858286</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E98" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F98" s="1">
         <v>9</v>
@@ -7362,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J98" s="1">
         <v>5.85</v>
@@ -7383,7 +7410,7 @@
         <v>23</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q98" t="s">
         <v>25</v>
@@ -7403,13 +7430,13 @@
         <v>805682</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E99" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F99" s="1">
         <v>19.5</v>
@@ -7421,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99" s="1">
         <v>12.68</v>
@@ -7442,7 +7469,7 @@
         <v>23</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q99" t="s">
         <v>25</v>
@@ -7462,13 +7489,13 @@
         <v>805670</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E100" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F100" s="1">
         <v>20</v>
@@ -7480,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100" s="1">
         <v>13</v>
@@ -7501,7 +7528,7 @@
         <v>23</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q100" t="s">
         <v>25</v>
@@ -7521,13 +7548,13 @@
         <v>805678</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E101" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F101" s="1">
         <v>16.5</v>
@@ -7539,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J101" s="1">
         <v>10.72</v>
@@ -7560,7 +7587,7 @@
         <v>23</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q101" t="s">
         <v>25</v>
@@ -7580,13 +7607,13 @@
         <v>940154</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F102" s="1">
         <v>11</v>
@@ -7598,7 +7625,7 @@
         <v>0.5</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J102" s="1">
         <v>7.15</v>
@@ -7619,7 +7646,7 @@
         <v>23</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q102" t="s">
         <v>25</v>
@@ -7639,13 +7666,13 @@
         <v>805687</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F103" s="1">
         <v>17</v>
@@ -7657,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J103" s="1">
         <v>11.05</v>
@@ -7678,7 +7705,7 @@
         <v>23</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q103" t="s">
         <v>25</v>
@@ -7698,13 +7725,13 @@
         <v>805692</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E104" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F104" s="1">
         <v>19.5</v>
@@ -7716,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104" s="1">
         <v>12.68</v>
@@ -7737,7 +7764,7 @@
         <v>23</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q104" t="s">
         <v>25</v>
@@ -7757,13 +7784,13 @@
         <v>805694</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F105" s="1">
         <v>18</v>
@@ -7775,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J105" s="1">
         <v>11.7</v>
@@ -7796,7 +7823,7 @@
         <v>23</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q105" t="s">
         <v>25</v>
@@ -7816,13 +7843,13 @@
         <v>941005</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F106" s="1">
         <v>12</v>
@@ -7834,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J106" s="1">
         <v>7.8</v>
@@ -7855,7 +7882,7 @@
         <v>23</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q106" t="s">
         <v>25</v>
@@ -7875,13 +7902,13 @@
         <v>805459</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="D107" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E107" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F107" s="1">
         <v>7</v>
@@ -7893,7 +7920,7 @@
         <v>0.5</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J107" s="1">
         <v>4.55</v>
@@ -7914,7 +7941,7 @@
         <v>23</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q107" t="s">
         <v>25</v>
@@ -7934,13 +7961,13 @@
         <v>900311</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E108" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F108" s="1">
         <v>20</v>
@@ -7952,7 +7979,7 @@
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108" s="1">
         <v>13</v>
@@ -7973,7 +8000,7 @@
         <v>23</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q108" t="s">
         <v>25</v>
@@ -7993,13 +8020,13 @@
         <v>840848</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E109" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F109" s="1">
         <v>16.5</v>
@@ -8011,7 +8038,7 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J109" s="1">
         <v>10.72</v>
@@ -8032,7 +8059,7 @@
         <v>23</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q109" t="s">
         <v>25</v>
@@ -8052,13 +8079,13 @@
         <v>840823</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D110" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E110" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F110" s="1">
         <v>16.5</v>
@@ -8070,7 +8097,7 @@
         <v>12</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J110" s="1">
         <v>10.72</v>
@@ -8091,7 +8118,7 @@
         <v>23</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q110" t="s">
         <v>25</v>
@@ -8111,13 +8138,13 @@
         <v>913652</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E111" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F111" s="1">
         <v>16.5</v>
@@ -8129,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J111" s="1">
         <v>10.72</v>
@@ -8150,7 +8177,7 @@
         <v>23</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q111" t="s">
         <v>25</v>
@@ -8170,13 +8197,13 @@
         <v>805696</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D112" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E112" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F112" s="1">
         <v>17</v>
@@ -8188,7 +8215,7 @@
         <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J112" s="1">
         <v>11.05</v>
@@ -8209,7 +8236,7 @@
         <v>23</v>
       </c>
       <c r="P112" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q112" t="s">
         <v>25</v>
@@ -8229,13 +8256,13 @@
         <v>913651</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D113" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E113" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F113" s="1">
         <v>16.5</v>
@@ -8247,7 +8274,7 @@
         <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J113" s="1">
         <v>10.72</v>
@@ -8268,7 +8295,7 @@
         <v>23</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q113" t="s">
         <v>25</v>
@@ -8288,13 +8315,13 @@
         <v>816905</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D114" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F114" s="1">
         <v>20</v>
@@ -8306,7 +8333,7 @@
         <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J114" s="1">
         <v>13</v>
@@ -8327,7 +8354,7 @@
         <v>23</v>
       </c>
       <c r="P114" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q114" t="s">
         <v>25</v>
@@ -8347,13 +8374,13 @@
         <v>932132</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D115" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F115" s="1">
         <v>20</v>
@@ -8365,7 +8392,7 @@
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J115" s="1">
         <v>13</v>
@@ -8386,7 +8413,7 @@
         <v>23</v>
       </c>
       <c r="P115" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q115" t="s">
         <v>25</v>
@@ -8406,13 +8433,13 @@
         <v>840822</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D116" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E116" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F116" s="1">
         <v>20</v>
@@ -8424,7 +8451,7 @@
         <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J116" s="1">
         <v>13</v>
@@ -8445,7 +8472,7 @@
         <v>23</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q116" t="s">
         <v>25</v>
@@ -8465,13 +8492,13 @@
         <v>900309</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D117" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F117" s="1">
         <v>20</v>
@@ -8483,7 +8510,7 @@
         <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J117" s="1">
         <v>13</v>
@@ -8504,7 +8531,7 @@
         <v>23</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q117" t="s">
         <v>25</v>
@@ -8524,13 +8551,13 @@
         <v>913653</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D118" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E118" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F118" s="1">
         <v>15</v>
@@ -8542,7 +8569,7 @@
         <v>13</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J118" s="1">
         <v>9.75</v>
@@ -8563,7 +8590,7 @@
         <v>23</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q118" t="s">
         <v>25</v>
@@ -8583,13 +8610,13 @@
         <v>818963</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D119" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F119" s="1">
         <v>20</v>
@@ -8601,7 +8628,7 @@
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J119" s="1">
         <v>13</v>
@@ -8622,7 +8649,7 @@
         <v>23</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q119" t="s">
         <v>25</v>
@@ -8642,13 +8669,13 @@
         <v>871143</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D120" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E120" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F120" s="1">
         <v>20</v>
@@ -8660,7 +8687,7 @@
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J120" s="1">
         <v>13</v>
@@ -8681,7 +8708,7 @@
         <v>23</v>
       </c>
       <c r="P120" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q120" t="s">
         <v>25</v>
@@ -8701,13 +8728,13 @@
         <v>913648</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D121" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E121" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F121" s="1">
         <v>24</v>
@@ -8719,7 +8746,7 @@
         <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J121" s="1">
         <v>15.6</v>
@@ -8740,7 +8767,7 @@
         <v>23</v>
       </c>
       <c r="P121" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q121" t="s">
         <v>25</v>
@@ -8760,13 +8787,13 @@
         <v>805663</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D122" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E122" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F122" s="1">
         <v>20</v>
@@ -8778,7 +8805,7 @@
         <v>16</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J122" s="1">
         <v>13</v>
@@ -8799,7 +8826,7 @@
         <v>23</v>
       </c>
       <c r="P122" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q122" t="s">
         <v>25</v>
@@ -8819,13 +8846,13 @@
         <v>941045</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D123" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E123" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F123" s="1">
         <v>10</v>
@@ -8837,7 +8864,7 @@
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J123" s="1">
         <v>6.5</v>
@@ -8858,7 +8885,7 @@
         <v>23</v>
       </c>
       <c r="P123" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q123" t="s">
         <v>25</v>
@@ -8878,13 +8905,13 @@
         <v>805651</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D124" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E124" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F124" s="1">
         <v>15</v>
@@ -8896,7 +8923,7 @@
         <v>16</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J124" s="1">
         <v>9.75</v>
@@ -8917,7 +8944,7 @@
         <v>23</v>
       </c>
       <c r="P124" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q124" t="s">
         <v>25</v>
@@ -8937,13 +8964,13 @@
         <v>941062</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D125" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E125" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F125" s="1">
         <v>10</v>
@@ -8955,7 +8982,7 @@
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J125" s="1">
         <v>6.5</v>
@@ -8976,7 +9003,7 @@
         <v>23</v>
       </c>
       <c r="P125" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q125" t="s">
         <v>25</v>
@@ -8996,13 +9023,13 @@
         <v>929464</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D126" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E126" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F126" s="1">
         <v>16</v>
@@ -9014,7 +9041,7 @@
         <v>16</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J126" s="1">
         <v>10.4</v>
@@ -9035,7 +9062,7 @@
         <v>23</v>
       </c>
       <c r="P126" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q126" t="s">
         <v>25</v>
@@ -9055,13 +9082,13 @@
         <v>805665</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E127" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F127" s="1">
         <v>10</v>
@@ -9073,7 +9100,7 @@
         <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127" s="1">
         <v>6.5</v>
@@ -9094,7 +9121,7 @@
         <v>23</v>
       </c>
       <c r="P127" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q127" t="s">
         <v>25</v>
@@ -9114,13 +9141,13 @@
         <v>900310</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F128" s="1">
         <v>22</v>
@@ -9132,7 +9159,7 @@
         <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J128" s="1">
         <v>14.3</v>
@@ -9153,7 +9180,7 @@
         <v>23</v>
       </c>
       <c r="P128" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q128" t="s">
         <v>25</v>
@@ -9173,13 +9200,13 @@
         <v>913650</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E129" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F129" s="1">
         <v>20</v>
@@ -9191,7 +9218,7 @@
         <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J129" s="1">
         <v>13</v>
@@ -9212,7 +9239,7 @@
         <v>23</v>
       </c>
       <c r="P129" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q129" t="s">
         <v>25</v>
@@ -9232,13 +9259,13 @@
         <v>911651</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E130" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F130" s="1">
         <v>16.6</v>
@@ -9250,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J130" s="1">
         <v>10.79</v>
@@ -9271,7 +9298,7 @@
         <v>25</v>
       </c>
       <c r="P130" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q130" t="s">
         <v>23</v>
@@ -9291,13 +9318,13 @@
         <v>911647</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D131" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E131" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F131" s="1">
         <v>20.77</v>
@@ -9309,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J131" s="1">
         <v>13.5</v>
@@ -9330,7 +9357,7 @@
         <v>25</v>
       </c>
       <c r="P131" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q131" t="s">
         <v>23</v>
@@ -9350,13 +9377,13 @@
         <v>911648</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D132" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E132" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F132" s="1">
         <v>21.88</v>
@@ -9368,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J132" s="1">
         <v>14.22</v>
@@ -9389,7 +9416,7 @@
         <v>25</v>
       </c>
       <c r="P132" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q132" t="s">
         <v>23</v>
@@ -9409,13 +9436,13 @@
         <v>957423</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D133" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E133" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F133" s="1">
         <v>19.23</v>
@@ -9427,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133" s="1">
         <v>12.5</v>
@@ -9448,7 +9475,7 @@
         <v>25</v>
       </c>
       <c r="P133" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q133" t="s">
         <v>23</v>
@@ -9468,13 +9495,13 @@
         <v>957424</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D134" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E134" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F134" s="1">
         <v>21.88</v>
@@ -9486,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J134" s="1">
         <v>14.22</v>
@@ -9507,7 +9534,7 @@
         <v>25</v>
       </c>
       <c r="P134" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q134" t="s">
         <v>23</v>
@@ -9527,13 +9554,13 @@
         <v>936388</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D135" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E135" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F135" s="1">
         <v>16.6</v>
@@ -9545,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J135" s="1">
         <v>10.79</v>
@@ -9566,7 +9593,7 @@
         <v>25</v>
       </c>
       <c r="P135" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q135" t="s">
         <v>23</v>
@@ -9586,13 +9613,13 @@
         <v>936387</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D136" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E136" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F136" s="1">
         <v>20.77</v>
@@ -9604,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J136" s="1">
         <v>13.5</v>
@@ -9625,7 +9652,7 @@
         <v>25</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q136" t="s">
         <v>23</v>
@@ -9645,13 +9672,13 @@
         <v>824228</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D137" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E137" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F137" s="1">
         <v>21.89</v>
@@ -9663,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J137" s="1">
         <v>14.23</v>
@@ -9684,7 +9711,7 @@
         <v>25</v>
       </c>
       <c r="P137" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q137" t="s">
         <v>23</v>
@@ -9704,13 +9731,13 @@
         <v>866256</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E138" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F138" s="1">
         <v>16.6</v>
@@ -9722,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J138" s="1">
         <v>10.79</v>
@@ -9743,7 +9770,7 @@
         <v>25</v>
       </c>
       <c r="P138" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q138" t="s">
         <v>23</v>
@@ -9763,13 +9790,13 @@
         <v>805464</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D139" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="E139" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F139" s="1">
         <v>19.23</v>
@@ -9781,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J139" s="1">
         <v>12.5</v>
@@ -9802,7 +9829,7 @@
         <v>25</v>
       </c>
       <c r="P139" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q139" t="s">
         <v>23</v>
@@ -9822,13 +9849,13 @@
         <v>842611</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D140" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E140" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="F140" s="1">
         <v>21.88</v>
@@ -9840,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J140" s="1">
         <v>14.22</v>
@@ -9861,7 +9888,7 @@
         <v>25</v>
       </c>
       <c r="P140" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q140" t="s">
         <v>23</v>
@@ -9881,13 +9908,13 @@
         <v>805465</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D141" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E141" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F141" s="1">
         <v>15.38</v>
@@ -9899,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J141" s="1">
         <v>10</v>
@@ -9920,7 +9947,7 @@
         <v>25</v>
       </c>
       <c r="P141" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q141" t="s">
         <v>23</v>
@@ -9940,13 +9967,13 @@
         <v>990715</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D142" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E142" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F142" s="1">
         <v>9.23</v>
@@ -9958,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J142" s="1">
         <v>6</v>
@@ -9979,7 +10006,7 @@
         <v>25</v>
       </c>
       <c r="P142" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q142" t="s">
         <v>23</v>
@@ -9999,13 +10026,13 @@
         <v>881794</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D143" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F143" s="1">
         <v>13.85</v>
@@ -10017,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J143" s="1">
         <v>9</v>
@@ -10038,7 +10065,7 @@
         <v>25</v>
       </c>
       <c r="P143" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q143" t="s">
         <v>23</v>
@@ -10058,13 +10085,13 @@
         <v>805466</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D144" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E144" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F144" s="1">
         <v>22.66</v>
@@ -10076,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J144" s="1">
         <v>14.73</v>
@@ -10097,7 +10124,7 @@
         <v>25</v>
       </c>
       <c r="P144" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q144" t="s">
         <v>23</v>
@@ -10117,13 +10144,13 @@
         <v>836358</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D145" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E145" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F145" s="1">
         <v>19.23</v>
@@ -10135,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J145" s="1">
         <v>12.5</v>
@@ -10156,7 +10183,7 @@
         <v>25</v>
       </c>
       <c r="P145" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q145" t="s">
         <v>23</v>
@@ -10176,13 +10203,13 @@
         <v>867239</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D146" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E146" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="F146" s="1">
         <v>20.77</v>
@@ -10194,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J146" s="1">
         <v>13.5</v>
@@ -10215,7 +10242,7 @@
         <v>25</v>
       </c>
       <c r="P146" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q146" t="s">
         <v>23</v>
@@ -10235,13 +10262,13 @@
         <v>805468</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D147" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E147" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F147" s="1">
         <v>29.62</v>
@@ -10253,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J147" s="1">
         <v>19.25</v>
@@ -10274,7 +10301,7 @@
         <v>25</v>
       </c>
       <c r="P147" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q147" t="s">
         <v>23</v>
@@ -10294,13 +10321,13 @@
         <v>805469</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E148" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F148" s="1">
         <v>32.69</v>
@@ -10312,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148" s="1">
         <v>21.25</v>
@@ -10333,7 +10360,7 @@
         <v>25</v>
       </c>
       <c r="P148" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q148" t="s">
         <v>23</v>
@@ -10353,13 +10380,13 @@
         <v>805461</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D149" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="E149" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F149" s="1">
         <v>23.08</v>
@@ -10371,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J149" s="1">
         <v>15</v>
@@ -10392,7 +10419,7 @@
         <v>25</v>
       </c>
       <c r="P149" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q149" t="s">
         <v>23</v>
@@ -10412,13 +10439,13 @@
         <v>805470</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D150" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E150" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F150" s="1">
         <v>21.54</v>
@@ -10430,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J150" s="1">
         <v>14</v>
@@ -10451,7 +10478,7 @@
         <v>25</v>
       </c>
       <c r="P150" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q150" t="s">
         <v>23</v>
@@ -10471,13 +10498,13 @@
         <v>805471</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D151" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E151" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F151" s="1">
         <v>16.92</v>
@@ -10489,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J151" s="1">
         <v>11</v>
@@ -10510,7 +10537,7 @@
         <v>25</v>
       </c>
       <c r="P151" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q151" t="s">
         <v>23</v>
@@ -10530,13 +10557,13 @@
         <v>805472</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E152" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F152" s="1">
         <v>15.38</v>
@@ -10548,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152" s="1">
         <v>10</v>
@@ -10569,7 +10596,7 @@
         <v>25</v>
       </c>
       <c r="P152" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q152" t="s">
         <v>23</v>
@@ -10589,13 +10616,13 @@
         <v>805473</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D153" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F153" s="1">
         <v>15.38</v>
@@ -10607,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J153" s="1">
         <v>10</v>
@@ -10628,7 +10655,7 @@
         <v>25</v>
       </c>
       <c r="P153" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q153" t="s">
         <v>23</v>
@@ -10648,13 +10675,13 @@
         <v>805474</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D154" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E154" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F154" s="1">
         <v>15.38</v>
@@ -10666,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J154" s="1">
         <v>10</v>
@@ -10687,7 +10714,7 @@
         <v>25</v>
       </c>
       <c r="P154" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q154" t="s">
         <v>23</v>
@@ -10707,13 +10734,13 @@
         <v>990712</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D155" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E155" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F155" s="1">
         <v>8.92</v>
@@ -10725,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J155" s="1">
         <v>5.8</v>
@@ -10746,7 +10773,7 @@
         <v>25</v>
       </c>
       <c r="P155" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q155" t="s">
         <v>23</v>
@@ -10766,13 +10793,13 @@
         <v>805475</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D156" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E156" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F156" s="1">
         <v>18.46</v>
@@ -10784,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J156" s="1">
         <v>12</v>
@@ -10805,7 +10832,7 @@
         <v>25</v>
       </c>
       <c r="P156" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q156" t="s">
         <v>23</v>
@@ -10825,13 +10852,13 @@
         <v>805476</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D157" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E157" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F157" s="1">
         <v>10.77</v>
@@ -10843,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J157" s="1">
         <v>7</v>
@@ -10864,7 +10891,7 @@
         <v>25</v>
       </c>
       <c r="P157" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q157" t="s">
         <v>23</v>
@@ -10884,13 +10911,13 @@
         <v>805477</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D158" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E158" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F158" s="1">
         <v>18.46</v>
@@ -10902,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J158" s="1">
         <v>12</v>
@@ -10923,7 +10950,7 @@
         <v>25</v>
       </c>
       <c r="P158" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q158" t="s">
         <v>23</v>
@@ -10948,10 +10975,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10959,7 +10986,7 @@
         <v>0.5412</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10967,7 +10994,7 @@
         <v>0.65</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10975,7 +11002,7 @@
         <v>0.6574</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10983,7 +11010,7 @@
         <v>0.9</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="417">
   <si>
     <t>id</t>
   </si>
@@ -86,19 +86,19 @@
     <t>True</t>
   </si>
   <si>
-    <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.</t>
+    <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
+    <t>Ground Pork</t>
+  </si>
+  <si>
+    <t>1.00 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Ground Pork</t>
-  </si>
-  <si>
-    <t>1.00 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -106,7 +106,7 @@
   <si>
     <t xml:space="preserve">Our Organ Blend Pet Food combines the rich, nutrient-dense benefits of pork and lamb organs, creating a wholesome and flavorful meal for your pet. Packed with essential vitamins, minerals, and protein, this blend supports your pet’s overall health, vitality, and energy levels. Sourced from heritage pigs and lambs raised on open pastures and a natural diet, our organ blend offers a high-quality, premium option for those seeking the best nutrition for their furry companions. Give your pet the gift of natural, nourishing food with this nutrient-packed organ blend!
 This blend is 15-25% Liver and Kidney, 5-10% heart and tongue, and 65-80% Pork and Lamb Meat.
-</t>
+  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pork Bones</t>
@@ -115,7 +115,7 @@
     <t>3.00 - 5.00 lbs</t>
   </si>
   <si>
-    <t>Our Heritage Pork Bones are a nutrient-rich, versatile ingredient that adds deep, savory flavor to a wide range of dishes. Perfect for making rich, hearty bone broth, these bones are packed with collagen, minerals, and other health-boosting nutrients. Sourced from heritage hogs raised on open pastures and oak woodlands, our pigs enjoy a natural diet of dairy, hazelnuts, and custom-milled grains, ensuring a high-quality, flavorful product. Whether you’re simmering a broth or enhancing stews and sauces, these pork bones deliver exceptional taste and nourishment.</t>
+    <t>Our Heritage Pork Bones are a nutrient-rich, versatile ingredient that adds deep, savory flavor to a wide range of dishes. Perfect for making rich, hearty bone broth, these bones are packed with collagen, minerals, and other health-boosting nutrients. Sourced from heritage hogs raised on open pastures and oak woodlands, our pigs enjoy a natural diet of dairy, hazelnuts, and custom-milled grains, ensuring a high-quality, flavorful product. Whether you’re simmering a broth or enhancing stews and sauces, these pork bones deliver exceptional taste and nourishment.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pork Chop, Bone-in</t>
@@ -124,52 +124,55 @@
     <t>1.20 - 1.50 lbs</t>
   </si>
   <si>
+    <t>Our Heritage Pork Chops are the king of pork cuts – tender, juicy, and packed with flavor that’s perfect for any occasion. Whether it’s a dinner for two or a personal treat, these chops deliver a satisfying, melt-in-your-mouth experience. Raised on open pastures and oak woodlands, our heritage hogs enjoy a natural diet of dairy, hazelnuts, and custom-milled grains, producing high-quality, flavorful meat that’s consistently praised throughout the Willamette Valley. For a foolproof cooking method, check out our blog for the perfect pork chop recipe!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
+    <t>Pork Chop, Boneless</t>
+  </si>
+  <si>
+    <t>Pork Shank</t>
+  </si>
+  <si>
+    <t>2.40 - 3.10 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Pork Shank is a flavorful, hearty cut from the pig’s front leg, just below the shoulder. This tough cut is rich in fat, connective tissue, and collagen, which imparts a deep, savory flavor and keeps the meat moist when slow-cooked. Perfect for braising or slow roasting, the connective tissue breaks down, turning the shank into a tender, juicy, and meaty dish. Sourced from heritage hogs raised on open pastures and oak woodlands with a diet of dairy, hazelnuts, and custom-milled grains, our pork shank delivers exceptional flavor and quality, praised throughout the Willamette Valley.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
+    <t>Pork Shoulder Roast, Large</t>
+  </si>
+  <si>
+    <t>Large, 2.80 - 3.50 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Pork Shoulder Roast is a versatile, flavorful cut perfect for roasting, braising, stewing, or slow cooking. When cooked with low, moist heat, this cut becomes incredibly tender and succulent, effortlessly falling off the bone and practically melting in your mouth. Sourced from heritage hogs raised on open pastures and oak woodlands, with a natural diet of dairy, hazelnuts, and custom-milled grains, our pork shoulder delivers high-quality, rich flavor that’s consistently praised throughout the Willamette Valley. Enjoy a truly satisfying meal with this tender, delicious roast.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
+    <t>Pork Shoulder Roast, Small</t>
+  </si>
+  <si>
+    <t>Small, 2.00 - 2.79 lbs</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Pork Chop, Boneless</t>
-  </si>
-  <si>
-    <t>Our Heritage Pork Chops are the king of pork cuts – tender, juicy, and packed with flavor that’s perfect for any occasion. Whether it’s a dinner for two or a personal treat, these chops deliver a satisfying, melt-in-your-mouth experience. Raised on open pastures and oak woodlands, our heritage hogs enjoy a natural diet of dairy, hazelnuts, and custom-milled grains, producing high-quality, flavorful meat that’s consistently praised throughout the Willamette Valley. For a foolproof cooking method, check out our blog for the perfect pork chop recipe!</t>
-  </si>
-  <si>
-    <t>Pork Shank</t>
-  </si>
-  <si>
-    <t>2.40 - 3.10 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Pork Shank is a flavorful, hearty cut from the pig’s front leg, just below the shoulder. This tough cut is rich in fat, connective tissue, and collagen, which imparts a deep, savory flavor and keeps the meat moist when slow-cooked. Perfect for braising or slow roasting, the connective tissue breaks down, turning the shank into a tender, juicy, and meaty dish. Sourced from heritage hogs raised on open pastures and oak woodlands with a diet of dairy, hazelnuts, and custom-milled grains, our pork shank delivers exceptional flavor and quality, praised throughout the Willamette Valley.</t>
-  </si>
-  <si>
-    <t>Pork Shoulder Roast, Large</t>
-  </si>
-  <si>
-    <t>Large, 2.80 - 3.50 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Pork Shoulder Roast is a versatile, flavorful cut perfect for roasting, braising, stewing, or slow cooking. When cooked with low, moist heat, this cut becomes incredibly tender and succulent, effortlessly falling off the bone and practically melting in your mouth. Sourced from heritage hogs raised on open pastures and oak woodlands, with a natural diet of dairy, hazelnuts, and custom-milled grains, our pork shoulder delivers high-quality, rich flavor that’s consistently praised throughout the Willamette Valley. Enjoy a truly satisfying meal with this tender, delicious roast.</t>
-  </si>
-  <si>
-    <t>Pork Shoulder Roast, Small</t>
-  </si>
-  <si>
-    <t>Small, 2.00 - 2.79 lbs</t>
-  </si>
-  <si>
     <t>Pork Side</t>
   </si>
   <si>
     <t>each</t>
   </si>
   <si>
+    <t>Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Pork Spare Ribs</t>
   </si>
   <si>
     <t>2.00 - 3.00 lbs</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Pork Spare Ribs from Deck Family Farm are a flavorful, tender cut perfect for slow-cooked meals and backyard barbecues. With rich marbling and a meaty texture, these ribs deliver a satisfying bite and bold flavor in every serving. Raised on open pastures, our pork is known for its exceptional quality and taste.</t>
+    <t>Our Pasture-Raised Pork Spare Ribs from Deck Family Farm are a flavorful, tender cut perfect for slow-cooked meals and backyard barbecues. With rich marbling and a meaty texture, these ribs deliver a satisfying bite and bold flavor in every serving. Raised on open pastures, our pork is known for its exceptional quality and taste.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pork Tenderloin</t>
@@ -178,7 +181,7 @@
     <t>0.80 - 1.30 lbs</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Pork Tenderloin from Deck Family Farm is a lean, tender cut prized for its delicate flavor and versatility. Raised on open pastures, our pigs enjoy a natural diet and humane care, resulting in exceptional meat that’s both juicy and flavorful. Whether roasted, grilled, or pan-seared, this premium cut is perfect for elegant meals or comforting weeknight dinners.</t>
+    <t>Our Pasture-Raised Pork Tenderloin from Deck Family Farm is a lean, tender cut prized for its delicate flavor and versatility. Raised on open pastures, our pigs enjoy a natural diet and humane care, resulting in exceptional meat that’s both juicy and flavorful. Whether roasted, grilled, or pan-seared, this premium cut is perfect for elegant meals or comforting weeknight dinners.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Fruits/Nuts Honey</t>
@@ -229,7 +232,7 @@
     <t>0.9 - 1.6 lbs</t>
   </si>
   <si>
-    <t xml:space="preserve">Bavette steak, also known as flap steak or sirloin flap, is a thin, flat, and tender cut of beef that comes from the bottom sirloin area. It's characterized by its loose texture and rich, beefy flavor. It is very similar to flank steak, often used interchangeably. Bavette is excellent for grilling or stir-frying. Perfect for your next taco night or steak dinner! </t>
+    <t>Bavette steak, also known as flap steak or sirloin flap, is a thin, flat, and tender cut of beef that comes from the bottom sirloin area. It's characterized by its loose texture and rich, beefy flavor. It is very similar to flank steak, often used interchangeably. Bavette is excellent for grilling or stir-frying. Perfect for your next taco night or steak dinner!   Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Back Ribs</t>
@@ -238,13 +241,13 @@
     <t>3.00 - 3.80 lbs</t>
   </si>
   <si>
-    <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
+    <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Bones</t>
   </si>
   <si>
-    <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
+    <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Flat Iron Steak</t>
@@ -253,7 +256,7 @@
     <t>0.70 - 1.10 lbs</t>
   </si>
   <si>
-    <t>Extremely tender, well-marbled and flavorful and great for grilling. Cut from the Top Blade. Cutting method removes internal connective tissue from the whole Top Blade, allowing this cut to deliver as the second most tender cut.</t>
+    <t>Extremely tender, well-marbled and flavorful and great for grilling. Cut from the Top Blade. Cutting method removes internal connective tissue from the whole Top Blade, allowing this cut to deliver as the second most tender cut.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Heart</t>
@@ -262,13 +265,16 @@
     <t>2.50 - 3.5 lbs</t>
   </si>
   <si>
+    <t>Beef heart is a muscle like other cuts of steak, but it is more dense with a higher nutrient content and additional protein. Beef heart contains all essential amino acids, zinc, selenium and phosphorus. It has more than double the elastin and collagen than other cuts of meat and a highly concentrated source of coenzyme Q10, also known as CoQ10. Mix your beef heart into ground beef, stews, skewers, cut and grilled as a steak, make it into jerky, or cook it into a delicious gumbo!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Beef Kidney</t>
   </si>
   <si>
     <t>0.80 - 1.00 lbs</t>
   </si>
   <si>
-    <t>Our Grass-Fed Beef Kidneys are a nutrient-dense organ meat packed with health benefits. Rich in protein, iron, and essential vitamins like A, B12, and zinc, they support muscle growth, red blood cell production, immune function, and overall vitality. High in selenium, beef kidneys also play a key role in the body’s antioxidant defense, helping to reduce inflammation and oxidative stress. Raised on 100% grass, herbs, and clover, our cattle are fed balage in the winter, ensuring a high-quality, flavorful product. Incorporating beef kidneys into your diet provides a range of essential nutrients for optimal health.</t>
+    <t>Our Grass-Fed Beef Kidneys are a nutrient-dense organ meat packed with health benefits. Rich in protein, iron, and essential vitamins like A, B12, and zinc, they support muscle growth, red blood cell production, immune function, and overall vitality. High in selenium, beef kidneys also play a key role in the body’s antioxidant defense, helping to reduce inflammation and oxidative stress. Raised on 100% grass, herbs, and clover, our cattle are fed balage in the winter, ensuring a high-quality, flavorful product. Incorporating beef kidneys into your diet provides a range of essential nutrients for optimal health.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Liver</t>
@@ -277,13 +283,13 @@
     <t>0.90 - 1.30 lbs</t>
   </si>
   <si>
-    <t>Our Grass-Fed Beef Liver is a nutrient-dense organ meat that’s rich in protein and essential micronutrients while being low in calories. Known for its strong, earthy flavor and dark reddish-brown color, beef liver has a slightly grainy texture that, when cooked properly, becomes smooth and silky with little to no gristle or fat. Raised on 100% grass, herbs, and clover, and fed balage in the winter, our cattle produce liver that is not only flavorful but packed with beneficial fatty acids. Perfect when cooked medium-rare, it’s a nutrient powerhouse for those seeking optimal health.</t>
+    <t>Our Grass-Fed Beef Liver is a nutrient-dense organ meat that’s rich in protein and essential micronutrients while being low in calories. Known for its strong, earthy flavor and dark reddish-brown color, beef liver has a slightly grainy texture that, when cooked properly, becomes smooth and silky with little to no gristle or fat. Raised on 100% grass, herbs, and clover, and fed balage in the winter, our cattle produce liver that is not only flavorful but packed with beneficial fatty acids. Perfect when cooked medium-rare, it’s a nutrient powerhouse for those seeking optimal health.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Marrow Bones</t>
   </si>
   <si>
-    <t>Discover the rich, nutrient-dense goodness of Grass-Fed Beef Marrow Bones from Deck Family Farm. Known for their creamy marrow and robust flavor, these bones are perfect for making nourishing broths, hearty soups, or as a roasted delicacy.</t>
+    <t>Discover the rich, nutrient-dense goodness of Grass-Fed Beef Marrow Bones from Deck Family Farm. Known for their creamy marrow and robust flavor, these bones are perfect for making nourishing broths, hearty soups, or as a roasted delicacy.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Oxtail</t>
@@ -292,7 +298,7 @@
     <t>1.40 - 1.90 lbs</t>
   </si>
   <si>
-    <t>Formerly, it referred only to the tail of an ox or steer, a castrated male. An oxtail typically is skinned and cut into short lengths for sale. Oxtail is a bony, gelatin-rich meat, which is usually slow-cooked as a stew or braised.</t>
+    <t>Formerly, it referred only to the tail of an ox or steer, a castrated male. An oxtail typically is skinned and cut into short lengths for sale. Oxtail is a bony, gelatin-rich meat, which is usually slow-cooked as a stew or braised.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Shank Osso Buco</t>
@@ -301,7 +307,7 @@
     <t>2.10 - 2.40 lbs</t>
   </si>
   <si>
-    <t>Our Grass-Fed Beef Osso Buco is a rich, savory cut made from beef shank, which is a hardworking muscle wrapped around a marrow-rich bone. When cooked low and slow, the meat becomes incredibly tender, and the marrow softens, adding a luxurious depth of flavor to your dish. Raised on 100% grass, herbs, and clover, and fed balage in the winter, our cattle provide beef that’s naturally higher in beneficial fatty acids, flavor, and tenderness. Perfect for braising, this Osso Buco is a delicious, nutrient-packed choice for an unforgettable meal.</t>
+    <t>Our Grass-Fed Beef Osso Buco is a rich, savory cut made from beef shank, which is a hardworking muscle wrapped around a marrow-rich bone. When cooked low and slow, the meat becomes incredibly tender, and the marrow softens, adding a luxurious depth of flavor to your dish. Raised on 100% grass, herbs, and clover, and fed balage in the winter, our cattle provide beef that’s naturally higher in beneficial fatty acids, flavor, and tenderness. Perfect for braising, this Osso Buco is a delicious, nutrient-packed choice for an unforgettable meal.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Short Rib</t>
@@ -310,6 +316,9 @@
     <t>1.30 - 2.10 lbs</t>
   </si>
   <si>
+    <t>Our Grass-Fed Beef Short Ribs are a rich, flavorful cut that’s perfect for braising. While they come from the shoulder clod and can be a bit tough, slow cooking will make them incredibly tender, with a melt-in-your-mouth texture. Raised on 100% grass, herbs, and clover, and fed balage during the winter, our cattle produce beef that’s packed with flavor and beneficial fatty acids. Serve these succulent short ribs alongside buttered noodles, mashed potatoes, or creamy polenta, topped with savory gravy. Pair with an arugula salad or glazed carrots for a satisfying and wholesome meal.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Beef Side</t>
   </si>
   <si>
@@ -319,7 +328,7 @@
     <t>0.90 - 1.10 lbs</t>
   </si>
   <si>
-    <t>Beef stew meat, cut to 1 inch cubes. This product is trimmed prepared for your favorite beef stew. We like to cook these stew cubes in our meat stock and always make a double portion–stew invariably tastes better the next day!</t>
+    <t>Beef stew meat, cut to 1 inch cubes. This product is trimmed prepared for your favorite beef stew. We like to cook these stew cubes in our meat stock and always make a double portion–stew invariably tastes better the next day!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Tenderloin</t>
@@ -328,7 +337,7 @@
     <t>0.40 - 0.70 lbs</t>
   </si>
   <si>
-    <t>A long, narrow, and lean muscle located within the Loin, this is the most tender cut of beef available. The Tenderloin is the source of Tenderloin Steak or Filet Mignon, and is a component of T-Bone and Porterhouse Steaks.</t>
+    <t>A long, narrow, and lean muscle located within the Loin, this is the most tender cut of beef available. The Tenderloin is the source of Tenderloin Steak or Filet Mignon, and is a component of T-Bone and Porterhouse Steaks.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Beef Tongue</t>
@@ -337,13 +346,16 @@
     <t>2.50 - 3.00 lbs</t>
   </si>
   <si>
+    <t>Our Grass-Fed Beef Tongue from Deck Family Farm is a tender, rich, and flavorful delicacy. Prized for its melt-in-your-mouth texture and bold, beefy taste, this versatile cut can be slow-cooked, braised, or simmered for traditional dishes like tacos, stews, and sandwiches.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Beef Tri-Tip</t>
   </si>
   <si>
     <t>1.90 - 2.20 lbs</t>
   </si>
   <si>
-    <t>What exactly is tri-tip, and what's distinct about it? Tri-tip is the meat that comes from the bottom (“tip”) of the sirloin. Its name comes from its triangle shape and the fact that it is the at the very tip of the sirloin. It's rich in meaty flavor and lower in fat than other cuts.</t>
+    <t>What exactly is tri-tip, and what's distinct about it? Tri-tip is the meat that comes from the bottom (“tip”) of the sirloin. Its name comes from its triangle shape and the fact that it is the at the very tip of the sirloin. It's rich in meaty flavor and lower in fat than other cuts.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Brisket, Large</t>
@@ -352,6 +364,9 @@
     <t>Large, 4.00 - 5.00 lbs</t>
   </si>
   <si>
+    <t>Our Grass-Fed Beef Brisket is a tender, flavorful cut from the breast or lower chest of the beef, one of the nine primal cuts. Raised on 100% grass, herbs, and clover, our cattle are fed a balanced diet of balage during winter, ensuring high-quality beef year-round. Whether braised, smoked, or slowly roasted, this brisket transforms into a melt-in-your-mouth, savory dish with rich, satisfying flavor. Packed with beneficial fatty acids and exceptional tenderness, it's a perfect choice for meat lovers seeking a delicious, hearty, and naturally raised meal.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Brisket, Medium</t>
   </si>
   <si>
@@ -370,25 +385,28 @@
     <t>2.30 - 2.90 lbs</t>
   </si>
   <si>
+    <t>Our Grass-Fed Beef Chuck Roast comes from the shoulder area, known for its rich, beefy flavor. Ideal for slow-cooking, this large primal cut becomes tender and flavorful with time, making it perfect for hearty meals. Raised on 100% grass, herbs, and clover, and fed balage during the winter months, our cattle are nourished naturally for superior quality beef. With higher levels of beneficial fatty acids and exceptional tenderness, our Chuck Roast offers a savory, satisfying taste that meat lovers will appreciate.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Flank Steak</t>
   </si>
   <si>
     <t>1.10 - 1.40 lbs</t>
   </si>
   <si>
-    <t>It is a long, flat cut that runs from the rib end of the animal to the hip or rump. The grain of flank steak is very long and makes it a bit tougher than some other cuts, but marinating can tenderize it and it does well cooked medium-rare over high heat on a grill. Flank steak is high in protein and low in fat. An excellent choice for tacos!</t>
+    <t>It is a long, flat cut that runs from the rib end of the animal to the hip or rump. The grain of flank steak is very long and makes it a bit tougher than some other cuts, but marinating can tenderize it and it does well cooked medium-rare over high heat on a grill. Flank steak is high in protein and low in fat. An excellent choice for tacos!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Hamburger Patties</t>
   </si>
   <si>
-    <t>1 lb packages of 3 patties. (85% lean). Ground from cuts of the whole animal, this product is the embodiment of nose-to-tail eating. It is versatile and consistent, a cross-cultural staple that we reliably keep in our kitchen.</t>
+    <t>1 lb packages of 3 patties. (85% lean). Ground from cuts of the whole animal, this product is the embodiment of nose-to-tail eating. It is versatile and consistent, a cross-cultural staple that we reliably keep in our kitchen.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Hanger Steak</t>
   </si>
   <si>
-    <t>Hanger steak is a flat, flavorful cut of beef from the upper belly of a cow, also known as the plate. It's a primal cut that's similar to flank and skirt steak, but more tender. The cut gets its name from its location, just below the diaphragm, where it "hangs" between the ribs and loin.</t>
+    <t>Hanger steak is a flat, flavorful cut of beef from the upper belly of a cow, also known as the plate. It's a primal cut that's similar to flank and skirt steak, but more tender. The cut gets its name from its location, just below the diaphragm, where it "hangs" between the ribs and loin.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Korean Style Beef Ribs</t>
@@ -397,13 +415,16 @@
     <t>1.20 - 1.40 lbs</t>
   </si>
   <si>
+    <t>Unlike American and European-style short ribs, which include a thick slice of bone-in beef, Korean-style short ribs are cut lengthwise across the rib bones. The result is a thin strip of meat, about 8 to10 inches in length, lined on 1 side with 1/2-inch thick rib bones. "Galbi" is the Korean word for "rib", and the dish is usually made with beef short ribs.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Natural Ground Beef</t>
   </si>
   <si>
     <t>1 lbs</t>
   </si>
   <si>
-    <t>Ground from cuts of the whole animal, this product is the embodiment of nose-to-tail eating. It is versatile and consistent, a cross-cultural staple that we reliably keep in our kitchen. Note that this ground beef is not certified-organic as it comes from our non-certified dairy, though these animals are raised on the same certified-organic pasture as the rest of our beef.  Our ground beef varies between 85% to 80% lean</t>
+    <t>Ground from cuts of the whole animal, this product is the embodiment of nose-to-tail eating. It is versatile and consistent, a cross-cultural staple that we reliably keep in our kitchen. Note that this ground beef is not certified-organic as it comes from our non-certified dairy, though these animals are raised on the same certified-organic pasture as the rest of our beef.  Our ground beef varies between 85% to 80% lean  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>New York Steak</t>
@@ -412,10 +433,13 @@
     <t>0.50 - 0.90 lbs</t>
   </si>
   <si>
+    <t>The New York steak cut comes from the top part of the short loin behind the ribs. This cut tends to have fat on the edge of the steak and marbling throughout-this lends to a ton of flavor. Tender and lean meat.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Organic Ground Beef</t>
   </si>
   <si>
-    <t>Our Organic Ground Beef is a versatile, reliable choice for any kitchen. Ground from cuts of the whole animal, it embodies the principles of nose-to-tail eating, providing a consistent, high-quality product that is a cross-cultural staple. Raised on 100% grass, herbs, and clover, with balage fed in the winter, our cattle are nourished naturally for superior flavor, tenderness, and beneficial fatty acids. Perfect for a variety of dishes, this ground beef delivers a rich, savory taste in every bite.  Our ground beef varies between 85% to 80% lean.</t>
+    <t>Our Organic Ground Beef is a versatile, reliable choice for any kitchen. Ground from cuts of the whole animal, it embodies the principles of nose-to-tail eating, providing a consistent, high-quality product that is a cross-cultural staple. Raised on 100% grass, herbs, and clover, with balage fed in the winter, our cattle are nourished naturally for superior flavor, tenderness, and beneficial fatty acids. Perfect for a variety of dishes, this ground beef delivers a rich, savory taste in every bite.  Our ground beef varies between 85% to 80% lean.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Ribeye Steak</t>
@@ -424,13 +448,16 @@
     <t>0.80 - 1.10 lbs</t>
   </si>
   <si>
+    <t>The rib eye or ribeye is a boneless rib steak from the rib section. The ribeye is carved from the primal section called the beef rib. It falls between the chuck (shoulder) and the loin.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Skirt Steak, Large</t>
   </si>
   <si>
     <t>Large, .80 - 1.20 lbs</t>
   </si>
   <si>
-    <t>Our Grass-Fed Skirt Steak from Deck Family Farm is a flavorful, tender cut perfect for bold, hearty meals. Known for its rich marbling and deep beefy taste, this cut shines when marinated and seared at high heat for a juicy, satisfying dish.</t>
+    <t>Our Grass-Fed Skirt Steak from Deck Family Farm is a flavorful, tender cut perfect for bold, hearty meals. Known for its rich marbling and deep beefy taste, this cut shines when marinated and seared at high heat for a juicy, satisfying dish.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Skirt Steak, Small</t>
@@ -442,7 +469,7 @@
     <t>Teres Major Steak</t>
   </si>
   <si>
-    <t>The teres major muscle is a lean cut of beef from the chuck section of a cow. It's located right below the front leg and is mostly known only by skilled butchers. Other names for the cut are the shoulder tender, shoulder filet steak, teres major tenderloin and teres filet.</t>
+    <t>The teres major muscle is a lean cut of beef from the chuck section of a cow. It's located right below the front leg and is mostly known only by skilled butchers. Other names for the cut are the shoulder tender, shoulder filet steak, teres major tenderloin and teres filet.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Top Sirloin Steak</t>
@@ -451,7 +478,7 @@
     <t>1.30 - 1.60 lbs</t>
   </si>
   <si>
-    <t>Top sirloin steak is a thick, lean cut of beef from the upper part of the cow, between the ribs and butt, and below the tenderloin. It's known for its bold beefy flavor and can be juicy and flavorful due to its marbling. Top sirloin is a popular steakhouse cut that's affordable and can be cooked in many ways:Grilling: A favorite grilling steakPan-searing: Can be served as a standalone steakMarinades and sauces: Pairs well with theseOther cooking methods: Can be used for skillet cooking, stir-fry, broiling, sous vide, and kabobs</t>
+    <t>Top sirloin steak is a thick, lean cut of beef from the upper part of the cow, between the ribs and butt, and below the tenderloin. It's known for its bold beefy flavor and can be juicy and flavorful due to its marbling. Top sirloin is a popular steakhouse cut that's affordable and can be cooked in many ways:Grilling: A favorite grilling steakPan-searing: Can be served as a standalone steakMarinades and sauces: Pairs well with theseOther cooking methods: Can be used for skillet cooking, stir-fry, broiling, sous vide, and kabobs  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Unrendered Beef Tallow</t>
@@ -461,7 +488,7 @@
   </si>
   <si>
     <t xml:space="preserve">Our Grass-Fed Beef Tallow (Unrendered) from Deck Family Farm is a versatile, nutrient-rich product for home cooks and DIY enthusiasts. Unrendered tallow is raw, allowing you to render it yourself for cooking, skincare, or soap-making. It comes directly from our pasture-raised cattle, ensuring a high-quality, natural fat source with a clean, rich flavor. 1Lb of unrendered tallow gives about 1 Pint of rendered tallow. 
-Instructions: Chop or grind into small pieces, simmer on low with a small amount of water, strain through a fine sieve, let fat harden in fridge. Remove the fat block from the liquid at the bottom. Cook fat to 230 degrees F to clarify.</t>
+Instructions: Chop or grind into small pieces, simmer on low with a small amount of water, strain through a fine sieve, let fat harden in fridge. Remove the fat block from the liquid at the bottom. Cook fat to 230 degrees F to clarify.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Roasters &amp; Turkeys</t>
@@ -473,7 +500,7 @@
     <t>1 lb bag</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Chicken Feet from Deck Family Farm are a nutrient-rich ingredient perfect for making gelatinous, flavorful broths and stocks. Raised on open pastures, our chickens roam freely, ensuring exceptional quality and a clean, natural taste. Chicken feet are packed with collagen, making them an ideal addition to your kitchen for both health benefits and rich culinary flavor.</t>
+    <t>Our Pasture-Raised Chicken Feet from Deck Family Farm are a nutrient-rich ingredient perfect for making gelatinous, flavorful broths and stocks. Raised on open pastures, our chickens roam freely, ensuring exceptional quality and a clean, natural taste. Chicken feet are packed with collagen, making them an ideal addition to your kitchen for both health benefits and rich culinary flavor.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Chicken Hearts</t>
@@ -482,13 +509,13 @@
     <t>1/2 lb bag</t>
   </si>
   <si>
-    <t>Chicken hearts are a versatile, nutritious, and flavorful cut of meat that are bite-sized and chewy with a slightly metallic, gamey flavor and a taste similar to dark meat</t>
+    <t>Chicken hearts are a versatile, nutritious, and flavorful cut of meat that are bite-sized and chewy with a slightly metallic, gamey flavor and a taste similar to dark meat  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Chicken Liver</t>
   </si>
   <si>
-    <t>Our Chicken Liver is a flavorful and nutritious option for creating delicious, healthy meals. Perfect for sautéing in butter, making pâté, or adding to spaghetti sauce alongside ground meat, chicken liver is a versatile ingredient. For a simple yet elegant dish, sauté the livers with garlic, onion, salt, pepper, and a splash of red wine or chicken broth, then serve with mixed greens, sliced apples, or red onions. Sourced from our pasture-raised broilers, who enjoy a diet of grass, herbs, and clover, our chicken livers offer both exceptional flavor and quality. Enjoy a wholesome and gourmet meal with this nutrient-rich ingredient!</t>
+    <t>Our Chicken Liver is a flavorful and nutritious option for creating delicious, healthy meals. Perfect for sautéing in butter, making pâté, or adding to spaghetti sauce alongside ground meat, chicken liver is a versatile ingredient. For a simple yet elegant dish, sauté the livers with garlic, onion, salt, pepper, and a splash of red wine or chicken broth, then serve with mixed greens, sliced apples, or red onions. Sourced from our pasture-raised broilers, who enjoy a diet of grass, herbs, and clover, our chicken livers offer both exceptional flavor and quality. Enjoy a wholesome and gourmet meal with this nutrient-rich ingredient!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Chicken Part, Breast, Bone-In</t>
@@ -497,7 +524,7 @@
     <t>1.00 - 2.00 lbs</t>
   </si>
   <si>
-    <t>The supreme juiciness of bone-in, skin-on meat is hard to beat. The bone helps the chicken cook more evenly and the skin locks in moisture. Bone-in meat provides more micronutrients. Much like the meat that we eat, bones are living tissues and are therefore rich in vital micronutrients for our bodies. Bones themselves are rich sources of minerals including calcium and phosphorus, sodium, magnesium, as well as other important nutrients. Cook up up on the grill in a backyard summer BBQ and wow all your frien</t>
+    <t>The supreme juiciness of bone-in, skin-on meat is hard to beat. The bone helps the chicken cook more evenly and the skin locks in moisture. Bone-in meat provides more micronutrients. Much like the meat that we eat, bones are living tissues and are therefore rich in vital micronutrients for our bodies. Bones themselves are rich sources of minerals including calcium and phosphorus, sodium, magnesium, as well as other important nutrients. Cook up up on the grill in a backyard summer BBQ and wow all your frien  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Chicken Part, Breast, Boneless Skinless, Chunks</t>
@@ -506,7 +533,7 @@
     <t>6.00 - 6.60 lbs</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Boneless Skinless Chicken Breast Chunks from Deck Family Farm are a lean, protein-packed option perfect for quick, healthy meals. These bite-sized chunks come from pasture-raised chickens that enjoy fresh air and natural forage, resulting in tender, flavorful meat that’s versatile and easy to cook.</t>
+    <t>Our Pasture-Raised Boneless Skinless Chicken Breast Chunks from Deck Family Farm are a lean, protein-packed option perfect for quick, healthy meals. These bite-sized chunks come from pasture-raised chickens that enjoy fresh air and natural forage, resulting in tender, flavorful meat that’s versatile and easy to cook.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Chicken Part, Hindquarter</t>
@@ -515,7 +542,7 @@
     <t>1.00 - 1.50 lbs</t>
   </si>
   <si>
-    <t>Our Chicken Hindquarters, also known as chicken leg quarters, are a delicious and hearty cut that includes both the thigh and drumstick. Perfect for roasting, baking, or grilling, these hindquarters offer tender, flavorful meat with a crispy skin when cooked. Raised on fresh pasture where up to 20% of their diet includes grass, herbs, and clover, our pasture-raised broilers are well-fed and happy, ensuring high-quality, flavorful chicken. Whether you're preparing a simple family dinner or a savory feast, our chicken hindquarters provide a satisfying, wholesome meal.</t>
+    <t>Our Chicken Hindquarters, also known as chicken leg quarters, are a delicious and hearty cut that includes both the thigh and drumstick. Perfect for roasting, baking, or grilling, these hindquarters offer tender, flavorful meat with a crispy skin when cooked. Raised on fresh pasture where up to 20% of their diet includes grass, herbs, and clover, our pasture-raised broilers are well-fed and happy, ensuring high-quality, flavorful chicken. Whether you're preparing a simple family dinner or a savory feast, our chicken hindquarters provide a satisfying, wholesome meal.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Chicken Part, Wings</t>
@@ -524,13 +551,16 @@
     <t>1.50 - 2.00</t>
   </si>
   <si>
+    <t>Our Chicken Wings are a flavorful, juicy cut of white meat with a rich, concentrated poultry flavor, often enjoyed for their versatility in dishes like classic Buffalo wings. Whether you're frying, grilling, or baking, these wings deliver a delicious bite every time. Sourced from our pasture-raised broilers, who enjoy a diet of grass, herbs, and clover, our chickens are well-fed, happy, and healthy, ensuring high-quality meat with exceptional taste. Perfect for your next family gathering or game day, our chicken wings offer a satisfying and wholesome option for any occasion.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>CRX Roaster, Extra Large</t>
   </si>
   <si>
     <t>Extra Large, 5.00 - 6.00 lbs</t>
   </si>
   <si>
-    <t>Our CRX Roaster is a juicy and tender whole chicken that offers superior flavor and nutrition, thanks to the natural, pasture-raised environment in which these birds are raised. With up to 20% of their diet consisting of grass, herbs, and clover, these birds roam freely and enjoy a well-rounded, healthy diet, resulting in rich, flavorful meat. Perfect for roasting, this chicken delivers a far-cry from conventional varieties. Plus, don’t forget to save the bones to make a delicious homemade chicken stock! Note that the chicken in the photo is slightly larger than the one you will receive.</t>
+    <t>Our CRX Roaster is a juicy and tender whole chicken that offers superior flavor and nutrition, thanks to the natural, pasture-raised environment in which these birds are raised. With up to 20% of their diet consisting of grass, herbs, and clover, these birds roam freely and enjoy a well-rounded, healthy diet, resulting in rich, flavorful meat. Perfect for roasting, this chicken delivers a far-cry from conventional varieties. Plus, don’t forget to save the bones to make a delicious homemade chicken stock! Note that the chicken in the photo is slightly larger than the one you will receive.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>CRX Roaster, Large</t>
@@ -557,7 +587,7 @@
     <t>Large, 5.10 - 5.70 lbs</t>
   </si>
   <si>
-    <t>Red Rangers are a heritage breed of chicken, organically fed a no-soy diet, making them a healthier and more flavorful option for your table. These roasting chickens are perfect for broiling, offering tender, juicy meat with a rich, natural flavor. Raised on pasture with up to 20% of their diet consisting of grass, herbs, and clover, these birds roam freely, ensuring they're well-fed and happy. Ideal for anyone seeking a high-quality, delicious chicken with a focus on sustainability and nutrition.</t>
+    <t>Red Rangers are a heritage breed of chicken, organically fed a no-soy diet, making them a healthier and more flavorful option for your table. These roasting chickens are perfect for broiling, offering tender, juicy meat with a rich, natural flavor. Raised on pasture with up to 20% of their diet consisting of grass, herbs, and clover, these birds roam freely, ensuring they're well-fed and happy. Ideal for anyone seeking a high-quality, delicious chicken with a focus on sustainability and nutrition.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Red Ranger Roasting Chicken, Medium</t>
@@ -578,7 +608,7 @@
     <t>2 - 3 lbs</t>
   </si>
   <si>
-    <t>These birds are from our certified-organic, pastured egg operation. With longer and more active lives than roasters, our stewing hens are not only rich in deep, enduring flavor, but also in nutrients from their mature musculature and connective tissue. Make stock with the whole bird; don't forget to save the meat from the bones.</t>
+    <t>These birds are from our certified-organic, pastured egg operation. With longer and more active lives than roasters, our stewing hens are not only rich in deep, enduring flavor, but also in nutrients from their mature musculature and connective tissue. Make stock with the whole bird; don't forget to save the meat from the bones.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Turkey Feet</t>
@@ -587,7 +617,7 @@
     <t>2 lb bag</t>
   </si>
   <si>
-    <t>Turkey Feet are a nutrient-rich treat, perfect for making savory broths or adding depth to soups and stews. Our turkeys, including Bourbon, Bronze, and White breeds, are pasture-raised, with up to 20% of their diet consisting of fresh grass, herbs, and clover. They roam freely in fields, ensuring they are well-fed and happy. These high-quality, flavorful turkey feet are a great way to make use of every part of the bird while enjoying the natural, rich taste that comes from a diet rooted in fresh, sustainable forage.</t>
+    <t>Turkey Feet are a nutrient-rich treat, perfect for making savory broths or adding depth to soups and stews. Our turkeys, including Bourbon, Bronze, and White breeds, are pasture-raised, with up to 20% of their diet consisting of fresh grass, herbs, and clover. They roam freely in fields, ensuring they are well-fed and happy. These high-quality, flavorful turkey feet are a great way to make use of every part of the bird while enjoying the natural, rich taste that comes from a diet rooted in fresh, sustainable forage.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Spring Lamb</t>
@@ -596,13 +626,13 @@
     <t>Ground Lamb</t>
   </si>
   <si>
-    <t>Our Ground Lamb is made from tender, flavorful lambs raised on nutrient-rich, rotating pastures throughout the year. Occasionally grazing on other organic lands and cover crops, our lambs enjoy a wholesome, natural diet that enhances the meat’s quality and taste. Whether you're preparing savory meatballs, rich sauces, or lamb burgers, this versatile ground meat offers a delicious, grass-fed flavor in every bite. Perfect for any dish that calls for a premium, pasture-raised lamb option.</t>
+    <t>Our Ground Lamb is made from tender, flavorful lambs raised on nutrient-rich, rotating pastures throughout the year. Occasionally grazing on other organic lands and cover crops, our lambs enjoy a wholesome, natural diet that enhances the meat’s quality and taste. Whether you're preparing savory meatballs, rich sauces, or lamb burgers, this versatile ground meat offers a delicious, grass-fed flavor in every bite. Perfect for any dish that calls for a premium, pasture-raised lamb option.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Bones</t>
   </si>
   <si>
-    <t>Our Lamb Bones are a perfect addition to your culinary creations, ideal for making rich, flavorful broths, soups, and stocks. Raised on rotated pastures throughout the year, our lambs enjoy a natural diet that includes grazing on organic land and cover crops from other sustainable farms. This ensures that the meat and bones are of the highest quality, with rich flavors that come from a well-balanced, healthy diet. Use these nutrient-dense bones to create hearty meals with the wholesome taste of pasture-raised lamb.</t>
+    <t>Our Lamb Bones are a perfect addition to your culinary creations, ideal for making rich, flavorful broths, soups, and stocks. Raised on rotated pastures throughout the year, our lambs enjoy a natural diet that includes grazing on organic land and cover crops from other sustainable farms. This ensures that the meat and bones are of the highest quality, with rich flavors that come from a well-balanced, healthy diet. Use these nutrient-dense bones to create hearty meals with the wholesome taste of pasture-raised lamb.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Chops, 2 pack</t>
@@ -611,7 +641,7 @@
     <t>2 pack, 0.70 - 1.10 lbs</t>
   </si>
   <si>
-    <t>Our Lamb Chops are a tender, flavorful cut from lambs raised on lush, rotated pastures throughout the year. Occasionally grazing on other organic land and cover crops from sustainable farms, our lambs enjoy a rich, natural diet that enhances the quality and taste of the meat. Whether grilled, pan-seared, or roasted, these chops offer a delicious and savory experience that highlights the unique flavors of pasture-raised lamb. Perfect for any occasion, our Lamb Chops promise to bring a premium, farm-to-table taste to your meal.</t>
+    <t>Our Lamb Chops are a tender, flavorful cut from lambs raised on lush, rotated pastures throughout the year. Occasionally grazing on other organic land and cover crops from sustainable farms, our lambs enjoy a rich, natural diet that enhances the quality and taste of the meat. Whether grilled, pan-seared, or roasted, these chops offer a delicious and savory experience that highlights the unique flavors of pasture-raised lamb. Perfect for any occasion, our Lamb Chops promise to bring a premium, farm-to-table taste to your meal.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Chops, 4 pack</t>
@@ -626,31 +656,37 @@
     <t xml:space="preserve">2 pack, 0.8 - 1.1 lbs	</t>
   </si>
   <si>
+    <t>Lamb heart is a muscle like other cuts of steak, but it is more dense with a higher nutrient content and additional protein. Lamb heart contains all essential amino acids, zinc, selenium and phosphorus. It has more than double the elastin and collagen than other cuts of meat and a highly concentrated source of coenzyme Q10, also known as CoQ10. Mix your lamb heart into ground lamb, stews, skewers, cut and grilled as a steak, make it into jerky, or cook it into a delicious gumbo!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Lamb Kabob</t>
   </si>
   <si>
     <t>1.1 - 1.35</t>
   </si>
   <si>
+    <t>Our Lamb Kabobs are made from premium, pasture-raised lambs that are rotated on lush, organic pastures throughout the year. Occasionally grazing on other organic lands and cover crops, our lambs enjoy a varied, natural diet, which enhances the rich flavor and tenderness of the meat. Perfect for grilling or roasting, these kabobs offer a delicious and wholesome choice for your next BBQ or family dinner. Enjoy the exceptional taste of lamb raised with care and sustainability in mind.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Lamb Neck Slices</t>
   </si>
   <si>
     <t>1.10 - 1.50 lbs</t>
   </si>
   <si>
-    <t>Our Lamb Neck Slices are a flavorful and tender cut, perfect for slow cooking or braising. Raised on lush, rotating pastures throughout the year, our lambs enjoy a varied, natural diet that enhances the meat's rich flavor and quality. Occasionally grazing on other organic lands and cover crops, these lambs provide a superior product that’s both delicious and sustainable. Ideal for stews, soups, or savory dishes, these neck slices offer an exceptional taste of pasture-raised lamb.</t>
+    <t>Our Lamb Neck Slices are a flavorful and tender cut, perfect for slow cooking or braising. Raised on lush, rotating pastures throughout the year, our lambs enjoy a varied, natural diet that enhances the meat's rich flavor and quality. Occasionally grazing on other organic lands and cover crops, these lambs provide a superior product that’s both delicious and sustainable. Ideal for stews, soups, or savory dishes, these neck slices offer an exceptional taste of pasture-raised lamb.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Ribs</t>
   </si>
   <si>
-    <t>Our Lamb Ribs offer a tender, flavorful cut that's perfect for smoking, braising, or slow cooking. While not overly meaty, these racks are a fun, delicious treat to eat off the bone and can be transformed into melt-in-your-mouth goodness. Try them with a Mediterranean-style barbecue for an unforgettable meal. Raised on rotating pastures and occasionally grazing on organic cover crops, our lambs are nurtured on a natural diet, ensuring exceptional flavor and quality in every bite. Perfect for a unique and tasty dining experience!</t>
+    <t>Our Lamb Ribs offer a tender, flavorful cut that's perfect for smoking, braising, or slow cooking. While not overly meaty, these racks are a fun, delicious treat to eat off the bone and can be transformed into melt-in-your-mouth goodness. Try them with a Mediterranean-style barbecue for an unforgettable meal. Raised on rotating pastures and occasionally grazing on organic cover crops, our lambs are nurtured on a natural diet, ensuring exceptional flavor and quality in every bite. Perfect for a unique and tasty dining experience!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Shank Osso Buco</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Lamb Shanks from Deck Family Farm are the perfect cut for creating a rich, flavorful Osso Bucco. These meaty shanks come from lambs raised on open pastures, resulting in tender, nutrient-dense meat with a deep, savory flavor. When slow-braised, lamb shanks become fall-off-the-bone tender, making them ideal for comforting, gourmet meals.</t>
+    <t>Our Pasture-Raised Lamb Shanks from Deck Family Farm are the perfect cut for creating a rich, flavorful Osso Bucco. These meaty shanks come from lambs raised on open pastures, resulting in tender, nutrient-dense meat with a deep, savory flavor. When slow-braised, lamb shanks become fall-off-the-bone tender, making them ideal for comforting, gourmet meals.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Shank, Whole</t>
@@ -659,7 +695,7 @@
     <t>2.00 - 2.50 lbs</t>
   </si>
   <si>
-    <t>Lamb Shank is a rich, meaty cut from the lower leg of the lamb, known for its deep, gamey flavor. Perfect for slow cooking, this cut offers great value as the bone releases collagen, enhancing the tenderness and flavor as it cooks. Compared to milder cuts like loin or shoulder chops, lamb shank has a more pronounced gamey taste, ideal for those who enjoy bold, rustic flavors. Our lambs are raised on rotated pastures and occasionally graze on organic land, ensuring the meat is tender and full of natural flavor. Slow-braised or stewed, this cut is perfect for a hearty, flavorful meal.</t>
+    <t>Lamb Shank is a rich, meaty cut from the lower leg of the lamb, known for its deep, gamey flavor. Perfect for slow cooking, this cut offers great value as the bone releases collagen, enhancing the tenderness and flavor as it cooks. Compared to milder cuts like loin or shoulder chops, lamb shank has a more pronounced gamey taste, ideal for those who enjoy bold, rustic flavors. Our lambs are raised on rotated pastures and occasionally graze on organic land, ensuring the meat is tender and full of natural flavor. Slow-braised or stewed, this cut is perfect for a hearty, flavorful meal.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Shoulder Roast</t>
@@ -668,7 +704,7 @@
     <t>2.30 - 2.70 lbs</t>
   </si>
   <si>
-    <t>Our Lamb Shoulder Roast is the perfect centerpiece for feeding a large group. This versatile cut can be dry-rubbed and roasted slowly to achieve a crispy, golden finish or braised to tender perfection for a juicy, succulent meal. Raised on rotating pastures and occasionally grazing on organic cover crops, our lambs enjoy a natural diet that enhances the flavor and tenderness of the meat. Impress your guests with a flavorful, slow-cooked lamb roast that showcases the best of pasture-raised quality!</t>
+    <t>Our Lamb Shoulder Roast is the perfect centerpiece for feeding a large group. This versatile cut can be dry-rubbed and roasted slowly to achieve a crispy, golden finish or braised to tender perfection for a juicy, succulent meal. Raised on rotating pastures and occasionally grazing on organic cover crops, our lambs enjoy a natural diet that enhances the flavor and tenderness of the meat. Impress your guests with a flavorful, slow-cooked lamb roast that showcases the best of pasture-raised quality!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Side</t>
@@ -677,13 +713,16 @@
     <t>Lamb Stew</t>
   </si>
   <si>
+    <t>Our Lamb Stew is boneless and pre-cut for your convenience, making it perfect for a quick and easy meal. Slow cook it to achieve melt-in-your-mouth tenderness, with every bite full of rich, savory flavor. For an extra boost, try pairing it with our osso bucco neck or shank slices for a truly hearty dish. Raised on rotating pastures and occasionally grazing on organic land, our lambs are nurtured for exceptional flavor and tenderness in every cut. Perfect for cozy meals that will warm you from the inside out!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Rack of Lamb</t>
   </si>
   <si>
     <t>2.50 - 3.10 lbs</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Rack of Lamb from Deck Family Farm is a premium, tender cut known for its delicate flavor and elegant presentation. Raised on lush pastures, our lambs enjoy a natural diet, which results in rich, juicy meat with a clean, earthy taste. Whether roasted whole or sliced into chops, this cut is perfect for special occasions or gourmet weeknight meals.</t>
+    <t>Our Pasture-Raised Rack of Lamb from Deck Family Farm is a premium, tender cut known for its delicate flavor and elegant presentation. Raised on lush pastures, our lambs enjoy a natural diet, which results in rich, juicy meat with a clean, earthy taste. Whether roasted whole or sliced into chops, this cut is perfect for special occasions or gourmet weeknight meals.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Sausages &amp; N Free Cures</t>
@@ -695,13 +734,13 @@
     <t>8 oz</t>
   </si>
   <si>
-    <t>These 8oz packs of Bacon Ends &amp;amp; Pieces are perfect for adding rich, savory flavor to stuffings, soups, veggie sautées, and more! Our heritage hogs roam freely in open pastures and oak woodlands, grazing on a diet of dairy, hazelnuts, and custom-milled grains. This well-rounded lifestyle results in high-quality, flavorful bacon that’s earned rave reviews throughout the Willamette Valley. Perfect for enhancing any dish with that irresistible, smoky goodness.</t>
+    <t>These 8oz packs of Bacon Ends &amp;amp; Pieces are perfect for adding rich, savory flavor to stuffings, soups, veggie sautées, and more! Our heritage hogs roam freely in open pastures and oak woodlands, grazing on a diet of dairy, hazelnuts, and custom-milled grains. This well-rounded lifestyle results in high-quality, flavorful bacon that’s earned rave reviews throughout the Willamette Valley. Perfect for enhancing any dish with that irresistible, smoky goodness.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bacon, Pork</t>
   </si>
   <si>
-    <t>Our Pork Bacon comes from heritage hogs that roam freely in open pastures and oak woodlands throughout the Spring, Summer, and Fall. They enjoy a well-balanced diet of dairy, hazelnuts, and custom-milled grains, resulting in rich, flavorful meat that’s consistently praised across the Willamette Valley. This 8oz pack of sugar-free bacon is the GOAT—no explanation necessary. Please note that recipes may vary and could include a small amount of sugar, though the bacon remains irresistibly delicious.</t>
+    <t>Our Pork Bacon comes from heritage hogs that roam freely in open pastures and oak woodlands throughout the Spring, Summer, and Fall. They enjoy a well-balanced diet of dairy, hazelnuts, and custom-milled grains, resulting in rich, flavorful meat that’s consistently praised across the Willamette Valley. This 8oz pack of sugar-free bacon is the GOAT—no explanation necessary. Please note that recipes may vary and could include a small amount of sugar, though the bacon remains irresistibly delicious.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bratwurst</t>
@@ -710,39 +749,39 @@
     <t>12 oz</t>
   </si>
   <si>
-    <t>Our Bratwurst Sausage is made from premium pork, blended with a savory mix of spices and herbs. Often served sautéed or broiled, this flavorful sausage sometimes comes without a casing for a more tender bite. We raise our heritage hogs in open pastures and oak woodlands, where they enjoy a diet of dairy, hazelnuts, and custom-milled grains. This well-rounded diet and ample exercise result in high-quality, flavorful meat that consistently earns praise across the Willamette Valley. Perfect for a satisfying meal any time!</t>
+    <t>Our Bratwurst Sausage is made from premium pork, blended with a savory mix of spices and herbs. Often served sautéed or broiled, this flavorful sausage sometimes comes without a casing for a more tender bite. We raise our heritage hogs in open pastures and oak woodlands, where they enjoy a diet of dairy, hazelnuts, and custom-milled grains. This well-rounded diet and ample exercise result in high-quality, flavorful meat that consistently earns praise across the Willamette Valley. Perfect for a satisfying meal any time!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Country Sausage, Bulk</t>
   </si>
   <si>
     <t xml:space="preserve">Our Bulk Country Sausage is made from the highest quality pork, raised with care on our heritage hogs that roam open pastures and oak woodlands during the Spring, Summer, and Fall. Their diet of dairy, hazelnuts, and custom-milled grains, along with plenty of exercise, results in flavorful, tender meat that consistently earns praise throughout the Willamette Valley. Perfect for adding robust, savory taste to your dishes!
-Ingredients: Pork Water, Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil), Spices, Turbinado Sugar</t>
+Ingredients: Pork Water, Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil), Spices, Turbinado Sugar  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Fresh Garlic Sausage Links</t>
   </si>
   <si>
     <t xml:space="preserve">Our 12oz Fresh Garlic Sausage Links come separated into four links, offering a clean, fresh taste that’s not overly garlicky. This versatile sausage is a favorite for everything from pasta dishes to grilling. Made from heritage hogs that roam open pastures and oak woodlands, their diet of dairy, hazelnuts, and custom-milled grains results in high-quality, flavorful meat praised throughout the Willamette Valley. 
-Ingredients: All-Natural Pork, Water Contains 2% Or Less Of: Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil, Spices, Turbinado Sugar, Garlic, packed in hog casings</t>
+Ingredients: All-Natural Pork, Water Contains 2% Or Less Of: Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil, Spices, Turbinado Sugar, Garlic, packed in hog casings  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Honey Maple Ham, Sliced</t>
   </si>
   <si>
-    <t>Perfectly balanced--a little sweet and a little salty, meaty with flavorful veins of marbling. Great in sandwiches or for all-day snacking. Try shredding it into thin strips to scramble with some eggs!*recipes may not match photo, are liable to change and may include a small amount of sugar*</t>
+    <t>Perfectly balanced--a little sweet and a little salty, meaty with flavorful veins of marbling. Great in sandwiches or for all-day snacking. Try shredding it into thin strips to scramble with some eggs!*recipes may not match photo, are liable to change and may include a small amount of sugar*  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Garlic Sausage</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Lamb Garlic Sausage from Deck Family Farm is a flavorful blend of tender lamb, fresh garlic, and aromatic spices. Made from pasture-raised lamb, this sausage is packed with rich, savory flavor and a juicy, satisfying texture. Whether grilled, pan-fried, or added to your favorite recipes, it’s the perfect choice for a hearty and delicious meal.</t>
+    <t>Our Pasture-Raised Lamb Garlic Sausage from Deck Family Farm is a flavorful blend of tender lamb, fresh garlic, and aromatic spices. Made from pasture-raised lamb, this sausage is packed with rich, savory flavor and a juicy, satisfying texture. Whether grilled, pan-fried, or added to your favorite recipes, it’s the perfect choice for a hearty and delicious meal.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Sundried Tomato Basil Sausage</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Lamb Sundried Tomato Basil Sausage from Deck Family Farm is a Mediterranean-inspired blend of tender lamb, sweet sundried tomatoes, and fragrant basil. This flavorful sausage brings a bright, savory taste with a hint of sweetness and herbaceous notes. Made with pasture-raised lamb, it’s the perfect addition to pastas, grain bowls, or enjoyed straight off the grill.</t>
+    <t>Our Pasture-Raised Lamb Sundried Tomato Basil Sausage from Deck Family Farm is a Mediterranean-inspired blend of tender lamb, sweet sundried tomatoes, and fragrant basil. This flavorful sausage brings a bright, savory taste with a hint of sweetness and herbaceous notes. Made with pasture-raised lamb, it’s the perfect addition to pastas, grain bowls, or enjoyed straight off the grill.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t xml:space="preserve">Landjaeger Jerky, 3 pack </t>
@@ -752,14 +791,14 @@
   </si>
   <si>
     <t xml:space="preserve">Our Landjaeger is a 3-count pack of nitrite-free cured sausage, inspired by the Swiss/German hunters' tradition. With its rich, smoky flavor and satisfying texture, it's one of Ella's favorites! Made from heritage hogs that roam open pastures and oak woodlands, their diet of dairy, hazelnuts, and custom-milled grains ensures high-quality, flavorful meat that consistently receives praise across the Willamette Valley. Perfect for snacking or sharing!
-Ingredients: Pork, Beef, Turbinado Sugar, Sea Salt, Spices, Mustard Seed, Paprika, Granulated Garlic, Celery Powder, Yeast, Allspice, Lactic Acid Culture, Packed in Hog Casing</t>
+Ingredients: Pork, Beef, Turbinado Sugar, Sea Salt, Spices, Mustard Seed, Paprika, Granulated Garlic, Celery Powder, Yeast, Allspice, Lactic Acid Culture, Packed in Hog Casing  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Olympia Provisions Frankfurter</t>
   </si>
   <si>
     <t xml:space="preserve">Our Pork Frankfurters are crafted with tender pork shoulder from Deck Family Farm’s 100% pasture-raised heritage hogs. Made artisanally by our Pasture Network partner, Olympia Provisions, these sausages come in a package of four, foot-long links encased in natural lamb casings. Smoked with a blend of hickory and apple wood, they deliver a rich, smoky flavor. Our heritage hogs roam open pastures and oak woodlands, enjoying a diet of dairy, hazelnuts, and custom-milled grains, resulting in high-quality, flavorful meat that consistently garners praise across the Willamette Valley. Perfect for grilling or a satisfying meal!
-Ingredients: Pork, pork fat, water, milk powder, Less than 2%: spices, salt, cultured dextrose, dried vinegar, garlic, dextrose, oregano, swiss chard powder, natural flavors, lactic acid culture. Lamb Casing. Contains Milk.</t>
+Ingredients: Pork, pork fat, water, milk powder, Less than 2%: spices, salt, cultured dextrose, dried vinegar, garlic, dextrose, oregano, swiss chard powder, natural flavors, lactic acid culture. Lamb Casing. Contains Milk.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Olympia Provisions Saucisson D'Arles Salami</t>
@@ -768,7 +807,7 @@
     <t>4.5 oz</t>
   </si>
   <si>
-    <t>Saucisson D'Arles from Deck Family Farm is a handcrafted, dry-cured French-style salami made from premium pasture-raised pork. Inspired by the classic charcuterie traditions of Arles, this simple yet rich sausage contains just pork, sea salt, and pepper, highlighting the natural flavors of the meat. It’s the perfect addition to any charcuterie board or snack spread.</t>
+    <t>Saucisson D'Arles from Deck Family Farm is a handcrafted, dry-cured French-style salami made from premium pasture-raised pork. Inspired by the classic charcuterie traditions of Arles, this simple yet rich sausage contains just pork, sea salt, and pepper, highlighting the natural flavors of the meat. It’s the perfect addition to any charcuterie board or snack spread.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Olympia Provisions, Dog Treats</t>
@@ -777,13 +816,13 @@
     <t>5 oz</t>
   </si>
   <si>
-    <t>Introducing the newly re-designed Olympia Provisions Dog Treats! These protein-packed meaty sausages are made of 100% pure pork. Not only will they fuel your dog for its next adventure, but they help OP minimize waste in the meat industry.</t>
+    <t>Introducing the newly re-designed Olympia Provisions Dog Treats! These protein-packed meaty sausages are made of 100% pure pork. Not only will they fuel your dog for its next adventure, but they help OP minimize waste in the meat industry.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Olympia Provisions, Rosette D'Oregon Salami</t>
   </si>
   <si>
-    <t>Another excellent cured meat product from our partners at Olympia Provisions. Flavor profile of sea salt, red wine, rosemary, and juniper. A delicious addition to any charcuterie board.</t>
+    <t>Another excellent cured meat product from our partners at Olympia Provisions. Flavor profile of sea salt, red wine, rosemary, and juniper. A delicious addition to any charcuterie board.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pastrami, Sliced</t>
@@ -792,14 +831,14 @@
     <t xml:space="preserve">Our Pastrami is tender, flavorful, and nutritionally dense—making it a favorite for sandwiches. For the classic hot pastrami experience, try heating it with onions and serving it with mustard and a pickle. Perfect for a satisfying, savory meal! Please note, recipes may vary and could include a small amount of sugar, though the delicious taste remains the same.
 Ingredients: Beef, Water, Sta Salt, Turbinado Sugar, Honey, Cultured Celery Powder, Cherry
 Powder, Pastrami Rub, (Paprika, Salt, Black Pepper, Garlic Power, Onion Powder, Clove)
-</t>
+  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Peppered Knife Cut Beef Jerky</t>
   </si>
   <si>
     <t xml:space="preserve">Enjoy this protein-dense snack on hikes or drives or whenever you need a peppery boost!*recipes may not match photo, are liable to change and may include a small amount of sugar*
-Ingredients: Beef, Water, Honey, Contains 2% or less of the following: Sea Salt, Black Pepper, Cultured Celery Powder, Pure Maple Sugar, Pineapple Juice (Water, Concentrated Pineapple Juice and Ascorbic Acid(Vitamin C), Granulated Garlic, Ginger, Granulated Onion</t>
+Ingredients: Beef, Water, Honey, Contains 2% or less of the following: Sea Salt, Black Pepper, Cultured Celery Powder, Pure Maple Sugar, Pineapple Juice (Water, Concentrated Pineapple Juice and Ascorbic Acid(Vitamin C), Granulated Garlic, Ginger, Granulated Onion  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pepperoni stick</t>
@@ -808,60 +847,60 @@
     <t>6 oz</t>
   </si>
   <si>
-    <t>Description:   With a blend of our pasture-raised pork and beef, these pepperoni snack sticks are a perfect balance of spicy, smoky, and satisfying. Perfect for on the trail, the open road, or browsing your local farmer’s market!  Ingredients:   Pork, Beef, Sea Salt, Contains 2% or less of the following: Spices, Jalepeno Peppers, Yeast, Cultured Celery Powder, Paprika, Chili Powder (Chili Pepper, Salt, Spices, Garlic), Fennel Seed, Cayenne Pepper, Anise Seed, Turbinado Sugar, Granulated Garlic, Packed in Collagen.    6oz Packages</t>
+    <t>Description:   With a blend of our pasture-raised pork and beef, these pepperoni snack sticks are a perfect balance of spicy, smoky, and satisfying. Perfect for on the trail, the open road, or browsing your local farmer’s market!  Ingredients:   Pork, Beef, Sea Salt, Contains 2% or less of the following: Spices, Jalepeno Peppers, Yeast, Cultured Celery Powder, Paprika, Chili Powder (Chili Pepper, Salt, Spices, Garlic), Fennel Seed, Cayenne Pepper, Anise Seed, Turbinado Sugar, Granulated Garlic, Packed in Collagen.    6oz Packages  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pepperoni stick, 6 oz (Hiker's Pepperoni)</t>
   </si>
   <si>
-    <t>Our Hikers Pepperoni Sticks are a delicious, high-energy snack, perfect for ketogenic diets or outdoor adventures. Due to an unintended higher fat content in this batch, these pepperoni sticks are packed with calories, making them a great choice for hiking or backpacking. Reminiscent of traditional Native American pemmican—dried meat, tallow, berries, and spices—our pepperoni offers lots of energy in a small, portable package. While the mouthfeel may differ slightly, the rich, savory flavor remains just as wonderful as ever. Stock up for your next outing!</t>
+    <t>Our Hikers Pepperoni Sticks are a delicious, high-energy snack, perfect for ketogenic diets or outdoor adventures. Due to an unintended higher fat content in this batch, these pepperoni sticks are packed with calories, making them a great choice for hiking or backpacking. Reminiscent of traditional Native American pemmican—dried meat, tallow, berries, and spices—our pepperoni offers lots of energy in a small, portable package. While the mouthfeel may differ slightly, the rich, savory flavor remains just as wonderful as ever. Stock up for your next outing!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Polish Kielbasa</t>
   </si>
   <si>
     <t xml:space="preserve">Our Pasture-Raised Polish Kielbasa from Deck Family Farm is a traditional, hearty sausage made with premium cuts of pasture-raised pork, seasoned with garlic, black pepper, and fragrant spices. Naturally smoked to perfection, this kielbasa boasts a rich, savory flavor with a juicy, satisfying bite. Whether grilled, pan-seared, or added to stews, it’s a versatile staple for any meal.
-Ingredients: Pork, Beef, Water, Contains 2% Or Less Of: Non-Fat Dry Milk, Sea Salt, Spices, Turbinado Sugar, Granulated Garlic, Cultured Celery Powder, Packed in Hog Casings</t>
+Ingredients: Pork, Beef, Water, Contains 2% Or Less Of: Non-Fat Dry Milk, Sea Salt, Spices, Turbinado Sugar, Granulated Garlic, Cultured Celery Powder, Packed in Hog Casings  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Roast Beef, Sliced</t>
   </si>
   <si>
     <t xml:space="preserve">Our 8oz package of Sliced Roast Beef features lean, thinly sliced pieces of this classic deli favorite. Perfect for sandwiches or just enjoying as a quick, tasty snack right out of the package. Please note, recipes may vary and could include a small amount of sugar, but the delicious flavor remains the same.
-Ingredients: Beef, Water, Sea Salt, Turbinado Sugar, Onion, Garlic</t>
+Ingredients: Beef, Water, Sea Salt, Turbinado Sugar, Onion, Garlic  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Sage &amp; Sea Salt Sausage</t>
   </si>
   <si>
     <t xml:space="preserve">Our 8oz package of Sage and Sea Salt Pork Breakfast Sausage features smaller, perfectly seasoned links that are ideal for breakfast. With a delicious blend of sage and sea salt, these sausages offer a savory, flavorful start to your day.
-Ingredients: Pork, Water, Sea Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil), Spices, Turbinado Sugar, Sage, Packed in Sheep Casings</t>
+Ingredients: Pork, Water, Sea Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil), Spices, Turbinado Sugar, Sage, Packed in Sheep Casings  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Salami de Ouvrier</t>
   </si>
   <si>
-    <t>This salami is a true celebration of Oregon! Deck Family Farm pasture-raised pork, Pinot Noir from the Willamette Valley, juniper, rosemary, and Jacobsen Sea Salt. A smooth, soft texture with a tangy acidity, balanced with an umami-rich fattiness.</t>
+    <t>This salami is a true celebration of Oregon! Deck Family Farm pasture-raised pork, Pinot Noir from the Willamette Valley, juniper, rosemary, and Jacobsen Sea Salt. A smooth, soft texture with a tangy acidity, balanced with an umami-rich fattiness.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Summer Sausage</t>
   </si>
   <si>
-    <t>8 oz single link of summer sausage. This product is great for hikes and picnics or as an addition to a charcuterie board. Try a different preparation by thinly slicing and crisping on a skillet.*recipes may not match photo, are liable to change and may include a small amount of sugar*</t>
+    <t>8 oz single link of summer sausage. This product is great for hikes and picnics or as an addition to a charcuterie board. Try a different preparation by thinly slicing and crisping on a skillet.*recipes may not match photo, are liable to change and may include a small amount of sugar*  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Sweet Italian Sausage Links</t>
   </si>
   <si>
     <t xml:space="preserve">Our 12oz package of Sweet Italian Sausage Links comes separated into four delicious links. A classic favorite, this sausage is versatile and works in a variety of dishes. Try removing the casing and shaping it into patties, or use it as the base for a flavorful stir-fry. Please note, recipes may vary and could include a small amount of sugar, but the great taste remains unchanged.
-Pork, Water, Sea Salt, Lemon Juice (Water, Lemon From Concentrate, Lemon Oil), Spices, Fennel Seed, Turbinado Sugar, Hog Casings </t>
+Pork, Water, Sea Salt, Lemon Juice (Water, Lemon From Concentrate, Lemon Oil), Spices, Fennel Seed, Turbinado Sugar, Hog Casings   Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Tamari Pressed Beef Jerky</t>
   </si>
   <si>
     <t xml:space="preserve">Our Tamari Pressed Beef Jerky is a classic market favorite, loved by both children and adults. With its mild tamari flavor, this jerky makes an excellent all-day snack that’s perfect for on-the-go. Tender, savory, and satisfying—ideal for any adventure!
-Ingredients: Beef, Sea Salt, Brown Sugar, Sugar, Organic Dry Tamari (Organic Tamari, (Water, Organic Soybeans, Salt, Organic Alcohol) Organic Maltodextrin), Yeast, Pineapple Juice and Ascorbic Acid (Vitamin C), Dried Maple Syrup (Dextrose, Natural Maple Flavor), Black Pepper, Garlic, Onion, Cultured Celery Powder, Ginger</t>
+Ingredients: Beef, Sea Salt, Brown Sugar, Sugar, Organic Dry Tamari (Organic Tamari, (Water, Organic Soybeans, Salt, Organic Alcohol) Organic Maltodextrin), Yeast, Pineapple Juice and Ascorbic Acid (Vitamin C), Dried Maple Syrup (Dextrose, Natural Maple Flavor), Black Pepper, Garlic, Onion, Cultured Celery Powder, Ginger  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Eggs, Organic Layers</t>
@@ -873,7 +912,7 @@
     <t>1 dozen</t>
   </si>
   <si>
-    <t>Certified organic eggs from pasture-raised hens. Our eggs are renowned up and down the Willamette Valley for their rainbow-colored shells and rich, dark yolks. Compared to conventional eggs, pasture-raised eggs contain less cholesterol and more vitamin A, omega-3 fatty-acids, vitamin E, and beta-carotene.</t>
+    <t>Certified organic eggs from pasture-raised hens. Our eggs are renowned up and down the Willamette Valley for their rainbow-colored shells and rich, dark yolks. Compared to conventional eggs, pasture-raised eggs contain less cholesterol and more vitamin A, omega-3 fatty-acids, vitamin E, and beta-carotene.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Organic Pasture Raised Chicken Eggs, 1/2 dozen</t>
@@ -882,6 +921,12 @@
     <t>1/2 dozen</t>
   </si>
   <si>
+    <t>Small Organic Pasture Raised Chicken Eggs</t>
+  </si>
+  <si>
+    <t>Size small of our certified organic eggs from pasture-raised hens. Our eggs are renowned up and down the Willamette Valley for their rainbow-colored shells and rich, dark yolks. Compared to conventional eggs, pasture-raised eggs contain less cholesterol and more vitamin A, omega-3 fatty-acids, vitamin E, and beta-carotene.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Hyland Processing</t>
   </si>
   <si>
@@ -891,7 +936,7 @@
     <t>4 links/ pack 14 oz pack</t>
   </si>
   <si>
-    <t>Start your day off right with our Blueberry Maple Linked Sausage! Packed with local blueberries, real maple syrup, and fresh sage from our garden, these sausages are the perfect complement to pancakes, French toast, eggs, or hash browns. Each 4-link pack features a delicious balance of sweet and savory flavors, with ingredients like gluten-free oats, fresh garlic, onion, and aromatic spices. A breakfast favorite that’s sure to delight!</t>
+    <t>Start your day off right with our Blueberry Maple Linked Sausage! Packed with local blueberries, real maple syrup, and fresh sage from our garden, these sausages are the perfect complement to pancakes, French toast, eggs, or hash browns. Each 4-link pack features a delicious balance of sweet and savory flavors, with ingredients like gluten-free oats, fresh garlic, onion, and aromatic spices. A breakfast favorite that’s sure to delight!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bulk Cajun Chaurice Sausage</t>
@@ -901,52 +946,55 @@
 Spiciness level - 5/10
 Ingredients: Pork, Onion, Sea Salt, Green Onion, Fresh Parsley, Garlic, Fresh Thyme, Paprika, Cayenne, Bay Leaf, Celery Seed
 Note: The picture shows linked sausages, but this item is bulk, ground sausage.
-</t>
+  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bulk English Breakfast Sausage</t>
   </si>
   <si>
-    <t>A nice all-around breakfast sausage. Fry up as little patties or mix into your omelet or quiche. This sausage is flavored with warming spices and savory herbs. Enjoy with your favorite cup of tea!Ingredients: Pork, Oats, Onion, Sea Salt, Fresh Garlic, Fresh Rosemary, Fresh Thyme, White Pepper, Nutmeg, Marjoram, MaceContains: Wheat&amp;nbsp;</t>
+    <t>A nice all-around breakfast sausage. Fry up as little patties or mix into your omelet or quiche. This sausage is flavored with warming spices and savory herbs. Enjoy with your favorite cup of tea!Ingredients: Pork, Oats, Onion, Sea Salt, Fresh Garlic, Fresh Rosemary, Fresh Thyme, White Pepper, Nutmeg, Marjoram, MaceContains: Wheat&amp;nbsp;  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bulk Farm Made Chorizo Sausage</t>
   </si>
   <si>
-    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne.</t>
+    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bulk Lamb Merguez Sausage</t>
   </si>
   <si>
-    <t>Our Lamb Merguez Sausage brings the vibrant flavors of North Africa to your kitchen. Traditionally grilled over coals as street food, this sausage is spiced with harissa paste, crushed spices, and minced onions and garlic. Perfect for pairing with couscous, beans, eggs, or a fresh arugula salad, it can also be enjoyed the French way—grilled on a baguette, smeared with Dijon or mayonnaise, and topped with crispy French fries! With a mild spiciness level of 3/10, it delivers a flavorful heat to complement its rich lamb base.Ingredients: Lamb, onion, sea salt, chiles, fresh garlic, fresh parsley, paprika, black pepper, sumac, coriander, cumin, allspice, cayenne.</t>
+    <t>Our Lamb Merguez Sausage brings the vibrant flavors of North Africa to your kitchen. Traditionally grilled over coals as street food, this sausage is spiced with harissa paste, crushed spices, and minced onions and garlic. Perfect for pairing with couscous, beans, eggs, or a fresh arugula salad, it can also be enjoyed the French way—grilled on a baguette, smeared with Dijon or mayonnaise, and topped with crispy French fries! With a mild spiciness level of 3/10, it delivers a flavorful heat to complement its rich lamb base.Ingredients: Lamb, onion, sea salt, chiles, fresh garlic, fresh parsley, paprika, black pepper, sumac, coriander, cumin, allspice, cayenne.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bulk Thai Curry Sausage</t>
   </si>
   <si>
-    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar). Contains: Fish, shellfish, soy.</t>
+    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar). Contains: Fish, shellfish, soy.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Cajun Chaurice Sausage Links</t>
   </si>
   <si>
-    <t>Our Cajun Chaurice Sausage is a flavorful, spicy blend of pork, onion, green onion, fresh parsley, garlic, thyme, paprika, cayenne, bay leaf, and celery seed. With a spiciness level of 5/10, it delivers a balanced heat that’s perfect for adding depth to dishes like rice and beans. This bulk, unlinked sausage is ready to cook, offering the same great flavor without the casing—ideal for your next Creole-inspired meal! Note: The picture shows linked sausages, but this item is bulk, ground sausage.</t>
+    <t>Our Cajun Chaurice Sausage is a flavorful, spicy blend of pork, onion, green onion, fresh parsley, garlic, thyme, paprika, cayenne, bay leaf, and celery seed. With a spiciness level of 5/10, it delivers a balanced heat that’s perfect for adding depth to dishes like rice and beans. This bulk, unlinked sausage is ready to cook, offering the same great flavor without the casing—ideal for your next Creole-inspired meal! Note: The picture shows linked sausages, but this item is bulk, ground sausage.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Chorizo Verde</t>
   </si>
   <si>
+    <t>Green Chorizo, a relatively new sausage variety hailing from Toluca, Mexico. This stands out from its cousin, red chorizo, by being loaded with fresh chiles and herbs picked fresh from our garden, then roasted over flames. Herbaceous, a little spicy, and bursting with flavor!  Use just as you would any other style of Mexican chorizo. With eggs, tacos, salad, soups, or with rice or potatoes.  Ingredients:   Pork, Roasted Poblano, Roasted Jalapeño, Garlic, Fresh Cilantro, Sea Salt, Apple Cider Vinegar, Black Pepper, Coriander, Cumin, Cayenne, Hog Casings  4 Links/pack  14oz Packages  Spiciness – 4/10.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>English Banger Sausage Links</t>
   </si>
   <si>
-    <t>Our English Banger Linked Sausage is a UK pub classic with a rich history, named for the wartime era when sausages often burst in the pan. These links feature a soft, fatty texture with a satisfying snappy bite, packed with warming savory spices like nutmeg, white pepper, and thyme. Perfect for a traditional British breakfast, they’re also ideal for any meal—especially the famous "Bangers and Mash!" Made with pork, oats, onion, and a blend of fresh herbs and spices, these sausages are a flavorful addition to your table.Contains wheat.</t>
+    <t>Our English Banger Linked Sausage is a UK pub classic with a rich history, named for the wartime era when sausages often burst in the pan. These links feature a soft, fatty texture with a satisfying snappy bite, packed with warming savory spices like nutmeg, white pepper, and thyme. Perfect for a traditional British breakfast, they’re also ideal for any meal—especially the famous "Bangers and Mash!" Made with pork, oats, onion, and a blend of fresh herbs and spices, these sausages are a flavorful addition to your table.Contains wheat.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Farm Made Chorizo Sausage Links</t>
   </si>
   <si>
-    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne, hog casings.</t>
+    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne, hog casings.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Grass-Fed Organ Blend</t>
@@ -957,19 +1005,19 @@
   <si>
     <t xml:space="preserve">The perfect way to incorporate organ meats into your diet! With the superior flavor of our grass-fed beef, this also offers the benefits of added organ meats which are rich in vitamins, minerals, iron, and B12. Extremely versatile, use any way you would use ground beef, such as meatballs, chili, tacos, sauce, stuffed peppers, and much more! If you want to dilute the organ flavor, simply mix with more ground beef, pork, or lamb to your preferred amount.
 This blend is 15-25% Liver and Kidney, 5-10% heart and tongue, and 65-80% Beef.
-Ingredients: Beef, Pork Liver, Pork Tongue, Pork Heart, Pork Kidney</t>
+Ingredients: Beef, Pork Liver, Pork Tongue, Pork Heart, Pork Kidney  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Greek Loukaniko Sausage Links</t>
   </si>
   <si>
-    <t>Our Greek Loukaniko Sausage is a flavorful tribute to this beloved Greek farmhouse classic. Infused with garlic, leek, oregano, and bursts of sweet orange zest, it offers a bright and aromatic taste. Traditionally grilled to achieve a perfect char, it's also excellent pan-fried. Serve it with a mezze spread, on a Greek salad, or with pita for an authentic taste of Greece.Ingredients: Pork, red wine, sea salt, orange juice, fresh garlic, fresh oregano, olive oil, leeks, orange zest, fresh thyme, pepper, fennel, coriander, allspice, hog casings.</t>
+    <t>Our Greek Loukaniko Sausage is a flavorful tribute to this beloved Greek farmhouse classic. Infused with garlic, leek, oregano, and bursts of sweet orange zest, it offers a bright and aromatic taste. Traditionally grilled to achieve a perfect char, it's also excellent pan-fried. Serve it with a mezze spread, on a Greek salad, or with pita for an authentic taste of Greece.Ingredients: Pork, red wine, sea salt, orange juice, fresh garlic, fresh oregano, olive oil, leeks, orange zest, fresh thyme, pepper, fennel, coriander, allspice, hog casings.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Hot Italian Sausage Links</t>
   </si>
   <si>
-    <t>Our Hot Italian Linked Sausage is a bold, flavorful classic, packed with lightly crushed fennel, smoky paprika, and a nice spicy kick. This versatile sausage can elevate nearly any meal—serve it on a crusty bun with peppers and onions, add it to pasta, top a pizza, or pair with gnocchi. With a spiciness level of 6/10, it delivers a balanced heat that enhances every bite.Ingredients: Pork, white wine, sea salt, fresh garlic, fennel, fresh parsley, fresh oregano, sugar, pepper, paprika, cayenne, crushed chile pepper, hog casings.</t>
+    <t>Our Hot Italian Linked Sausage is a bold, flavorful classic, packed with lightly crushed fennel, smoky paprika, and a nice spicy kick. This versatile sausage can elevate nearly any meal—serve it on a crusty bun with peppers and onions, add it to pasta, top a pizza, or pair with gnocchi. With a spiciness level of 6/10, it delivers a balanced heat that enhances every bite.Ingredients: Pork, white wine, sea salt, fresh garlic, fennel, fresh parsley, fresh oregano, sugar, pepper, paprika, cayenne, crushed chile pepper, hog casings.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Merguez Sausage Links</t>
@@ -984,7 +1032,7 @@
     <t>16 oz</t>
   </si>
   <si>
-    <t>Our Rendered Beef Tallow is pure and ready for cooking! With a mild flavor and light meaty essence, it’s a versatile ingredient used in many traditional cuisines. Perfect for frying vegetables, potatoes, steaks, or eggs, it adds rich flavor to your meals. Tallow is also great for making pemmican, and can even be used in soaps and candles, making it a truly multipurpose kitchen staple!</t>
+    <t>Our Rendered Beef Tallow is pure and ready for cooking! With a mild flavor and light meaty essence, it’s a versatile ingredient used in many traditional cuisines. Perfect for frying vegetables, potatoes, steaks, or eggs, it adds rich flavor to your meals. Tallow is also great for making pemmican, and can even be used in soaps and candles, making it a truly multipurpose kitchen staple!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Rendered Beef Tallow, 8 oz</t>
@@ -993,7 +1041,7 @@
     <t>Rendered Pork Back Fat, 16 oz</t>
   </si>
   <si>
-    <t>Light and creamy, this rendered pork lard is pure white. Lard is used extensively in many traditional cuisines and is very versatile. It can be used as a cooking oil, for baking, or even as a spread. Lard has a high smoke point and also produces flakier pie crusts than butter.</t>
+    <t>Light and creamy, this rendered pork lard is pure white. Lard is used extensively in many traditional cuisines and is very versatile. It can be used as a cooking oil, for baking, or even as a spread. Lard has a high smoke point and also produces flakier pie crusts than butter.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Rendered Pork Back Fat, 8 oz</t>
@@ -1002,7 +1050,7 @@
     <t>Rendered Pork Leaf Lard, 16 oz</t>
   </si>
   <si>
-    <t>Light and creamy, this rendered pork leaf lard is pure white. Lard is used extensively in many traditional cuisines and is very versatile. It can be used as a cooking oil, for baking, Pâté, or even as a spread. Lard has a high smoke point and also produces flakier pie crusts than butter.This lard was made using pork leaf lard (kidney fat), so it has the most neutral flavor. For that reason, it is particularly prized by bakers. Pure lard is best kept refrigerated or frozen for long-term storage.</t>
+    <t>Light and creamy, this rendered pork leaf lard is pure white. Lard is used extensively in many traditional cuisines and is very versatile. It can be used as a cooking oil, for baking, Pâté, or even as a spread. Lard has a high smoke point and also produces flakier pie crusts than butter.This lard was made using pork leaf lard (kidney fat), so it has the most neutral flavor. For that reason, it is particularly prized by bakers. Pure lard is best kept refrigerated or frozen for long-term storage.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Rendered Pork Leaf Lard, 8 oz</t>
@@ -1011,13 +1059,13 @@
     <t>Summer Herb Lamb Sausage Links</t>
   </si>
   <si>
-    <t>Inspired by the bounty of summer herbs in our garden. This limited seasonal sausage uses juicy lamb flecked with abundant green herbs and subtle spices. Enjoy this with any Mediterranean feast, pizza, pasta, salad, or with grilled vegetables.Spiciness – 1.5/10Ingredients:Lamb, Parsley, Sea Salt, Basil, Garlic,Red Wine Vinegar, Chives, Mint,Lemon Juice, Lemon Zest, BlackPepper, Chili Flake,Hog Casings</t>
+    <t>Inspired by the bounty of summer herbs in our garden. This limited seasonal sausage uses juicy lamb flecked with abundant green herbs and subtle spices. Enjoy this with any Mediterranean feast, pizza, pasta, salad, or with grilled vegetables.Spiciness – 1.5/10Ingredients:Lamb, Parsley, Sea Salt, Basil, Garlic,Red Wine Vinegar, Chives, Mint,Lemon Juice, Lemon Zest, BlackPepper, Chili Flake,Hog Casings  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Thai Curry Sausage Links</t>
   </si>
   <si>
-    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.</t>
+    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Creamy Cow Dairy</t>
@@ -1628,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S158"/>
+  <dimension ref="A1:S159"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -1749,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1769,10 +1817,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1805,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1831,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1867,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1926,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1985,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2041,10 +2089,10 @@
         <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2064,10 +2112,10 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>17</v>
@@ -2100,10 +2148,10 @@
         <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2123,10 +2171,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>19.5</v>
@@ -2159,10 +2207,10 @@
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2182,10 +2230,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="1">
         <v>19.5</v>
@@ -2218,10 +2266,10 @@
         <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2235,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2274,19 +2322,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2300,10 +2348,10 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1">
         <v>14.5</v>
@@ -2336,10 +2384,10 @@
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2359,10 +2407,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
         <v>14.5</v>
@@ -2395,7 +2443,7 @@
         <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" t="s">
         <v>23</v>
@@ -2415,13 +2463,13 @@
         <v>806161</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1">
         <v>26</v>
@@ -2454,10 +2502,10 @@
         <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2474,13 +2522,13 @@
         <v>941000</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1">
         <v>47.5</v>
@@ -2513,10 +2561,10 @@
         <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2533,13 +2581,13 @@
         <v>940998</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1">
         <v>17</v>
@@ -2572,10 +2620,10 @@
         <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2592,13 +2640,13 @@
         <v>806159</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
         <v>25</v>
@@ -2631,10 +2679,10 @@
         <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2651,13 +2699,13 @@
         <v>940994</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
         <v>14</v>
@@ -2690,10 +2738,10 @@
         <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2710,13 +2758,13 @@
         <v>960228</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
         <v>26</v>
@@ -2749,16 +2797,16 @@
         <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2769,13 +2817,13 @@
         <v>813072</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
         <v>16</v>
@@ -2808,13 +2856,13 @@
         <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q20" t="s">
         <v>23</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>
@@ -2828,10 +2876,10 @@
         <v>922135</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -2867,10 +2915,10 @@
         <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2887,13 +2935,13 @@
         <v>813075</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1">
         <v>26</v>
@@ -2926,16 +2974,16 @@
         <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2946,13 +2994,13 @@
         <v>805660</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" s="1">
         <v>9.5</v>
@@ -2985,13 +3033,13 @@
         <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="Q23" t="s">
         <v>23</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
         <v>23</v>
@@ -3005,13 +3053,13 @@
         <v>825832</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1">
         <v>26</v>
@@ -3044,10 +3092,10 @@
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3064,13 +3112,13 @@
         <v>841579</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1">
         <v>26</v>
@@ -3103,10 +3151,10 @@
         <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3123,10 +3171,10 @@
         <v>825834</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
         <v>32</v>
@@ -3162,13 +3210,13 @@
         <v>23</v>
       </c>
       <c r="P26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q26" t="s">
         <v>23</v>
       </c>
       <c r="R26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
@@ -3182,13 +3230,13 @@
         <v>813076</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1">
         <v>13</v>
@@ -3221,16 +3269,16 @@
         <v>23</v>
       </c>
       <c r="P27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3241,13 +3289,13 @@
         <v>813071</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1">
         <v>19.5</v>
@@ -3280,10 +3328,10 @@
         <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3300,13 +3348,13 @@
         <v>894281</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F29" s="1">
         <v>19.5</v>
@@ -3339,16 +3387,16 @@
         <v>23</v>
       </c>
       <c r="P29" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="Q29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3356,13 +3404,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
@@ -3395,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3418,13 +3466,13 @@
         <v>805667</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F31" s="1">
         <v>18.5</v>
@@ -3457,13 +3505,13 @@
         <v>23</v>
       </c>
       <c r="P31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q31" t="s">
         <v>23</v>
       </c>
       <c r="R31">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S31" t="s">
         <v>23</v>
@@ -3477,13 +3525,13 @@
         <v>813067</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F32" s="1">
         <v>43</v>
@@ -3516,16 +3564,16 @@
         <v>23</v>
       </c>
       <c r="P32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3536,13 +3584,13 @@
         <v>825833</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F33" s="1">
         <v>9.5</v>
@@ -3575,16 +3623,16 @@
         <v>23</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="Q33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3595,13 +3643,13 @@
         <v>869027</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1">
         <v>21</v>
@@ -3634,16 +3682,16 @@
         <v>23</v>
       </c>
       <c r="P34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3654,13 +3702,13 @@
         <v>856878</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1">
         <v>16</v>
@@ -3693,16 +3741,16 @@
         <v>23</v>
       </c>
       <c r="P35" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3713,13 +3761,13 @@
         <v>941001</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F36" s="1">
         <v>17</v>
@@ -3752,16 +3800,16 @@
         <v>23</v>
       </c>
       <c r="P36" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="Q36" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3772,13 +3820,13 @@
         <v>941002</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1">
         <v>18</v>
@@ -3811,16 +3859,16 @@
         <v>23</v>
       </c>
       <c r="P37" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="Q37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3831,13 +3879,13 @@
         <v>805658</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F38" s="1">
         <v>16</v>
@@ -3870,13 +3918,13 @@
         <v>23</v>
       </c>
       <c r="P38" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="Q38" t="s">
         <v>23</v>
       </c>
       <c r="R38">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -3890,13 +3938,13 @@
         <v>813074</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1">
         <v>26</v>
@@ -3929,16 +3977,16 @@
         <v>23</v>
       </c>
       <c r="P39" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -3949,13 +3997,13 @@
         <v>805664</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -3988,16 +4036,16 @@
         <v>23</v>
       </c>
       <c r="P40" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4008,13 +4056,13 @@
         <v>825830</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F41" s="1">
         <v>26</v>
@@ -4047,16 +4095,16 @@
         <v>23</v>
       </c>
       <c r="P41" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4067,13 +4115,13 @@
         <v>805701</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F42" s="1">
         <v>19.5</v>
@@ -4106,13 +4154,13 @@
         <v>23</v>
       </c>
       <c r="P42" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="Q42" t="s">
         <v>23</v>
       </c>
       <c r="R42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S42" t="s">
         <v>23</v>
@@ -4126,13 +4174,13 @@
         <v>805688</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F43" s="1">
         <v>12</v>
@@ -4165,10 +4213,10 @@
         <v>23</v>
       </c>
       <c r="P43" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4185,13 +4233,13 @@
         <v>805716</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F44" s="1">
         <v>37</v>
@@ -4224,16 +4272,16 @@
         <v>23</v>
       </c>
       <c r="P44" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4244,13 +4292,13 @@
         <v>805689</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F45" s="1">
         <v>12</v>
@@ -4283,10 +4331,10 @@
         <v>23</v>
       </c>
       <c r="P45" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4303,13 +4351,13 @@
         <v>805668</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F46" s="1">
         <v>40.5</v>
@@ -4342,16 +4390,16 @@
         <v>23</v>
       </c>
       <c r="P46" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="Q46" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -4362,13 +4410,13 @@
         <v>929452</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F47" s="1">
         <v>26</v>
@@ -4401,16 +4449,16 @@
         <v>23</v>
       </c>
       <c r="P47" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4421,13 +4469,13 @@
         <v>894282</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F48" s="1">
         <v>26</v>
@@ -4460,16 +4508,16 @@
         <v>23</v>
       </c>
       <c r="P48" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4480,13 +4528,13 @@
         <v>813069</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1">
         <v>26</v>
@@ -4519,16 +4567,16 @@
         <v>23</v>
       </c>
       <c r="P49" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4539,13 +4587,13 @@
         <v>814845</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F50" s="1">
         <v>25</v>
@@ -4578,16 +4626,16 @@
         <v>23</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -4598,13 +4646,13 @@
         <v>883799</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F51" s="1">
         <v>5</v>
@@ -4637,10 +4685,10 @@
         <v>23</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4657,13 +4705,13 @@
         <v>813079</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F52" s="1">
         <v>9.5</v>
@@ -4696,10 +4744,10 @@
         <v>23</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4716,13 +4764,13 @@
         <v>818957</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F53" s="1">
         <v>9.5</v>
@@ -4755,10 +4803,10 @@
         <v>23</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4775,13 +4823,13 @@
         <v>805677</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F54" s="1">
         <v>12</v>
@@ -4814,10 +4862,10 @@
         <v>23</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4834,13 +4882,13 @@
         <v>805669</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F55" s="1">
         <v>18</v>
@@ -4873,10 +4921,10 @@
         <v>23</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4893,13 +4941,13 @@
         <v>900315</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F56" s="1">
         <v>18.5</v>
@@ -4929,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4952,13 +5000,13 @@
         <v>805676</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F57" s="1">
         <v>15.5</v>
@@ -4991,10 +5039,10 @@
         <v>23</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5011,13 +5059,13 @@
         <v>805679</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F58" s="1">
         <v>12</v>
@@ -5050,10 +5098,10 @@
         <v>23</v>
       </c>
       <c r="P58" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5070,13 +5118,13 @@
         <v>805673</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F59" s="1">
         <v>9</v>
@@ -5109,16 +5157,16 @@
         <v>23</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5129,13 +5177,13 @@
         <v>953035</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F60" s="1">
         <v>9.5</v>
@@ -5168,10 +5216,10 @@
         <v>23</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5188,13 +5236,13 @@
         <v>953036</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F61" s="1">
         <v>10</v>
@@ -5227,10 +5275,10 @@
         <v>23</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5247,13 +5295,13 @@
         <v>953039</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F62" s="1">
         <v>10.5</v>
@@ -5286,16 +5334,16 @@
         <v>23</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5303,16 +5351,16 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F63" s="1">
         <v>12</v>
@@ -5342,19 +5390,19 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5362,16 +5410,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
@@ -5401,19 +5449,19 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5424,13 +5472,13 @@
         <v>805661</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F65" s="1">
         <v>12</v>
@@ -5463,16 +5511,16 @@
         <v>23</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5483,13 +5531,13 @@
         <v>805685</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F66" s="1">
         <v>18.5</v>
@@ -5522,16 +5570,16 @@
         <v>23</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5542,13 +5590,13 @@
         <v>814849</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F67" s="1">
         <v>12</v>
@@ -5581,16 +5629,16 @@
         <v>23</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -5601,13 +5649,13 @@
         <v>813092</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5640,10 +5688,10 @@
         <v>23</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5660,10 +5708,10 @@
         <v>825835</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E69" t="s">
         <v>32</v>
@@ -5699,10 +5747,10 @@
         <v>23</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5719,13 +5767,13 @@
         <v>922133</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F70" s="1">
         <v>24</v>
@@ -5758,10 +5806,10 @@
         <v>23</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5778,13 +5826,13 @@
         <v>913064</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E71" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F71" s="1">
         <v>24</v>
@@ -5817,16 +5865,16 @@
         <v>23</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5837,13 +5885,13 @@
         <v>939774</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F72" s="1">
         <v>9.5</v>
@@ -5876,7 +5924,7 @@
         <v>23</v>
       </c>
       <c r="P72" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="Q72" t="s">
         <v>23</v>
@@ -5896,13 +5944,13 @@
         <v>825839</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F73" s="1">
         <v>21.5</v>
@@ -5935,7 +5983,7 @@
         <v>23</v>
       </c>
       <c r="P73" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="Q73" t="s">
         <v>23</v>
@@ -5955,13 +6003,13 @@
         <v>805703</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F74" s="1">
         <v>15.5</v>
@@ -5994,10 +6042,10 @@
         <v>23</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6014,13 +6062,13 @@
         <v>805705</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F75" s="1">
         <v>18.5</v>
@@ -6053,16 +6101,16 @@
         <v>23</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6073,13 +6121,13 @@
         <v>825840</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F76" s="1">
         <v>19</v>
@@ -6112,16 +6160,16 @@
         <v>23</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -6132,13 +6180,13 @@
         <v>805710</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F77" s="1">
         <v>19</v>
@@ -6171,10 +6219,10 @@
         <v>23</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6191,13 +6239,13 @@
         <v>805711</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F78" s="1">
         <v>20</v>
@@ -6230,10 +6278,10 @@
         <v>23</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6247,13 +6295,13 @@
         <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
         <v>48</v>
@@ -6286,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P79" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6309,13 +6357,13 @@
         <v>805712</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F80" s="1">
         <v>21.5</v>
@@ -6348,10 +6396,10 @@
         <v>23</v>
       </c>
       <c r="P80" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="Q80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -6368,13 +6416,13 @@
         <v>805659</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F81" s="1">
         <v>21.5</v>
@@ -6407,16 +6455,16 @@
         <v>23</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6427,13 +6475,13 @@
         <v>805653</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F82" s="1">
         <v>14.5</v>
@@ -6466,10 +6514,10 @@
         <v>23</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6486,13 +6534,13 @@
         <v>805724</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F83" s="1">
         <v>17.5</v>
@@ -6525,10 +6573,10 @@
         <v>23</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6545,13 +6593,13 @@
         <v>813084</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F84" s="1">
         <v>19.5</v>
@@ -6584,10 +6632,10 @@
         <v>23</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6604,13 +6652,13 @@
         <v>813086</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F85" s="1">
         <v>15.5</v>
@@ -6643,10 +6691,10 @@
         <v>23</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6663,13 +6711,13 @@
         <v>805686</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F86" s="1">
         <v>19.5</v>
@@ -6702,10 +6750,10 @@
         <v>23</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6722,13 +6770,13 @@
         <v>805693</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F87" s="1">
         <v>19.5</v>
@@ -6761,10 +6809,10 @@
         <v>23</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6781,13 +6829,13 @@
         <v>882704</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E88" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F88" s="1">
         <v>21.5</v>
@@ -6820,16 +6868,16 @@
         <v>23</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="Q88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6840,13 +6888,13 @@
         <v>963826</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F89" s="1">
         <v>21.5</v>
@@ -6876,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6899,13 +6947,13 @@
         <v>805713</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E90" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F90" s="1">
         <v>16.5</v>
@@ -6938,10 +6986,10 @@
         <v>23</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -6958,13 +7006,13 @@
         <v>827440</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F91" s="1">
         <v>20</v>
@@ -6997,10 +7045,10 @@
         <v>23</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7017,13 +7065,13 @@
         <v>901753</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F92" s="1">
         <v>21.5</v>
@@ -7056,10 +7104,10 @@
         <v>23</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7076,13 +7124,13 @@
         <v>859028</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E93" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F93" s="1">
         <v>18</v>
@@ -7115,10 +7163,10 @@
         <v>23</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="Q93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7135,13 +7183,13 @@
         <v>805675</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F94" s="1">
         <v>18</v>
@@ -7174,16 +7222,16 @@
         <v>23</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7194,13 +7242,13 @@
         <v>805719</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F95" s="1">
         <v>20</v>
@@ -7233,10 +7281,10 @@
         <v>23</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Q95" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7253,13 +7301,13 @@
         <v>805720</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F96" s="1">
         <v>18</v>
@@ -7292,10 +7340,10 @@
         <v>23</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7312,13 +7360,13 @@
         <v>805721</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D97" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F97" s="1">
         <v>20</v>
@@ -7351,10 +7399,10 @@
         <v>23</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -7371,13 +7419,13 @@
         <v>858286</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F98" s="1">
         <v>9</v>
@@ -7410,10 +7458,10 @@
         <v>23</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7430,13 +7478,13 @@
         <v>805682</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F99" s="1">
         <v>19.5</v>
@@ -7469,10 +7517,10 @@
         <v>23</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -7489,13 +7537,13 @@
         <v>805670</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E100" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F100" s="1">
         <v>20</v>
@@ -7528,10 +7576,10 @@
         <v>23</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="Q100" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7548,13 +7596,13 @@
         <v>805678</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D101" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E101" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F101" s="1">
         <v>16.5</v>
@@ -7587,10 +7635,10 @@
         <v>23</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7607,13 +7655,13 @@
         <v>940154</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E102" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F102" s="1">
         <v>11</v>
@@ -7646,16 +7694,16 @@
         <v>23</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7666,13 +7714,13 @@
         <v>805687</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F103" s="1">
         <v>17</v>
@@ -7705,10 +7753,10 @@
         <v>23</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="Q103" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7725,13 +7773,13 @@
         <v>805692</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E104" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F104" s="1">
         <v>19.5</v>
@@ -7764,10 +7812,10 @@
         <v>23</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="Q104" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7784,13 +7832,13 @@
         <v>805694</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E105" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F105" s="1">
         <v>18</v>
@@ -7823,10 +7871,10 @@
         <v>23</v>
       </c>
       <c r="P105" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="Q105" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7843,13 +7891,13 @@
         <v>941005</v>
       </c>
       <c r="C106" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E106" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F106" s="1">
         <v>12</v>
@@ -7882,10 +7930,10 @@
         <v>23</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7902,13 +7950,13 @@
         <v>805459</v>
       </c>
       <c r="C107" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D107" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E107" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F107" s="1">
         <v>7</v>
@@ -7941,10 +7989,10 @@
         <v>23</v>
       </c>
       <c r="P107" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q107" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -7955,43 +8003,43 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="B108">
-        <v>900311</v>
+        <v>995135</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D108" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E108" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F108" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H108" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
         <v>48</v>
       </c>
       <c r="J108" s="1">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="K108" s="1">
-        <v>10.82</v>
+        <v>5.41</v>
       </c>
       <c r="L108" s="1">
-        <v>17.94</v>
+        <v>8.97</v>
       </c>
       <c r="M108" s="1">
-        <v>20.57</v>
+        <v>10.28</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -8000,57 +8048,57 @@
         <v>23</v>
       </c>
       <c r="P108" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="Q108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>840848</v>
+        <v>900311</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D109" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E109" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="F109" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H109" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I109" t="s">
         <v>48</v>
       </c>
       <c r="J109" s="1">
-        <v>10.72</v>
+        <v>13</v>
       </c>
       <c r="K109" s="1">
-        <v>8.93</v>
+        <v>10.82</v>
       </c>
       <c r="L109" s="1">
-        <v>14.8</v>
+        <v>17.94</v>
       </c>
       <c r="M109" s="1">
-        <v>16.97</v>
+        <v>20.57</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -8059,33 +8107,33 @@
         <v>23</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="Q109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B110">
-        <v>840823</v>
+        <v>840848</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D110" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E110" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F110" s="1">
         <v>16.5</v>
@@ -8118,10 +8166,10 @@
         <v>23</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q110" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8132,19 +8180,19 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111">
-        <v>913652</v>
+        <v>840823</v>
       </c>
       <c r="C111" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D111" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E111" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F111" s="1">
         <v>16.5</v>
@@ -8177,10 +8225,10 @@
         <v>23</v>
       </c>
       <c r="P111" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="Q111" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8191,43 +8239,43 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B112">
-        <v>805696</v>
+        <v>913652</v>
       </c>
       <c r="C112" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E112" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F112" s="1">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="G112" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H112" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I112" t="s">
         <v>48</v>
       </c>
       <c r="J112" s="1">
-        <v>11.05</v>
+        <v>10.72</v>
       </c>
       <c r="K112" s="1">
-        <v>9.2</v>
+        <v>8.93</v>
       </c>
       <c r="L112" s="1">
-        <v>15.25</v>
+        <v>14.8</v>
       </c>
       <c r="M112" s="1">
-        <v>17.48</v>
+        <v>16.97</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -8236,10 +8284,10 @@
         <v>23</v>
       </c>
       <c r="P112" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q112" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8250,43 +8298,43 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113">
-        <v>913651</v>
+        <v>805696</v>
       </c>
       <c r="C113" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D113" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E113" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F113" s="1">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="G113" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H113" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
         <v>48</v>
       </c>
       <c r="J113" s="1">
-        <v>10.72</v>
+        <v>11.05</v>
       </c>
       <c r="K113" s="1">
-        <v>8.93</v>
+        <v>9.2</v>
       </c>
       <c r="L113" s="1">
-        <v>14.8</v>
+        <v>15.25</v>
       </c>
       <c r="M113" s="1">
-        <v>16.97</v>
+        <v>17.48</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -8295,10 +8343,10 @@
         <v>23</v>
       </c>
       <c r="P113" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="Q113" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8309,43 +8357,43 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B114">
-        <v>816905</v>
+        <v>913651</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D114" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E114" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="F114" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G114" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H114" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I114" t="s">
         <v>48</v>
       </c>
       <c r="J114" s="1">
-        <v>13</v>
+        <v>10.72</v>
       </c>
       <c r="K114" s="1">
-        <v>10.82</v>
+        <v>8.93</v>
       </c>
       <c r="L114" s="1">
-        <v>17.94</v>
+        <v>14.8</v>
       </c>
       <c r="M114" s="1">
-        <v>20.57</v>
+        <v>16.97</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -8354,10 +8402,10 @@
         <v>23</v>
       </c>
       <c r="P114" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Q114" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8368,19 +8416,19 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <v>932132</v>
+        <v>816905</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D115" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E115" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F115" s="1">
         <v>20</v>
@@ -8413,33 +8461,33 @@
         <v>23</v>
       </c>
       <c r="P115" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="Q115" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R115">
         <v>0</v>
       </c>
       <c r="S115" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B116">
-        <v>840822</v>
+        <v>932132</v>
       </c>
       <c r="C116" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D116" t="s">
+        <v>315</v>
+      </c>
+      <c r="E116" t="s">
         <v>301</v>
-      </c>
-      <c r="E116" t="s">
-        <v>286</v>
       </c>
       <c r="F116" s="1">
         <v>20</v>
@@ -8472,33 +8520,33 @@
         <v>23</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="Q116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B117">
-        <v>900309</v>
+        <v>840822</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D117" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="E117" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F117" s="1">
         <v>20</v>
@@ -8531,57 +8579,57 @@
         <v>23</v>
       </c>
       <c r="P117" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="Q117" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R117">
         <v>0</v>
       </c>
       <c r="S117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B118">
-        <v>913653</v>
+        <v>900309</v>
       </c>
       <c r="C118" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D118" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F118" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G118" s="2">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="H118" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I118" t="s">
         <v>48</v>
       </c>
       <c r="J118" s="1">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="K118" s="1">
-        <v>8.12</v>
+        <v>10.82</v>
       </c>
       <c r="L118" s="1">
-        <v>13.45</v>
+        <v>17.94</v>
       </c>
       <c r="M118" s="1">
-        <v>15.42</v>
+        <v>20.57</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -8590,57 +8638,57 @@
         <v>23</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B119">
-        <v>818963</v>
+        <v>913653</v>
       </c>
       <c r="C119" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E119" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="F119" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H119" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I119" t="s">
         <v>48</v>
       </c>
       <c r="J119" s="1">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K119" s="1">
-        <v>10.82</v>
+        <v>8.12</v>
       </c>
       <c r="L119" s="1">
-        <v>17.94</v>
+        <v>13.45</v>
       </c>
       <c r="M119" s="1">
-        <v>20.57</v>
+        <v>15.42</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -8649,10 +8697,10 @@
         <v>23</v>
       </c>
       <c r="P119" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8663,19 +8711,19 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>871143</v>
+        <v>818963</v>
       </c>
       <c r="C120" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D120" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F120" s="1">
         <v>20</v>
@@ -8708,10 +8756,10 @@
         <v>23</v>
       </c>
       <c r="P120" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="Q120" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8722,43 +8770,43 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B121">
-        <v>913648</v>
+        <v>871143</v>
       </c>
       <c r="C121" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D121" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="E121" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F121" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H121" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
         <v>48</v>
       </c>
       <c r="J121" s="1">
-        <v>15.6</v>
+        <v>13</v>
       </c>
       <c r="K121" s="1">
-        <v>12.99</v>
+        <v>10.82</v>
       </c>
       <c r="L121" s="1">
-        <v>21.53</v>
+        <v>17.94</v>
       </c>
       <c r="M121" s="1">
-        <v>24.68</v>
+        <v>20.57</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -8767,57 +8815,57 @@
         <v>23</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R121">
         <v>0</v>
       </c>
       <c r="S121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B122">
-        <v>805663</v>
+        <v>913648</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D122" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E122" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F122" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G122" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H122" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I122" t="s">
         <v>48</v>
       </c>
       <c r="J122" s="1">
-        <v>13</v>
+        <v>15.6</v>
       </c>
       <c r="K122" s="1">
-        <v>10.82</v>
+        <v>12.99</v>
       </c>
       <c r="L122" s="1">
-        <v>17.94</v>
+        <v>21.53</v>
       </c>
       <c r="M122" s="1">
-        <v>20.57</v>
+        <v>24.68</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -8826,57 +8874,57 @@
         <v>23</v>
       </c>
       <c r="P122" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123">
-        <v>941045</v>
+        <v>805663</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D123" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="F123" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G123" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H123" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I123" t="s">
         <v>48</v>
       </c>
       <c r="J123" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K123" s="1">
-        <v>5.41</v>
+        <v>10.82</v>
       </c>
       <c r="L123" s="1">
-        <v>8.97</v>
+        <v>17.94</v>
       </c>
       <c r="M123" s="1">
-        <v>10.28</v>
+        <v>20.57</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -8885,10 +8933,10 @@
         <v>23</v>
       </c>
       <c r="P123" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="Q123" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8899,43 +8947,43 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B124">
-        <v>805651</v>
+        <v>941045</v>
       </c>
       <c r="C124" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D124" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="E124" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="F124" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H124" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I124" t="s">
         <v>48</v>
       </c>
       <c r="J124" s="1">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="K124" s="1">
-        <v>8.12</v>
+        <v>5.41</v>
       </c>
       <c r="L124" s="1">
-        <v>13.45</v>
+        <v>8.97</v>
       </c>
       <c r="M124" s="1">
-        <v>15.42</v>
+        <v>10.28</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -8944,57 +8992,57 @@
         <v>23</v>
       </c>
       <c r="P124" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="Q124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R124">
         <v>0</v>
       </c>
       <c r="S124" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B125">
-        <v>941062</v>
+        <v>805651</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D125" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="F125" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G125" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H125" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I125" t="s">
         <v>48</v>
       </c>
       <c r="J125" s="1">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="K125" s="1">
-        <v>5.41</v>
+        <v>8.12</v>
       </c>
       <c r="L125" s="1">
-        <v>8.97</v>
+        <v>13.45</v>
       </c>
       <c r="M125" s="1">
-        <v>10.28</v>
+        <v>15.42</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -9003,57 +9051,57 @@
         <v>23</v>
       </c>
       <c r="P125" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="Q125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126">
-        <v>929464</v>
+        <v>941062</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D126" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E126" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="F126" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H126" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I126" t="s">
         <v>48</v>
       </c>
       <c r="J126" s="1">
-        <v>10.4</v>
+        <v>6.5</v>
       </c>
       <c r="K126" s="1">
-        <v>8.66</v>
+        <v>5.41</v>
       </c>
       <c r="L126" s="1">
-        <v>14.35</v>
+        <v>8.97</v>
       </c>
       <c r="M126" s="1">
-        <v>16.45</v>
+        <v>10.28</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -9062,57 +9110,57 @@
         <v>23</v>
       </c>
       <c r="P126" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Q126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127">
-        <v>805665</v>
+        <v>929464</v>
       </c>
       <c r="C127" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D127" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E127" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="F127" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H127" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I127" t="s">
         <v>48</v>
       </c>
       <c r="J127" s="1">
-        <v>6.5</v>
+        <v>10.4</v>
       </c>
       <c r="K127" s="1">
-        <v>5.41</v>
+        <v>8.66</v>
       </c>
       <c r="L127" s="1">
-        <v>8.97</v>
+        <v>14.35</v>
       </c>
       <c r="M127" s="1">
-        <v>10.28</v>
+        <v>16.45</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -9121,10 +9169,10 @@
         <v>23</v>
       </c>
       <c r="P127" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="Q127" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9135,43 +9183,43 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128">
-        <v>900310</v>
+        <v>805665</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D128" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="E128" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="F128" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H128" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I128" t="s">
         <v>48</v>
       </c>
       <c r="J128" s="1">
-        <v>14.3</v>
+        <v>6.5</v>
       </c>
       <c r="K128" s="1">
-        <v>11.91</v>
+        <v>5.41</v>
       </c>
       <c r="L128" s="1">
-        <v>19.73</v>
+        <v>8.97</v>
       </c>
       <c r="M128" s="1">
-        <v>22.62</v>
+        <v>10.28</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -9180,36 +9228,36 @@
         <v>23</v>
       </c>
       <c r="P128" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="Q128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R128">
         <v>0</v>
       </c>
       <c r="S128" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B129">
-        <v>913650</v>
+        <v>900310</v>
       </c>
       <c r="C129" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D129" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E129" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F129" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G129" s="2">
         <v>14</v>
@@ -9221,16 +9269,16 @@
         <v>48</v>
       </c>
       <c r="J129" s="1">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="K129" s="1">
-        <v>10.82</v>
+        <v>11.91</v>
       </c>
       <c r="L129" s="1">
-        <v>17.94</v>
+        <v>19.73</v>
       </c>
       <c r="M129" s="1">
-        <v>20.57</v>
+        <v>22.62</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -9239,95 +9287,95 @@
         <v>23</v>
       </c>
       <c r="P129" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="Q129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B130">
-        <v>911651</v>
+        <v>913650</v>
       </c>
       <c r="C130" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D130" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E130" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="F130" s="1">
-        <v>16.6</v>
+        <v>20</v>
       </c>
       <c r="G130" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H130" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I130" t="s">
         <v>48</v>
       </c>
       <c r="J130" s="1">
-        <v>10.79</v>
+        <v>13</v>
       </c>
       <c r="K130" s="1">
-        <v>8.98</v>
+        <v>10.82</v>
       </c>
       <c r="L130" s="1">
-        <v>14.89</v>
+        <v>17.94</v>
       </c>
       <c r="M130" s="1">
-        <v>17.07</v>
+        <v>20.57</v>
       </c>
       <c r="N130">
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P130" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R130">
         <v>0</v>
       </c>
       <c r="S130" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131">
-        <v>911647</v>
+        <v>911651</v>
       </c>
       <c r="C131" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D131" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E131" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F131" s="1">
-        <v>20.77</v>
+        <v>16.6</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -9339,25 +9387,25 @@
         <v>48</v>
       </c>
       <c r="J131" s="1">
-        <v>13.5</v>
+        <v>10.79</v>
       </c>
       <c r="K131" s="1">
-        <v>11.24</v>
+        <v>8.98</v>
       </c>
       <c r="L131" s="1">
-        <v>18.63</v>
+        <v>14.89</v>
       </c>
       <c r="M131" s="1">
-        <v>21.36</v>
+        <v>17.07</v>
       </c>
       <c r="N131">
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P131" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="Q131" t="s">
         <v>23</v>
@@ -9366,27 +9414,27 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B132">
-        <v>911648</v>
+        <v>911647</v>
       </c>
       <c r="C132" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D132" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E132" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F132" s="1">
-        <v>21.88</v>
+        <v>20.77</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -9398,25 +9446,25 @@
         <v>48</v>
       </c>
       <c r="J132" s="1">
-        <v>14.22</v>
+        <v>13.5</v>
       </c>
       <c r="K132" s="1">
-        <v>11.84</v>
+        <v>11.24</v>
       </c>
       <c r="L132" s="1">
-        <v>19.63</v>
+        <v>18.63</v>
       </c>
       <c r="M132" s="1">
-        <v>22.5</v>
+        <v>21.36</v>
       </c>
       <c r="N132">
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P132" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="Q132" t="s">
         <v>23</v>
@@ -9425,27 +9473,27 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B133">
-        <v>957423</v>
+        <v>911648</v>
       </c>
       <c r="C133" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D133" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E133" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F133" s="1">
-        <v>19.23</v>
+        <v>21.88</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -9457,25 +9505,25 @@
         <v>48</v>
       </c>
       <c r="J133" s="1">
-        <v>12.5</v>
+        <v>14.22</v>
       </c>
       <c r="K133" s="1">
-        <v>10.41</v>
+        <v>11.84</v>
       </c>
       <c r="L133" s="1">
-        <v>17.25</v>
+        <v>19.63</v>
       </c>
       <c r="M133" s="1">
-        <v>19.77</v>
+        <v>22.5</v>
       </c>
       <c r="N133">
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P133" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q133" t="s">
         <v>23</v>
@@ -9484,27 +9532,27 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134">
-        <v>957424</v>
+        <v>957423</v>
       </c>
       <c r="C134" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D134" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E134" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F134" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -9516,25 +9564,25 @@
         <v>48</v>
       </c>
       <c r="J134" s="1">
-        <v>14.22</v>
+        <v>12.5</v>
       </c>
       <c r="K134" s="1">
-        <v>11.84</v>
+        <v>10.41</v>
       </c>
       <c r="L134" s="1">
-        <v>19.63</v>
+        <v>17.25</v>
       </c>
       <c r="M134" s="1">
-        <v>22.5</v>
+        <v>19.77</v>
       </c>
       <c r="N134">
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P134" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q134" t="s">
         <v>23</v>
@@ -9543,27 +9591,27 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135">
-        <v>936388</v>
+        <v>957424</v>
       </c>
       <c r="C135" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D135" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E135" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F135" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -9575,25 +9623,25 @@
         <v>48</v>
       </c>
       <c r="J135" s="1">
-        <v>10.79</v>
+        <v>14.22</v>
       </c>
       <c r="K135" s="1">
-        <v>8.98</v>
+        <v>11.84</v>
       </c>
       <c r="L135" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="M135" s="1">
-        <v>17.07</v>
+        <v>22.5</v>
       </c>
       <c r="N135">
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P135" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="Q135" t="s">
         <v>23</v>
@@ -9602,27 +9650,27 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136">
-        <v>936387</v>
+        <v>936388</v>
       </c>
       <c r="C136" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D136" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E136" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F136" s="1">
-        <v>20.77</v>
+        <v>16.6</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -9634,25 +9682,25 @@
         <v>48</v>
       </c>
       <c r="J136" s="1">
-        <v>13.5</v>
+        <v>10.79</v>
       </c>
       <c r="K136" s="1">
-        <v>11.24</v>
+        <v>8.98</v>
       </c>
       <c r="L136" s="1">
-        <v>18.63</v>
+        <v>14.89</v>
       </c>
       <c r="M136" s="1">
-        <v>21.36</v>
+        <v>17.07</v>
       </c>
       <c r="N136">
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="Q136" t="s">
         <v>23</v>
@@ -9661,27 +9709,27 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137">
-        <v>824228</v>
+        <v>936387</v>
       </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D137" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E137" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F137" s="1">
-        <v>21.89</v>
+        <v>20.77</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -9693,25 +9741,25 @@
         <v>48</v>
       </c>
       <c r="J137" s="1">
-        <v>14.23</v>
+        <v>13.5</v>
       </c>
       <c r="K137" s="1">
-        <v>11.85</v>
+        <v>11.24</v>
       </c>
       <c r="L137" s="1">
-        <v>19.63</v>
+        <v>18.63</v>
       </c>
       <c r="M137" s="1">
-        <v>22.51</v>
+        <v>21.36</v>
       </c>
       <c r="N137">
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P137" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="Q137" t="s">
         <v>23</v>
@@ -9720,27 +9768,27 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B138">
-        <v>866256</v>
+        <v>824228</v>
       </c>
       <c r="C138" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D138" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E138" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="F138" s="1">
-        <v>16.6</v>
+        <v>21.89</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -9752,25 +9800,25 @@
         <v>48</v>
       </c>
       <c r="J138" s="1">
-        <v>10.79</v>
+        <v>14.23</v>
       </c>
       <c r="K138" s="1">
-        <v>8.98</v>
+        <v>11.85</v>
       </c>
       <c r="L138" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="M138" s="1">
-        <v>17.07</v>
+        <v>22.51</v>
       </c>
       <c r="N138">
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P138" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q138" t="s">
         <v>23</v>
@@ -9779,27 +9827,27 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B139">
-        <v>805464</v>
+        <v>866256</v>
       </c>
       <c r="C139" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D139" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E139" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F139" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -9811,25 +9859,25 @@
         <v>48</v>
       </c>
       <c r="J139" s="1">
-        <v>12.5</v>
+        <v>10.79</v>
       </c>
       <c r="K139" s="1">
-        <v>10.41</v>
+        <v>8.98</v>
       </c>
       <c r="L139" s="1">
-        <v>17.25</v>
+        <v>14.89</v>
       </c>
       <c r="M139" s="1">
-        <v>19.77</v>
+        <v>17.07</v>
       </c>
       <c r="N139">
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P139" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q139" t="s">
         <v>23</v>
@@ -9838,27 +9886,27 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140">
-        <v>842611</v>
+        <v>805464</v>
       </c>
       <c r="C140" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D140" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="E140" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F140" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -9870,25 +9918,25 @@
         <v>48</v>
       </c>
       <c r="J140" s="1">
-        <v>14.22</v>
+        <v>12.5</v>
       </c>
       <c r="K140" s="1">
-        <v>11.84</v>
+        <v>10.41</v>
       </c>
       <c r="L140" s="1">
-        <v>19.63</v>
+        <v>17.25</v>
       </c>
       <c r="M140" s="1">
-        <v>22.5</v>
+        <v>19.77</v>
       </c>
       <c r="N140">
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P140" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q140" t="s">
         <v>23</v>
@@ -9897,27 +9945,27 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B141">
-        <v>805465</v>
+        <v>842611</v>
       </c>
       <c r="C141" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D141" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E141" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="F141" s="1">
-        <v>15.38</v>
+        <v>21.88</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -9929,25 +9977,25 @@
         <v>48</v>
       </c>
       <c r="J141" s="1">
-        <v>10</v>
+        <v>14.22</v>
       </c>
       <c r="K141" s="1">
-        <v>8.32</v>
+        <v>11.84</v>
       </c>
       <c r="L141" s="1">
-        <v>13.8</v>
+        <v>19.63</v>
       </c>
       <c r="M141" s="1">
-        <v>15.81</v>
+        <v>22.5</v>
       </c>
       <c r="N141">
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P141" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Q141" t="s">
         <v>23</v>
@@ -9956,27 +10004,27 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B142">
-        <v>990715</v>
+        <v>805465</v>
       </c>
       <c r="C142" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D142" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E142" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="F142" s="1">
-        <v>9.23</v>
+        <v>15.38</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -9988,25 +10036,25 @@
         <v>48</v>
       </c>
       <c r="J142" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K142" s="1">
-        <v>5</v>
+        <v>8.32</v>
       </c>
       <c r="L142" s="1">
-        <v>8.28</v>
+        <v>13.8</v>
       </c>
       <c r="M142" s="1">
-        <v>9.49</v>
+        <v>15.81</v>
       </c>
       <c r="N142">
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P142" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="Q142" t="s">
         <v>23</v>
@@ -10020,22 +10068,22 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B143">
-        <v>881794</v>
+        <v>990715</v>
       </c>
       <c r="C143" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D143" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="F143" s="1">
-        <v>13.85</v>
+        <v>9.23</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -10047,25 +10095,25 @@
         <v>48</v>
       </c>
       <c r="J143" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K143" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="L143" s="1">
-        <v>12.42</v>
+        <v>8.28</v>
       </c>
       <c r="M143" s="1">
-        <v>14.24</v>
+        <v>9.49</v>
       </c>
       <c r="N143">
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P143" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="Q143" t="s">
         <v>23</v>
@@ -10079,22 +10127,22 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B144">
-        <v>805466</v>
+        <v>881794</v>
       </c>
       <c r="C144" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D144" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E144" t="s">
-        <v>359</v>
+        <v>58</v>
       </c>
       <c r="F144" s="1">
-        <v>22.66</v>
+        <v>13.85</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -10106,25 +10154,25 @@
         <v>48</v>
       </c>
       <c r="J144" s="1">
-        <v>14.73</v>
+        <v>9</v>
       </c>
       <c r="K144" s="1">
-        <v>12.26</v>
+        <v>7.5</v>
       </c>
       <c r="L144" s="1">
-        <v>20.33</v>
+        <v>12.42</v>
       </c>
       <c r="M144" s="1">
-        <v>23.3</v>
+        <v>14.24</v>
       </c>
       <c r="N144">
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P144" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="Q144" t="s">
         <v>23</v>
@@ -10133,27 +10181,27 @@
         <v>0</v>
       </c>
       <c r="S144" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145">
-        <v>836358</v>
+        <v>805466</v>
       </c>
       <c r="C145" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D145" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E145" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F145" s="1">
-        <v>19.23</v>
+        <v>22.66</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -10165,25 +10213,25 @@
         <v>48</v>
       </c>
       <c r="J145" s="1">
-        <v>12.5</v>
+        <v>14.73</v>
       </c>
       <c r="K145" s="1">
-        <v>10.41</v>
+        <v>12.26</v>
       </c>
       <c r="L145" s="1">
-        <v>17.25</v>
+        <v>20.33</v>
       </c>
       <c r="M145" s="1">
-        <v>19.77</v>
+        <v>23.3</v>
       </c>
       <c r="N145">
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P145" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="Q145" t="s">
         <v>23</v>
@@ -10192,27 +10240,27 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146">
-        <v>867239</v>
+        <v>836358</v>
       </c>
       <c r="C146" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D146" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E146" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F146" s="1">
-        <v>20.77</v>
+        <v>19.23</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -10224,25 +10272,25 @@
         <v>48</v>
       </c>
       <c r="J146" s="1">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="K146" s="1">
-        <v>11.24</v>
+        <v>10.41</v>
       </c>
       <c r="L146" s="1">
-        <v>18.63</v>
+        <v>17.25</v>
       </c>
       <c r="M146" s="1">
-        <v>21.36</v>
+        <v>19.77</v>
       </c>
       <c r="N146">
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P146" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="Q146" t="s">
         <v>23</v>
@@ -10251,27 +10299,27 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B147">
-        <v>805468</v>
+        <v>867239</v>
       </c>
       <c r="C147" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D147" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="E147" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="F147" s="1">
-        <v>29.62</v>
+        <v>20.77</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -10283,25 +10331,25 @@
         <v>48</v>
       </c>
       <c r="J147" s="1">
-        <v>19.25</v>
+        <v>13.5</v>
       </c>
       <c r="K147" s="1">
-        <v>16.03</v>
+        <v>11.24</v>
       </c>
       <c r="L147" s="1">
-        <v>26.57</v>
+        <v>18.63</v>
       </c>
       <c r="M147" s="1">
-        <v>30.46</v>
+        <v>21.36</v>
       </c>
       <c r="N147">
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P147" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q147" t="s">
         <v>23</v>
@@ -10310,27 +10358,27 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148">
-        <v>805469</v>
+        <v>805468</v>
       </c>
       <c r="C148" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D148" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E148" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F148" s="1">
-        <v>32.69</v>
+        <v>29.62</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -10342,25 +10390,25 @@
         <v>48</v>
       </c>
       <c r="J148" s="1">
-        <v>21.25</v>
+        <v>19.25</v>
       </c>
       <c r="K148" s="1">
-        <v>17.69</v>
+        <v>16.03</v>
       </c>
       <c r="L148" s="1">
-        <v>29.32</v>
+        <v>26.57</v>
       </c>
       <c r="M148" s="1">
-        <v>33.61</v>
+        <v>30.46</v>
       </c>
       <c r="N148">
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P148" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="Q148" t="s">
         <v>23</v>
@@ -10369,27 +10417,27 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149">
-        <v>805461</v>
+        <v>805469</v>
       </c>
       <c r="C149" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D149" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E149" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F149" s="1">
-        <v>23.08</v>
+        <v>32.69</v>
       </c>
       <c r="G149" s="2">
         <v>0</v>
@@ -10401,25 +10449,25 @@
         <v>48</v>
       </c>
       <c r="J149" s="1">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="K149" s="1">
-        <v>12.49</v>
+        <v>17.69</v>
       </c>
       <c r="L149" s="1">
-        <v>20.7</v>
+        <v>29.32</v>
       </c>
       <c r="M149" s="1">
-        <v>23.73</v>
+        <v>33.61</v>
       </c>
       <c r="N149">
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P149" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="Q149" t="s">
         <v>23</v>
@@ -10428,27 +10476,27 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150">
-        <v>805470</v>
+        <v>805461</v>
       </c>
       <c r="C150" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D150" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E150" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F150" s="1">
-        <v>21.54</v>
+        <v>23.08</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -10460,25 +10508,25 @@
         <v>48</v>
       </c>
       <c r="J150" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K150" s="1">
-        <v>11.66</v>
+        <v>12.49</v>
       </c>
       <c r="L150" s="1">
-        <v>19.32</v>
+        <v>20.7</v>
       </c>
       <c r="M150" s="1">
-        <v>22.15</v>
+        <v>23.73</v>
       </c>
       <c r="N150">
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P150" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="Q150" t="s">
         <v>23</v>
@@ -10492,22 +10540,22 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151">
-        <v>805471</v>
+        <v>805470</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D151" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E151" t="s">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="F151" s="1">
-        <v>16.92</v>
+        <v>21.54</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
@@ -10519,25 +10567,25 @@
         <v>48</v>
       </c>
       <c r="J151" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K151" s="1">
-        <v>9.16</v>
+        <v>11.66</v>
       </c>
       <c r="L151" s="1">
-        <v>15.18</v>
+        <v>19.32</v>
       </c>
       <c r="M151" s="1">
-        <v>17.4</v>
+        <v>22.15</v>
       </c>
       <c r="N151">
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P151" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="Q151" t="s">
         <v>23</v>
@@ -10551,22 +10599,22 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152">
-        <v>805472</v>
+        <v>805471</v>
       </c>
       <c r="C152" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D152" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E152" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="F152" s="1">
-        <v>15.38</v>
+        <v>16.92</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -10578,25 +10626,25 @@
         <v>48</v>
       </c>
       <c r="J152" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K152" s="1">
-        <v>8.32</v>
+        <v>9.16</v>
       </c>
       <c r="L152" s="1">
-        <v>13.8</v>
+        <v>15.18</v>
       </c>
       <c r="M152" s="1">
-        <v>15.81</v>
+        <v>17.4</v>
       </c>
       <c r="N152">
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P152" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="Q152" t="s">
         <v>23</v>
@@ -10610,19 +10658,19 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153">
-        <v>805473</v>
+        <v>805472</v>
       </c>
       <c r="C153" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D153" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E153" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="F153" s="1">
         <v>15.38</v>
@@ -10652,10 +10700,10 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P153" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="Q153" t="s">
         <v>23</v>
@@ -10669,19 +10717,19 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154">
-        <v>805474</v>
+        <v>805473</v>
       </c>
       <c r="C154" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D154" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E154" t="s">
-        <v>373</v>
+        <v>58</v>
       </c>
       <c r="F154" s="1">
         <v>15.38</v>
@@ -10711,10 +10759,10 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P154" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="Q154" t="s">
         <v>23</v>
@@ -10728,22 +10776,22 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B155">
-        <v>990712</v>
+        <v>805474</v>
       </c>
       <c r="C155" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D155" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E155" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F155" s="1">
-        <v>8.92</v>
+        <v>15.38</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -10755,25 +10803,25 @@
         <v>48</v>
       </c>
       <c r="J155" s="1">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="K155" s="1">
-        <v>4.83</v>
+        <v>8.32</v>
       </c>
       <c r="L155" s="1">
-        <v>8</v>
+        <v>13.8</v>
       </c>
       <c r="M155" s="1">
-        <v>9.17</v>
+        <v>15.81</v>
       </c>
       <c r="N155">
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P155" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="Q155" t="s">
         <v>23</v>
@@ -10787,22 +10835,22 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B156">
-        <v>805475</v>
+        <v>990712</v>
       </c>
       <c r="C156" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D156" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E156" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="F156" s="1">
-        <v>18.46</v>
+        <v>8.92</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -10814,25 +10862,25 @@
         <v>48</v>
       </c>
       <c r="J156" s="1">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="K156" s="1">
-        <v>9.99</v>
+        <v>4.83</v>
       </c>
       <c r="L156" s="1">
-        <v>16.56</v>
+        <v>8</v>
       </c>
       <c r="M156" s="1">
-        <v>18.98</v>
+        <v>9.17</v>
       </c>
       <c r="N156">
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P156" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="Q156" t="s">
         <v>23</v>
@@ -10846,22 +10894,22 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B157">
-        <v>805476</v>
+        <v>805475</v>
       </c>
       <c r="C157" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E157" t="s">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="F157" s="1">
-        <v>10.77</v>
+        <v>18.46</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -10873,25 +10921,25 @@
         <v>48</v>
       </c>
       <c r="J157" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K157" s="1">
-        <v>5.83</v>
+        <v>9.99</v>
       </c>
       <c r="L157" s="1">
-        <v>9.66</v>
+        <v>16.56</v>
       </c>
       <c r="M157" s="1">
-        <v>11.07</v>
+        <v>18.98</v>
       </c>
       <c r="N157">
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P157" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="Q157" t="s">
         <v>23</v>
@@ -10905,22 +10953,22 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158">
-        <v>805477</v>
+        <v>805476</v>
       </c>
       <c r="C158" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D158" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E158" t="s">
-        <v>393</v>
+        <v>61</v>
       </c>
       <c r="F158" s="1">
-        <v>18.46</v>
+        <v>10.77</v>
       </c>
       <c r="G158" s="2">
         <v>0</v>
@@ -10932,33 +10980,92 @@
         <v>48</v>
       </c>
       <c r="J158" s="1">
+        <v>7</v>
+      </c>
+      <c r="K158" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="L158" s="1">
+        <v>9.66</v>
+      </c>
+      <c r="M158" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>28</v>
+      </c>
+      <c r="P158" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>805477</v>
+      </c>
+      <c r="C159" t="s">
+        <v>344</v>
+      </c>
+      <c r="D159" t="s">
+        <v>408</v>
+      </c>
+      <c r="E159" t="s">
+        <v>409</v>
+      </c>
+      <c r="F159" s="1">
+        <v>18.46</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>48</v>
+      </c>
+      <c r="J159" s="1">
         <v>12</v>
       </c>
-      <c r="K158" s="1">
+      <c r="K159" s="1">
         <v>9.99</v>
       </c>
-      <c r="L158" s="1">
+      <c r="L159" s="1">
         <v>16.56</v>
       </c>
-      <c r="M158" s="1">
+      <c r="M159" s="1">
         <v>18.98</v>
       </c>
-      <c r="N158">
-        <v>1</v>
-      </c>
-      <c r="O158" t="s">
-        <v>25</v>
-      </c>
-      <c r="P158" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>23</v>
-      </c>
-      <c r="R158">
-        <v>0</v>
-      </c>
-      <c r="S158" t="s">
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>28</v>
+      </c>
+      <c r="P159" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>23</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10975,10 +11082,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10986,7 +11093,7 @@
         <v>0.5412</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10994,7 +11101,7 @@
         <v>0.65</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11002,7 +11109,7 @@
         <v>0.6574</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11010,7 +11117,7 @@
         <v>0.9</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -3390,13 +3390,13 @@
         <v>100</v>
       </c>
       <c r="Q29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3567,13 +3567,13 @@
         <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3803,13 +3803,13 @@
         <v>116</v>
       </c>
       <c r="Q36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3862,13 +3862,13 @@
         <v>116</v>
       </c>
       <c r="Q37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>154</v>
       </c>
       <c r="Q50" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S50" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -6163,13 +6163,13 @@
         <v>223</v>
       </c>
       <c r="Q76" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S76" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -8054,7 +8054,7 @@
         <v>23</v>
       </c>
       <c r="R108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S108" t="s">
         <v>23</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2862,7 +2862,7 @@
         <v>23</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -89,6 +89,9 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1797,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1853,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>23</v>
       </c>
       <c r="R13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S13" t="s">
         <v>23</v>
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>23</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>
@@ -2918,7 +2918,7 @@
         <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>23</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S23" t="s">
         <v>23</v>
@@ -3095,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>23</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
@@ -3272,13 +3272,13 @@
         <v>94</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S29" t="s">
         <v>23</v>
@@ -3443,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>23</v>
       </c>
       <c r="R31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S31" t="s">
         <v>23</v>
@@ -3570,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="R32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S32" t="s">
         <v>23</v>
@@ -3626,13 +3626,13 @@
         <v>110</v>
       </c>
       <c r="Q33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3744,13 +3744,13 @@
         <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>23</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" t="s">
         <v>23</v>
@@ -3924,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -3980,13 +3980,13 @@
         <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -4039,13 +4039,13 @@
         <v>128</v>
       </c>
       <c r="Q40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4098,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4160,7 +4160,7 @@
         <v>23</v>
       </c>
       <c r="R42">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S42" t="s">
         <v>23</v>
@@ -4216,7 +4216,7 @@
         <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>139</v>
       </c>
       <c r="Q44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>144</v>
       </c>
       <c r="Q46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4452,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4632,7 +4632,7 @@
         <v>23</v>
       </c>
       <c r="R50">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="S50" t="s">
         <v>23</v>
@@ -4688,7 +4688,7 @@
         <v>157</v>
       </c>
       <c r="Q51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>161</v>
       </c>
       <c r="Q52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="Q53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>166</v>
       </c>
       <c r="Q54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>169</v>
       </c>
       <c r="Q55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4977,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P56" t="s">
         <v>172</v>
       </c>
       <c r="Q56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>181</v>
       </c>
       <c r="Q59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5337,13 +5337,13 @@
         <v>181</v>
       </c>
       <c r="Q62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5390,19 +5390,19 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P63" t="s">
         <v>190</v>
       </c>
       <c r="Q63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5449,19 +5449,19 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P64" t="s">
         <v>190</v>
       </c>
       <c r="Q64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5514,13 +5514,13 @@
         <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5573,13 +5573,13 @@
         <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>200</v>
       </c>
       <c r="Q67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5691,7 +5691,7 @@
         <v>203</v>
       </c>
       <c r="Q68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>205</v>
       </c>
       <c r="Q69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="Q70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5989,7 +5989,7 @@
         <v>23</v>
       </c>
       <c r="R73">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="S73" t="s">
         <v>23</v>
@@ -6045,7 +6045,7 @@
         <v>219</v>
       </c>
       <c r="Q74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>226</v>
       </c>
       <c r="Q77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>229</v>
       </c>
       <c r="Q78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6334,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P79" t="s">
         <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6399,10 +6399,10 @@
         <v>232</v>
       </c>
       <c r="Q80" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S80" t="s">
         <v>23</v>
@@ -6458,13 +6458,13 @@
         <v>235</v>
       </c>
       <c r="Q81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>241</v>
       </c>
       <c r="Q83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>244</v>
       </c>
       <c r="Q84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>246</v>
       </c>
       <c r="Q85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>248</v>
       </c>
       <c r="Q86" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>250</v>
       </c>
       <c r="Q87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>252</v>
       </c>
       <c r="Q88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6924,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P89" t="s">
         <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>259</v>
       </c>
       <c r="Q91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="Q93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>267</v>
       </c>
       <c r="Q94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>269</v>
       </c>
       <c r="Q95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>274</v>
       </c>
       <c r="Q97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7520,7 +7520,7 @@
         <v>278</v>
       </c>
       <c r="Q99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>280</v>
       </c>
       <c r="Q100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>282</v>
       </c>
       <c r="Q101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         <v>284</v>
       </c>
       <c r="Q102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>286</v>
       </c>
       <c r="Q103" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>288</v>
       </c>
       <c r="Q104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>290</v>
       </c>
       <c r="Q105" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>294</v>
       </c>
       <c r="Q106" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>294</v>
       </c>
       <c r="Q107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>302</v>
       </c>
       <c r="Q109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -8169,7 +8169,7 @@
         <v>304</v>
       </c>
       <c r="Q110" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>306</v>
       </c>
       <c r="Q111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>308</v>
       </c>
       <c r="Q112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>310</v>
       </c>
       <c r="Q113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>312</v>
       </c>
       <c r="Q114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>314</v>
       </c>
       <c r="Q115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -8523,13 +8523,13 @@
         <v>316</v>
       </c>
       <c r="Q116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -8582,13 +8582,13 @@
         <v>318</v>
       </c>
       <c r="Q117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R117">
         <v>0</v>
       </c>
       <c r="S117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -8641,13 +8641,13 @@
         <v>320</v>
       </c>
       <c r="Q118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>323</v>
       </c>
       <c r="Q119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>325</v>
       </c>
       <c r="Q120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="Q121" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         <v>310</v>
       </c>
       <c r="Q122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>332</v>
       </c>
       <c r="Q123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>332</v>
       </c>
       <c r="Q124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R124">
         <v>0</v>
@@ -9054,13 +9054,13 @@
         <v>335</v>
       </c>
       <c r="Q125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9113,13 +9113,13 @@
         <v>335</v>
       </c>
       <c r="Q126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>338</v>
       </c>
       <c r="Q127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>338</v>
       </c>
       <c r="Q128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -9290,13 +9290,13 @@
         <v>341</v>
       </c>
       <c r="Q129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,7 +9349,7 @@
         <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P131" t="s">
         <v>347</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P132" t="s">
         <v>347</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P133" t="s">
         <v>347</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P134" t="s">
         <v>354</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P135" t="s">
         <v>354</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P136" t="s">
         <v>359</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P137" t="s">
         <v>359</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P138" t="s">
         <v>359</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P139" t="s">
         <v>365</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P140" t="s">
         <v>365</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P141" t="s">
         <v>365</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P142" t="s">
         <v>370</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P143" t="s">
         <v>370</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P144" t="s">
         <v>373</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P145" t="s">
         <v>376</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P146" t="s">
         <v>379</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P147" t="s">
         <v>379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P148" t="s">
         <v>384</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P149" t="s">
         <v>387</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P150" t="s">
         <v>390</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P151" t="s">
         <v>393</v>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P152" t="s">
         <v>395</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P153" t="s">
         <v>397</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P154" t="s">
         <v>399</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P155" t="s">
         <v>401</v>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P156" t="s">
         <v>401</v>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P157" t="s">
         <v>405</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P158" t="s">
         <v>407</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P159" t="s">
         <v>410</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -89,16 +89,16 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>Ground Pork</t>
+  </si>
+  <si>
+    <t>1.00 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Ground Pork</t>
-  </si>
-  <si>
-    <t>1.00 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1797,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1853,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>23</v>
       </c>
       <c r="R20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>
@@ -2918,7 +2918,7 @@
         <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3042,7 +3042,7 @@
         <v>6</v>
       </c>
       <c r="S23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>23</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
@@ -3278,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
         <v>23</v>
@@ -3443,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="R32">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S32" t="s">
         <v>23</v>
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="S33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>23</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35" t="s">
         <v>23</v>
@@ -3806,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" t="s">
         <v>23</v>
@@ -3865,7 +3865,7 @@
         <v>23</v>
       </c>
       <c r="R37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S37" t="s">
         <v>23</v>
@@ -3980,13 +3980,13 @@
         <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -4039,13 +4039,13 @@
         <v>128</v>
       </c>
       <c r="Q40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4098,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4160,7 +4160,7 @@
         <v>23</v>
       </c>
       <c r="R42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S42" t="s">
         <v>23</v>
@@ -4216,7 +4216,7 @@
         <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>139</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>144</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4452,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>157</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>161</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="Q53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>166</v>
       </c>
       <c r="Q54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>169</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4977,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P56" t="s">
         <v>172</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>181</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5337,13 +5337,13 @@
         <v>181</v>
       </c>
       <c r="Q62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5390,19 +5390,19 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P63" t="s">
         <v>190</v>
       </c>
       <c r="Q63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5449,19 +5449,19 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P64" t="s">
         <v>190</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5514,13 +5514,13 @@
         <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5573,13 +5573,13 @@
         <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>200</v>
       </c>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5691,7 +5691,7 @@
         <v>203</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>205</v>
       </c>
       <c r="Q69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="Q70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5933,7 +5933,7 @@
         <v>5</v>
       </c>
       <c r="S72" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>219</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>226</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>229</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6334,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P79" t="s">
         <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6458,13 +6458,13 @@
         <v>235</v>
       </c>
       <c r="Q81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>241</v>
       </c>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>244</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>246</v>
       </c>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>248</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>250</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>252</v>
       </c>
       <c r="Q88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6924,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P89" t="s">
         <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>259</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="Q93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>267</v>
       </c>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>269</v>
       </c>
       <c r="Q95" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>274</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7520,7 +7520,7 @@
         <v>278</v>
       </c>
       <c r="Q99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>280</v>
       </c>
       <c r="Q100" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>282</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         <v>284</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>286</v>
       </c>
       <c r="Q103" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>288</v>
       </c>
       <c r="Q104" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>290</v>
       </c>
       <c r="Q105" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>294</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>294</v>
       </c>
       <c r="Q107" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>302</v>
       </c>
       <c r="Q109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -8169,7 +8169,7 @@
         <v>304</v>
       </c>
       <c r="Q110" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>306</v>
       </c>
       <c r="Q111" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>308</v>
       </c>
       <c r="Q112" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>310</v>
       </c>
       <c r="Q113" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>312</v>
       </c>
       <c r="Q114" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>314</v>
       </c>
       <c r="Q115" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -8523,13 +8523,13 @@
         <v>316</v>
       </c>
       <c r="Q116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -8582,13 +8582,13 @@
         <v>318</v>
       </c>
       <c r="Q117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -8641,13 +8641,13 @@
         <v>320</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>323</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>325</v>
       </c>
       <c r="Q120" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         <v>310</v>
       </c>
       <c r="Q122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>332</v>
       </c>
       <c r="Q123" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>332</v>
       </c>
       <c r="Q124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R124">
         <v>0</v>
@@ -9054,13 +9054,13 @@
         <v>335</v>
       </c>
       <c r="Q125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9113,13 +9113,13 @@
         <v>335</v>
       </c>
       <c r="Q126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>338</v>
       </c>
       <c r="Q127" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>338</v>
       </c>
       <c r="Q128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -9290,13 +9290,13 @@
         <v>341</v>
       </c>
       <c r="Q129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,7 +9349,7 @@
         <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P131" t="s">
         <v>347</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P132" t="s">
         <v>347</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P133" t="s">
         <v>347</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P134" t="s">
         <v>354</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P135" t="s">
         <v>354</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P136" t="s">
         <v>359</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P137" t="s">
         <v>359</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P138" t="s">
         <v>359</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P139" t="s">
         <v>365</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P140" t="s">
         <v>365</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P141" t="s">
         <v>365</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P142" t="s">
         <v>370</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P143" t="s">
         <v>370</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P144" t="s">
         <v>373</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P145" t="s">
         <v>376</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P146" t="s">
         <v>379</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P147" t="s">
         <v>379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P148" t="s">
         <v>384</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P149" t="s">
         <v>387</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P150" t="s">
         <v>390</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P151" t="s">
         <v>393</v>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P152" t="s">
         <v>395</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P153" t="s">
         <v>397</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P154" t="s">
         <v>399</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P155" t="s">
         <v>401</v>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P156" t="s">
         <v>401</v>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P157" t="s">
         <v>405</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P158" t="s">
         <v>407</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P159" t="s">
         <v>410</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -89,6 +89,9 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1797,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1853,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3042,7 +3042,7 @@
         <v>6</v>
       </c>
       <c r="S23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>23</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
@@ -3272,13 +3272,13 @@
         <v>94</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S29" t="s">
         <v>23</v>
@@ -3443,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3567,13 +3567,13 @@
         <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R32">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="S33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3744,13 +3744,13 @@
         <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S36" t="s">
         <v>23</v>
@@ -3980,13 +3980,13 @@
         <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -4039,13 +4039,13 @@
         <v>128</v>
       </c>
       <c r="Q40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4098,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4157,13 +4157,13 @@
         <v>133</v>
       </c>
       <c r="Q42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>139</v>
       </c>
       <c r="Q44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4334,13 +4334,13 @@
         <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>144</v>
       </c>
       <c r="Q46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4452,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>157</v>
       </c>
       <c r="Q51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>161</v>
       </c>
       <c r="Q52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="Q53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>166</v>
       </c>
       <c r="Q54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>169</v>
       </c>
       <c r="Q55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4977,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P56" t="s">
         <v>172</v>
       </c>
       <c r="Q56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>181</v>
       </c>
       <c r="Q59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5219,13 +5219,13 @@
         <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
         <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5337,13 +5337,13 @@
         <v>181</v>
       </c>
       <c r="Q62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5390,19 +5390,19 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P63" t="s">
         <v>190</v>
       </c>
       <c r="Q63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5449,19 +5449,19 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P64" t="s">
         <v>190</v>
       </c>
       <c r="Q64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5514,13 +5514,13 @@
         <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5573,13 +5573,13 @@
         <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>200</v>
       </c>
       <c r="Q67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5691,7 +5691,7 @@
         <v>203</v>
       </c>
       <c r="Q68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>205</v>
       </c>
       <c r="Q69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="Q70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5927,13 +5927,13 @@
         <v>213</v>
       </c>
       <c r="Q72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -5986,13 +5986,13 @@
         <v>216</v>
       </c>
       <c r="Q73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R73">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>219</v>
       </c>
       <c r="Q74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>226</v>
       </c>
       <c r="Q77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>229</v>
       </c>
       <c r="Q78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6334,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P79" t="s">
         <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
         <v>23</v>
       </c>
       <c r="R80">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S80" t="s">
         <v>23</v>
@@ -6458,13 +6458,13 @@
         <v>235</v>
       </c>
       <c r="Q81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>241</v>
       </c>
       <c r="Q83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>244</v>
       </c>
       <c r="Q84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>246</v>
       </c>
       <c r="Q85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>248</v>
       </c>
       <c r="Q86" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>250</v>
       </c>
       <c r="Q87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>252</v>
       </c>
       <c r="Q88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6924,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P89" t="s">
         <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>259</v>
       </c>
       <c r="Q91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="Q93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>267</v>
       </c>
       <c r="Q94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>269</v>
       </c>
       <c r="Q95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7343,13 +7343,13 @@
         <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
         <v>274</v>
       </c>
       <c r="Q97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7520,7 +7520,7 @@
         <v>278</v>
       </c>
       <c r="Q99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>280</v>
       </c>
       <c r="Q100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>282</v>
       </c>
       <c r="Q101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         <v>284</v>
       </c>
       <c r="Q102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>286</v>
       </c>
       <c r="Q103" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>288</v>
       </c>
       <c r="Q104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>290</v>
       </c>
       <c r="Q105" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>294</v>
       </c>
       <c r="Q106" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>294</v>
       </c>
       <c r="Q107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>302</v>
       </c>
       <c r="Q109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -8169,7 +8169,7 @@
         <v>304</v>
       </c>
       <c r="Q110" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>306</v>
       </c>
       <c r="Q111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>308</v>
       </c>
       <c r="Q112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>310</v>
       </c>
       <c r="Q113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>312</v>
       </c>
       <c r="Q114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>314</v>
       </c>
       <c r="Q115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -8523,13 +8523,13 @@
         <v>316</v>
       </c>
       <c r="Q116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -8641,13 +8641,13 @@
         <v>320</v>
       </c>
       <c r="Q118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>323</v>
       </c>
       <c r="Q119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>325</v>
       </c>
       <c r="Q120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="Q121" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         <v>310</v>
       </c>
       <c r="Q122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>332</v>
       </c>
       <c r="Q123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>332</v>
       </c>
       <c r="Q124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R124">
         <v>0</v>
@@ -9054,13 +9054,13 @@
         <v>335</v>
       </c>
       <c r="Q125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9113,13 +9113,13 @@
         <v>335</v>
       </c>
       <c r="Q126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>338</v>
       </c>
       <c r="Q127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>338</v>
       </c>
       <c r="Q128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -9290,13 +9290,13 @@
         <v>341</v>
       </c>
       <c r="Q129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,10 +9349,10 @@
         <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R130">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S130" t="s">
         <v>23</v>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P131" t="s">
         <v>347</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P132" t="s">
         <v>347</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P133" t="s">
         <v>347</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P134" t="s">
         <v>354</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P135" t="s">
         <v>354</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P136" t="s">
         <v>359</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P137" t="s">
         <v>359</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P138" t="s">
         <v>359</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P139" t="s">
         <v>365</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P140" t="s">
         <v>365</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P141" t="s">
         <v>365</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P142" t="s">
         <v>370</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P143" t="s">
         <v>370</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P144" t="s">
         <v>373</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P145" t="s">
         <v>376</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P146" t="s">
         <v>379</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P147" t="s">
         <v>379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P148" t="s">
         <v>384</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P149" t="s">
         <v>387</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P150" t="s">
         <v>390</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P151" t="s">
         <v>393</v>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P152" t="s">
         <v>395</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P153" t="s">
         <v>397</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P154" t="s">
         <v>399</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P155" t="s">
         <v>401</v>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P156" t="s">
         <v>401</v>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P157" t="s">
         <v>405</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P158" t="s">
         <v>407</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P159" t="s">
         <v>410</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2803,7 +2803,7 @@
         <v>23</v>
       </c>
       <c r="R19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S19" t="s">
         <v>23</v>
@@ -3042,7 +3042,7 @@
         <v>6</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>9</v>
       </c>
       <c r="S26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
         <v>23</v>
       </c>
       <c r="R80">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S80" t="s">
         <v>23</v>
@@ -7284,10 +7284,10 @@
         <v>269</v>
       </c>
       <c r="Q95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S95" t="s">
         <v>23</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>23</v>
       </c>
       <c r="R130">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S130" t="s">
         <v>23</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2806,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="417">
   <si>
     <t>id</t>
   </si>
@@ -554,28 +554,28 @@
     <t>Our Chicken Wings are a flavorful, juicy cut of white meat with a rich, concentrated poultry flavor, often enjoyed for their versatility in dishes like classic Buffalo wings. Whether you're frying, grilling, or baking, these wings deliver a delicious bite every time. Sourced from our pasture-raised broilers, who enjoy a diet of grass, herbs, and clover, our chickens are well-fed, happy, and healthy, ensuring high-quality meat with exceptional taste. Perfect for your next family gathering or game day, our chicken wings offer a satisfying and wholesome option for any occasion.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
-    <t>CRX Roaster, Extra Large</t>
+    <t>Cornish Roasting Chicken, Extra Large</t>
   </si>
   <si>
     <t>Extra Large, 5.00 - 6.00 lbs</t>
   </si>
   <si>
-    <t>Our CRX Roaster is a juicy and tender whole chicken that offers superior flavor and nutrition, thanks to the natural, pasture-raised environment in which these birds are raised. With up to 20% of their diet consisting of grass, herbs, and clover, these birds roam freely and enjoy a well-rounded, healthy diet, resulting in rich, flavorful meat. Perfect for roasting, this chicken delivers a far-cry from conventional varieties. Plus, don’t forget to save the bones to make a delicious homemade chicken stock! Note that the chicken in the photo is slightly larger than the one you will receive.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>CRX Roaster, Large</t>
+    <t>Our Cornish Roaster is a juicy and tender whole chicken that offers superior flavor and nutrition, thanks to the natural, pasture-raised environment in which these birds are raised. With up to 20% of their diet consisting of grass, herbs, and clover, these birds roam freely and enjoy a well-rounded, healthy diet, resulting in rich, flavorful meat. Perfect for roasting, this chicken delivers a far-cry from conventional varieties. Plus, don’t forget to save the bones to make a delicious homemade chicken stock! Note that the chicken in the photo is slightly larger than the one you will receive.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
+    <t>Cornish Roasting Chicken, Large</t>
   </si>
   <si>
     <t>Large, 4.21 - 4.99 lbs</t>
   </si>
   <si>
-    <t>CRX Roaster, Medium</t>
+    <t>Cornish Roasting Chicken, Medium</t>
   </si>
   <si>
     <t>Medium, 3.20 - 4.20 lbs</t>
   </si>
   <si>
-    <t>CRX Roaster, Small</t>
+    <t>Cornish Roasting Chicken, Small</t>
   </si>
   <si>
     <t>Small, 2.50 - 3.19 lbs</t>
@@ -584,7 +584,7 @@
     <t>Red Ranger Roasting Chicken, Large</t>
   </si>
   <si>
-    <t>Large, 5.10 - 5.70 lbs</t>
+    <t>Large, 5.01 - 5.70 lbs</t>
   </si>
   <si>
     <t>Red Rangers are a heritage breed of chicken, organically fed a no-soy diet, making them a healthier and more flavorful option for your table. These roasting chickens are perfect for broiling, offering tender, juicy meat with a rich, natural flavor. Raised on pasture with up to 20% of their diet consisting of grass, herbs, and clover, these birds roam freely, ensuring they're well-fed and happy. Ideal for anyone seeking a high-quality, delicious chicken with a focus on sustainability and nutrition.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
@@ -593,7 +593,7 @@
     <t>Red Ranger Roasting Chicken, Medium</t>
   </si>
   <si>
-    <t>Medium, 4.10 - 5.00 lbs</t>
+    <t>Medium, 4.01 - 5.00 lbs</t>
   </si>
   <si>
     <t>Red Ranger Roasting Chicken, Small</t>
@@ -2803,10 +2803,10 @@
         <v>23</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>23</v>
       </c>
       <c r="R23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S23" t="s">
         <v>23</v>
@@ -3216,10 +3216,10 @@
         <v>23</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="R29">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S29" t="s">
         <v>23</v>
@@ -3626,13 +3626,13 @@
         <v>110</v>
       </c>
       <c r="Q33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="R36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S36" t="s">
         <v>23</v>
@@ -3924,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -4098,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4157,13 +4157,13 @@
         <v>133</v>
       </c>
       <c r="Q42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4278,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S44" t="s">
         <v>23</v>
@@ -4393,10 +4393,10 @@
         <v>144</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
@@ -4452,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4632,7 +4632,7 @@
         <v>23</v>
       </c>
       <c r="R50">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="S50" t="s">
         <v>23</v>
@@ -5278,13 +5278,13 @@
         <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -5350,8 +5350,8 @@
       <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>46</v>
+      <c r="B63">
+        <v>1004600</v>
       </c>
       <c r="C63" t="s">
         <v>158</v>
@@ -5366,7 +5366,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="2">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="H63" s="2">
         <v>5.7</v>
@@ -5378,19 +5378,19 @@
         <v>7.8</v>
       </c>
       <c r="K63" s="1">
-        <v>35.07</v>
+        <v>34.78</v>
       </c>
       <c r="L63" s="1">
-        <v>58.12</v>
+        <v>57.64</v>
       </c>
       <c r="M63" s="1">
-        <v>66.63</v>
+        <v>66.08</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P63" t="s">
         <v>190</v>
@@ -5409,8 +5409,8 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>46</v>
+      <c r="B64">
+        <v>1004599</v>
       </c>
       <c r="C64" t="s">
         <v>158</v>
@@ -5425,7 +5425,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="2">
-        <v>4.1</v>
+        <v>4.01</v>
       </c>
       <c r="H64" s="2">
         <v>5</v>
@@ -5437,19 +5437,19 @@
         <v>7.8</v>
       </c>
       <c r="K64" s="1">
-        <v>29.55</v>
+        <v>29.26</v>
       </c>
       <c r="L64" s="1">
-        <v>48.98</v>
+        <v>48.49</v>
       </c>
       <c r="M64" s="1">
-        <v>56.14</v>
+        <v>55.59</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P64" t="s">
         <v>190</v>
@@ -5573,13 +5573,13 @@
         <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5927,13 +5927,13 @@
         <v>213</v>
       </c>
       <c r="Q72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>23</v>
       </c>
       <c r="R117">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S117" t="s">
         <v>23</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,13 +9349,13 @@
         <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -89,16 +89,16 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>Ground Pork</t>
+  </si>
+  <si>
+    <t>1.00 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Ground Pork</t>
-  </si>
-  <si>
-    <t>1.00 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1797,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1853,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>94</v>
       </c>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3443,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3567,13 +3567,13 @@
         <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3626,13 +3626,13 @@
         <v>110</v>
       </c>
       <c r="Q33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3744,13 +3744,13 @@
         <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3980,13 +3980,13 @@
         <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -4039,13 +4039,13 @@
         <v>128</v>
       </c>
       <c r="Q40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>139</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R44">
         <v>17</v>
@@ -4334,13 +4334,13 @@
         <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>157</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>161</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="Q53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>166</v>
       </c>
       <c r="Q54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>169</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4977,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P56" t="s">
         <v>172</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -5042,13 +5042,13 @@
         <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -5101,7 +5101,7 @@
         <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>181</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5219,13 +5219,13 @@
         <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5337,13 +5337,13 @@
         <v>181</v>
       </c>
       <c r="Q62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5396,13 +5396,13 @@
         <v>190</v>
       </c>
       <c r="Q63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5455,13 +5455,13 @@
         <v>190</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
         <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>200</v>
       </c>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5691,7 +5691,7 @@
         <v>203</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>205</v>
       </c>
       <c r="Q69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="Q70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5986,13 +5986,13 @@
         <v>216</v>
       </c>
       <c r="Q73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>219</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>226</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>229</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6334,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P79" t="s">
         <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6458,13 +6458,13 @@
         <v>235</v>
       </c>
       <c r="Q81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>241</v>
       </c>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>244</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>246</v>
       </c>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>248</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>250</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>252</v>
       </c>
       <c r="Q88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6924,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P89" t="s">
         <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>259</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="Q93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>267</v>
       </c>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7343,13 +7343,13 @@
         <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -7402,13 +7402,13 @@
         <v>274</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -7461,7 +7461,7 @@
         <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7520,13 +7520,13 @@
         <v>278</v>
       </c>
       <c r="Q99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
       <c r="S99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
         <v>280</v>
       </c>
       <c r="Q100" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>282</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         <v>284</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>286</v>
       </c>
       <c r="Q103" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>288</v>
       </c>
       <c r="Q104" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>290</v>
       </c>
       <c r="Q105" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>294</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>294</v>
       </c>
       <c r="Q107" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>302</v>
       </c>
       <c r="Q109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -8169,7 +8169,7 @@
         <v>304</v>
       </c>
       <c r="Q110" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>306</v>
       </c>
       <c r="Q111" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>308</v>
       </c>
       <c r="Q112" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>310</v>
       </c>
       <c r="Q113" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>312</v>
       </c>
       <c r="Q114" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>314</v>
       </c>
       <c r="Q115" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -8523,13 +8523,13 @@
         <v>316</v>
       </c>
       <c r="Q116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -8641,13 +8641,13 @@
         <v>320</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>323</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>325</v>
       </c>
       <c r="Q120" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         <v>310</v>
       </c>
       <c r="Q122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>332</v>
       </c>
       <c r="Q123" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8995,13 +8995,13 @@
         <v>332</v>
       </c>
       <c r="Q124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R124">
         <v>0</v>
       </c>
       <c r="S124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -9054,13 +9054,13 @@
         <v>335</v>
       </c>
       <c r="Q125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9113,13 +9113,13 @@
         <v>335</v>
       </c>
       <c r="Q126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>338</v>
       </c>
       <c r="Q127" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>338</v>
       </c>
       <c r="Q128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -9290,13 +9290,13 @@
         <v>341</v>
       </c>
       <c r="Q129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,13 +9349,13 @@
         <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R130">
         <v>0</v>
       </c>
       <c r="S130" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P131" t="s">
         <v>347</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P132" t="s">
         <v>347</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P133" t="s">
         <v>347</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P134" t="s">
         <v>354</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P135" t="s">
         <v>354</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P136" t="s">
         <v>359</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P137" t="s">
         <v>359</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P138" t="s">
         <v>359</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P139" t="s">
         <v>365</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P140" t="s">
         <v>365</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P141" t="s">
         <v>365</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P142" t="s">
         <v>370</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P143" t="s">
         <v>370</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P144" t="s">
         <v>373</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P145" t="s">
         <v>376</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P146" t="s">
         <v>379</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P147" t="s">
         <v>379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P148" t="s">
         <v>384</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P149" t="s">
         <v>387</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P150" t="s">
         <v>390</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P151" t="s">
         <v>393</v>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P152" t="s">
         <v>395</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P153" t="s">
         <v>397</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P154" t="s">
         <v>399</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P155" t="s">
         <v>401</v>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P156" t="s">
         <v>401</v>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P157" t="s">
         <v>405</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P158" t="s">
         <v>407</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P159" t="s">
         <v>410</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1800,7 +1800,7 @@
         <v>23</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>23</v>
@@ -2449,7 +2449,7 @@
         <v>23</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s">
         <v>23</v>
@@ -2800,13 +2800,13 @@
         <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -3216,7 +3216,7 @@
         <v>23</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
@@ -3393,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="R29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S29" t="s">
         <v>23</v>
@@ -3508,13 +3508,13 @@
         <v>104</v>
       </c>
       <c r="Q31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="R36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S36" t="s">
         <v>23</v>
@@ -3924,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -4098,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4157,13 +4157,13 @@
         <v>133</v>
       </c>
       <c r="Q42" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4278,7 +4278,7 @@
         <v>28</v>
       </c>
       <c r="R44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S44" t="s">
         <v>23</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>23</v>
       </c>
       <c r="R46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
@@ -4452,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4632,7 +4632,7 @@
         <v>23</v>
       </c>
       <c r="R50">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S50" t="s">
         <v>23</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5278,10 +5278,10 @@
         <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R61">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S61" t="s">
         <v>23</v>
@@ -5573,13 +5573,13 @@
         <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
         <v>23</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S72" t="s">
         <v>23</v>
@@ -5986,13 +5986,13 @@
         <v>216</v>
       </c>
       <c r="Q73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -6163,10 +6163,10 @@
         <v>223</v>
       </c>
       <c r="Q76" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S76" t="s">
         <v>23</v>
@@ -6402,7 +6402,7 @@
         <v>23</v>
       </c>
       <c r="R80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S80" t="s">
         <v>23</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>23</v>
       </c>
       <c r="R117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S117" t="s">
         <v>23</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -89,6 +89,9 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1797,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1853,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2092,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S7" t="s">
         <v>23</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3036,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3213,13 +3213,13 @@
         <v>91</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3272,13 +3272,13 @@
         <v>94</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3443,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3508,13 +3508,13 @@
         <v>104</v>
       </c>
       <c r="Q31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3567,13 +3567,13 @@
         <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3626,13 +3626,13 @@
         <v>110</v>
       </c>
       <c r="Q33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3744,13 +3744,13 @@
         <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S36" t="s">
         <v>23</v>
@@ -3980,13 +3980,13 @@
         <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -4039,13 +4039,13 @@
         <v>128</v>
       </c>
       <c r="Q40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4098,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4157,13 +4157,13 @@
         <v>133</v>
       </c>
       <c r="Q42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4275,10 +4275,10 @@
         <v>139</v>
       </c>
       <c r="Q44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S44" t="s">
         <v>23</v>
@@ -4334,7 +4334,7 @@
         <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>23</v>
       </c>
       <c r="R46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
@@ -4452,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>154</v>
       </c>
       <c r="Q50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>157</v>
       </c>
       <c r="Q51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>161</v>
       </c>
       <c r="Q52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="Q53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>166</v>
       </c>
       <c r="Q54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>169</v>
       </c>
       <c r="Q55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4977,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P56" t="s">
         <v>172</v>
       </c>
       <c r="Q56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>181</v>
       </c>
       <c r="Q59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5278,13 +5278,13 @@
         <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -5337,13 +5337,13 @@
         <v>181</v>
       </c>
       <c r="Q62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5396,13 +5396,13 @@
         <v>190</v>
       </c>
       <c r="Q63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5455,13 +5455,13 @@
         <v>190</v>
       </c>
       <c r="Q64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
         <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -5573,13 +5573,13 @@
         <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>200</v>
       </c>
       <c r="Q67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5691,7 +5691,7 @@
         <v>203</v>
       </c>
       <c r="Q68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>205</v>
       </c>
       <c r="Q69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="Q70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5989,7 +5989,7 @@
         <v>23</v>
       </c>
       <c r="R73">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S73" t="s">
         <v>23</v>
@@ -6045,7 +6045,7 @@
         <v>219</v>
       </c>
       <c r="Q74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6163,7 +6163,7 @@
         <v>223</v>
       </c>
       <c r="Q76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>226</v>
       </c>
       <c r="Q77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>229</v>
       </c>
       <c r="Q78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6334,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P79" t="s">
         <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
         <v>23</v>
       </c>
       <c r="R80">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S80" t="s">
         <v>23</v>
@@ -6458,13 +6458,13 @@
         <v>235</v>
       </c>
       <c r="Q81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>241</v>
       </c>
       <c r="Q83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>244</v>
       </c>
       <c r="Q84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>246</v>
       </c>
       <c r="Q85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>248</v>
       </c>
       <c r="Q86" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>250</v>
       </c>
       <c r="Q87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>252</v>
       </c>
       <c r="Q88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6924,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P89" t="s">
         <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>259</v>
       </c>
       <c r="Q91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="Q93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>267</v>
       </c>
       <c r="Q94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7284,13 +7284,13 @@
         <v>269</v>
       </c>
       <c r="Q95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R95">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -7343,10 +7343,10 @@
         <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S96" t="s">
         <v>23</v>
@@ -7402,13 +7402,13 @@
         <v>274</v>
       </c>
       <c r="Q97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -7461,7 +7461,7 @@
         <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7520,13 +7520,13 @@
         <v>278</v>
       </c>
       <c r="Q99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
       <c r="S99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
         <v>280</v>
       </c>
       <c r="Q100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>282</v>
       </c>
       <c r="Q101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         <v>284</v>
       </c>
       <c r="Q102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>286</v>
       </c>
       <c r="Q103" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>288</v>
       </c>
       <c r="Q104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>290</v>
       </c>
       <c r="Q105" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>294</v>
       </c>
       <c r="Q106" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>294</v>
       </c>
       <c r="Q107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>302</v>
       </c>
       <c r="Q109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -8169,7 +8169,7 @@
         <v>304</v>
       </c>
       <c r="Q110" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>306</v>
       </c>
       <c r="Q111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>308</v>
       </c>
       <c r="Q112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>310</v>
       </c>
       <c r="Q113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>312</v>
       </c>
       <c r="Q114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>314</v>
       </c>
       <c r="Q115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -8523,13 +8523,13 @@
         <v>316</v>
       </c>
       <c r="Q116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>23</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S117" t="s">
         <v>23</v>
@@ -8641,13 +8641,13 @@
         <v>320</v>
       </c>
       <c r="Q118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>323</v>
       </c>
       <c r="Q119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>325</v>
       </c>
       <c r="Q120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="Q121" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         <v>310</v>
       </c>
       <c r="Q122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>332</v>
       </c>
       <c r="Q123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8995,13 +8995,13 @@
         <v>332</v>
       </c>
       <c r="Q124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R124">
         <v>0</v>
       </c>
       <c r="S124" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -9054,13 +9054,13 @@
         <v>335</v>
       </c>
       <c r="Q125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9113,13 +9113,13 @@
         <v>335</v>
       </c>
       <c r="Q126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>338</v>
       </c>
       <c r="Q127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>338</v>
       </c>
       <c r="Q128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -9290,13 +9290,13 @@
         <v>341</v>
       </c>
       <c r="Q129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,7 +9349,7 @@
         <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P131" t="s">
         <v>347</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P132" t="s">
         <v>347</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P133" t="s">
         <v>347</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P134" t="s">
         <v>354</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P135" t="s">
         <v>354</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P136" t="s">
         <v>359</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P137" t="s">
         <v>359</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P138" t="s">
         <v>359</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P139" t="s">
         <v>365</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P140" t="s">
         <v>365</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P141" t="s">
         <v>365</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P142" t="s">
         <v>370</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P143" t="s">
         <v>370</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P144" t="s">
         <v>373</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P145" t="s">
         <v>376</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P146" t="s">
         <v>379</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P147" t="s">
         <v>379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P148" t="s">
         <v>384</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P149" t="s">
         <v>387</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P150" t="s">
         <v>390</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P151" t="s">
         <v>393</v>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P152" t="s">
         <v>395</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P153" t="s">
         <v>397</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P154" t="s">
         <v>399</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P155" t="s">
         <v>401</v>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P156" t="s">
         <v>401</v>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P157" t="s">
         <v>405</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P158" t="s">
         <v>407</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P159" t="s">
         <v>410</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2092,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>23</v>
@@ -2859,13 +2859,13 @@
         <v>75</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3390,13 +3390,13 @@
         <v>100</v>
       </c>
       <c r="Q29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3567,13 +3567,13 @@
         <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3803,13 +3803,13 @@
         <v>116</v>
       </c>
       <c r="Q36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3862,13 +3862,13 @@
         <v>116</v>
       </c>
       <c r="Q37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -4278,7 +4278,7 @@
         <v>23</v>
       </c>
       <c r="R44">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="S44" t="s">
         <v>23</v>
@@ -4396,7 +4396,7 @@
         <v>23</v>
       </c>
       <c r="R46">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
@@ -5930,7 +5930,7 @@
         <v>23</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S72" t="s">
         <v>23</v>
@@ -5986,13 +5986,13 @@
         <v>216</v>
       </c>
       <c r="Q73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -6399,13 +6399,13 @@
         <v>232</v>
       </c>
       <c r="Q80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R80">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -7343,13 +7343,13 @@
         <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>23</v>
       </c>
       <c r="R117">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S117" t="s">
         <v>23</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -8057,7 +8057,7 @@
         <v>16</v>
       </c>
       <c r="S108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -89,16 +89,16 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>Ground Pork</t>
+  </si>
+  <si>
+    <t>1.00 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Ground Pork</t>
-  </si>
-  <si>
-    <t>1.00 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1797,10 +1797,10 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S2" t="s">
         <v>23</v>
@@ -1817,10 +1817,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1853,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2859,13 +2859,13 @@
         <v>75</v>
       </c>
       <c r="Q20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3036,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="Q23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3213,13 +3213,13 @@
         <v>91</v>
       </c>
       <c r="Q26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3272,13 +3272,13 @@
         <v>94</v>
       </c>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>100</v>
       </c>
       <c r="Q29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3443,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3508,13 +3508,13 @@
         <v>104</v>
       </c>
       <c r="Q31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3567,13 +3567,13 @@
         <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3626,13 +3626,13 @@
         <v>110</v>
       </c>
       <c r="Q33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3744,13 +3744,13 @@
         <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3803,13 +3803,13 @@
         <v>116</v>
       </c>
       <c r="Q36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3862,13 +3862,13 @@
         <v>116</v>
       </c>
       <c r="Q37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="R38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S38" t="s">
         <v>23</v>
@@ -3980,13 +3980,13 @@
         <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1">
         <v>15.5</v>
@@ -4039,13 +4039,13 @@
         <v>128</v>
       </c>
       <c r="Q40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4098,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4157,13 +4157,13 @@
         <v>133</v>
       </c>
       <c r="Q42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>23</v>
       </c>
       <c r="R44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S44" t="s">
         <v>23</v>
@@ -4334,7 +4334,7 @@
         <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>23</v>
       </c>
       <c r="R46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
@@ -4452,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>154</v>
       </c>
       <c r="Q50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>157</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>161</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="Q53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>166</v>
       </c>
       <c r="Q54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>169</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4977,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P56" t="s">
         <v>172</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>178</v>
       </c>
       <c r="Q58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>181</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5219,10 +5219,10 @@
         <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S60" t="s">
         <v>23</v>
@@ -5278,13 +5278,13 @@
         <v>181</v>
       </c>
       <c r="Q61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -5337,13 +5337,13 @@
         <v>181</v>
       </c>
       <c r="Q62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5396,13 +5396,13 @@
         <v>190</v>
       </c>
       <c r="Q63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5455,7 +5455,7 @@
         <v>190</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -5573,13 +5573,13 @@
         <v>197</v>
       </c>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>200</v>
       </c>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -5691,7 +5691,7 @@
         <v>203</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>205</v>
       </c>
       <c r="Q69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="Q70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>208</v>
       </c>
       <c r="Q71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
         <v>23</v>
       </c>
       <c r="R72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S72" t="s">
         <v>23</v>
@@ -5986,13 +5986,13 @@
         <v>216</v>
       </c>
       <c r="Q73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>219</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6163,7 +6163,7 @@
         <v>223</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>226</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>229</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6334,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P79" t="s">
         <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6399,13 +6399,13 @@
         <v>232</v>
       </c>
       <c r="Q80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -6458,13 +6458,13 @@
         <v>235</v>
       </c>
       <c r="Q81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>241</v>
       </c>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>244</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>246</v>
       </c>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>248</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>250</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>252</v>
       </c>
       <c r="Q88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -6924,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P89" t="s">
         <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>259</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="Q93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>267</v>
       </c>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>269</v>
       </c>
       <c r="Q95" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7343,13 +7343,13 @@
         <v>271</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -7402,13 +7402,13 @@
         <v>274</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -7461,7 +7461,7 @@
         <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7520,13 +7520,13 @@
         <v>278</v>
       </c>
       <c r="Q99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
       <c r="S99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
         <v>280</v>
       </c>
       <c r="Q100" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>282</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         <v>284</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>286</v>
       </c>
       <c r="Q103" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -7815,10 +7815,10 @@
         <v>288</v>
       </c>
       <c r="Q104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S104" t="s">
         <v>23</v>
@@ -7874,7 +7874,7 @@
         <v>290</v>
       </c>
       <c r="Q105" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>294</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>294</v>
       </c>
       <c r="Q107" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>16</v>
       </c>
       <c r="S108" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -8110,13 +8110,13 @@
         <v>302</v>
       </c>
       <c r="Q109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -8169,7 +8169,7 @@
         <v>304</v>
       </c>
       <c r="Q110" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>306</v>
       </c>
       <c r="Q111" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>308</v>
       </c>
       <c r="Q112" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>310</v>
       </c>
       <c r="Q113" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>312</v>
       </c>
       <c r="Q114" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>314</v>
       </c>
       <c r="Q115" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -8523,13 +8523,13 @@
         <v>316</v>
       </c>
       <c r="Q116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>23</v>
       </c>
       <c r="R117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S117" t="s">
         <v>23</v>
@@ -8641,13 +8641,13 @@
         <v>320</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>323</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>325</v>
       </c>
       <c r="Q120" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         <v>310</v>
       </c>
       <c r="Q122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>332</v>
       </c>
       <c r="Q123" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>332</v>
       </c>
       <c r="Q124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R124">
         <v>0</v>
@@ -9054,13 +9054,13 @@
         <v>335</v>
       </c>
       <c r="Q125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9113,13 +9113,13 @@
         <v>335</v>
       </c>
       <c r="Q126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>338</v>
       </c>
       <c r="Q127" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R127">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>338</v>
       </c>
       <c r="Q128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -9290,13 +9290,13 @@
         <v>341</v>
       </c>
       <c r="Q129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,7 +9349,7 @@
         <v>343</v>
       </c>
       <c r="Q130" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P131" t="s">
         <v>347</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P132" t="s">
         <v>347</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P133" t="s">
         <v>347</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P134" t="s">
         <v>354</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P135" t="s">
         <v>354</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P136" t="s">
         <v>359</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P137" t="s">
         <v>359</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P138" t="s">
         <v>359</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P139" t="s">
         <v>365</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P140" t="s">
         <v>365</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P141" t="s">
         <v>365</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P142" t="s">
         <v>370</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P143" t="s">
         <v>370</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P144" t="s">
         <v>373</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P145" t="s">
         <v>376</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P146" t="s">
         <v>379</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P147" t="s">
         <v>379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P148" t="s">
         <v>384</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P149" t="s">
         <v>387</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P150" t="s">
         <v>390</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P151" t="s">
         <v>393</v>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P152" t="s">
         <v>395</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P153" t="s">
         <v>397</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P154" t="s">
         <v>399</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P155" t="s">
         <v>401</v>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P156" t="s">
         <v>401</v>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P157" t="s">
         <v>405</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P158" t="s">
         <v>407</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P159" t="s">
         <v>410</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2008,10 +2008,10 @@
         <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>29</v>
@@ -3011,13 +3011,13 @@
         <v>79</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3188,13 +3188,13 @@
         <v>87</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
         <v>29</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30" t="s">
         <v>29</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3837,13 +3837,13 @@
         <v>117</v>
       </c>
       <c r="Q36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R36">
         <v>2</v>
       </c>
       <c r="S36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3896,13 +3896,13 @@
         <v>120</v>
       </c>
       <c r="Q37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3955,13 +3955,13 @@
         <v>123</v>
       </c>
       <c r="Q38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -4014,13 +4014,13 @@
         <v>123</v>
       </c>
       <c r="Q39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4073,13 +4073,13 @@
         <v>123</v>
       </c>
       <c r="Q40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4132,10 +4132,10 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R41">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S41" t="s">
         <v>29</v>
@@ -4191,13 +4191,13 @@
         <v>133</v>
       </c>
       <c r="Q42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
         <v>146</v>
       </c>
       <c r="Q47" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R47">
         <v>3</v>
@@ -4604,7 +4604,7 @@
         <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R49">
         <v>10</v>
@@ -4663,13 +4663,13 @@
         <v>154</v>
       </c>
       <c r="Q50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -4722,13 +4722,13 @@
         <v>154</v>
       </c>
       <c r="Q51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -4781,13 +4781,13 @@
         <v>158</v>
       </c>
       <c r="Q52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -5430,7 +5430,7 @@
         <v>188</v>
       </c>
       <c r="Q63" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>10</v>
@@ -6141,7 +6141,7 @@
         <v>29</v>
       </c>
       <c r="R75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S75" t="s">
         <v>29</v>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -8026,13 +8026,13 @@
         <v>295</v>
       </c>
       <c r="Q107" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R107">
         <v>4</v>
       </c>
       <c r="S107" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -8675,10 +8675,10 @@
         <v>321</v>
       </c>
       <c r="Q118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S118" t="s">
         <v>29</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -99,7 +99,7 @@
 Ingredients: Pork Bones, Water, Onion, Carrot, Celery, Garlic, Salt, Thyme, Apple Cider Vinegar, Black Peppercorns, Bay Leaf</t>
   </si>
   <si>
-    <t>Pork Hocks -Skin-on and Smoked</t>
+    <t>Smoked Pork Hocks -Skin-on and Smoked</t>
   </si>
   <si>
     <t>2 - 2.5 lbs</t>
@@ -109,7 +109,7 @@
 Ingredients: Pork Hocks, Sugar, Salt, Less than 2% Water, Celery Powder, Sea Salt, Cherry Powder </t>
   </si>
   <si>
-    <t>Pork Shanks - Skin-on and Smoked</t>
+    <t>Smoked Pork Shanks - Skin-on and Smoked</t>
   </si>
   <si>
     <t xml:space="preserve">Boasting more meat than the hocks, these savory, smoky shanks infuse dishes with rich, deep flavor and ample amounts of shredded meat.
@@ -2143,10 +2143,10 @@
         <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S7" t="s">
         <v>34</v>
@@ -3149,7 +3149,7 @@
         <v>34</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
         <v>34</v>
@@ -3208,7 +3208,7 @@
         <v>34</v>
       </c>
       <c r="R25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S25" t="s">
         <v>34</v>
@@ -3326,7 +3326,7 @@
         <v>34</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S27" t="s">
         <v>34</v>
@@ -3618,13 +3618,13 @@
         <v>106</v>
       </c>
       <c r="Q32" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>34</v>
       </c>
       <c r="R34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S34" t="s">
         <v>34</v>
@@ -3913,10 +3913,10 @@
         <v>119</v>
       </c>
       <c r="Q37" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S37" t="s">
         <v>34</v>
@@ -4034,7 +4034,7 @@
         <v>34</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S39" t="s">
         <v>34</v>
@@ -4152,7 +4152,7 @@
         <v>34</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S41" t="s">
         <v>34</v>
@@ -4211,7 +4211,7 @@
         <v>34</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42" t="s">
         <v>34</v>
@@ -4329,7 +4329,7 @@
         <v>34</v>
       </c>
       <c r="R44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S44" t="s">
         <v>34</v>
@@ -4444,13 +4444,13 @@
         <v>142</v>
       </c>
       <c r="Q46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -4503,10 +4503,10 @@
         <v>145</v>
       </c>
       <c r="Q47" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S47" t="s">
         <v>34</v>
@@ -4801,7 +4801,7 @@
         <v>34</v>
       </c>
       <c r="R52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S52" t="s">
         <v>34</v>
@@ -4860,7 +4860,7 @@
         <v>34</v>
       </c>
       <c r="R53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S53" t="s">
         <v>34</v>
@@ -4919,7 +4919,7 @@
         <v>34</v>
       </c>
       <c r="R54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S54" t="s">
         <v>34</v>
@@ -5568,10 +5568,10 @@
         <v>23</v>
       </c>
       <c r="R65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -5978,10 +5978,10 @@
         <v>212</v>
       </c>
       <c r="Q72" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S72" t="s">
         <v>34</v>
@@ -6096,10 +6096,10 @@
         <v>217</v>
       </c>
       <c r="Q74" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S74" t="s">
         <v>34</v>
@@ -6276,7 +6276,7 @@
         <v>34</v>
       </c>
       <c r="R77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S77" t="s">
         <v>34</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -8813,7 +8813,7 @@
         <v>34</v>
       </c>
       <c r="R120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S120" t="s">
         <v>34</v>
@@ -8928,10 +8928,10 @@
         <v>330</v>
       </c>
       <c r="Q122" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="R122">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S122" t="s">
         <v>34</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -3283,10 +3283,10 @@
         <v>89</v>
       </c>
       <c r="Q26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s">
         <v>29</v>
@@ -3460,13 +3460,13 @@
         <v>97</v>
       </c>
       <c r="Q29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R29">
         <v>7</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3873,13 +3873,13 @@
         <v>117</v>
       </c>
       <c r="Q36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R36">
         <v>5</v>
       </c>
       <c r="S36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -4050,13 +4050,13 @@
         <v>124</v>
       </c>
       <c r="Q39" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R39">
         <v>4</v>
       </c>
       <c r="S39" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4168,13 +4168,13 @@
         <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R41">
         <v>2</v>
       </c>
       <c r="S41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4289,7 +4289,7 @@
         <v>29</v>
       </c>
       <c r="R43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="s">
         <v>29</v>
@@ -4345,13 +4345,13 @@
         <v>133</v>
       </c>
       <c r="Q44" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R44">
         <v>1</v>
       </c>
       <c r="S44" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4643,7 +4643,7 @@
         <v>29</v>
       </c>
       <c r="R49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S49" t="s">
         <v>29</v>
@@ -4758,7 +4758,7 @@
         <v>156</v>
       </c>
       <c r="Q51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R51">
         <v>3</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -5761,13 +5761,13 @@
         <v>198</v>
       </c>
       <c r="Q68" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R68">
         <v>4</v>
       </c>
       <c r="S68" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -6705,10 +6705,10 @@
         <v>243</v>
       </c>
       <c r="Q84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S84" t="s">
         <v>29</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="430">
   <si>
     <t>id</t>
   </si>
@@ -395,7 +395,7 @@
     <t>Beef Stew Meat</t>
   </si>
   <si>
-    <t>0.90 - 1.10 lbs</t>
+    <t>1.1 - 1.3 lbs</t>
   </si>
   <si>
     <t>Beef stew meat, cut to 1 inch cubes. This product is trimmed prepared for your favorite beef stew. We like to cook these stew cubes in our meat stock and always make a double portion–stew invariably tastes better the next day!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
@@ -597,15 +597,6 @@
     <t>The supreme juiciness of bone-in, skin-on meat is hard to beat. The bone helps the chicken cook more evenly and the skin locks in moisture. Bone-in meat provides more micronutrients. Much like the meat that we eat, bones are living tissues and are therefore rich in vital micronutrients for our bodies. Bones themselves are rich sources of minerals including calcium and phosphorus, sodium, magnesium, as well as other important nutrients. Cook up up on the grill in a backyard summer BBQ and wow all your frien  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
-    <t>Chicken Part, Breast, Boneless Skinless, Chunks</t>
-  </si>
-  <si>
-    <t>6.00 - 6.60 lbs</t>
-  </si>
-  <si>
-    <t>Our Pasture-Raised Boneless Skinless Chicken Breast Chunks from Deck Family Farm are a lean, protein-packed option perfect for quick, healthy meals. These bite-sized chunks come from pasture-raised chickens that enjoy fresh air and natural forage, resulting in tender, flavorful meat that’s versatile and easy to cook.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
     <t>Chicken Part, Hindquarter</t>
   </si>
   <si>
@@ -781,6 +772,9 @@
   </si>
   <si>
     <t>Lamb Stew</t>
+  </si>
+  <si>
+    <t>0.90 - 1.10 lbs</t>
   </si>
   <si>
     <t>Our Lamb Stew is boneless and pre-cut for your convenience, making it perfect for a quick and easy meal. Slow cook it to achieve melt-in-your-mouth tenderness, with every bite full of rich, savory flavor. For an extra boost, try pairing it with our osso bucco neck or shank slices for a truly hearty dish. Raised on rotating pastures and occasionally grazing on organic land, our lambs are nurtured for exceptional flavor and tenderness in every cut. Perfect for cozy meals that will warm you from the inside out!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
@@ -1059,12 +1053,6 @@
   </si>
   <si>
     <t>Our English Banger Linked Sausage is a UK pub classic with a rich history, named for the wartime era when sausages often burst in the pan. These links feature a soft, fatty texture with a satisfying snappy bite, packed with warming savory spices like nutmeg, white pepper, and thyme. Perfect for a traditional British breakfast, they’re also ideal for any meal—especially the famous "Bangers and Mash!" Made with pork, oats, onion, and a blend of fresh herbs and spices, these sausages are a flavorful addition to your table.Contains wheat.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>Farm Made Chorizo Sausage Links</t>
-  </si>
-  <si>
-    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne, hog casings.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Grass-Fed Organ Blend</t>
@@ -1746,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:S164"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -2283,7 +2271,7 @@
         <v>29</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S9" t="s">
         <v>29</v>
@@ -2929,13 +2917,13 @@
         <v>73</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3289,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3873,13 +3861,13 @@
         <v>117</v>
       </c>
       <c r="Q36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R36">
         <v>5</v>
       </c>
       <c r="S36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3961,10 +3949,10 @@
         <v>18.5</v>
       </c>
       <c r="G38" s="2">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H38" s="2">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
@@ -3973,13 +3961,13 @@
         <v>12.03</v>
       </c>
       <c r="K38" s="1">
-        <v>10.01</v>
+        <v>12.01</v>
       </c>
       <c r="L38" s="1">
-        <v>16.59</v>
+        <v>19.91</v>
       </c>
       <c r="M38" s="1">
-        <v>19.02</v>
+        <v>22.83</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4643,7 +4631,7 @@
         <v>29</v>
       </c>
       <c r="R49">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S49" t="s">
         <v>29</v>
@@ -4758,13 +4746,13 @@
         <v>156</v>
       </c>
       <c r="Q51" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R51">
         <v>3</v>
       </c>
       <c r="S51" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -4876,7 +4864,7 @@
         <v>161</v>
       </c>
       <c r="Q53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R53">
         <v>10</v>
@@ -5418,10 +5406,10 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63">
-        <v>900315</v>
+        <v>805676</v>
       </c>
       <c r="C63" t="s">
         <v>175</v>
@@ -5433,34 +5421,34 @@
         <v>188</v>
       </c>
       <c r="F63" s="1">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="G63" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="I63" t="s">
         <v>44</v>
       </c>
       <c r="J63" s="1">
-        <v>12.03</v>
+        <v>10.08</v>
       </c>
       <c r="K63" s="1">
-        <v>63.08</v>
+        <v>10.49</v>
       </c>
       <c r="L63" s="1">
-        <v>104.54</v>
+        <v>17.38</v>
       </c>
       <c r="M63" s="1">
-        <v>119.85</v>
+        <v>19.92</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P63" t="s">
         <v>189</v>
@@ -5472,15 +5460,15 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>805676</v>
+        <v>805679</v>
       </c>
       <c r="C64" t="s">
         <v>175</v>
@@ -5492,28 +5480,28 @@
         <v>191</v>
       </c>
       <c r="F64" s="1">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H64" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
       </c>
       <c r="J64" s="1">
-        <v>10.08</v>
+        <v>7.8</v>
       </c>
       <c r="K64" s="1">
-        <v>10.49</v>
+        <v>11.37</v>
       </c>
       <c r="L64" s="1">
-        <v>17.38</v>
+        <v>18.84</v>
       </c>
       <c r="M64" s="1">
-        <v>19.92</v>
+        <v>21.59</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -5536,10 +5524,10 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="B65">
-        <v>805679</v>
+        <v>805673</v>
       </c>
       <c r="C65" t="s">
         <v>175</v>
@@ -5551,28 +5539,28 @@
         <v>194</v>
       </c>
       <c r="F65" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G65" s="2">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H65" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
       </c>
       <c r="J65" s="1">
-        <v>7.8</v>
+        <v>5.85</v>
       </c>
       <c r="K65" s="1">
-        <v>11.37</v>
+        <v>26.79</v>
       </c>
       <c r="L65" s="1">
-        <v>18.84</v>
+        <v>44.4</v>
       </c>
       <c r="M65" s="1">
-        <v>21.59</v>
+        <v>50.9</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -5595,10 +5583,10 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="B66">
-        <v>805673</v>
+        <v>953035</v>
       </c>
       <c r="C66" t="s">
         <v>175</v>
@@ -5610,28 +5598,28 @@
         <v>197</v>
       </c>
       <c r="F66" s="1">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G66" s="2">
-        <v>5</v>
+        <v>4.21</v>
       </c>
       <c r="H66" s="2">
-        <v>6</v>
+        <v>4.99</v>
       </c>
       <c r="I66" t="s">
         <v>44</v>
       </c>
       <c r="J66" s="1">
-        <v>5.85</v>
+        <v>6.17</v>
       </c>
       <c r="K66" s="1">
-        <v>26.79</v>
+        <v>23.65</v>
       </c>
       <c r="L66" s="1">
-        <v>44.4</v>
+        <v>39.2</v>
       </c>
       <c r="M66" s="1">
-        <v>50.9</v>
+        <v>44.94</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -5640,7 +5628,7 @@
         <v>29</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q66" t="s">
         <v>23</v>
@@ -5654,43 +5642,43 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67">
-        <v>953035</v>
+        <v>953036</v>
       </c>
       <c r="C67" t="s">
         <v>175</v>
       </c>
       <c r="D67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" t="s">
         <v>199</v>
       </c>
-      <c r="E67" t="s">
-        <v>200</v>
-      </c>
       <c r="F67" s="1">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2">
-        <v>4.21</v>
+        <v>3.2</v>
       </c>
       <c r="H67" s="2">
-        <v>4.99</v>
+        <v>4.2</v>
       </c>
       <c r="I67" t="s">
         <v>44</v>
       </c>
       <c r="J67" s="1">
-        <v>6.17</v>
+        <v>6.5</v>
       </c>
       <c r="K67" s="1">
-        <v>23.65</v>
+        <v>20.02</v>
       </c>
       <c r="L67" s="1">
-        <v>39.2</v>
+        <v>33.19</v>
       </c>
       <c r="M67" s="1">
-        <v>44.94</v>
+        <v>38.05</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -5699,13 +5687,13 @@
         <v>29</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q67" t="s">
         <v>23</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S67" t="s">
         <v>29</v>
@@ -5713,43 +5701,43 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68">
-        <v>953036</v>
+        <v>953039</v>
       </c>
       <c r="C68" t="s">
         <v>175</v>
       </c>
       <c r="D68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
         <v>201</v>
       </c>
-      <c r="E68" t="s">
-        <v>202</v>
-      </c>
       <c r="F68" s="1">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G68" s="2">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H68" s="2">
-        <v>4.2</v>
+        <v>3.19</v>
       </c>
       <c r="I68" t="s">
         <v>44</v>
       </c>
       <c r="J68" s="1">
-        <v>6.5</v>
+        <v>6.83</v>
       </c>
       <c r="K68" s="1">
-        <v>20.02</v>
+        <v>16.17</v>
       </c>
       <c r="L68" s="1">
-        <v>33.19</v>
+        <v>26.8</v>
       </c>
       <c r="M68" s="1">
-        <v>38.05</v>
+        <v>30.72</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -5758,13 +5746,13 @@
         <v>29</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q68" t="s">
         <v>23</v>
       </c>
       <c r="R68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S68" t="s">
         <v>23</v>
@@ -5772,43 +5760,43 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B69">
-        <v>953039</v>
+        <v>1004600</v>
       </c>
       <c r="C69" t="s">
         <v>175</v>
       </c>
       <c r="D69" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" t="s">
         <v>203</v>
       </c>
-      <c r="E69" t="s">
-        <v>204</v>
-      </c>
       <c r="F69" s="1">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="G69" s="2">
-        <v>2.5</v>
+        <v>5.01</v>
       </c>
       <c r="H69" s="2">
-        <v>3.19</v>
+        <v>5.7</v>
       </c>
       <c r="I69" t="s">
         <v>44</v>
       </c>
       <c r="J69" s="1">
-        <v>6.83</v>
+        <v>7.8</v>
       </c>
       <c r="K69" s="1">
-        <v>16.17</v>
+        <v>34.78</v>
       </c>
       <c r="L69" s="1">
-        <v>26.8</v>
+        <v>57.64</v>
       </c>
       <c r="M69" s="1">
-        <v>30.72</v>
+        <v>66.08</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -5817,7 +5805,7 @@
         <v>29</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q69" t="s">
         <v>23</v>
@@ -5831,10 +5819,10 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70">
-        <v>1004600</v>
+        <v>1004599</v>
       </c>
       <c r="C70" t="s">
         <v>175</v>
@@ -5849,10 +5837,10 @@
         <v>12</v>
       </c>
       <c r="G70" s="2">
-        <v>5.01</v>
+        <v>4.01</v>
       </c>
       <c r="H70" s="2">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="I70" t="s">
         <v>44</v>
@@ -5861,13 +5849,13 @@
         <v>7.8</v>
       </c>
       <c r="K70" s="1">
-        <v>34.78</v>
+        <v>29.26</v>
       </c>
       <c r="L70" s="1">
-        <v>57.64</v>
+        <v>48.49</v>
       </c>
       <c r="M70" s="1">
-        <v>66.08</v>
+        <v>55.59</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -5876,7 +5864,7 @@
         <v>29</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q70" t="s">
         <v>23</v>
@@ -5885,33 +5873,33 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71">
-        <v>1004599</v>
+        <v>805661</v>
       </c>
       <c r="C71" t="s">
         <v>175</v>
       </c>
       <c r="D71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" t="s">
         <v>208</v>
-      </c>
-      <c r="E71" t="s">
-        <v>209</v>
       </c>
       <c r="F71" s="1">
         <v>12</v>
       </c>
       <c r="G71" s="2">
-        <v>4.01</v>
+        <v>3</v>
       </c>
       <c r="H71" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71" t="s">
         <v>44</v>
@@ -5920,13 +5908,13 @@
         <v>7.8</v>
       </c>
       <c r="K71" s="1">
-        <v>29.26</v>
+        <v>22.73</v>
       </c>
       <c r="L71" s="1">
-        <v>48.49</v>
+        <v>37.67</v>
       </c>
       <c r="M71" s="1">
-        <v>55.59</v>
+        <v>43.19</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -5935,7 +5923,7 @@
         <v>29</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q71" t="s">
         <v>23</v>
@@ -5949,53 +5937,53 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B72">
-        <v>805661</v>
+        <v>805685</v>
       </c>
       <c r="C72" t="s">
         <v>175</v>
       </c>
       <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
         <v>210</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G72" s="2">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="1">
+        <v>12.03</v>
+      </c>
+      <c r="K72" s="1">
+        <v>10.01</v>
+      </c>
+      <c r="L72" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="M72" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="1">
-        <v>12</v>
-      </c>
-      <c r="G72" s="2">
-        <v>3</v>
-      </c>
-      <c r="H72" s="2">
-        <v>4</v>
-      </c>
-      <c r="I72" t="s">
-        <v>44</v>
-      </c>
-      <c r="J72" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="K72" s="1">
-        <v>22.73</v>
-      </c>
-      <c r="L72" s="1">
-        <v>37.67</v>
-      </c>
-      <c r="M72" s="1">
-        <v>43.19</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" t="s">
-        <v>29</v>
-      </c>
-      <c r="P72" t="s">
-        <v>207</v>
-      </c>
       <c r="Q72" t="s">
         <v>23</v>
       </c>
@@ -6003,15 +5991,15 @@
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B73">
-        <v>805685</v>
+        <v>814849</v>
       </c>
       <c r="C73" t="s">
         <v>175</v>
@@ -6023,28 +6011,28 @@
         <v>213</v>
       </c>
       <c r="F73" s="1">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="G73" s="2">
         <v>2</v>
       </c>
       <c r="H73" s="2">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
       </c>
       <c r="J73" s="1">
-        <v>12.03</v>
+        <v>7.8</v>
       </c>
       <c r="K73" s="1">
-        <v>10.01</v>
+        <v>6.49</v>
       </c>
       <c r="L73" s="1">
-        <v>16.59</v>
+        <v>10.76</v>
       </c>
       <c r="M73" s="1">
-        <v>19.02</v>
+        <v>12.34</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -6067,43 +6055,43 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B74">
-        <v>814849</v>
+        <v>813092</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="F74" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J74" s="1">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="K74" s="1">
-        <v>6.49</v>
+        <v>10.82</v>
       </c>
       <c r="L74" s="1">
-        <v>10.76</v>
+        <v>17.94</v>
       </c>
       <c r="M74" s="1">
-        <v>12.34</v>
+        <v>20.57</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -6121,48 +6109,48 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B75">
-        <v>813092</v>
+        <v>825835</v>
       </c>
       <c r="C75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" t="s">
         <v>218</v>
       </c>
-      <c r="D75" t="s">
-        <v>219</v>
-      </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F75" s="1">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="G75" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I75" t="s">
         <v>44</v>
       </c>
       <c r="J75" s="1">
-        <v>13</v>
+        <v>1.63</v>
       </c>
       <c r="K75" s="1">
-        <v>10.82</v>
+        <v>5.41</v>
       </c>
       <c r="L75" s="1">
-        <v>17.94</v>
+        <v>8.97</v>
       </c>
       <c r="M75" s="1">
-        <v>20.57</v>
+        <v>10.28</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -6171,57 +6159,57 @@
         <v>29</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q75" t="s">
         <v>23</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S75" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B76">
-        <v>825835</v>
+        <v>922133</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" t="s">
         <v>221</v>
       </c>
-      <c r="E76" t="s">
-        <v>52</v>
-      </c>
       <c r="F76" s="1">
-        <v>2.5</v>
+        <v>24</v>
       </c>
       <c r="G76" s="2">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H76" s="2">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="I76" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="1">
-        <v>1.63</v>
+        <v>15.6</v>
       </c>
       <c r="K76" s="1">
-        <v>5.41</v>
+        <v>11.69</v>
       </c>
       <c r="L76" s="1">
-        <v>8.97</v>
+        <v>19.37</v>
       </c>
       <c r="M76" s="1">
-        <v>10.28</v>
+        <v>22.21</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -6233,10 +6221,10 @@
         <v>222</v>
       </c>
       <c r="Q76" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S76" t="s">
         <v>29</v>
@@ -6244,13 +6232,13 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B77">
-        <v>922133</v>
+        <v>913064</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
         <v>223</v>
@@ -6262,10 +6250,10 @@
         <v>24</v>
       </c>
       <c r="G77" s="2">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H77" s="2">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="I77" t="s">
         <v>44</v>
@@ -6274,13 +6262,13 @@
         <v>15.6</v>
       </c>
       <c r="K77" s="1">
-        <v>11.69</v>
+        <v>22.73</v>
       </c>
       <c r="L77" s="1">
-        <v>19.37</v>
+        <v>37.67</v>
       </c>
       <c r="M77" s="1">
-        <v>22.21</v>
+        <v>43.19</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -6289,7 +6277,7 @@
         <v>29</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q77" t="s">
         <v>23</v>
@@ -6298,48 +6286,48 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B78">
-        <v>913064</v>
+        <v>939774</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" t="s">
         <v>226</v>
       </c>
-      <c r="E78" t="s">
-        <v>227</v>
-      </c>
       <c r="F78" s="1">
-        <v>24</v>
+        <v>9.5</v>
       </c>
       <c r="G78" s="2">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H78" s="2">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="I78" t="s">
         <v>44</v>
       </c>
       <c r="J78" s="1">
-        <v>15.6</v>
+        <v>6.17</v>
       </c>
       <c r="K78" s="1">
-        <v>22.73</v>
+        <v>4.88</v>
       </c>
       <c r="L78" s="1">
-        <v>37.67</v>
+        <v>8.1</v>
       </c>
       <c r="M78" s="1">
-        <v>43.19</v>
+        <v>9.28</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -6348,27 +6336,27 @@
         <v>29</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B79">
-        <v>939774</v>
+        <v>825839</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
         <v>228</v>
@@ -6377,28 +6365,28 @@
         <v>229</v>
       </c>
       <c r="F79" s="1">
-        <v>9.5</v>
+        <v>21.5</v>
       </c>
       <c r="G79" s="2">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H79" s="2">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
       </c>
       <c r="J79" s="1">
-        <v>6.17</v>
+        <v>13.97</v>
       </c>
       <c r="K79" s="1">
-        <v>4.88</v>
+        <v>14.25</v>
       </c>
       <c r="L79" s="1">
-        <v>8.1</v>
+        <v>23.62</v>
       </c>
       <c r="M79" s="1">
-        <v>9.28</v>
+        <v>27.08</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -6410,24 +6398,24 @@
         <v>230</v>
       </c>
       <c r="Q79" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B80">
-        <v>825839</v>
+        <v>805703</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D80" t="s">
         <v>231</v>
@@ -6436,28 +6424,28 @@
         <v>232</v>
       </c>
       <c r="F80" s="1">
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="G80" s="2">
         <v>1.1</v>
       </c>
       <c r="H80" s="2">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
       </c>
       <c r="J80" s="1">
-        <v>13.97</v>
+        <v>10.08</v>
       </c>
       <c r="K80" s="1">
-        <v>14.25</v>
+        <v>10.91</v>
       </c>
       <c r="L80" s="1">
-        <v>23.62</v>
+        <v>18.07</v>
       </c>
       <c r="M80" s="1">
-        <v>27.08</v>
+        <v>20.72</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -6475,48 +6463,48 @@
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B81">
-        <v>805703</v>
+        <v>805705</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
         <v>234</v>
       </c>
       <c r="E81" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="F81" s="1">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="G81" s="2">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H81" s="2">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
       </c>
       <c r="J81" s="1">
-        <v>10.08</v>
+        <v>12.03</v>
       </c>
       <c r="K81" s="1">
-        <v>10.91</v>
+        <v>16.52</v>
       </c>
       <c r="L81" s="1">
-        <v>18.07</v>
+        <v>27.38</v>
       </c>
       <c r="M81" s="1">
-        <v>20.72</v>
+        <v>31.39</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -6525,7 +6513,7 @@
         <v>29</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q81" t="s">
         <v>23</v>
@@ -6534,48 +6522,48 @@
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82">
-        <v>805705</v>
+        <v>825840</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F82" s="1">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="H82" s="2">
         <v>1.4</v>
-      </c>
-      <c r="H82" s="2">
-        <v>1.9</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
       </c>
       <c r="J82" s="1">
-        <v>12.03</v>
+        <v>12.35</v>
       </c>
       <c r="K82" s="1">
-        <v>16.52</v>
+        <v>12.85</v>
       </c>
       <c r="L82" s="1">
-        <v>27.38</v>
+        <v>21.3</v>
       </c>
       <c r="M82" s="1">
-        <v>31.39</v>
+        <v>24.42</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -6584,7 +6572,7 @@
         <v>29</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q82" t="s">
         <v>23</v>
@@ -6593,33 +6581,33 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B83">
-        <v>825840</v>
+        <v>805710</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" t="s">
         <v>239</v>
-      </c>
-      <c r="E83" t="s">
-        <v>142</v>
       </c>
       <c r="F83" s="1">
         <v>19</v>
       </c>
       <c r="G83" s="2">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="2">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="I83" t="s">
         <v>44</v>
@@ -6628,13 +6616,13 @@
         <v>12.35</v>
       </c>
       <c r="K83" s="1">
-        <v>12.85</v>
+        <v>23.14</v>
       </c>
       <c r="L83" s="1">
-        <v>21.3</v>
+        <v>38.35</v>
       </c>
       <c r="M83" s="1">
-        <v>24.42</v>
+        <v>43.96</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -6649,21 +6637,21 @@
         <v>23</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S83" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B84">
-        <v>805710</v>
+        <v>805711</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D84" t="s">
         <v>241</v>
@@ -6672,28 +6660,28 @@
         <v>242</v>
       </c>
       <c r="F84" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H84" s="2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I84" t="s">
         <v>44</v>
       </c>
       <c r="J84" s="1">
-        <v>12.35</v>
+        <v>13</v>
       </c>
       <c r="K84" s="1">
-        <v>23.14</v>
+        <v>27.06</v>
       </c>
       <c r="L84" s="1">
-        <v>38.35</v>
+        <v>44.85</v>
       </c>
       <c r="M84" s="1">
-        <v>43.96</v>
+        <v>51.41</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -6705,10 +6693,10 @@
         <v>243</v>
       </c>
       <c r="Q84" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S84" t="s">
         <v>29</v>
@@ -6716,52 +6704,52 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>75</v>
-      </c>
-      <c r="B85">
-        <v>805711</v>
+        <v>65</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D85" t="s">
         <v>244</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="F85" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G85" s="2">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H85" s="2">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
         <v>44</v>
       </c>
       <c r="J85" s="1">
-        <v>13</v>
+        <v>8.45</v>
       </c>
       <c r="K85" s="1">
-        <v>27.06</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1">
-        <v>44.85</v>
+        <v>0</v>
       </c>
       <c r="M85" s="1">
-        <v>51.41</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="Q85" t="s">
         <v>23</v>
@@ -6770,57 +6758,57 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>65</v>
-      </c>
-      <c r="B86" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="B86">
+        <v>805712</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="F86" s="1">
-        <v>13</v>
+        <v>21.5</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H86" s="2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="I86" t="s">
         <v>44</v>
       </c>
       <c r="J86" s="1">
-        <v>8.45</v>
+        <v>13.97</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>11.64</v>
       </c>
       <c r="L86" s="1">
-        <v>0</v>
+        <v>19.29</v>
       </c>
       <c r="M86" s="1">
-        <v>0</v>
+        <v>22.11</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P86" t="s">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="Q86" t="s">
         <v>23</v>
@@ -6834,28 +6822,28 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B87">
-        <v>805712</v>
+        <v>805659</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D87" t="s">
         <v>248</v>
       </c>
       <c r="E87" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="F87" s="1">
         <v>21.5</v>
       </c>
       <c r="G87" s="2">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H87" s="2">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="I87" t="s">
         <v>44</v>
@@ -6864,13 +6852,13 @@
         <v>13.97</v>
       </c>
       <c r="K87" s="1">
-        <v>11.64</v>
+        <v>32.58</v>
       </c>
       <c r="L87" s="1">
-        <v>19.29</v>
+        <v>54</v>
       </c>
       <c r="M87" s="1">
-        <v>22.11</v>
+        <v>61.9</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -6879,7 +6867,7 @@
         <v>29</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q87" t="s">
         <v>23</v>
@@ -6893,43 +6881,43 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B88">
-        <v>805659</v>
+        <v>805653</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F88" s="1">
-        <v>21.5</v>
+        <v>14.5</v>
       </c>
       <c r="G88" s="2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H88" s="2">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J88" s="1">
-        <v>13.97</v>
+        <v>9.43</v>
       </c>
       <c r="K88" s="1">
-        <v>32.58</v>
+        <v>7.85</v>
       </c>
       <c r="L88" s="1">
-        <v>54</v>
+        <v>13.01</v>
       </c>
       <c r="M88" s="1">
-        <v>61.9</v>
+        <v>14.91</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -6938,7 +6926,7 @@
         <v>29</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q88" t="s">
         <v>23</v>
@@ -6947,27 +6935,27 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B89">
-        <v>805653</v>
+        <v>805724</v>
       </c>
       <c r="C89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" t="s">
         <v>253</v>
       </c>
-      <c r="D89" t="s">
-        <v>254</v>
-      </c>
-      <c r="E89" t="s">
-        <v>255</v>
-      </c>
       <c r="F89" s="1">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="G89" s="2">
         <v>0</v>
@@ -6979,16 +6967,16 @@
         <v>22</v>
       </c>
       <c r="J89" s="1">
-        <v>9.43</v>
+        <v>11.38</v>
       </c>
       <c r="K89" s="1">
-        <v>7.85</v>
+        <v>9.47</v>
       </c>
       <c r="L89" s="1">
-        <v>13.01</v>
+        <v>15.7</v>
       </c>
       <c r="M89" s="1">
-        <v>14.91</v>
+        <v>17.99</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -7011,22 +6999,22 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B90">
-        <v>805724</v>
+        <v>813084</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" t="s">
         <v>257</v>
       </c>
       <c r="E90" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F90" s="1">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
@@ -7038,16 +7026,16 @@
         <v>22</v>
       </c>
       <c r="J90" s="1">
-        <v>11.38</v>
+        <v>12.68</v>
       </c>
       <c r="K90" s="1">
-        <v>9.47</v>
+        <v>10.55</v>
       </c>
       <c r="L90" s="1">
-        <v>15.7</v>
+        <v>17.49</v>
       </c>
       <c r="M90" s="1">
-        <v>17.99</v>
+        <v>20.05</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -7056,7 +7044,7 @@
         <v>29</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90" t="s">
         <v>23</v>
@@ -7070,22 +7058,22 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B91">
-        <v>813084</v>
+        <v>813086</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F91" s="1">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="G91" s="2">
         <v>0</v>
@@ -7097,16 +7085,16 @@
         <v>22</v>
       </c>
       <c r="J91" s="1">
-        <v>12.68</v>
+        <v>10.08</v>
       </c>
       <c r="K91" s="1">
-        <v>10.55</v>
+        <v>8.39</v>
       </c>
       <c r="L91" s="1">
-        <v>17.49</v>
+        <v>13.9</v>
       </c>
       <c r="M91" s="1">
-        <v>20.05</v>
+        <v>15.94</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -7129,22 +7117,22 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B92">
-        <v>813086</v>
+        <v>805686</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
         <v>262</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F92" s="1">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
@@ -7156,16 +7144,16 @@
         <v>22</v>
       </c>
       <c r="J92" s="1">
-        <v>10.08</v>
+        <v>12.68</v>
       </c>
       <c r="K92" s="1">
-        <v>8.39</v>
+        <v>10.55</v>
       </c>
       <c r="L92" s="1">
-        <v>13.9</v>
+        <v>17.49</v>
       </c>
       <c r="M92" s="1">
-        <v>15.94</v>
+        <v>20.05</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -7188,19 +7176,19 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B93">
-        <v>805686</v>
+        <v>805693</v>
       </c>
       <c r="C93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D93" t="s">
         <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F93" s="1">
         <v>19.5</v>
@@ -7247,22 +7235,22 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B94">
-        <v>805693</v>
+        <v>882704</v>
       </c>
       <c r="C94" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D94" t="s">
         <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F94" s="1">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="G94" s="2">
         <v>0</v>
@@ -7274,16 +7262,16 @@
         <v>22</v>
       </c>
       <c r="J94" s="1">
-        <v>12.68</v>
+        <v>13.97</v>
       </c>
       <c r="K94" s="1">
-        <v>10.55</v>
+        <v>11.64</v>
       </c>
       <c r="L94" s="1">
-        <v>17.49</v>
+        <v>19.29</v>
       </c>
       <c r="M94" s="1">
-        <v>20.05</v>
+        <v>22.11</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -7301,24 +7289,24 @@
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B95">
-        <v>882704</v>
+        <v>963826</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D95" t="s">
         <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F95" s="1">
         <v>21.5</v>
@@ -7348,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P95" t="s">
         <v>269</v>
@@ -7365,22 +7353,22 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B96">
-        <v>963826</v>
+        <v>805713</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D96" t="s">
         <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F96" s="1">
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -7392,25 +7380,25 @@
         <v>22</v>
       </c>
       <c r="J96" s="1">
-        <v>13.97</v>
+        <v>10.72</v>
       </c>
       <c r="K96" s="1">
-        <v>11.64</v>
+        <v>8.93</v>
       </c>
       <c r="L96" s="1">
-        <v>19.29</v>
+        <v>14.8</v>
       </c>
       <c r="M96" s="1">
-        <v>22.11</v>
+        <v>16.97</v>
       </c>
       <c r="N96">
         <v>1</v>
       </c>
       <c r="O96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q96" t="s">
         <v>23</v>
@@ -7419,27 +7407,27 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B97">
-        <v>805713</v>
+        <v>827440</v>
       </c>
       <c r="C97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F97" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2">
         <v>0</v>
@@ -7451,16 +7439,16 @@
         <v>22</v>
       </c>
       <c r="J97" s="1">
-        <v>10.72</v>
+        <v>13</v>
       </c>
       <c r="K97" s="1">
-        <v>8.93</v>
+        <v>10.82</v>
       </c>
       <c r="L97" s="1">
-        <v>14.8</v>
+        <v>17.94</v>
       </c>
       <c r="M97" s="1">
-        <v>16.97</v>
+        <v>20.57</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -7483,22 +7471,22 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98">
-        <v>827440</v>
+        <v>901753</v>
       </c>
       <c r="C98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D98" t="s">
         <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F98" s="1">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="G98" s="2">
         <v>0</v>
@@ -7510,16 +7498,16 @@
         <v>22</v>
       </c>
       <c r="J98" s="1">
-        <v>13</v>
+        <v>13.97</v>
       </c>
       <c r="K98" s="1">
-        <v>10.82</v>
+        <v>11.64</v>
       </c>
       <c r="L98" s="1">
-        <v>17.94</v>
+        <v>19.29</v>
       </c>
       <c r="M98" s="1">
-        <v>20.57</v>
+        <v>22.11</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -7528,7 +7516,7 @@
         <v>29</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q98" t="s">
         <v>23</v>
@@ -7537,27 +7525,27 @@
         <v>0</v>
       </c>
       <c r="S98" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99">
-        <v>901753</v>
+        <v>859028</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F99" s="1">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
@@ -7569,16 +7557,16 @@
         <v>22</v>
       </c>
       <c r="J99" s="1">
-        <v>13.97</v>
+        <v>11.7</v>
       </c>
       <c r="K99" s="1">
-        <v>11.64</v>
+        <v>9.74</v>
       </c>
       <c r="L99" s="1">
-        <v>19.29</v>
+        <v>16.15</v>
       </c>
       <c r="M99" s="1">
-        <v>22.11</v>
+        <v>18.51</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -7587,7 +7575,7 @@
         <v>29</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q99" t="s">
         <v>23</v>
@@ -7596,24 +7584,24 @@
         <v>0</v>
       </c>
       <c r="S99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100">
-        <v>859028</v>
+        <v>805675</v>
       </c>
       <c r="C100" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E100" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F100" s="1">
         <v>18</v>
@@ -7660,22 +7648,22 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101">
-        <v>805675</v>
+        <v>805719</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D101" t="s">
         <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F101" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
@@ -7687,16 +7675,16 @@
         <v>22</v>
       </c>
       <c r="J101" s="1">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="K101" s="1">
-        <v>9.74</v>
+        <v>10.82</v>
       </c>
       <c r="L101" s="1">
-        <v>16.15</v>
+        <v>17.94</v>
       </c>
       <c r="M101" s="1">
-        <v>18.51</v>
+        <v>20.57</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -7719,22 +7707,22 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B102">
-        <v>805719</v>
+        <v>805720</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D102" t="s">
         <v>285</v>
       </c>
       <c r="E102" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F102" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2">
         <v>0</v>
@@ -7746,16 +7734,16 @@
         <v>22</v>
       </c>
       <c r="J102" s="1">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="K102" s="1">
-        <v>10.82</v>
+        <v>9.74</v>
       </c>
       <c r="L102" s="1">
-        <v>17.94</v>
+        <v>16.15</v>
       </c>
       <c r="M102" s="1">
-        <v>20.57</v>
+        <v>18.51</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -7773,48 +7761,48 @@
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B103">
-        <v>805720</v>
+        <v>805721</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D103" t="s">
         <v>287</v>
       </c>
       <c r="E103" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F103" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H103" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="1">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="K103" s="1">
-        <v>9.74</v>
+        <v>10.82</v>
       </c>
       <c r="L103" s="1">
-        <v>16.15</v>
+        <v>17.94</v>
       </c>
       <c r="M103" s="1">
-        <v>18.51</v>
+        <v>20.57</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -7823,7 +7811,7 @@
         <v>29</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q103" t="s">
         <v>23</v>
@@ -7837,43 +7825,43 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B104">
-        <v>805721</v>
+        <v>858286</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F104" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G104" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H104" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>22</v>
       </c>
       <c r="J104" s="1">
-        <v>13</v>
+        <v>5.85</v>
       </c>
       <c r="K104" s="1">
-        <v>10.82</v>
+        <v>4.87</v>
       </c>
       <c r="L104" s="1">
-        <v>17.94</v>
+        <v>8.07</v>
       </c>
       <c r="M104" s="1">
-        <v>20.57</v>
+        <v>9.25</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -7891,27 +7879,27 @@
         <v>0</v>
       </c>
       <c r="S104" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B105">
-        <v>858286</v>
+        <v>805682</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
         <v>292</v>
       </c>
       <c r="E105" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="F105" s="1">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="G105" s="2">
         <v>0</v>
@@ -7923,16 +7911,16 @@
         <v>22</v>
       </c>
       <c r="J105" s="1">
-        <v>5.85</v>
+        <v>12.68</v>
       </c>
       <c r="K105" s="1">
-        <v>4.87</v>
+        <v>10.55</v>
       </c>
       <c r="L105" s="1">
-        <v>8.07</v>
+        <v>17.49</v>
       </c>
       <c r="M105" s="1">
-        <v>9.25</v>
+        <v>20.05</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -7955,22 +7943,22 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B106">
-        <v>805682</v>
+        <v>805670</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D106" t="s">
         <v>294</v>
       </c>
       <c r="E106" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F106" s="1">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -7982,16 +7970,16 @@
         <v>22</v>
       </c>
       <c r="J106" s="1">
-        <v>12.68</v>
+        <v>13</v>
       </c>
       <c r="K106" s="1">
-        <v>10.55</v>
+        <v>10.82</v>
       </c>
       <c r="L106" s="1">
-        <v>17.49</v>
+        <v>17.94</v>
       </c>
       <c r="M106" s="1">
-        <v>20.05</v>
+        <v>20.57</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -8014,22 +8002,22 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B107">
-        <v>805670</v>
+        <v>805678</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D107" t="s">
         <v>296</v>
       </c>
       <c r="E107" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F107" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -8041,16 +8029,16 @@
         <v>22</v>
       </c>
       <c r="J107" s="1">
-        <v>13</v>
+        <v>10.72</v>
       </c>
       <c r="K107" s="1">
-        <v>10.82</v>
+        <v>8.93</v>
       </c>
       <c r="L107" s="1">
-        <v>17.94</v>
+        <v>14.8</v>
       </c>
       <c r="M107" s="1">
-        <v>20.57</v>
+        <v>16.97</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -8073,43 +8061,43 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B108">
-        <v>805678</v>
+        <v>940154</v>
       </c>
       <c r="C108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D108" t="s">
         <v>298</v>
       </c>
       <c r="E108" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F108" s="1">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="G108" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H108" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
       </c>
       <c r="J108" s="1">
-        <v>10.72</v>
+        <v>7.15</v>
       </c>
       <c r="K108" s="1">
-        <v>8.93</v>
+        <v>5.95</v>
       </c>
       <c r="L108" s="1">
-        <v>14.8</v>
+        <v>9.87</v>
       </c>
       <c r="M108" s="1">
-        <v>16.97</v>
+        <v>11.31</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -8127,48 +8115,48 @@
         <v>0</v>
       </c>
       <c r="S108" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B109">
-        <v>940154</v>
+        <v>805687</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D109" t="s">
         <v>300</v>
       </c>
       <c r="E109" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F109" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H109" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
       </c>
       <c r="J109" s="1">
-        <v>7.15</v>
+        <v>11.05</v>
       </c>
       <c r="K109" s="1">
-        <v>5.95</v>
+        <v>9.2</v>
       </c>
       <c r="L109" s="1">
-        <v>9.87</v>
+        <v>15.25</v>
       </c>
       <c r="M109" s="1">
-        <v>11.31</v>
+        <v>17.48</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -8186,27 +8174,27 @@
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110">
-        <v>805687</v>
+        <v>805692</v>
       </c>
       <c r="C110" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D110" t="s">
         <v>302</v>
       </c>
       <c r="E110" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F110" s="1">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="G110" s="2">
         <v>0</v>
@@ -8218,16 +8206,16 @@
         <v>22</v>
       </c>
       <c r="J110" s="1">
-        <v>11.05</v>
+        <v>12.68</v>
       </c>
       <c r="K110" s="1">
-        <v>9.2</v>
+        <v>10.55</v>
       </c>
       <c r="L110" s="1">
-        <v>15.25</v>
+        <v>17.49</v>
       </c>
       <c r="M110" s="1">
-        <v>17.48</v>
+        <v>20.05</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -8242,30 +8230,30 @@
         <v>23</v>
       </c>
       <c r="R110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S110" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111">
-        <v>805692</v>
+        <v>805694</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D111" t="s">
         <v>304</v>
       </c>
       <c r="E111" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F111" s="1">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2">
         <v>0</v>
@@ -8277,16 +8265,16 @@
         <v>22</v>
       </c>
       <c r="J111" s="1">
-        <v>12.68</v>
+        <v>11.7</v>
       </c>
       <c r="K111" s="1">
-        <v>10.55</v>
+        <v>9.74</v>
       </c>
       <c r="L111" s="1">
-        <v>17.49</v>
+        <v>16.15</v>
       </c>
       <c r="M111" s="1">
-        <v>20.05</v>
+        <v>18.51</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -8298,54 +8286,54 @@
         <v>305</v>
       </c>
       <c r="Q111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R111">
         <v>4</v>
       </c>
       <c r="S111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112">
-        <v>805694</v>
+        <v>941005</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="D112" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="F112" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
         <v>22</v>
       </c>
       <c r="J112" s="1">
-        <v>11.7</v>
+        <v>7.8</v>
       </c>
       <c r="K112" s="1">
-        <v>9.74</v>
+        <v>6.49</v>
       </c>
       <c r="L112" s="1">
-        <v>16.15</v>
+        <v>10.76</v>
       </c>
       <c r="M112" s="1">
-        <v>18.51</v>
+        <v>12.34</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -8354,7 +8342,7 @@
         <v>29</v>
       </c>
       <c r="P112" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q112" t="s">
         <v>23</v>
@@ -8368,43 +8356,43 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B113">
-        <v>941005</v>
+        <v>805459</v>
       </c>
       <c r="C113" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F113" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G113" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H113" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I113" t="s">
         <v>22</v>
       </c>
       <c r="J113" s="1">
-        <v>7.8</v>
+        <v>4.55</v>
       </c>
       <c r="K113" s="1">
-        <v>6.49</v>
+        <v>3.79</v>
       </c>
       <c r="L113" s="1">
-        <v>10.76</v>
+        <v>6.28</v>
       </c>
       <c r="M113" s="1">
-        <v>12.34</v>
+        <v>7.2</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -8413,7 +8401,7 @@
         <v>29</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q113" t="s">
         <v>23</v>
@@ -8427,43 +8415,43 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="B114">
-        <v>805459</v>
+        <v>995135</v>
       </c>
       <c r="C114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D114" t="s">
         <v>312</v>
       </c>
       <c r="E114" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F114" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H114" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="1">
-        <v>4.55</v>
+        <v>6.5</v>
       </c>
       <c r="K114" s="1">
-        <v>3.79</v>
+        <v>5.41</v>
       </c>
       <c r="L114" s="1">
-        <v>6.28</v>
+        <v>8.97</v>
       </c>
       <c r="M114" s="1">
-        <v>7.2</v>
+        <v>10.28</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -8472,57 +8460,57 @@
         <v>29</v>
       </c>
       <c r="P114" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q114" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S114" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B115">
-        <v>995135</v>
+        <v>900311</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D115" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E115" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F115" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H115" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
       </c>
       <c r="J115" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K115" s="1">
-        <v>5.41</v>
+        <v>10.82</v>
       </c>
       <c r="L115" s="1">
-        <v>8.97</v>
+        <v>17.94</v>
       </c>
       <c r="M115" s="1">
-        <v>10.28</v>
+        <v>20.57</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -8531,13 +8519,13 @@
         <v>29</v>
       </c>
       <c r="P115" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q115" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R115">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S115" t="s">
         <v>23</v>
@@ -8545,43 +8533,43 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116">
-        <v>900311</v>
+        <v>840848</v>
       </c>
       <c r="C116" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E116" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="F116" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G116" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H116" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I116" t="s">
         <v>22</v>
       </c>
       <c r="J116" s="1">
-        <v>13</v>
+        <v>10.72</v>
       </c>
       <c r="K116" s="1">
-        <v>10.82</v>
+        <v>8.93</v>
       </c>
       <c r="L116" s="1">
-        <v>17.94</v>
+        <v>14.8</v>
       </c>
       <c r="M116" s="1">
-        <v>20.57</v>
+        <v>16.97</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -8599,24 +8587,24 @@
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B117">
-        <v>840848</v>
+        <v>840823</v>
       </c>
       <c r="C117" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D117" t="s">
         <v>320</v>
       </c>
       <c r="E117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F117" s="1">
         <v>16.5</v>
@@ -8663,19 +8651,19 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118">
-        <v>840823</v>
+        <v>913652</v>
       </c>
       <c r="C118" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D118" t="s">
         <v>322</v>
       </c>
       <c r="E118" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F118" s="1">
         <v>16.5</v>
@@ -8722,43 +8710,43 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>913652</v>
+        <v>805696</v>
       </c>
       <c r="C119" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D119" t="s">
         <v>324</v>
       </c>
       <c r="E119" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F119" s="1">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H119" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I119" t="s">
         <v>22</v>
       </c>
       <c r="J119" s="1">
-        <v>10.72</v>
+        <v>11.05</v>
       </c>
       <c r="K119" s="1">
-        <v>8.93</v>
+        <v>9.2</v>
       </c>
       <c r="L119" s="1">
-        <v>14.8</v>
+        <v>15.25</v>
       </c>
       <c r="M119" s="1">
-        <v>16.97</v>
+        <v>17.48</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -8781,43 +8769,43 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120">
-        <v>805696</v>
+        <v>913651</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D120" t="s">
         <v>326</v>
       </c>
       <c r="E120" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F120" s="1">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="G120" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H120" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I120" t="s">
         <v>22</v>
       </c>
       <c r="J120" s="1">
-        <v>11.05</v>
+        <v>10.72</v>
       </c>
       <c r="K120" s="1">
-        <v>9.2</v>
+        <v>8.93</v>
       </c>
       <c r="L120" s="1">
-        <v>15.25</v>
+        <v>14.8</v>
       </c>
       <c r="M120" s="1">
-        <v>17.48</v>
+        <v>16.97</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -8840,43 +8828,43 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B121">
-        <v>913651</v>
+        <v>816905</v>
       </c>
       <c r="C121" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D121" t="s">
         <v>328</v>
       </c>
       <c r="E121" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="F121" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H121" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
         <v>22</v>
       </c>
       <c r="J121" s="1">
-        <v>10.72</v>
+        <v>13</v>
       </c>
       <c r="K121" s="1">
-        <v>8.93</v>
+        <v>10.82</v>
       </c>
       <c r="L121" s="1">
-        <v>14.8</v>
+        <v>17.94</v>
       </c>
       <c r="M121" s="1">
-        <v>16.97</v>
+        <v>20.57</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -8899,19 +8887,19 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B122">
-        <v>816905</v>
+        <v>932132</v>
       </c>
       <c r="C122" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D122" t="s">
         <v>330</v>
       </c>
       <c r="E122" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F122" s="1">
         <v>20</v>
@@ -8953,24 +8941,24 @@
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B123">
-        <v>932132</v>
+        <v>840822</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D123" t="s">
         <v>332</v>
       </c>
       <c r="E123" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F123" s="1">
         <v>20</v>
@@ -9012,48 +9000,48 @@
         <v>0</v>
       </c>
       <c r="S123" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B124">
-        <v>840822</v>
+        <v>913653</v>
       </c>
       <c r="C124" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D124" t="s">
         <v>334</v>
       </c>
       <c r="E124" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F124" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G124" s="2">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H124" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
       </c>
       <c r="J124" s="1">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K124" s="1">
-        <v>10.82</v>
+        <v>8.12</v>
       </c>
       <c r="L124" s="1">
-        <v>17.94</v>
+        <v>13.45</v>
       </c>
       <c r="M124" s="1">
-        <v>20.57</v>
+        <v>15.42</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -9062,7 +9050,7 @@
         <v>29</v>
       </c>
       <c r="P124" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q124" t="s">
         <v>23</v>
@@ -9076,19 +9064,19 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B125">
-        <v>900309</v>
+        <v>818963</v>
       </c>
       <c r="C125" t="s">
+        <v>314</v>
+      </c>
+      <c r="D125" t="s">
+        <v>337</v>
+      </c>
+      <c r="E125" t="s">
         <v>316</v>
-      </c>
-      <c r="D125" t="s">
-        <v>336</v>
-      </c>
-      <c r="E125" t="s">
-        <v>318</v>
       </c>
       <c r="F125" s="1">
         <v>20</v>
@@ -9121,7 +9109,7 @@
         <v>29</v>
       </c>
       <c r="P125" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q125" t="s">
         <v>23</v>
@@ -9130,48 +9118,48 @@
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B126">
-        <v>913653</v>
+        <v>871143</v>
       </c>
       <c r="C126" t="s">
+        <v>314</v>
+      </c>
+      <c r="D126" t="s">
+        <v>339</v>
+      </c>
+      <c r="E126" t="s">
         <v>316</v>
       </c>
-      <c r="D126" t="s">
-        <v>338</v>
-      </c>
-      <c r="E126" t="s">
-        <v>339</v>
-      </c>
       <c r="F126" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G126" s="2">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="H126" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
       </c>
       <c r="J126" s="1">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="K126" s="1">
-        <v>8.12</v>
+        <v>10.82</v>
       </c>
       <c r="L126" s="1">
-        <v>13.45</v>
+        <v>17.94</v>
       </c>
       <c r="M126" s="1">
-        <v>15.42</v>
+        <v>20.57</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -9194,43 +9182,43 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B127">
-        <v>818963</v>
+        <v>913648</v>
       </c>
       <c r="C127" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D127" t="s">
         <v>341</v>
       </c>
       <c r="E127" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="F127" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G127" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H127" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
       </c>
       <c r="J127" s="1">
-        <v>13</v>
+        <v>15.6</v>
       </c>
       <c r="K127" s="1">
-        <v>10.82</v>
+        <v>12.99</v>
       </c>
       <c r="L127" s="1">
-        <v>17.94</v>
+        <v>21.53</v>
       </c>
       <c r="M127" s="1">
-        <v>20.57</v>
+        <v>24.68</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -9239,7 +9227,7 @@
         <v>29</v>
       </c>
       <c r="P127" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="Q127" t="s">
         <v>23</v>
@@ -9248,33 +9236,33 @@
         <v>0</v>
       </c>
       <c r="S127" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B128">
-        <v>871143</v>
+        <v>805663</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D128" t="s">
         <v>343</v>
       </c>
       <c r="E128" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="F128" s="1">
         <v>20</v>
       </c>
       <c r="G128" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H128" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -9298,7 +9286,7 @@
         <v>29</v>
       </c>
       <c r="P128" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q128" t="s">
         <v>23</v>
@@ -9312,43 +9300,43 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B129">
-        <v>913648</v>
+        <v>941045</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D129" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E129" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="F129" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H129" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I129" t="s">
         <v>22</v>
       </c>
       <c r="J129" s="1">
-        <v>15.6</v>
+        <v>6.5</v>
       </c>
       <c r="K129" s="1">
-        <v>12.99</v>
+        <v>5.41</v>
       </c>
       <c r="L129" s="1">
-        <v>21.53</v>
+        <v>8.97</v>
       </c>
       <c r="M129" s="1">
-        <v>24.68</v>
+        <v>10.28</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -9357,7 +9345,7 @@
         <v>29</v>
       </c>
       <c r="P129" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="Q129" t="s">
         <v>23</v>
@@ -9366,27 +9354,27 @@
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B130">
-        <v>805663</v>
+        <v>805651</v>
       </c>
       <c r="C130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D130" t="s">
         <v>347</v>
       </c>
       <c r="E130" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F130" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G130" s="2">
         <v>16</v>
@@ -9398,16 +9386,16 @@
         <v>22</v>
       </c>
       <c r="J130" s="1">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K130" s="1">
-        <v>10.82</v>
+        <v>8.12</v>
       </c>
       <c r="L130" s="1">
-        <v>17.94</v>
+        <v>13.45</v>
       </c>
       <c r="M130" s="1">
-        <v>20.57</v>
+        <v>15.42</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -9416,7 +9404,7 @@
         <v>29</v>
       </c>
       <c r="P130" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q130" t="s">
         <v>23</v>
@@ -9425,24 +9413,24 @@
         <v>0</v>
       </c>
       <c r="S130" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B131">
-        <v>941045</v>
+        <v>941062</v>
       </c>
       <c r="C131" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D131" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" s="1">
         <v>10</v>
@@ -9475,7 +9463,7 @@
         <v>29</v>
       </c>
       <c r="P131" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q131" t="s">
         <v>23</v>
@@ -9484,27 +9472,27 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132">
-        <v>805651</v>
+        <v>929464</v>
       </c>
       <c r="C132" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E132" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F132" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G132" s="2">
         <v>16</v>
@@ -9516,16 +9504,16 @@
         <v>22</v>
       </c>
       <c r="J132" s="1">
-        <v>9.75</v>
+        <v>10.4</v>
       </c>
       <c r="K132" s="1">
-        <v>8.12</v>
+        <v>8.66</v>
       </c>
       <c r="L132" s="1">
-        <v>13.45</v>
+        <v>14.35</v>
       </c>
       <c r="M132" s="1">
-        <v>15.42</v>
+        <v>16.45</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -9534,7 +9522,7 @@
         <v>29</v>
       </c>
       <c r="P132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q132" t="s">
         <v>23</v>
@@ -9543,24 +9531,24 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B133">
-        <v>941062</v>
+        <v>805665</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" s="1">
         <v>10</v>
@@ -9593,7 +9581,7 @@
         <v>29</v>
       </c>
       <c r="P133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q133" t="s">
         <v>23</v>
@@ -9602,48 +9590,48 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B134">
-        <v>929464</v>
+        <v>900310</v>
       </c>
       <c r="C134" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" t="s">
+        <v>353</v>
+      </c>
+      <c r="E134" t="s">
         <v>316</v>
       </c>
-      <c r="D134" t="s">
-        <v>354</v>
-      </c>
-      <c r="E134" t="s">
-        <v>348</v>
-      </c>
       <c r="F134" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G134" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H134" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
         <v>22</v>
       </c>
       <c r="J134" s="1">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="K134" s="1">
-        <v>8.66</v>
+        <v>11.91</v>
       </c>
       <c r="L134" s="1">
-        <v>14.35</v>
+        <v>19.73</v>
       </c>
       <c r="M134" s="1">
-        <v>16.45</v>
+        <v>22.62</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -9652,7 +9640,7 @@
         <v>29</v>
       </c>
       <c r="P134" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q134" t="s">
         <v>23</v>
@@ -9661,48 +9649,48 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B135">
-        <v>805665</v>
+        <v>913650</v>
       </c>
       <c r="C135" t="s">
+        <v>314</v>
+      </c>
+      <c r="D135" t="s">
+        <v>355</v>
+      </c>
+      <c r="E135" t="s">
         <v>316</v>
       </c>
-      <c r="D135" t="s">
-        <v>356</v>
-      </c>
-      <c r="E135" t="s">
-        <v>255</v>
-      </c>
       <c r="F135" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G135" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H135" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
       </c>
       <c r="J135" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K135" s="1">
-        <v>5.41</v>
+        <v>10.82</v>
       </c>
       <c r="L135" s="1">
-        <v>8.97</v>
+        <v>17.94</v>
       </c>
       <c r="M135" s="1">
-        <v>10.28</v>
+        <v>20.57</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -9711,7 +9699,7 @@
         <v>29</v>
       </c>
       <c r="P135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q135" t="s">
         <v>23</v>
@@ -9725,55 +9713,55 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>900310</v>
+        <v>911651</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E136" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="F136" s="1">
-        <v>22</v>
+        <v>16.6</v>
       </c>
       <c r="G136" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H136" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>22</v>
       </c>
       <c r="J136" s="1">
-        <v>14.3</v>
+        <v>10.79</v>
       </c>
       <c r="K136" s="1">
-        <v>11.91</v>
+        <v>8.98</v>
       </c>
       <c r="L136" s="1">
-        <v>19.73</v>
+        <v>14.89</v>
       </c>
       <c r="M136" s="1">
-        <v>22.62</v>
+        <v>17.07</v>
       </c>
       <c r="N136">
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P136" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q136" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R136">
         <v>0</v>
@@ -9784,81 +9772,81 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>913650</v>
+        <v>911647</v>
       </c>
       <c r="C137" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="D137" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E137" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="F137" s="1">
-        <v>20</v>
+        <v>20.77</v>
       </c>
       <c r="G137" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H137" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>22</v>
       </c>
       <c r="J137" s="1">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K137" s="1">
-        <v>10.82</v>
+        <v>11.24</v>
       </c>
       <c r="L137" s="1">
-        <v>17.94</v>
+        <v>18.63</v>
       </c>
       <c r="M137" s="1">
-        <v>20.57</v>
+        <v>21.36</v>
       </c>
       <c r="N137">
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P137" t="s">
         <v>360</v>
       </c>
       <c r="Q137" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R137">
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138">
-        <v>911651</v>
+        <v>911648</v>
       </c>
       <c r="C138" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E138" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F138" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -9870,16 +9858,16 @@
         <v>22</v>
       </c>
       <c r="J138" s="1">
-        <v>10.79</v>
+        <v>14.22</v>
       </c>
       <c r="K138" s="1">
-        <v>8.98</v>
+        <v>11.84</v>
       </c>
       <c r="L138" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="M138" s="1">
-        <v>17.07</v>
+        <v>22.5</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -9888,7 +9876,7 @@
         <v>23</v>
       </c>
       <c r="P138" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q138" t="s">
         <v>29</v>
@@ -9902,13 +9890,13 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>911647</v>
+        <v>957423</v>
       </c>
       <c r="C139" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D139" t="s">
         <v>365</v>
@@ -9917,7 +9905,7 @@
         <v>366</v>
       </c>
       <c r="F139" s="1">
-        <v>20.77</v>
+        <v>19.23</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -9929,16 +9917,16 @@
         <v>22</v>
       </c>
       <c r="J139" s="1">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="K139" s="1">
-        <v>11.24</v>
+        <v>10.41</v>
       </c>
       <c r="L139" s="1">
-        <v>18.63</v>
+        <v>17.25</v>
       </c>
       <c r="M139" s="1">
-        <v>21.36</v>
+        <v>19.77</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -9947,7 +9935,7 @@
         <v>23</v>
       </c>
       <c r="P139" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q139" t="s">
         <v>29</v>
@@ -9961,19 +9949,19 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>911648</v>
+        <v>957424</v>
       </c>
       <c r="C140" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D140" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E140" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F140" s="1">
         <v>21.88</v>
@@ -10006,7 +9994,7 @@
         <v>23</v>
       </c>
       <c r="P140" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q140" t="s">
         <v>29</v>
@@ -10020,22 +10008,22 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>957423</v>
+        <v>936388</v>
       </c>
       <c r="C141" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E141" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F141" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -10047,16 +10035,16 @@
         <v>22</v>
       </c>
       <c r="J141" s="1">
-        <v>12.5</v>
+        <v>10.79</v>
       </c>
       <c r="K141" s="1">
-        <v>10.41</v>
+        <v>8.98</v>
       </c>
       <c r="L141" s="1">
-        <v>17.25</v>
+        <v>14.89</v>
       </c>
       <c r="M141" s="1">
-        <v>19.77</v>
+        <v>17.07</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -10065,7 +10053,7 @@
         <v>23</v>
       </c>
       <c r="P141" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q141" t="s">
         <v>29</v>
@@ -10079,22 +10067,22 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>957424</v>
+        <v>936387</v>
       </c>
       <c r="C142" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E142" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F142" s="1">
-        <v>21.88</v>
+        <v>20.77</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -10106,16 +10094,16 @@
         <v>22</v>
       </c>
       <c r="J142" s="1">
-        <v>14.22</v>
+        <v>13.5</v>
       </c>
       <c r="K142" s="1">
-        <v>11.84</v>
+        <v>11.24</v>
       </c>
       <c r="L142" s="1">
-        <v>19.63</v>
+        <v>18.63</v>
       </c>
       <c r="M142" s="1">
-        <v>22.5</v>
+        <v>21.36</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -10124,7 +10112,7 @@
         <v>23</v>
       </c>
       <c r="P142" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q142" t="s">
         <v>29</v>
@@ -10138,22 +10126,22 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>936388</v>
+        <v>824228</v>
       </c>
       <c r="C143" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D143" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E143" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F143" s="1">
-        <v>16.6</v>
+        <v>21.89</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -10165,16 +10153,16 @@
         <v>22</v>
       </c>
       <c r="J143" s="1">
-        <v>10.79</v>
+        <v>14.23</v>
       </c>
       <c r="K143" s="1">
-        <v>8.98</v>
+        <v>11.85</v>
       </c>
       <c r="L143" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="M143" s="1">
-        <v>17.07</v>
+        <v>22.51</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -10183,7 +10171,7 @@
         <v>23</v>
       </c>
       <c r="P143" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q143" t="s">
         <v>29</v>
@@ -10197,22 +10185,22 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B144">
-        <v>936387</v>
+        <v>866256</v>
       </c>
       <c r="C144" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D144" t="s">
         <v>377</v>
       </c>
       <c r="E144" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F144" s="1">
-        <v>20.77</v>
+        <v>16.6</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -10224,16 +10212,16 @@
         <v>22</v>
       </c>
       <c r="J144" s="1">
-        <v>13.5</v>
+        <v>10.79</v>
       </c>
       <c r="K144" s="1">
-        <v>11.24</v>
+        <v>8.98</v>
       </c>
       <c r="L144" s="1">
-        <v>18.63</v>
+        <v>14.89</v>
       </c>
       <c r="M144" s="1">
-        <v>21.36</v>
+        <v>17.07</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -10242,7 +10230,7 @@
         <v>23</v>
       </c>
       <c r="P144" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q144" t="s">
         <v>29</v>
@@ -10256,22 +10244,22 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B145">
-        <v>824228</v>
+        <v>805464</v>
       </c>
       <c r="C145" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D145" t="s">
         <v>379</v>
       </c>
       <c r="E145" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F145" s="1">
-        <v>21.89</v>
+        <v>19.23</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -10283,16 +10271,16 @@
         <v>22</v>
       </c>
       <c r="J145" s="1">
-        <v>14.23</v>
+        <v>12.5</v>
       </c>
       <c r="K145" s="1">
-        <v>11.85</v>
+        <v>10.41</v>
       </c>
       <c r="L145" s="1">
-        <v>19.63</v>
+        <v>17.25</v>
       </c>
       <c r="M145" s="1">
-        <v>22.51</v>
+        <v>19.77</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -10301,7 +10289,7 @@
         <v>23</v>
       </c>
       <c r="P145" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q145" t="s">
         <v>29</v>
@@ -10315,22 +10303,22 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>866256</v>
+        <v>842611</v>
       </c>
       <c r="C146" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D146" t="s">
+        <v>380</v>
+      </c>
+      <c r="E146" t="s">
         <v>381</v>
       </c>
-      <c r="E146" t="s">
-        <v>375</v>
-      </c>
       <c r="F146" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -10342,16 +10330,16 @@
         <v>22</v>
       </c>
       <c r="J146" s="1">
-        <v>10.79</v>
+        <v>14.22</v>
       </c>
       <c r="K146" s="1">
-        <v>8.98</v>
+        <v>11.84</v>
       </c>
       <c r="L146" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="M146" s="1">
-        <v>17.07</v>
+        <v>22.5</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -10360,7 +10348,7 @@
         <v>23</v>
       </c>
       <c r="P146" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q146" t="s">
         <v>29</v>
@@ -10374,22 +10362,22 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147">
-        <v>805464</v>
+        <v>805465</v>
       </c>
       <c r="C147" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E147" t="s">
-        <v>378</v>
+        <v>21</v>
       </c>
       <c r="F147" s="1">
-        <v>19.23</v>
+        <v>15.38</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -10401,16 +10389,16 @@
         <v>22</v>
       </c>
       <c r="J147" s="1">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="K147" s="1">
-        <v>10.41</v>
+        <v>8.32</v>
       </c>
       <c r="L147" s="1">
-        <v>17.25</v>
+        <v>13.8</v>
       </c>
       <c r="M147" s="1">
-        <v>19.77</v>
+        <v>15.81</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -10419,7 +10407,7 @@
         <v>23</v>
       </c>
       <c r="P147" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q147" t="s">
         <v>29</v>
@@ -10428,27 +10416,27 @@
         <v>0</v>
       </c>
       <c r="S147" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B148">
-        <v>842611</v>
+        <v>990715</v>
       </c>
       <c r="C148" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
         <v>384</v>
       </c>
       <c r="E148" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="F148" s="1">
-        <v>21.88</v>
+        <v>9.23</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -10460,16 +10448,16 @@
         <v>22</v>
       </c>
       <c r="J148" s="1">
-        <v>14.22</v>
+        <v>6</v>
       </c>
       <c r="K148" s="1">
-        <v>11.84</v>
+        <v>5</v>
       </c>
       <c r="L148" s="1">
-        <v>19.63</v>
+        <v>8.28</v>
       </c>
       <c r="M148" s="1">
-        <v>22.5</v>
+        <v>9.49</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -10478,7 +10466,7 @@
         <v>23</v>
       </c>
       <c r="P148" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q148" t="s">
         <v>29</v>
@@ -10487,27 +10475,27 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>805465</v>
+        <v>881794</v>
       </c>
       <c r="C149" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E149" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F149" s="1">
-        <v>15.38</v>
+        <v>13.85</v>
       </c>
       <c r="G149" s="2">
         <v>0</v>
@@ -10519,16 +10507,16 @@
         <v>22</v>
       </c>
       <c r="J149" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K149" s="1">
-        <v>8.32</v>
+        <v>7.5</v>
       </c>
       <c r="L149" s="1">
-        <v>13.8</v>
+        <v>12.42</v>
       </c>
       <c r="M149" s="1">
-        <v>15.81</v>
+        <v>14.24</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -10537,7 +10525,7 @@
         <v>23</v>
       </c>
       <c r="P149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q149" t="s">
         <v>29</v>
@@ -10551,22 +10539,22 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B150">
-        <v>990715</v>
+        <v>805466</v>
       </c>
       <c r="C150" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D150" t="s">
+        <v>387</v>
+      </c>
+      <c r="E150" t="s">
         <v>388</v>
       </c>
-      <c r="E150" t="s">
-        <v>255</v>
-      </c>
       <c r="F150" s="1">
-        <v>9.23</v>
+        <v>22.66</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -10578,16 +10566,16 @@
         <v>22</v>
       </c>
       <c r="J150" s="1">
-        <v>6</v>
+        <v>14.73</v>
       </c>
       <c r="K150" s="1">
-        <v>5</v>
+        <v>12.26</v>
       </c>
       <c r="L150" s="1">
-        <v>8.28</v>
+        <v>20.33</v>
       </c>
       <c r="M150" s="1">
-        <v>9.49</v>
+        <v>23.3</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -10596,7 +10584,7 @@
         <v>23</v>
       </c>
       <c r="P150" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q150" t="s">
         <v>29</v>
@@ -10605,27 +10593,27 @@
         <v>0</v>
       </c>
       <c r="S150" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>881794</v>
+        <v>836358</v>
       </c>
       <c r="C151" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E151" t="s">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="F151" s="1">
-        <v>13.85</v>
+        <v>19.23</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
@@ -10637,16 +10625,16 @@
         <v>22</v>
       </c>
       <c r="J151" s="1">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="K151" s="1">
-        <v>7.5</v>
+        <v>10.41</v>
       </c>
       <c r="L151" s="1">
-        <v>12.42</v>
+        <v>17.25</v>
       </c>
       <c r="M151" s="1">
-        <v>14.24</v>
+        <v>19.77</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -10655,7 +10643,7 @@
         <v>23</v>
       </c>
       <c r="P151" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q151" t="s">
         <v>29</v>
@@ -10664,27 +10652,27 @@
         <v>0</v>
       </c>
       <c r="S151" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>805466</v>
+        <v>867239</v>
       </c>
       <c r="C152" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E152" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F152" s="1">
-        <v>22.66</v>
+        <v>20.77</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -10696,16 +10684,16 @@
         <v>22</v>
       </c>
       <c r="J152" s="1">
-        <v>14.73</v>
+        <v>13.5</v>
       </c>
       <c r="K152" s="1">
-        <v>12.26</v>
+        <v>11.24</v>
       </c>
       <c r="L152" s="1">
-        <v>20.33</v>
+        <v>18.63</v>
       </c>
       <c r="M152" s="1">
-        <v>23.3</v>
+        <v>21.36</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -10714,7 +10702,7 @@
         <v>23</v>
       </c>
       <c r="P152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q152" t="s">
         <v>29</v>
@@ -10728,22 +10716,22 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>836358</v>
+        <v>805468</v>
       </c>
       <c r="C153" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D153" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E153" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F153" s="1">
-        <v>19.23</v>
+        <v>29.62</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
@@ -10755,16 +10743,16 @@
         <v>22</v>
       </c>
       <c r="J153" s="1">
-        <v>12.5</v>
+        <v>19.25</v>
       </c>
       <c r="K153" s="1">
-        <v>10.41</v>
+        <v>16.03</v>
       </c>
       <c r="L153" s="1">
-        <v>17.25</v>
+        <v>26.57</v>
       </c>
       <c r="M153" s="1">
-        <v>19.77</v>
+        <v>30.46</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -10773,7 +10761,7 @@
         <v>23</v>
       </c>
       <c r="P153" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q153" t="s">
         <v>29</v>
@@ -10787,22 +10775,22 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>867239</v>
+        <v>805469</v>
       </c>
       <c r="C154" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D154" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E154" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F154" s="1">
-        <v>20.77</v>
+        <v>32.69</v>
       </c>
       <c r="G154" s="2">
         <v>0</v>
@@ -10814,16 +10802,16 @@
         <v>22</v>
       </c>
       <c r="J154" s="1">
-        <v>13.5</v>
+        <v>21.25</v>
       </c>
       <c r="K154" s="1">
-        <v>11.24</v>
+        <v>17.69</v>
       </c>
       <c r="L154" s="1">
-        <v>18.63</v>
+        <v>29.32</v>
       </c>
       <c r="M154" s="1">
-        <v>21.36</v>
+        <v>33.61</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -10832,7 +10820,7 @@
         <v>23</v>
       </c>
       <c r="P154" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q154" t="s">
         <v>29</v>
@@ -10846,22 +10834,22 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>805468</v>
+        <v>805461</v>
       </c>
       <c r="C155" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E155" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F155" s="1">
-        <v>29.62</v>
+        <v>23.08</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -10873,16 +10861,16 @@
         <v>22</v>
       </c>
       <c r="J155" s="1">
-        <v>19.25</v>
+        <v>15</v>
       </c>
       <c r="K155" s="1">
-        <v>16.03</v>
+        <v>12.49</v>
       </c>
       <c r="L155" s="1">
-        <v>26.57</v>
+        <v>20.7</v>
       </c>
       <c r="M155" s="1">
-        <v>30.46</v>
+        <v>23.73</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -10891,7 +10879,7 @@
         <v>23</v>
       </c>
       <c r="P155" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q155" t="s">
         <v>29</v>
@@ -10900,27 +10888,27 @@
         <v>0</v>
       </c>
       <c r="S155" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>805469</v>
+        <v>805470</v>
       </c>
       <c r="C156" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E156" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F156" s="1">
-        <v>32.69</v>
+        <v>21.54</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -10932,16 +10920,16 @@
         <v>22</v>
       </c>
       <c r="J156" s="1">
-        <v>21.25</v>
+        <v>14</v>
       </c>
       <c r="K156" s="1">
-        <v>17.69</v>
+        <v>11.66</v>
       </c>
       <c r="L156" s="1">
-        <v>29.32</v>
+        <v>19.32</v>
       </c>
       <c r="M156" s="1">
-        <v>33.61</v>
+        <v>22.15</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -10950,7 +10938,7 @@
         <v>23</v>
       </c>
       <c r="P156" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q156" t="s">
         <v>29</v>
@@ -10959,27 +10947,27 @@
         <v>0</v>
       </c>
       <c r="S156" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>805461</v>
+        <v>805471</v>
       </c>
       <c r="C157" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D157" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E157" t="s">
-        <v>406</v>
+        <v>21</v>
       </c>
       <c r="F157" s="1">
-        <v>23.08</v>
+        <v>16.92</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -10991,16 +10979,16 @@
         <v>22</v>
       </c>
       <c r="J157" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K157" s="1">
-        <v>12.49</v>
+        <v>9.16</v>
       </c>
       <c r="L157" s="1">
-        <v>20.7</v>
+        <v>15.18</v>
       </c>
       <c r="M157" s="1">
-        <v>23.73</v>
+        <v>17.4</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -11009,7 +10997,7 @@
         <v>23</v>
       </c>
       <c r="P157" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q157" t="s">
         <v>29</v>
@@ -11023,22 +11011,22 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>805470</v>
+        <v>805472</v>
       </c>
       <c r="C158" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D158" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E158" t="s">
-        <v>409</v>
+        <v>258</v>
       </c>
       <c r="F158" s="1">
-        <v>21.54</v>
+        <v>15.38</v>
       </c>
       <c r="G158" s="2">
         <v>0</v>
@@ -11050,16 +11038,16 @@
         <v>22</v>
       </c>
       <c r="J158" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K158" s="1">
-        <v>11.66</v>
+        <v>8.32</v>
       </c>
       <c r="L158" s="1">
-        <v>19.32</v>
+        <v>13.8</v>
       </c>
       <c r="M158" s="1">
-        <v>22.15</v>
+        <v>15.81</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -11082,22 +11070,22 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>805471</v>
+        <v>805473</v>
       </c>
       <c r="C159" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D159" t="s">
         <v>411</v>
       </c>
       <c r="E159" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F159" s="1">
-        <v>16.92</v>
+        <v>15.38</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
@@ -11109,16 +11097,16 @@
         <v>22</v>
       </c>
       <c r="J159" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K159" s="1">
-        <v>9.16</v>
+        <v>8.32</v>
       </c>
       <c r="L159" s="1">
-        <v>15.18</v>
+        <v>13.8</v>
       </c>
       <c r="M159" s="1">
-        <v>17.4</v>
+        <v>15.81</v>
       </c>
       <c r="N159">
         <v>1</v>
@@ -11141,19 +11129,19 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>805472</v>
+        <v>805474</v>
       </c>
       <c r="C160" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D160" t="s">
         <v>413</v>
       </c>
       <c r="E160" t="s">
-        <v>260</v>
+        <v>402</v>
       </c>
       <c r="F160" s="1">
         <v>15.38</v>
@@ -11200,22 +11188,22 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B161">
-        <v>805473</v>
+        <v>990712</v>
       </c>
       <c r="C161" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D161" t="s">
         <v>415</v>
       </c>
       <c r="E161" t="s">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="F161" s="1">
-        <v>15.38</v>
+        <v>8.92</v>
       </c>
       <c r="G161" s="2">
         <v>0</v>
@@ -11227,16 +11215,16 @@
         <v>22</v>
       </c>
       <c r="J161" s="1">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="K161" s="1">
-        <v>8.32</v>
+        <v>4.83</v>
       </c>
       <c r="L161" s="1">
-        <v>13.8</v>
+        <v>8</v>
       </c>
       <c r="M161" s="1">
-        <v>15.81</v>
+        <v>9.17</v>
       </c>
       <c r="N161">
         <v>1</v>
@@ -11245,7 +11233,7 @@
         <v>23</v>
       </c>
       <c r="P161" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q161" t="s">
         <v>29</v>
@@ -11259,22 +11247,22 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>805474</v>
+        <v>805475</v>
       </c>
       <c r="C162" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D162" t="s">
         <v>417</v>
       </c>
       <c r="E162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F162" s="1">
-        <v>15.38</v>
+        <v>18.46</v>
       </c>
       <c r="G162" s="2">
         <v>0</v>
@@ -11286,16 +11274,16 @@
         <v>22</v>
       </c>
       <c r="J162" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K162" s="1">
-        <v>8.32</v>
+        <v>9.99</v>
       </c>
       <c r="L162" s="1">
-        <v>13.8</v>
+        <v>16.56</v>
       </c>
       <c r="M162" s="1">
-        <v>15.81</v>
+        <v>18.98</v>
       </c>
       <c r="N162">
         <v>1</v>
@@ -11318,22 +11306,22 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>990712</v>
+        <v>805476</v>
       </c>
       <c r="C163" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D163" t="s">
         <v>419</v>
       </c>
       <c r="E163" t="s">
-        <v>420</v>
+        <v>21</v>
       </c>
       <c r="F163" s="1">
-        <v>8.92</v>
+        <v>10.77</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
@@ -11345,16 +11333,16 @@
         <v>22</v>
       </c>
       <c r="J163" s="1">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="K163" s="1">
-        <v>4.83</v>
+        <v>5.83</v>
       </c>
       <c r="L163" s="1">
-        <v>8</v>
+        <v>9.66</v>
       </c>
       <c r="M163" s="1">
-        <v>9.17</v>
+        <v>11.07</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -11363,7 +11351,7 @@
         <v>23</v>
       </c>
       <c r="P163" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q163" t="s">
         <v>29</v>
@@ -11377,19 +11365,19 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>805475</v>
+        <v>805477</v>
       </c>
       <c r="C164" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D164" t="s">
         <v>421</v>
       </c>
       <c r="E164" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F164" s="1">
         <v>18.46</v>
@@ -11422,7 +11410,7 @@
         <v>23</v>
       </c>
       <c r="P164" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q164" t="s">
         <v>29</v>
@@ -11431,124 +11419,6 @@
         <v>0</v>
       </c>
       <c r="S164" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>162</v>
-      </c>
-      <c r="B165">
-        <v>805476</v>
-      </c>
-      <c r="C165" t="s">
-        <v>361</v>
-      </c>
-      <c r="D165" t="s">
-        <v>423</v>
-      </c>
-      <c r="E165" t="s">
-        <v>21</v>
-      </c>
-      <c r="F165" s="1">
-        <v>10.77</v>
-      </c>
-      <c r="G165" s="2">
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
-        <v>0</v>
-      </c>
-      <c r="I165" t="s">
-        <v>22</v>
-      </c>
-      <c r="J165" s="1">
-        <v>7</v>
-      </c>
-      <c r="K165" s="1">
-        <v>5.83</v>
-      </c>
-      <c r="L165" s="1">
-        <v>9.66</v>
-      </c>
-      <c r="M165" s="1">
-        <v>11.07</v>
-      </c>
-      <c r="N165">
-        <v>1</v>
-      </c>
-      <c r="O165" t="s">
-        <v>23</v>
-      </c>
-      <c r="P165" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>29</v>
-      </c>
-      <c r="R165">
-        <v>0</v>
-      </c>
-      <c r="S165" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>163</v>
-      </c>
-      <c r="B166">
-        <v>805477</v>
-      </c>
-      <c r="C166" t="s">
-        <v>361</v>
-      </c>
-      <c r="D166" t="s">
-        <v>425</v>
-      </c>
-      <c r="E166" t="s">
-        <v>426</v>
-      </c>
-      <c r="F166" s="1">
-        <v>18.46</v>
-      </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
-        <v>0</v>
-      </c>
-      <c r="I166" t="s">
-        <v>22</v>
-      </c>
-      <c r="J166" s="1">
-        <v>12</v>
-      </c>
-      <c r="K166" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="L166" s="1">
-        <v>16.56</v>
-      </c>
-      <c r="M166" s="1">
-        <v>18.98</v>
-      </c>
-      <c r="N166">
-        <v>1</v>
-      </c>
-      <c r="O166" t="s">
-        <v>23</v>
-      </c>
-      <c r="P166" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>29</v>
-      </c>
-      <c r="R166">
-        <v>0</v>
-      </c>
-      <c r="S166" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11565,10 +11435,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11576,7 +11446,7 @@
         <v>0.5412</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11584,7 +11454,7 @@
         <v>0.65</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11592,7 +11462,7 @@
         <v>0.6574</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11600,7 +11470,7 @@
         <v>0.9</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1843,7 +1843,7 @@
         <v>13.01</v>
       </c>
       <c r="M2" s="1">
-        <v>14.91</v>
+        <v>15.07</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
@@ -1902,7 +1902,7 @@
         <v>13.01</v>
       </c>
       <c r="M3" s="1">
-        <v>14.91</v>
+        <v>15.07</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
@@ -1961,7 +1961,7 @@
         <v>12.11</v>
       </c>
       <c r="M4" s="1">
-        <v>13.88</v>
+        <v>14.03</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>13.45</v>
       </c>
       <c r="M5" s="1">
-        <v>15.42</v>
+        <v>15.59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>14.8</v>
       </c>
       <c r="M6" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -2138,7 +2138,7 @@
         <v>14.8</v>
       </c>
       <c r="M7" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>17.94</v>
       </c>
       <c r="M8" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>19.37</v>
       </c>
       <c r="M9" s="1">
-        <v>22.21</v>
+        <v>22.44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>15.25</v>
       </c>
       <c r="M10" s="1">
-        <v>17.48</v>
+        <v>17.66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>10.76</v>
       </c>
       <c r="M11" s="1">
-        <v>12.34</v>
+        <v>12.47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>8.97</v>
       </c>
       <c r="M12" s="1">
-        <v>10.28</v>
+        <v>10.39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2492,7 +2492,7 @@
         <v>20.59</v>
       </c>
       <c r="M13" s="1">
-        <v>23.6</v>
+        <v>23.85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2551,7 +2551,7 @@
         <v>23.61</v>
       </c>
       <c r="M14" s="1">
-        <v>27.07</v>
+        <v>27.35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>41.93</v>
       </c>
       <c r="M15" s="1">
-        <v>48.07</v>
+        <v>48.58</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>55.1</v>
       </c>
       <c r="M16" s="1">
-        <v>63.16</v>
+        <v>63.83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>41.89</v>
       </c>
       <c r="M17" s="1">
-        <v>48.02</v>
+        <v>48.53</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2846,7 +2846,7 @@
         <v>32.52</v>
       </c>
       <c r="M19" s="1">
-        <v>37.28</v>
+        <v>37.67</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>13.66</v>
       </c>
       <c r="M20" s="1">
-        <v>15.66</v>
+        <v>15.82</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>23.32</v>
       </c>
       <c r="M21" s="1">
-        <v>26.74</v>
+        <v>27.02</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3023,7 +3023,7 @@
         <v>42.61</v>
       </c>
       <c r="M22" s="1">
-        <v>48.84</v>
+        <v>49.36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>15.25</v>
       </c>
       <c r="M23" s="1">
-        <v>17.48</v>
+        <v>17.66</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>22.42</v>
       </c>
       <c r="M24" s="1">
-        <v>25.71</v>
+        <v>25.98</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3200,7 +3200,7 @@
         <v>12.56</v>
       </c>
       <c r="M25" s="1">
-        <v>14.4</v>
+        <v>14.55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3259,7 +3259,7 @@
         <v>29.15</v>
       </c>
       <c r="M26" s="1">
-        <v>33.42</v>
+        <v>33.77</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3318,7 +3318,7 @@
         <v>48.8</v>
       </c>
       <c r="M27" s="1">
-        <v>55.94</v>
+        <v>56.53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3377,7 +3377,7 @@
         <v>9.87</v>
       </c>
       <c r="M28" s="1">
-        <v>11.31</v>
+        <v>11.43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3436,7 +3436,7 @@
         <v>20.99</v>
       </c>
       <c r="M29" s="1">
-        <v>24.06</v>
+        <v>24.32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>25.56</v>
       </c>
       <c r="M30" s="1">
-        <v>29.31</v>
+        <v>29.61</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3554,7 +3554,7 @@
         <v>20.99</v>
       </c>
       <c r="M31" s="1">
-        <v>24.06</v>
+        <v>24.32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3613,7 +3613,7 @@
         <v>25.65</v>
       </c>
       <c r="M32" s="1">
-        <v>29.41</v>
+        <v>29.72</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>13.45</v>
       </c>
       <c r="M33" s="1">
-        <v>15.42</v>
+        <v>15.59</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>19.24</v>
       </c>
       <c r="M34" s="1">
-        <v>22.06</v>
+        <v>22.29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>39.36</v>
       </c>
       <c r="M35" s="1">
-        <v>45.12</v>
+        <v>45.59</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>29.74</v>
       </c>
       <c r="M36" s="1">
-        <v>34.09</v>
+        <v>34.45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>19.91</v>
       </c>
       <c r="M38" s="1">
-        <v>22.83</v>
+        <v>23.07</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>21.21</v>
       </c>
       <c r="M39" s="1">
-        <v>24.32</v>
+        <v>24.57</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>23.43</v>
       </c>
       <c r="M40" s="1">
-        <v>26.86</v>
+        <v>27.15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>38.62</v>
       </c>
       <c r="M41" s="1">
-        <v>44.27</v>
+        <v>44.73</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4203,7 +4203,7 @@
         <v>64.58</v>
       </c>
       <c r="M42" s="1">
-        <v>74.04</v>
+        <v>74.82</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>53.29</v>
       </c>
       <c r="M43" s="1">
-        <v>61.1</v>
+        <v>61.74</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>42.71</v>
       </c>
       <c r="M44" s="1">
-        <v>48.96</v>
+        <v>49.47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -4380,7 +4380,7 @@
         <v>37.31</v>
       </c>
       <c r="M45" s="1">
-        <v>42.78</v>
+        <v>43.23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -4439,7 +4439,7 @@
         <v>29.15</v>
       </c>
       <c r="M46" s="1">
-        <v>33.42</v>
+        <v>33.77</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -4498,7 +4498,7 @@
         <v>13.9</v>
       </c>
       <c r="M47" s="1">
-        <v>15.94</v>
+        <v>16.11</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>12.83</v>
       </c>
       <c r="M48" s="1">
-        <v>14.7</v>
+        <v>14.86</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>22.74</v>
       </c>
       <c r="M49" s="1">
-        <v>26.07</v>
+        <v>26.34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -4675,7 +4675,7 @@
         <v>10.76</v>
       </c>
       <c r="M50" s="1">
-        <v>12.34</v>
+        <v>12.47</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>23.23</v>
       </c>
       <c r="M51" s="1">
-        <v>26.63</v>
+        <v>26.91</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>10.76</v>
       </c>
       <c r="M52" s="1">
-        <v>12.34</v>
+        <v>12.47</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>34.51</v>
       </c>
       <c r="M53" s="1">
-        <v>39.56</v>
+        <v>39.98</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -4911,7 +4911,7 @@
         <v>23.32</v>
       </c>
       <c r="M54" s="1">
-        <v>26.74</v>
+        <v>27.02</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -4970,7 +4970,7 @@
         <v>13.88</v>
       </c>
       <c r="M55" s="1">
-        <v>15.91</v>
+        <v>16.07</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -5029,7 +5029,7 @@
         <v>12.83</v>
       </c>
       <c r="M56" s="1">
-        <v>14.7</v>
+        <v>14.86</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -5088,7 +5088,7 @@
         <v>32.52</v>
       </c>
       <c r="M57" s="1">
-        <v>37.28</v>
+        <v>37.67</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>12.78</v>
       </c>
       <c r="M58" s="1">
-        <v>14.65</v>
+        <v>14.81</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -5206,7 +5206,7 @@
         <v>8.52</v>
       </c>
       <c r="M59" s="1">
-        <v>9.77</v>
+        <v>9.87</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -5265,7 +5265,7 @@
         <v>8.52</v>
       </c>
       <c r="M60" s="1">
-        <v>9.77</v>
+        <v>9.87</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>10.76</v>
       </c>
       <c r="M61" s="1">
-        <v>12.34</v>
+        <v>12.47</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -5383,7 +5383,7 @@
         <v>24.22</v>
       </c>
       <c r="M62" s="1">
-        <v>27.76</v>
+        <v>28.06</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>17.38</v>
       </c>
       <c r="M63" s="1">
-        <v>19.92</v>
+        <v>20.13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -5501,7 +5501,7 @@
         <v>18.84</v>
       </c>
       <c r="M64" s="1">
-        <v>21.59</v>
+        <v>21.82</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         <v>44.4</v>
       </c>
       <c r="M65" s="1">
-        <v>50.9</v>
+        <v>51.44</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -5619,7 +5619,7 @@
         <v>39.2</v>
       </c>
       <c r="M66" s="1">
-        <v>44.94</v>
+        <v>45.41</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -5678,7 +5678,7 @@
         <v>33.19</v>
       </c>
       <c r="M67" s="1">
-        <v>38.05</v>
+        <v>38.45</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -5737,7 +5737,7 @@
         <v>26.8</v>
       </c>
       <c r="M68" s="1">
-        <v>30.72</v>
+        <v>31.04</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>57.64</v>
       </c>
       <c r="M69" s="1">
-        <v>66.08</v>
+        <v>66.77</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -5855,7 +5855,7 @@
         <v>48.49</v>
       </c>
       <c r="M70" s="1">
-        <v>55.59</v>
+        <v>56.17</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -5914,7 +5914,7 @@
         <v>37.67</v>
       </c>
       <c r="M71" s="1">
-        <v>43.19</v>
+        <v>43.64</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>16.59</v>
       </c>
       <c r="M72" s="1">
-        <v>19.02</v>
+        <v>19.22</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -6032,7 +6032,7 @@
         <v>10.76</v>
       </c>
       <c r="M73" s="1">
-        <v>12.34</v>
+        <v>12.47</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -6091,7 +6091,7 @@
         <v>17.94</v>
       </c>
       <c r="M74" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -6150,7 +6150,7 @@
         <v>8.97</v>
       </c>
       <c r="M75" s="1">
-        <v>10.28</v>
+        <v>10.39</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -6209,7 +6209,7 @@
         <v>19.37</v>
       </c>
       <c r="M76" s="1">
-        <v>22.21</v>
+        <v>22.44</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -6268,7 +6268,7 @@
         <v>37.67</v>
       </c>
       <c r="M77" s="1">
-        <v>43.19</v>
+        <v>43.64</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -6327,7 +6327,7 @@
         <v>8.1</v>
       </c>
       <c r="M78" s="1">
-        <v>9.28</v>
+        <v>9.38</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -6386,7 +6386,7 @@
         <v>23.62</v>
       </c>
       <c r="M79" s="1">
-        <v>27.08</v>
+        <v>27.37</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -6445,7 +6445,7 @@
         <v>18.07</v>
       </c>
       <c r="M80" s="1">
-        <v>20.72</v>
+        <v>20.94</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -6504,7 +6504,7 @@
         <v>27.38</v>
       </c>
       <c r="M81" s="1">
-        <v>31.39</v>
+        <v>31.72</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -6563,7 +6563,7 @@
         <v>21.3</v>
       </c>
       <c r="M82" s="1">
-        <v>24.42</v>
+        <v>24.68</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -6622,7 +6622,7 @@
         <v>38.35</v>
       </c>
       <c r="M83" s="1">
-        <v>43.96</v>
+        <v>44.42</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -6681,7 +6681,7 @@
         <v>44.85</v>
       </c>
       <c r="M84" s="1">
-        <v>51.41</v>
+        <v>51.96</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -6799,7 +6799,7 @@
         <v>19.29</v>
       </c>
       <c r="M86" s="1">
-        <v>22.11</v>
+        <v>22.34</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>54</v>
       </c>
       <c r="M87" s="1">
-        <v>61.9</v>
+        <v>62.55</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -6917,7 +6917,7 @@
         <v>13.01</v>
       </c>
       <c r="M88" s="1">
-        <v>14.91</v>
+        <v>15.07</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -6976,7 +6976,7 @@
         <v>15.7</v>
       </c>
       <c r="M89" s="1">
-        <v>17.99</v>
+        <v>18.18</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -7035,7 +7035,7 @@
         <v>17.49</v>
       </c>
       <c r="M90" s="1">
-        <v>20.05</v>
+        <v>20.26</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -7094,7 +7094,7 @@
         <v>13.9</v>
       </c>
       <c r="M91" s="1">
-        <v>15.94</v>
+        <v>16.11</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -7153,7 +7153,7 @@
         <v>17.49</v>
       </c>
       <c r="M92" s="1">
-        <v>20.05</v>
+        <v>20.26</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -7212,7 +7212,7 @@
         <v>17.49</v>
       </c>
       <c r="M93" s="1">
-        <v>20.05</v>
+        <v>20.26</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>19.29</v>
       </c>
       <c r="M94" s="1">
-        <v>22.11</v>
+        <v>22.34</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -7330,7 +7330,7 @@
         <v>19.29</v>
       </c>
       <c r="M95" s="1">
-        <v>22.11</v>
+        <v>22.34</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         <v>14.8</v>
       </c>
       <c r="M96" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -7448,7 +7448,7 @@
         <v>17.94</v>
       </c>
       <c r="M97" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -7507,7 +7507,7 @@
         <v>19.29</v>
       </c>
       <c r="M98" s="1">
-        <v>22.11</v>
+        <v>22.34</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -7566,7 +7566,7 @@
         <v>16.15</v>
       </c>
       <c r="M99" s="1">
-        <v>18.51</v>
+        <v>18.7</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>16.15</v>
       </c>
       <c r="M100" s="1">
-        <v>18.51</v>
+        <v>18.7</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -7684,7 +7684,7 @@
         <v>17.94</v>
       </c>
       <c r="M101" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -7743,7 +7743,7 @@
         <v>16.15</v>
       </c>
       <c r="M102" s="1">
-        <v>18.51</v>
+        <v>18.7</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>17.94</v>
       </c>
       <c r="M103" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -7861,7 +7861,7 @@
         <v>8.07</v>
       </c>
       <c r="M104" s="1">
-        <v>9.25</v>
+        <v>9.35</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -7920,7 +7920,7 @@
         <v>17.49</v>
       </c>
       <c r="M105" s="1">
-        <v>20.05</v>
+        <v>20.26</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -7979,7 +7979,7 @@
         <v>17.94</v>
       </c>
       <c r="M106" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -8038,7 +8038,7 @@
         <v>14.8</v>
       </c>
       <c r="M107" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>9.87</v>
       </c>
       <c r="M108" s="1">
-        <v>11.31</v>
+        <v>11.43</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -8156,7 +8156,7 @@
         <v>15.25</v>
       </c>
       <c r="M109" s="1">
-        <v>17.48</v>
+        <v>17.66</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -8215,7 +8215,7 @@
         <v>17.49</v>
       </c>
       <c r="M110" s="1">
-        <v>20.05</v>
+        <v>20.26</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -8274,7 +8274,7 @@
         <v>16.15</v>
       </c>
       <c r="M111" s="1">
-        <v>18.51</v>
+        <v>18.7</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -8333,7 +8333,7 @@
         <v>10.76</v>
       </c>
       <c r="M112" s="1">
-        <v>12.34</v>
+        <v>12.47</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -8392,7 +8392,7 @@
         <v>6.28</v>
       </c>
       <c r="M113" s="1">
-        <v>7.2</v>
+        <v>7.27</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -8451,7 +8451,7 @@
         <v>8.97</v>
       </c>
       <c r="M114" s="1">
-        <v>10.28</v>
+        <v>10.39</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -8510,7 +8510,7 @@
         <v>17.94</v>
       </c>
       <c r="M115" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -8569,7 +8569,7 @@
         <v>14.8</v>
       </c>
       <c r="M116" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -8628,7 +8628,7 @@
         <v>14.8</v>
       </c>
       <c r="M117" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>14.8</v>
       </c>
       <c r="M118" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -8746,7 +8746,7 @@
         <v>15.25</v>
       </c>
       <c r="M119" s="1">
-        <v>17.48</v>
+        <v>17.66</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -8805,7 +8805,7 @@
         <v>14.8</v>
       </c>
       <c r="M120" s="1">
-        <v>16.97</v>
+        <v>17.15</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -8864,7 +8864,7 @@
         <v>17.94</v>
       </c>
       <c r="M121" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -8923,7 +8923,7 @@
         <v>17.94</v>
       </c>
       <c r="M122" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>17.94</v>
       </c>
       <c r="M123" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -9041,7 +9041,7 @@
         <v>13.45</v>
       </c>
       <c r="M124" s="1">
-        <v>15.42</v>
+        <v>15.59</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -9100,7 +9100,7 @@
         <v>17.94</v>
       </c>
       <c r="M125" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -9159,7 +9159,7 @@
         <v>17.94</v>
       </c>
       <c r="M126" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -9218,7 +9218,7 @@
         <v>21.53</v>
       </c>
       <c r="M127" s="1">
-        <v>24.68</v>
+        <v>24.94</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -9277,7 +9277,7 @@
         <v>17.94</v>
       </c>
       <c r="M128" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -9336,7 +9336,7 @@
         <v>8.97</v>
       </c>
       <c r="M129" s="1">
-        <v>10.28</v>
+        <v>10.39</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -9395,7 +9395,7 @@
         <v>13.45</v>
       </c>
       <c r="M130" s="1">
-        <v>15.42</v>
+        <v>15.59</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>8.97</v>
       </c>
       <c r="M131" s="1">
-        <v>10.28</v>
+        <v>10.39</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -9513,7 +9513,7 @@
         <v>14.35</v>
       </c>
       <c r="M132" s="1">
-        <v>16.45</v>
+        <v>16.63</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -9572,7 +9572,7 @@
         <v>8.97</v>
       </c>
       <c r="M133" s="1">
-        <v>10.28</v>
+        <v>10.39</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -9631,7 +9631,7 @@
         <v>19.73</v>
       </c>
       <c r="M134" s="1">
-        <v>22.62</v>
+        <v>22.86</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -9690,7 +9690,7 @@
         <v>17.94</v>
       </c>
       <c r="M135" s="1">
-        <v>20.57</v>
+        <v>20.78</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -9749,7 +9749,7 @@
         <v>14.89</v>
       </c>
       <c r="M136" s="1">
-        <v>17.07</v>
+        <v>17.25</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -9808,7 +9808,7 @@
         <v>18.63</v>
       </c>
       <c r="M137" s="1">
-        <v>21.36</v>
+        <v>21.58</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -9867,7 +9867,7 @@
         <v>19.63</v>
       </c>
       <c r="M138" s="1">
-        <v>22.5</v>
+        <v>22.74</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -9926,7 +9926,7 @@
         <v>17.25</v>
       </c>
       <c r="M139" s="1">
-        <v>19.77</v>
+        <v>19.98</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>19.63</v>
       </c>
       <c r="M140" s="1">
-        <v>22.5</v>
+        <v>22.74</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -10044,7 +10044,7 @@
         <v>14.89</v>
       </c>
       <c r="M141" s="1">
-        <v>17.07</v>
+        <v>17.25</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -10103,7 +10103,7 @@
         <v>18.63</v>
       </c>
       <c r="M142" s="1">
-        <v>21.36</v>
+        <v>21.58</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -10162,7 +10162,7 @@
         <v>19.63</v>
       </c>
       <c r="M143" s="1">
-        <v>22.51</v>
+        <v>22.75</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -10221,7 +10221,7 @@
         <v>14.89</v>
       </c>
       <c r="M144" s="1">
-        <v>17.07</v>
+        <v>17.25</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -10280,7 +10280,7 @@
         <v>17.25</v>
       </c>
       <c r="M145" s="1">
-        <v>19.77</v>
+        <v>19.98</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -10339,7 +10339,7 @@
         <v>19.63</v>
       </c>
       <c r="M146" s="1">
-        <v>22.5</v>
+        <v>22.74</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -10398,7 +10398,7 @@
         <v>13.8</v>
       </c>
       <c r="M147" s="1">
-        <v>15.81</v>
+        <v>15.98</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -10457,7 +10457,7 @@
         <v>8.28</v>
       </c>
       <c r="M148" s="1">
-        <v>9.49</v>
+        <v>9.59</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>12.42</v>
       </c>
       <c r="M149" s="1">
-        <v>14.24</v>
+        <v>14.39</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>20.33</v>
       </c>
       <c r="M150" s="1">
-        <v>23.3</v>
+        <v>23.55</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -10634,7 +10634,7 @@
         <v>17.25</v>
       </c>
       <c r="M151" s="1">
-        <v>19.77</v>
+        <v>19.98</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -10693,7 +10693,7 @@
         <v>18.63</v>
       </c>
       <c r="M152" s="1">
-        <v>21.36</v>
+        <v>21.58</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -10752,7 +10752,7 @@
         <v>26.57</v>
       </c>
       <c r="M153" s="1">
-        <v>30.46</v>
+        <v>30.78</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -10811,7 +10811,7 @@
         <v>29.32</v>
       </c>
       <c r="M154" s="1">
-        <v>33.61</v>
+        <v>33.97</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -10870,7 +10870,7 @@
         <v>20.7</v>
       </c>
       <c r="M155" s="1">
-        <v>23.73</v>
+        <v>23.98</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -10929,7 +10929,7 @@
         <v>19.32</v>
       </c>
       <c r="M156" s="1">
-        <v>22.15</v>
+        <v>22.38</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -10988,7 +10988,7 @@
         <v>15.18</v>
       </c>
       <c r="M157" s="1">
-        <v>17.4</v>
+        <v>17.58</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>13.8</v>
       </c>
       <c r="M158" s="1">
-        <v>15.81</v>
+        <v>15.98</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -11106,7 +11106,7 @@
         <v>13.8</v>
       </c>
       <c r="M159" s="1">
-        <v>15.81</v>
+        <v>15.98</v>
       </c>
       <c r="N159">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>13.8</v>
       </c>
       <c r="M160" s="1">
-        <v>15.81</v>
+        <v>15.98</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -11224,7 +11224,7 @@
         <v>8</v>
       </c>
       <c r="M161" s="1">
-        <v>9.17</v>
+        <v>9.27</v>
       </c>
       <c r="N161">
         <v>1</v>
@@ -11283,7 +11283,7 @@
         <v>16.56</v>
       </c>
       <c r="M162" s="1">
-        <v>18.98</v>
+        <v>19.18</v>
       </c>
       <c r="N162">
         <v>1</v>
@@ -11342,7 +11342,7 @@
         <v>9.66</v>
       </c>
       <c r="M163" s="1">
-        <v>11.07</v>
+        <v>11.19</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -11401,7 +11401,7 @@
         <v>16.56</v>
       </c>
       <c r="M164" s="1">
-        <v>18.98</v>
+        <v>19.18</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="B5" t="s">
         <v>429</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="433">
   <si>
     <t>id</t>
   </si>
@@ -1005,6 +1005,22 @@
     <t>Green Chorizo, a relatively new sausage variety hailing from Toluca, Mexico. This stands out from its cousin, red chorizo, by being loaded with fresh chiles and herbs picked fresh from our garden, then roasted over flames. Herbaceous, a little spicy, and bursting with flavor!  Use just as you would any other style of Mexican chorizo. With eggs, tacos, salad, soups, or with rice or potatoes.  Ingredients:   Pork, Roasted Poblano, Roasted Jalapeño, Garlic, Fresh Cilantro, Sea Salt, Apple Cider Vinegar, Black Pepper, Coriander, Cumin, Cayenne, Hog Casings  4 Links/pack  14oz Packages  Spiciness – 4/10.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>Classic Beef Broth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This thick, concentrated broth is gelatinous and full of flavor — simply dilute with water to your desired consistency. Lightly salted to enhance its naturally rich, umami profile, it's made with roasted bones, fresh vegetables, and aromatic herbs for a deep, satisfying taste.
+Perfect as a base for pho, soups, stews, risotto, or just sip on its own.
+Ingredients: Water, Beef Bones, Onion, Carrot, Celery, Garlic, Salt, Thyme, Apple Cider Vinegar, Black Peppercorns, Bay Leaf</t>
+  </si>
+  <si>
+    <t>Classic Pork Broth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This thick, concentrated broth is gelatinous and full of flavor — simply dilute with water to your desired consistency. Lightly salted to enhance its naturally rich, umami profile, it's made with roasted bones, fresh vegetables, and aromatic herbs for a deep, satisfying taste.
+Perfect as a base for ramen, soups, stews, risotto, or just sip on its own.
+Ingredients: Pork Bones, Water, Onion, Carrot, Celery, Garlic, Salt, Thyme, Apple Cider Vinegar, Black Peppercorns, Bay Leaf</t>
+  </si>
+  <si>
     <t>English Banger Sausage Links</t>
   </si>
   <si>
@@ -1074,261 +1090,6 @@
   </si>
   <si>
     <t>Inspired by the bounty of summer herbs in our garden. This limited seasonal sausage uses juicy lamb flecked with abundant green herbs and subtle spices. Enjoy this with any Mediterranean feast, pizza, pasta, salad, or with grilled vegetables.Spiciness – 1.5/10Ingredients:Lamb, Parsley, Sea Salt, Basil, Garlic,Red Wine Vinegar, Chives, Mint,Lemon Juice, Lemon Zest, BlackPepper, Chili Flake,Hog Casings  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>Thai Curry Sausage Links</t>
-  </si>
-  <si>
-    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>Creamy Cow Dairy</t>
-  </si>
-  <si>
-    <t>Catalan Paprika-Rubbed Cheese, 4.2-5.2 oz</t>
-  </si>
-  <si>
-    <t>4.2-5.2 oz</t>
-  </si>
-  <si>
-    <t>This delicious cheese is aged for 4 months and generously rubbed with paprika and extra-virgin olive oil, with a beautiful marbling of paprika throughout. Boasting a creamy texture and a slightly grassy, yet mild, buttery flavor. Its beautiful red rind adds an earthy, smoky crust, making it a delight for the senses. Enjoy this cheese with olives, almonds, tinned fish, or fresh or dried fruit. For the perfect pairing, savor it with an oaky chardonnay, a fruity pinot noir, or a dry cider.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Catalan, with her unique "spice," embodies a blend of sweetness, determination, and an undeniable love for food.</t>
-  </si>
-  <si>
-    <t>Catalan Paprika-Rubbed Cheese, 5.3-6.3 oz</t>
-  </si>
-  <si>
-    <t>5.3-6.3 oz</t>
-  </si>
-  <si>
-    <t>Catalan Paprika-Rubbed Cheese, 6.4-7.4 oz</t>
-  </si>
-  <si>
-    <t>6.4-7.4 oz</t>
-  </si>
-  <si>
-    <t>Gogo Gouda, 5.9-6.9 oz</t>
-  </si>
-  <si>
-    <t>5.9 -6.9 oz</t>
-  </si>
-  <si>
-    <t>Gouda! A wonderfully versatile cheese. This young 4-month aged version has a sweet aroma and a smooth fudgy texture. It is buttery with a tangy nutty flavor. Perfect as a snacking cheese or melted onto your favorite sandwich. Pairs well with fruit jams, smoked meats, breads, Riesling, Chardonnay, or a crisp amber ale.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into your experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.Like this cheese, Gogo is young and springy! She always makes sure to come say hi out in the field and is often found nuzzling up on you in the most inopportune times. One of our loveliest and most friendly cows for sure!</t>
-  </si>
-  <si>
-    <t>Gogo Gouda, 7.0-8.0 oz</t>
-  </si>
-  <si>
-    <t>7.0-8.0 oz</t>
-  </si>
-  <si>
-    <t>Heidi of the Hills Cheese, 4.8-5.8 oz</t>
-  </si>
-  <si>
-    <t>4.8-5.8 oz</t>
-  </si>
-  <si>
-    <t>A clean buttery flavor is taken to complex depths with an earthy mushroom savoriness. Made in the style of European Alpine Cheeses, similar to Gruyere or Comte. Aged 12 months, with a salty bite, enjoy sliced or grated. This is an excellent choice to use with quiches, potatoes, ham, tarts or on top of any pasta. Pairs well with white wine, such as Riesling.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese</t>
-  </si>
-  <si>
-    <t>Heidi of the Hills Cheese, 5.9-6.9 oz</t>
-  </si>
-  <si>
-    <t>5.9-6.9 oz</t>
-  </si>
-  <si>
-    <t>Heidi of the Hills Cheese, 7.1-8.3 oz</t>
-  </si>
-  <si>
-    <t>7.1-8.3 oz</t>
-  </si>
-  <si>
-    <t>Henni Penni Hispanico Special 18 month Reserve, 4.8-5.8 oz</t>
-  </si>
-  <si>
-    <t>This special 18-month aged, natural rind, hard cheese is sure to please! Similar to a well-aged Parmesan or Romano, it boasts a funky sharpness, balanced by flavors of caramel and nuts. This cheese is excellent grated on pasta, risotto, salad, or would be a welcome addition to any cheeseboard.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.Henni Penni was with us for 10 years! Mother to many, we loved her dearly. She was an all-star milker and was beautiful with a sturdy build and a dark amber coat. Her off-spring Hibiscus &amp; Hazelnut still provide beautifully for us on the farm.</t>
-  </si>
-  <si>
-    <t>Henni Penni Hispanico Special 18 Month Reserve, 5.9-6.9 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henni Penni Hispanico Special 18 Month Reserve, 7-8 oz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-8 oz </t>
-  </si>
-  <si>
-    <t>Hestia Feta Cheese (4.8–5.8 oz)</t>
-  </si>
-  <si>
-    <t>4.8–5.8 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Feta is firm and salty, with a smooth, creamy finish. A touch of tang and a pleasant aroma greet you with every bite.
-Perfect for making Spanakopita, crumbling over pasta or salads, pairing with roasted vegetables, or whipping into a spread for crusty bread.
-Here at the farm, we cherish the idea of home—so much so that one of our cows is named Hestia, after the Greek goddess of the hearth and family.
-This Feta is a special piece of our home, from our family to yours.
-Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into your experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.</t>
-  </si>
-  <si>
-    <t>Hestia Feta Cheese (5.9–6.9 oz)</t>
-  </si>
-  <si>
-    <t>5.9–6.9 oz</t>
-  </si>
-  <si>
-    <t>Live Culture Yogurt, 1 quart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
-Purchase of raw dairy products requires you to agree to our product liability agreement .</t>
-  </si>
-  <si>
-    <t>Live Culture Yogurt, 8oz</t>
-  </si>
-  <si>
-    <t>Live Culture Yogurt, glass jar 1 pint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
-Purchase of raw dairy products requires you to agree to our product liability agreement .
-$3 jar return! These come in customized pint jars that you can decide to keep or return for $3 credit back to your account. Just slip a paper with your name in it upon return.</t>
-  </si>
-  <si>
-    <t>Lucianna Toma Rustica Cheese, 7.5-8.8 oz</t>
-  </si>
-  <si>
-    <t>7.5-8.8 oz</t>
-  </si>
-  <si>
-    <t>This 4-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
-  </si>
-  <si>
-    <t>Lucianna Toma Rustica, 5-5.9 oz</t>
-  </si>
-  <si>
-    <t>5-5.9 oz</t>
-  </si>
-  <si>
-    <t>This 6-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
-  </si>
-  <si>
-    <t>Lucianna Toma Rustica, 6-7.4 oz</t>
-  </si>
-  <si>
-    <t>6-7.4 oz</t>
-  </si>
-  <si>
-    <t>Ophelia Asiago - Special 12 month Aged, 5.8-6.8 oz</t>
-  </si>
-  <si>
-    <t>5.8-6.8 oz</t>
-  </si>
-  <si>
-    <t>With a peppery bite, and a fruity grassy smokiness, this cheese has developed character over 12 months. Small pockets of crystals add little bursts of umami. Pleasantly crumbly, it is perfect for grating over many dishes such as salads, pastas, and soups, but also stands on its own on any cheese board.</t>
-  </si>
-  <si>
-    <t>Ophelia Asiago Cheese - Limited, 5.9-7.1 oz</t>
-  </si>
-  <si>
-    <t>5.9-7.1 oz</t>
-  </si>
-  <si>
-    <t>LIMITED!! From the green pastures of the Willamette Valley of Oregon, comes this 8 month aged, naturally rinded, Asiago-style cheese. It is fruity, pleasantly sharp, and savory that is great on its own or accompanying some bread, pasta, or vegetables. Slice off a piece or grate it over your favorite meal!Ophelia has been with us from the early days! Like this is the first variety of our burgeoning aged cheese line, Ophelia is the mother of many of our dairy cows. A steadfast member of the herd, we can always rely on her matronly lead.Each of our cheeses is named after one of our beloved dairy cows. It’s an homage to where our milk comes from and an opportunity for you to get to know each of these wonderful ladies.</t>
-  </si>
-  <si>
-    <t>Raw A2/A2 Milk</t>
-  </si>
-  <si>
-    <t>1/2 gallon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2/A2 milk is a type of milk that is believed to be easier to digest than regular milk, making it a good choice for people who are lactose intolerant or have trouble digesting regular milk. A2/A2 milk is produced by cows that have been selectively bred to only produce the A2 protein. We have a 4 A2/A2 cows that are producing a limited quantity of this milk just for our FFCSA Herd Share members! The price includes a $3 bottle deposit that is credited to your account when returned.
-Purchase of raw dairy products requires you to agree to our product liability agreement.</t>
-  </si>
-  <si>
-    <t>Raw Cultured Butter</t>
-  </si>
-  <si>
-    <t>0.5 lbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tangy and probiotic rich superfood, delicious on toast, melted on veggies or used in baked goods. 1/2 pound cakes, frozen.
-Purchase of raw dairy products requires you to agree to our product liability agreement  .</t>
-  </si>
-  <si>
-    <t>Raw Cultured Buttermilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A great way to get in extra probiotics, it is delicious, drink it straight from the jar or used in baking.
-Purchase of raw dairy products requires you to agree to our product liability agreement  . </t>
-  </si>
-  <si>
-    <t>Raw Farmer's Cheese</t>
-  </si>
-  <si>
-    <t>12 oz raw, handmade cheese!This soft, spreadable cheese is slightly crumbly with a fantastic smooth texture akin to chevre. It is slightly tangy but ultimately mild in flavor - great for burritos, sandwiches, bagels, or freshly baked bread!</t>
-  </si>
-  <si>
-    <t>Raw Fresh Sweet Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh cream contains a significant amount of Vitamin B2, which encourages good health in the body. So good in coffee, whipped into cream. Add it to iced beverages for a decadent treat.
-Purchase of raw dairy products requires you to agree to our product liability agreement   . </t>
-  </si>
-  <si>
-    <t>Raw Fresh Whole Milk, 1/2 gallon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cream on top. A complete, natural food containing more amino acids, antimicrobials, vitamins, minerals, and fatty acids than pasteurized milk.There is a $3 deposit included in the "value" of this item. Return the jar clean and dry to the following locations, with the plastic lid, and receive $3 back!1. Any Deck Family Farm farmers market booth2. Deck Family Farm "FFCSA jar return tote" with your name on a slip of paper inside3. Your designated drop site with your name on a slip of paper insidePurchase of raw dairy products requires you to agree to our product liability agreement . </t>
-  </si>
-  <si>
-    <t>Raw Fresh Whole Milk, 1/4 gallon</t>
-  </si>
-  <si>
-    <t>1/4 gallon</t>
-  </si>
-  <si>
-    <t>Raw Sweet Cream Butter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deck Family Farm's butter is made from organic pasture raised Jersey cows. Have you ever wondered what the benefits of raw butter are? Fat from Raw (unpasteurized) butter:Contains Omega-3 fatty acidsIs absorbed immediately by the small intestines and liver where it is turned into energy.Full of immune boosting fat soluble vitamins only found in saturated animal fats, including A, B6, B12, K, &amp; DContains Lauric Acid (also found in breast milk and coconut milk) and a is great source of healthy cholesterol and antioxidants.
-Purchase of raw dairy products requires you to agree to our product liability agreement     . </t>
-  </si>
-  <si>
-    <t>Raw Whey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made with raw cows milk, and packed with protein, vitamins, minerals and enzymes, this raw "sweet" whey is made during the cheese making process when it separates from the curds. Because it is has never been heated, all the beneficial enzymes are still intact. There are a limitless number of ways to go about getting it in your diet, but here are a few ideas: ~Use it as a substitute for milk in baking~Use to kickstart lacto-fermented vegetables/pickles~Use for soaking grains and legumes to make it them more digestible (more on that here https://nourishedkitchen.com/soaking-grains/)~Add to smoothies or milkshakes~Use in meat marinades with your favorite herbs, the enzymes will help break down the proteins~Make a pie!
-Purchase of raw dairy products requires you to agree to our product liability agreement      . </t>
-  </si>
-  <si>
-    <t>Sour Cream</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This thick, rich sour cream is perfect to dollop onto soups or into spicy burritos!
-Purchase of raw dairy products requires you to agree to our product liability agreement  . </t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Classic Beef Broth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This thick, concentrated broth is gelatinous and full of flavor — simply dilute with water to your desired consistency. Lightly salted to enhance its naturally rich, umami profile, it's made with roasted bones, fresh vegetables, and aromatic herbs for a deep, satisfying taste.
-Perfect as a base for pho, soups, stews, risotto, or just sip on its own.
-Ingredients: Water, Beef Bones, Onion, Carrot, Celery, Garlic, Salt, Thyme, Apple Cider Vinegar, Black Peppercorns, Bay Leaf</t>
-  </si>
-  <si>
-    <t>Classic Pork Broth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This thick, concentrated broth is gelatinous and full of flavor — simply dilute with water to your desired consistency. Lightly salted to enhance its naturally rich, umami profile, it's made with roasted bones, fresh vegetables, and aromatic herbs for a deep, satisfying taste.
-Perfect as a base for ramen, soups, stews, risotto, or just sip on its own.
-Ingredients: Pork Bones, Water, Onion, Carrot, Celery, Garlic, Salt, Thyme, Apple Cider Vinegar, Black Peppercorns, Bay Leaf</t>
   </si>
   <si>
     <t>Swedish Sausage Potato Dumplings</t>
@@ -1347,6 +1108,242 @@
 Suggested Sides: Braised Cabbage, Sauerkraut, Green Salad, Roasted Vegetables, Sautéed Mushrooms
 Ingredients: Dough: Potatoes, Unbleached Flour (Niacin, Reduced Iron, Thiamine, Mononitrate, Riboflavin and Folic Acid), Eggs, Salt Filling: Pork, Oats, Onion, Sea Salt, Fresh Garlic, Fresh Rosemary, Fresh Thyme, Black Pepper, Nutmeg, Marjoram, Cloves, Allspice
 Contains: Wheat, Eggs</t>
+  </si>
+  <si>
+    <t>Thai Curry Sausage Links</t>
+  </si>
+  <si>
+    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
+    <t>Creamy Cow Dairy</t>
+  </si>
+  <si>
+    <t>Catalan Paprika-Rubbed Cheese, 4.2-5.2 oz</t>
+  </si>
+  <si>
+    <t>4.2-5.2 oz</t>
+  </si>
+  <si>
+    <t>This delicious cheese is aged for 4 months and generously rubbed with paprika and extra-virgin olive oil, with a beautiful marbling of paprika throughout. Boasting a creamy texture and a slightly grassy, yet mild, buttery flavor. Its beautiful red rind adds an earthy, smoky crust, making it a delight for the senses. Enjoy this cheese with olives, almonds, tinned fish, or fresh or dried fruit. For the perfect pairing, savor it with an oaky chardonnay, a fruity pinot noir, or a dry cider.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Catalan, with her unique "spice," embodies a blend of sweetness, determination, and an undeniable love for food.</t>
+  </si>
+  <si>
+    <t>Catalan Paprika-Rubbed Cheese, 5.3-6.3 oz</t>
+  </si>
+  <si>
+    <t>5.3-6.3 oz</t>
+  </si>
+  <si>
+    <t>Catalan Paprika-Rubbed Cheese, 6.4-7.4 oz</t>
+  </si>
+  <si>
+    <t>6.4-7.4 oz</t>
+  </si>
+  <si>
+    <t>Gogo Gouda, 5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t>5.9 -6.9 oz</t>
+  </si>
+  <si>
+    <t>Gouda! A wonderfully versatile cheese. This young 4-month aged version has a sweet aroma and a smooth fudgy texture. It is buttery with a tangy nutty flavor. Perfect as a snacking cheese or melted onto your favorite sandwich. Pairs well with fruit jams, smoked meats, breads, Riesling, Chardonnay, or a crisp amber ale.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into your experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.Like this cheese, Gogo is young and springy! She always makes sure to come say hi out in the field and is often found nuzzling up on you in the most inopportune times. One of our loveliest and most friendly cows for sure!</t>
+  </si>
+  <si>
+    <t>Gogo Gouda, 7.0-8.0 oz</t>
+  </si>
+  <si>
+    <t>7.0-8.0 oz</t>
+  </si>
+  <si>
+    <t>Heidi of the Hills Cheese, 4.8-5.8 oz</t>
+  </si>
+  <si>
+    <t>4.8-5.8 oz</t>
+  </si>
+  <si>
+    <t>A clean buttery flavor is taken to complex depths with an earthy mushroom savoriness. Made in the style of European Alpine Cheeses, similar to Gruyere or Comte. Aged 12 months, with a salty bite, enjoy sliced or grated. This is an excellent choice to use with quiches, potatoes, ham, tarts or on top of any pasta. Pairs well with white wine, such as Riesling.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese</t>
+  </si>
+  <si>
+    <t>Heidi of the Hills Cheese, 5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t>5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t>Heidi of the Hills Cheese, 7.1-8.3 oz</t>
+  </si>
+  <si>
+    <t>7.1-8.3 oz</t>
+  </si>
+  <si>
+    <t>Henni Penni Hispanico Special 18 month Reserve, 4.8-5.8 oz</t>
+  </si>
+  <si>
+    <t>This special 18-month aged, natural rind, hard cheese is sure to please! Similar to a well-aged Parmesan or Romano, it boasts a funky sharpness, balanced by flavors of caramel and nuts. This cheese is excellent grated on pasta, risotto, salad, or would be a welcome addition to any cheeseboard.Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.Henni Penni was with us for 10 years! Mother to many, we loved her dearly. She was an all-star milker and was beautiful with a sturdy build and a dark amber coat. Her off-spring Hibiscus &amp; Hazelnut still provide beautifully for us on the farm.</t>
+  </si>
+  <si>
+    <t>Henni Penni Hispanico Special 18 Month Reserve, 5.9-6.9 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henni Penni Hispanico Special 18 Month Reserve, 7-8 oz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8 oz </t>
+  </si>
+  <si>
+    <t>Hestia Feta Cheese (4.8–5.8 oz)</t>
+  </si>
+  <si>
+    <t>4.8–5.8 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Feta is firm and salty, with a smooth, creamy finish. A touch of tang and a pleasant aroma greet you with every bite.
+Perfect for making Spanakopita, crumbling over pasta or salads, pairing with roasted vegetables, or whipping into a spread for crusty bread.
+Here at the farm, we cherish the idea of home—so much so that one of our cows is named Hestia, after the Greek goddess of the hearth and family.
+This Feta is a special piece of our home, from our family to yours.
+Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into your experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese.</t>
+  </si>
+  <si>
+    <t>Hestia Feta Cheese (5.9–6.9 oz)</t>
+  </si>
+  <si>
+    <t>5.9–6.9 oz</t>
+  </si>
+  <si>
+    <t>Live Culture Yogurt, 1 quart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
+Purchase of raw dairy products requires you to agree to our product liability agreement .</t>
+  </si>
+  <si>
+    <t>Live Culture Yogurt, 8oz</t>
+  </si>
+  <si>
+    <t>Live Culture Yogurt, glass jar 1 pint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live cultures are used, this means that gut-friendly bacteria are used to convert the milk to yogurt during fermentation. Eating a live yogurt means that you will be consuming live and active cultures that help your body's natural gut bacteria balance.
+Purchase of raw dairy products requires you to agree to our product liability agreement .
+$3 jar return! These come in customized pint jars that you can decide to keep or return for $3 credit back to your account. Just slip a paper with your name in it upon return.</t>
+  </si>
+  <si>
+    <t>Lucianna Toma Rustica Cheese, 7.5-8.8 oz</t>
+  </si>
+  <si>
+    <t>7.5-8.8 oz</t>
+  </si>
+  <si>
+    <t>This 4-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
+  </si>
+  <si>
+    <t>Lucianna Toma Rustica, 5-5.9 oz</t>
+  </si>
+  <si>
+    <t>5-5.9 oz</t>
+  </si>
+  <si>
+    <t>This 6-month aged, raw, cows' milk cheese has a complex buttery flavor which boasts an earthy aroma, firm creamy texture, and a natural golden hue. Pairing well with fruits and red wine, this makes an excellent all-around table cheese, or even on a toasty sandwich. The Toma(or Tomme)-style cheese originates in the mountains of France, Switzerland, and Italy. It has a history of being versatile in character, and always delicious!Our cheeses embody the individual stories and distinct personalities of our cows, infusing a bit of their endearing nature into our customers' experience. The exceptional quality of their milk, a result of the love and respect our cows receive, is reflected in every bite of our cheese. Lucianna is one of our newer young heifers. A rambunctious personality, balanced by sweet affection. We are as excited as you are to watch this little girl grow up!</t>
+  </si>
+  <si>
+    <t>Lucianna Toma Rustica, 6-7.4 oz</t>
+  </si>
+  <si>
+    <t>6-7.4 oz</t>
+  </si>
+  <si>
+    <t>Ophelia Asiago - Special 12 month Aged, 5.8-6.8 oz</t>
+  </si>
+  <si>
+    <t>5.8-6.8 oz</t>
+  </si>
+  <si>
+    <t>With a peppery bite, and a fruity grassy smokiness, this cheese has developed character over 12 months. Small pockets of crystals add little bursts of umami. Pleasantly crumbly, it is perfect for grating over many dishes such as salads, pastas, and soups, but also stands on its own on any cheese board.</t>
+  </si>
+  <si>
+    <t>Ophelia Asiago Cheese - Limited, 5.9-7.1 oz</t>
+  </si>
+  <si>
+    <t>5.9-7.1 oz</t>
+  </si>
+  <si>
+    <t>LIMITED!! From the green pastures of the Willamette Valley of Oregon, comes this 8 month aged, naturally rinded, Asiago-style cheese. It is fruity, pleasantly sharp, and savory that is great on its own or accompanying some bread, pasta, or vegetables. Slice off a piece or grate it over your favorite meal!Ophelia has been with us from the early days! Like this is the first variety of our burgeoning aged cheese line, Ophelia is the mother of many of our dairy cows. A steadfast member of the herd, we can always rely on her matronly lead.Each of our cheeses is named after one of our beloved dairy cows. It’s an homage to where our milk comes from and an opportunity for you to get to know each of these wonderful ladies.</t>
+  </si>
+  <si>
+    <t>Raw A2/A2 Milk</t>
+  </si>
+  <si>
+    <t>1/2 gallon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2/A2 milk is a type of milk that is believed to be easier to digest than regular milk, making it a good choice for people who are lactose intolerant or have trouble digesting regular milk. A2/A2 milk is produced by cows that have been selectively bred to only produce the A2 protein. We have a 4 A2/A2 cows that are producing a limited quantity of this milk just for our FFCSA Herd Share members! The price includes a $3 bottle deposit that is credited to your account when returned.
+Purchase of raw dairy products requires you to agree to our product liability agreement.</t>
+  </si>
+  <si>
+    <t>Raw Cultured Butter</t>
+  </si>
+  <si>
+    <t>0.5 lbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tangy and probiotic rich superfood, delicious on toast, melted on veggies or used in baked goods. 1/2 pound cakes, frozen.
+Purchase of raw dairy products requires you to agree to our product liability agreement  .</t>
+  </si>
+  <si>
+    <t>Raw Cultured Buttermilk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great way to get in extra probiotics, it is delicious, drink it straight from the jar or used in baking.
+Purchase of raw dairy products requires you to agree to our product liability agreement  . </t>
+  </si>
+  <si>
+    <t>Raw Farmer's Cheese</t>
+  </si>
+  <si>
+    <t>12 oz raw, handmade cheese!This soft, spreadable cheese is slightly crumbly with a fantastic smooth texture akin to chevre. It is slightly tangy but ultimately mild in flavor - great for burritos, sandwiches, bagels, or freshly baked bread!</t>
+  </si>
+  <si>
+    <t>Raw Fresh Sweet Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh cream contains a significant amount of Vitamin B2, which encourages good health in the body. So good in coffee, whipped into cream. Add it to iced beverages for a decadent treat.
+Purchase of raw dairy products requires you to agree to our product liability agreement   . </t>
+  </si>
+  <si>
+    <t>Raw Fresh Whole Milk, 1/2 gallon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream on top. A complete, natural food containing more amino acids, antimicrobials, vitamins, minerals, and fatty acids than pasteurized milk.There is a $3 deposit included in the "value" of this item. Return the jar clean and dry to the following locations, with the plastic lid, and receive $3 back!1. Any Deck Family Farm farmers market booth2. Deck Family Farm "FFCSA jar return tote" with your name on a slip of paper inside3. Your designated drop site with your name on a slip of paper insidePurchase of raw dairy products requires you to agree to our product liability agreement . </t>
+  </si>
+  <si>
+    <t>Raw Fresh Whole Milk, 1/4 gallon</t>
+  </si>
+  <si>
+    <t>1/4 gallon</t>
+  </si>
+  <si>
+    <t>Raw Sweet Cream Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deck Family Farm's butter is made from organic pasture raised Jersey cows. Have you ever wondered what the benefits of raw butter are? Fat from Raw (unpasteurized) butter:Contains Omega-3 fatty acidsIs absorbed immediately by the small intestines and liver where it is turned into energy.Full of immune boosting fat soluble vitamins only found in saturated animal fats, including A, B6, B12, K, &amp; DContains Lauric Acid (also found in breast milk and coconut milk) and a is great source of healthy cholesterol and antioxidants.
+Purchase of raw dairy products requires you to agree to our product liability agreement     . </t>
+  </si>
+  <si>
+    <t>Raw Whey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made with raw cows milk, and packed with protein, vitamins, minerals and enzymes, this raw "sweet" whey is made during the cheese making process when it separates from the curds. Because it is has never been heated, all the beneficial enzymes are still intact. There are a limitless number of ways to go about getting it in your diet, but here are a few ideas: ~Use it as a substitute for milk in baking~Use to kickstart lacto-fermented vegetables/pickles~Use for soaking grains and legumes to make it them more digestible (more on that here https://nourishedkitchen.com/soaking-grains/)~Add to smoothies or milkshakes~Use in meat marinades with your favorite herbs, the enzymes will help break down the proteins~Make a pie!
+Purchase of raw dairy products requires you to agree to our product liability agreement      . </t>
+  </si>
+  <si>
+    <t>Sour Cream</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This thick, rich sour cream is perfect to dollop onto soups or into spicy burritos!
+Purchase of raw dairy products requires you to agree to our product liability agreement  . </t>
   </si>
   <si>
     <t>values</t>
@@ -6719,7 +6716,7 @@
         <v>132</v>
       </c>
       <c r="F77" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2">
         <v>1.1</v>
@@ -6731,19 +6728,19 @@
         <v>24</v>
       </c>
       <c r="J77" s="1">
-        <v>12.35</v>
+        <v>10.4</v>
       </c>
       <c r="K77" s="1">
-        <v>23.75</v>
+        <v>20</v>
       </c>
       <c r="L77" s="1">
-        <v>12.85</v>
+        <v>10.82</v>
       </c>
       <c r="M77" s="1">
-        <v>21.3</v>
+        <v>17.94</v>
       </c>
       <c r="N77" s="1">
-        <v>24.94</v>
+        <v>21</v>
       </c>
       <c r="O77" s="3">
         <v>0.0499</v>
@@ -6784,7 +6781,7 @@
         <v>229</v>
       </c>
       <c r="F78" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2">
         <v>2</v>
@@ -6796,19 +6793,19 @@
         <v>24</v>
       </c>
       <c r="J78" s="1">
-        <v>12.35</v>
+        <v>10.4</v>
       </c>
       <c r="K78" s="1">
-        <v>42.75</v>
+        <v>36</v>
       </c>
       <c r="L78" s="1">
-        <v>23.14</v>
+        <v>19.48</v>
       </c>
       <c r="M78" s="1">
-        <v>38.35</v>
+        <v>32.29</v>
       </c>
       <c r="N78" s="1">
-        <v>44.88</v>
+        <v>37.8</v>
       </c>
       <c r="O78" s="3">
         <v>0.0499</v>
@@ -8129,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="U98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -9369,10 +9366,10 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B118">
-        <v>840822</v>
+        <v>1011877</v>
       </c>
       <c r="C118" t="s">
         <v>305</v>
@@ -9381,34 +9378,34 @@
         <v>323</v>
       </c>
       <c r="E118" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="F118" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="G118" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H118" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
         <v>50</v>
       </c>
       <c r="J118" s="1">
-        <v>13</v>
+        <v>9.43</v>
       </c>
       <c r="K118" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="L118" s="1">
-        <v>10.82</v>
+        <v>7.85</v>
       </c>
       <c r="M118" s="1">
-        <v>17.94</v>
+        <v>13.01</v>
       </c>
       <c r="N118" s="1">
-        <v>21</v>
+        <v>15.22</v>
       </c>
       <c r="O118" s="3">
         <v>0.0499</v>
@@ -9417,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R118" t="s">
         <v>324</v>
@@ -9429,15 +9426,15 @@
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B119">
-        <v>913653</v>
+        <v>1011876</v>
       </c>
       <c r="C119" t="s">
         <v>305</v>
@@ -9446,34 +9443,34 @@
         <v>325</v>
       </c>
       <c r="E119" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
       <c r="F119" s="1">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="G119" s="2">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="H119" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I119" t="s">
         <v>50</v>
       </c>
       <c r="J119" s="1">
-        <v>9.75</v>
+        <v>9.43</v>
       </c>
       <c r="K119" s="1">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="L119" s="1">
-        <v>8.12</v>
+        <v>7.85</v>
       </c>
       <c r="M119" s="1">
-        <v>13.45</v>
+        <v>13.01</v>
       </c>
       <c r="N119" s="1">
-        <v>15.75</v>
+        <v>15.22</v>
       </c>
       <c r="O119" s="3">
         <v>0.0499</v>
@@ -9482,10 +9479,10 @@
         <v>1</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S119" t="s">
         <v>30</v>
@@ -9494,21 +9491,21 @@
         <v>0</v>
       </c>
       <c r="U119" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B120">
-        <v>818963</v>
+        <v>840822</v>
       </c>
       <c r="C120" t="s">
         <v>305</v>
       </c>
       <c r="D120" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E120" t="s">
         <v>307</v>
@@ -9550,7 +9547,7 @@
         <v>25</v>
       </c>
       <c r="R120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S120" t="s">
         <v>30</v>
@@ -9564,46 +9561,46 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B121">
-        <v>871143</v>
+        <v>913653</v>
       </c>
       <c r="C121" t="s">
         <v>305</v>
       </c>
       <c r="D121" t="s">
+        <v>329</v>
+      </c>
+      <c r="E121" t="s">
         <v>330</v>
       </c>
-      <c r="E121" t="s">
-        <v>307</v>
-      </c>
       <c r="F121" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H121" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I121" t="s">
         <v>50</v>
       </c>
       <c r="J121" s="1">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K121" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L121" s="1">
-        <v>10.82</v>
+        <v>8.12</v>
       </c>
       <c r="M121" s="1">
-        <v>17.94</v>
+        <v>13.45</v>
       </c>
       <c r="N121" s="1">
-        <v>21</v>
+        <v>15.75</v>
       </c>
       <c r="O121" s="3">
         <v>0.0499</v>
@@ -9629,10 +9626,10 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>913648</v>
+        <v>818963</v>
       </c>
       <c r="C122" t="s">
         <v>305</v>
@@ -9641,34 +9638,34 @@
         <v>332</v>
       </c>
       <c r="E122" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="F122" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G122" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H122" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I122" t="s">
         <v>50</v>
       </c>
       <c r="J122" s="1">
-        <v>15.6</v>
+        <v>13</v>
       </c>
       <c r="K122" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L122" s="1">
-        <v>12.99</v>
+        <v>10.82</v>
       </c>
       <c r="M122" s="1">
-        <v>21.53</v>
+        <v>17.94</v>
       </c>
       <c r="N122" s="1">
-        <v>25.2</v>
+        <v>21</v>
       </c>
       <c r="O122" s="3">
         <v>0.0499</v>
@@ -9680,7 +9677,7 @@
         <v>25</v>
       </c>
       <c r="R122" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="S122" t="s">
         <v>30</v>
@@ -9689,15 +9686,15 @@
         <v>0</v>
       </c>
       <c r="U122" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B123">
-        <v>805663</v>
+        <v>871143</v>
       </c>
       <c r="C123" t="s">
         <v>305</v>
@@ -9706,16 +9703,16 @@
         <v>334</v>
       </c>
       <c r="E123" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="F123" s="1">
         <v>20</v>
       </c>
       <c r="G123" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H123" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
         <v>50</v>
@@ -9745,7 +9742,7 @@
         <v>25</v>
       </c>
       <c r="R123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S123" t="s">
         <v>30</v>
@@ -9759,46 +9756,46 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B124">
-        <v>941045</v>
+        <v>913648</v>
       </c>
       <c r="C124" t="s">
         <v>305</v>
       </c>
       <c r="D124" t="s">
+        <v>336</v>
+      </c>
+      <c r="E124" t="s">
         <v>337</v>
       </c>
-      <c r="E124" t="s">
-        <v>243</v>
-      </c>
       <c r="F124" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G124" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H124" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I124" t="s">
         <v>50</v>
       </c>
       <c r="J124" s="1">
-        <v>6.5</v>
+        <v>15.6</v>
       </c>
       <c r="K124" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L124" s="1">
-        <v>5.41</v>
+        <v>12.99</v>
       </c>
       <c r="M124" s="1">
-        <v>8.97</v>
+        <v>21.53</v>
       </c>
       <c r="N124" s="1">
-        <v>10.5</v>
+        <v>25.2</v>
       </c>
       <c r="O124" s="3">
         <v>0.0499</v>
@@ -9810,7 +9807,7 @@
         <v>25</v>
       </c>
       <c r="R124" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="S124" t="s">
         <v>30</v>
@@ -9819,15 +9816,15 @@
         <v>0</v>
       </c>
       <c r="U124" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B125">
-        <v>805651</v>
+        <v>805663</v>
       </c>
       <c r="C125" t="s">
         <v>305</v>
@@ -9836,10 +9833,10 @@
         <v>338</v>
       </c>
       <c r="E125" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F125" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G125" s="2">
         <v>16</v>
@@ -9851,19 +9848,19 @@
         <v>50</v>
       </c>
       <c r="J125" s="1">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="K125" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L125" s="1">
-        <v>8.12</v>
+        <v>10.82</v>
       </c>
       <c r="M125" s="1">
-        <v>13.45</v>
+        <v>17.94</v>
       </c>
       <c r="N125" s="1">
-        <v>15.75</v>
+        <v>21</v>
       </c>
       <c r="O125" s="3">
         <v>0.0499</v>
@@ -9875,7 +9872,7 @@
         <v>25</v>
       </c>
       <c r="R125" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S125" t="s">
         <v>30</v>
@@ -9884,21 +9881,21 @@
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B126">
-        <v>941062</v>
+        <v>941045</v>
       </c>
       <c r="C126" t="s">
         <v>305</v>
       </c>
       <c r="D126" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E126" t="s">
         <v>243</v>
@@ -9940,7 +9937,7 @@
         <v>25</v>
       </c>
       <c r="R126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S126" t="s">
         <v>30</v>
@@ -9949,27 +9946,27 @@
         <v>0</v>
       </c>
       <c r="U126" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127">
-        <v>929464</v>
+        <v>805651</v>
       </c>
       <c r="C127" t="s">
         <v>305</v>
       </c>
       <c r="D127" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E127" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F127" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2">
         <v>16</v>
@@ -9981,19 +9978,19 @@
         <v>50</v>
       </c>
       <c r="J127" s="1">
-        <v>10.4</v>
+        <v>9.75</v>
       </c>
       <c r="K127" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L127" s="1">
-        <v>8.66</v>
+        <v>8.12</v>
       </c>
       <c r="M127" s="1">
-        <v>14.35</v>
+        <v>13.45</v>
       </c>
       <c r="N127" s="1">
-        <v>16.8</v>
+        <v>15.75</v>
       </c>
       <c r="O127" s="3">
         <v>0.0499</v>
@@ -10005,7 +10002,7 @@
         <v>25</v>
       </c>
       <c r="R127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S127" t="s">
         <v>30</v>
@@ -10014,21 +10011,21 @@
         <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B128">
-        <v>805665</v>
+        <v>941062</v>
       </c>
       <c r="C128" t="s">
         <v>305</v>
       </c>
       <c r="D128" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E128" t="s">
         <v>243</v>
@@ -10070,7 +10067,7 @@
         <v>25</v>
       </c>
       <c r="R128" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S128" t="s">
         <v>30</v>
@@ -10079,51 +10076,51 @@
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B129">
-        <v>900310</v>
+        <v>929464</v>
       </c>
       <c r="C129" t="s">
         <v>305</v>
       </c>
       <c r="D129" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E129" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F129" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H129" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I129" t="s">
         <v>50</v>
       </c>
       <c r="J129" s="1">
-        <v>14.3</v>
+        <v>10.4</v>
       </c>
       <c r="K129" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L129" s="1">
-        <v>11.91</v>
+        <v>8.66</v>
       </c>
       <c r="M129" s="1">
-        <v>19.73</v>
+        <v>14.35</v>
       </c>
       <c r="N129" s="1">
-        <v>23.1</v>
+        <v>16.8</v>
       </c>
       <c r="O129" s="3">
         <v>0.0499</v>
@@ -10135,7 +10132,7 @@
         <v>25</v>
       </c>
       <c r="R129" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S129" t="s">
         <v>30</v>
@@ -10144,51 +10141,51 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B130">
-        <v>913650</v>
+        <v>805665</v>
       </c>
       <c r="C130" t="s">
         <v>305</v>
       </c>
       <c r="D130" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E130" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="F130" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H130" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I130" t="s">
         <v>50</v>
       </c>
       <c r="J130" s="1">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="K130" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L130" s="1">
-        <v>10.82</v>
+        <v>5.41</v>
       </c>
       <c r="M130" s="1">
-        <v>17.94</v>
+        <v>8.97</v>
       </c>
       <c r="N130" s="1">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="O130" s="3">
         <v>0.0499</v>
@@ -10200,7 +10197,7 @@
         <v>25</v>
       </c>
       <c r="R130" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S130" t="s">
         <v>30</v>
@@ -10214,46 +10211,46 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B131">
-        <v>911651</v>
+        <v>900310</v>
       </c>
       <c r="C131" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" t="s">
         <v>348</v>
       </c>
-      <c r="D131" t="s">
-        <v>349</v>
-      </c>
       <c r="E131" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="F131" s="1">
-        <v>16.6</v>
+        <v>22</v>
       </c>
       <c r="G131" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H131" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I131" t="s">
         <v>50</v>
       </c>
       <c r="J131" s="1">
-        <v>10.79</v>
+        <v>14.3</v>
       </c>
       <c r="K131" s="1">
-        <v>16.6</v>
+        <v>22</v>
       </c>
       <c r="L131" s="1">
-        <v>8.98</v>
+        <v>11.91</v>
       </c>
       <c r="M131" s="1">
-        <v>14.89</v>
+        <v>19.73</v>
       </c>
       <c r="N131" s="1">
-        <v>17.43</v>
+        <v>23.1</v>
       </c>
       <c r="O131" s="3">
         <v>0.0499</v>
@@ -10262,13 +10259,13 @@
         <v>1</v>
       </c>
       <c r="Q131" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R131" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S131" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -10279,22 +10276,22 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B132">
-        <v>911647</v>
+        <v>1011872</v>
       </c>
       <c r="C132" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="D132" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E132" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F132" s="1">
-        <v>20.77</v>
+        <v>20</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -10306,19 +10303,19 @@
         <v>50</v>
       </c>
       <c r="J132" s="1">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K132" s="1">
-        <v>20.77</v>
+        <v>20</v>
       </c>
       <c r="L132" s="1">
-        <v>11.24</v>
+        <v>10.82</v>
       </c>
       <c r="M132" s="1">
-        <v>18.63</v>
+        <v>17.94</v>
       </c>
       <c r="N132" s="1">
-        <v>21.81</v>
+        <v>21</v>
       </c>
       <c r="O132" s="3">
         <v>0.0499</v>
@@ -10327,63 +10324,63 @@
         <v>1</v>
       </c>
       <c r="Q132" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R132" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S132" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T132">
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B133">
-        <v>911648</v>
+        <v>913650</v>
       </c>
       <c r="C133" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="D133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E133" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="F133" s="1">
-        <v>21.88</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H133" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I133" t="s">
         <v>50</v>
       </c>
       <c r="J133" s="1">
-        <v>14.22</v>
+        <v>13</v>
       </c>
       <c r="K133" s="1">
-        <v>21.88</v>
+        <v>20</v>
       </c>
       <c r="L133" s="1">
-        <v>11.84</v>
+        <v>10.82</v>
       </c>
       <c r="M133" s="1">
-        <v>19.63</v>
+        <v>17.94</v>
       </c>
       <c r="N133" s="1">
-        <v>22.97</v>
+        <v>21</v>
       </c>
       <c r="O133" s="3">
         <v>0.0499</v>
@@ -10392,30 +10389,30 @@
         <v>1</v>
       </c>
       <c r="Q133" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R133" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="S133" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T133">
         <v>0</v>
       </c>
       <c r="U133" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B134">
-        <v>957423</v>
+        <v>911651</v>
       </c>
       <c r="C134" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D134" t="s">
         <v>356</v>
@@ -10424,7 +10421,7 @@
         <v>357</v>
       </c>
       <c r="F134" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -10436,19 +10433,19 @@
         <v>50</v>
       </c>
       <c r="J134" s="1">
-        <v>12.5</v>
+        <v>10.79</v>
       </c>
       <c r="K134" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="L134" s="1">
-        <v>10.41</v>
+        <v>8.98</v>
       </c>
       <c r="M134" s="1">
-        <v>17.25</v>
+        <v>14.89</v>
       </c>
       <c r="N134" s="1">
-        <v>20.19</v>
+        <v>17.43</v>
       </c>
       <c r="O134" s="3">
         <v>0.0499</v>
@@ -10474,13 +10471,13 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B135">
-        <v>957424</v>
+        <v>911647</v>
       </c>
       <c r="C135" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
         <v>359</v>
@@ -10489,7 +10486,7 @@
         <v>360</v>
       </c>
       <c r="F135" s="1">
-        <v>21.88</v>
+        <v>20.77</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -10501,19 +10498,19 @@
         <v>50</v>
       </c>
       <c r="J135" s="1">
-        <v>14.22</v>
+        <v>13.5</v>
       </c>
       <c r="K135" s="1">
-        <v>21.88</v>
+        <v>20.77</v>
       </c>
       <c r="L135" s="1">
-        <v>11.84</v>
+        <v>11.24</v>
       </c>
       <c r="M135" s="1">
-        <v>19.63</v>
+        <v>18.63</v>
       </c>
       <c r="N135" s="1">
-        <v>22.97</v>
+        <v>21.81</v>
       </c>
       <c r="O135" s="3">
         <v>0.0499</v>
@@ -10539,13 +10536,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>936388</v>
+        <v>911648</v>
       </c>
       <c r="C136" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
         <v>361</v>
@@ -10554,7 +10551,7 @@
         <v>362</v>
       </c>
       <c r="F136" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -10566,19 +10563,19 @@
         <v>50</v>
       </c>
       <c r="J136" s="1">
-        <v>10.79</v>
+        <v>14.22</v>
       </c>
       <c r="K136" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="L136" s="1">
-        <v>8.98</v>
+        <v>11.84</v>
       </c>
       <c r="M136" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="N136" s="1">
-        <v>17.43</v>
+        <v>22.97</v>
       </c>
       <c r="O136" s="3">
         <v>0.0499</v>
@@ -10590,7 +10587,7 @@
         <v>30</v>
       </c>
       <c r="R136" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="S136" t="s">
         <v>25</v>
@@ -10604,22 +10601,22 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B137">
-        <v>936387</v>
+        <v>957423</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
+        <v>363</v>
+      </c>
+      <c r="E137" t="s">
         <v>364</v>
       </c>
-      <c r="E137" t="s">
-        <v>365</v>
-      </c>
       <c r="F137" s="1">
-        <v>20.77</v>
+        <v>19.23</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -10631,19 +10628,19 @@
         <v>50</v>
       </c>
       <c r="J137" s="1">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="K137" s="1">
-        <v>20.77</v>
+        <v>19.23</v>
       </c>
       <c r="L137" s="1">
-        <v>11.24</v>
+        <v>10.41</v>
       </c>
       <c r="M137" s="1">
-        <v>18.63</v>
+        <v>17.25</v>
       </c>
       <c r="N137" s="1">
-        <v>21.81</v>
+        <v>20.19</v>
       </c>
       <c r="O137" s="3">
         <v>0.0499</v>
@@ -10655,7 +10652,7 @@
         <v>30</v>
       </c>
       <c r="R137" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="S137" t="s">
         <v>25</v>
@@ -10669,13 +10666,13 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B138">
-        <v>824228</v>
+        <v>957424</v>
       </c>
       <c r="C138" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D138" t="s">
         <v>366</v>
@@ -10684,7 +10681,7 @@
         <v>367</v>
       </c>
       <c r="F138" s="1">
-        <v>21.89</v>
+        <v>21.88</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -10696,19 +10693,19 @@
         <v>50</v>
       </c>
       <c r="J138" s="1">
-        <v>14.23</v>
+        <v>14.22</v>
       </c>
       <c r="K138" s="1">
-        <v>21.89</v>
+        <v>21.88</v>
       </c>
       <c r="L138" s="1">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="M138" s="1">
         <v>19.63</v>
       </c>
       <c r="N138" s="1">
-        <v>22.98</v>
+        <v>22.97</v>
       </c>
       <c r="O138" s="3">
         <v>0.0499</v>
@@ -10720,7 +10717,7 @@
         <v>30</v>
       </c>
       <c r="R138" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="S138" t="s">
         <v>25</v>
@@ -10734,19 +10731,19 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B139">
-        <v>866256</v>
+        <v>936388</v>
       </c>
       <c r="C139" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
         <v>368</v>
       </c>
       <c r="E139" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F139" s="1">
         <v>16.6</v>
@@ -10785,7 +10782,7 @@
         <v>30</v>
       </c>
       <c r="R139" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S139" t="s">
         <v>25</v>
@@ -10799,22 +10796,22 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B140">
-        <v>805464</v>
+        <v>936387</v>
       </c>
       <c r="C140" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E140" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F140" s="1">
-        <v>19.23</v>
+        <v>20.77</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -10826,19 +10823,19 @@
         <v>50</v>
       </c>
       <c r="J140" s="1">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="K140" s="1">
-        <v>19.23</v>
+        <v>20.77</v>
       </c>
       <c r="L140" s="1">
-        <v>10.41</v>
+        <v>11.24</v>
       </c>
       <c r="M140" s="1">
-        <v>17.25</v>
+        <v>18.63</v>
       </c>
       <c r="N140" s="1">
-        <v>20.19</v>
+        <v>21.81</v>
       </c>
       <c r="O140" s="3">
         <v>0.0499</v>
@@ -10850,7 +10847,7 @@
         <v>30</v>
       </c>
       <c r="R140" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S140" t="s">
         <v>25</v>
@@ -10864,22 +10861,22 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B141">
-        <v>842611</v>
+        <v>824228</v>
       </c>
       <c r="C141" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E141" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F141" s="1">
-        <v>21.88</v>
+        <v>21.89</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -10891,19 +10888,19 @@
         <v>50</v>
       </c>
       <c r="J141" s="1">
-        <v>14.22</v>
+        <v>14.23</v>
       </c>
       <c r="K141" s="1">
-        <v>21.88</v>
+        <v>21.89</v>
       </c>
       <c r="L141" s="1">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="M141" s="1">
         <v>19.63</v>
       </c>
       <c r="N141" s="1">
-        <v>22.97</v>
+        <v>22.98</v>
       </c>
       <c r="O141" s="3">
         <v>0.0499</v>
@@ -10915,7 +10912,7 @@
         <v>30</v>
       </c>
       <c r="R141" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S141" t="s">
         <v>25</v>
@@ -10929,22 +10926,22 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B142">
-        <v>1015821</v>
+        <v>866256</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E142" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F142" s="1">
-        <v>13.5</v>
+        <v>16.6</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -10956,19 +10953,19 @@
         <v>50</v>
       </c>
       <c r="J142" s="1">
-        <v>8.78</v>
+        <v>10.79</v>
       </c>
       <c r="K142" s="1">
-        <v>13.5</v>
+        <v>16.6</v>
       </c>
       <c r="L142" s="1">
-        <v>7.31</v>
+        <v>8.98</v>
       </c>
       <c r="M142" s="1">
-        <v>12.11</v>
+        <v>14.89</v>
       </c>
       <c r="N142" s="1">
-        <v>14.17</v>
+        <v>17.43</v>
       </c>
       <c r="O142" s="3">
         <v>0.0499</v>
@@ -10977,39 +10974,39 @@
         <v>1</v>
       </c>
       <c r="Q142" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R142" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S142" t="s">
         <v>25</v>
       </c>
       <c r="T142">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U142" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B143">
-        <v>1015823</v>
+        <v>805464</v>
       </c>
       <c r="C143" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E143" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F143" s="1">
-        <v>15</v>
+        <v>19.23</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -11021,19 +11018,19 @@
         <v>50</v>
       </c>
       <c r="J143" s="1">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="K143" s="1">
-        <v>15</v>
+        <v>19.23</v>
       </c>
       <c r="L143" s="1">
-        <v>8.12</v>
+        <v>10.41</v>
       </c>
       <c r="M143" s="1">
-        <v>13.45</v>
+        <v>17.25</v>
       </c>
       <c r="N143" s="1">
-        <v>15.75</v>
+        <v>20.19</v>
       </c>
       <c r="O143" s="3">
         <v>0.0499</v>
@@ -11042,39 +11039,39 @@
         <v>1</v>
       </c>
       <c r="Q143" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R143" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S143" t="s">
         <v>25</v>
       </c>
       <c r="T143">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U143" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B144">
-        <v>805465</v>
+        <v>842611</v>
       </c>
       <c r="C144" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
         <v>378</v>
       </c>
       <c r="E144" t="s">
-        <v>68</v>
+        <v>379</v>
       </c>
       <c r="F144" s="1">
-        <v>15.38</v>
+        <v>21.88</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -11086,19 +11083,19 @@
         <v>50</v>
       </c>
       <c r="J144" s="1">
-        <v>10</v>
+        <v>14.22</v>
       </c>
       <c r="K144" s="1">
-        <v>15.38</v>
+        <v>21.88</v>
       </c>
       <c r="L144" s="1">
-        <v>8.32</v>
+        <v>11.84</v>
       </c>
       <c r="M144" s="1">
-        <v>13.8</v>
+        <v>19.63</v>
       </c>
       <c r="N144" s="1">
-        <v>16.15</v>
+        <v>22.97</v>
       </c>
       <c r="O144" s="3">
         <v>0.0499</v>
@@ -11110,7 +11107,7 @@
         <v>30</v>
       </c>
       <c r="R144" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="S144" t="s">
         <v>25</v>
@@ -11119,27 +11116,27 @@
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B145">
-        <v>990715</v>
+        <v>1015821</v>
       </c>
       <c r="C145" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D145" t="s">
         <v>380</v>
       </c>
       <c r="E145" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="F145" s="1">
-        <v>9.23</v>
+        <v>13.5</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -11151,19 +11148,19 @@
         <v>50</v>
       </c>
       <c r="J145" s="1">
-        <v>6</v>
+        <v>8.78</v>
       </c>
       <c r="K145" s="1">
-        <v>9.23</v>
+        <v>13.5</v>
       </c>
       <c r="L145" s="1">
-        <v>5</v>
+        <v>7.31</v>
       </c>
       <c r="M145" s="1">
-        <v>8.28</v>
+        <v>12.11</v>
       </c>
       <c r="N145" s="1">
-        <v>9.69</v>
+        <v>14.17</v>
       </c>
       <c r="O145" s="3">
         <v>0.0499</v>
@@ -11172,16 +11169,16 @@
         <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R145" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S145" t="s">
         <v>25</v>
       </c>
       <c r="T145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U145" t="s">
         <v>25</v>
@@ -11189,22 +11186,22 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B146">
-        <v>881794</v>
+        <v>1015823</v>
       </c>
       <c r="C146" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>65</v>
+        <v>384</v>
       </c>
       <c r="F146" s="1">
-        <v>13.85</v>
+        <v>15</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -11216,19 +11213,19 @@
         <v>50</v>
       </c>
       <c r="J146" s="1">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="K146" s="1">
-        <v>13.85</v>
+        <v>15</v>
       </c>
       <c r="L146" s="1">
-        <v>7.5</v>
+        <v>8.12</v>
       </c>
       <c r="M146" s="1">
-        <v>12.42</v>
+        <v>13.45</v>
       </c>
       <c r="N146" s="1">
-        <v>14.54</v>
+        <v>15.75</v>
       </c>
       <c r="O146" s="3">
         <v>0.0499</v>
@@ -11237,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R146" t="s">
         <v>382</v>
@@ -11246,7 +11243,7 @@
         <v>25</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U146" t="s">
         <v>25</v>
@@ -11254,22 +11251,22 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B147">
-        <v>805466</v>
+        <v>805465</v>
       </c>
       <c r="C147" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E147" t="s">
-        <v>384</v>
+        <v>68</v>
       </c>
       <c r="F147" s="1">
-        <v>22.66</v>
+        <v>15.38</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -11281,19 +11278,19 @@
         <v>50</v>
       </c>
       <c r="J147" s="1">
-        <v>14.73</v>
+        <v>10</v>
       </c>
       <c r="K147" s="1">
-        <v>22.66</v>
+        <v>15.38</v>
       </c>
       <c r="L147" s="1">
-        <v>12.26</v>
+        <v>8.32</v>
       </c>
       <c r="M147" s="1">
-        <v>20.33</v>
+        <v>13.8</v>
       </c>
       <c r="N147" s="1">
-        <v>23.79</v>
+        <v>16.15</v>
       </c>
       <c r="O147" s="3">
         <v>0.0499</v>
@@ -11305,7 +11302,7 @@
         <v>30</v>
       </c>
       <c r="R147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S147" t="s">
         <v>25</v>
@@ -11314,27 +11311,27 @@
         <v>0</v>
       </c>
       <c r="U147" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B148">
-        <v>836358</v>
+        <v>990715</v>
       </c>
       <c r="C148" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E148" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
       <c r="F148" s="1">
-        <v>19.23</v>
+        <v>9.23</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -11346,19 +11343,19 @@
         <v>50</v>
       </c>
       <c r="J148" s="1">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="K148" s="1">
-        <v>19.23</v>
+        <v>9.23</v>
       </c>
       <c r="L148" s="1">
-        <v>10.41</v>
+        <v>5</v>
       </c>
       <c r="M148" s="1">
-        <v>17.25</v>
+        <v>8.28</v>
       </c>
       <c r="N148" s="1">
-        <v>20.19</v>
+        <v>9.69</v>
       </c>
       <c r="O148" s="3">
         <v>0.0499</v>
@@ -11370,7 +11367,7 @@
         <v>30</v>
       </c>
       <c r="R148" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="S148" t="s">
         <v>25</v>
@@ -11379,27 +11376,27 @@
         <v>0</v>
       </c>
       <c r="U148" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>867239</v>
+        <v>881794</v>
       </c>
       <c r="C149" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E149" t="s">
-        <v>390</v>
+        <v>65</v>
       </c>
       <c r="F149" s="1">
-        <v>20.77</v>
+        <v>13.85</v>
       </c>
       <c r="G149" s="2">
         <v>0</v>
@@ -11411,19 +11408,19 @@
         <v>50</v>
       </c>
       <c r="J149" s="1">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="K149" s="1">
-        <v>20.77</v>
+        <v>13.85</v>
       </c>
       <c r="L149" s="1">
-        <v>11.24</v>
+        <v>7.5</v>
       </c>
       <c r="M149" s="1">
-        <v>18.63</v>
+        <v>12.42</v>
       </c>
       <c r="N149" s="1">
-        <v>21.81</v>
+        <v>14.54</v>
       </c>
       <c r="O149" s="3">
         <v>0.0499</v>
@@ -11435,7 +11432,7 @@
         <v>30</v>
       </c>
       <c r="R149" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S149" t="s">
         <v>25</v>
@@ -11444,27 +11441,27 @@
         <v>0</v>
       </c>
       <c r="U149" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150">
-        <v>805468</v>
+        <v>805466</v>
       </c>
       <c r="C150" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D150" t="s">
+        <v>390</v>
+      </c>
+      <c r="E150" t="s">
         <v>391</v>
       </c>
-      <c r="E150" t="s">
-        <v>392</v>
-      </c>
       <c r="F150" s="1">
-        <v>29.62</v>
+        <v>22.66</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -11476,19 +11473,19 @@
         <v>50</v>
       </c>
       <c r="J150" s="1">
-        <v>19.25</v>
+        <v>14.73</v>
       </c>
       <c r="K150" s="1">
-        <v>29.62</v>
+        <v>22.66</v>
       </c>
       <c r="L150" s="1">
-        <v>16.03</v>
+        <v>12.26</v>
       </c>
       <c r="M150" s="1">
-        <v>26.57</v>
+        <v>20.33</v>
       </c>
       <c r="N150" s="1">
-        <v>31.1</v>
+        <v>23.79</v>
       </c>
       <c r="O150" s="3">
         <v>0.0499</v>
@@ -11500,7 +11497,7 @@
         <v>30</v>
       </c>
       <c r="R150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S150" t="s">
         <v>25</v>
@@ -11514,22 +11511,22 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>805469</v>
+        <v>836358</v>
       </c>
       <c r="C151" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D151" t="s">
+        <v>393</v>
+      </c>
+      <c r="E151" t="s">
         <v>394</v>
       </c>
-      <c r="E151" t="s">
-        <v>395</v>
-      </c>
       <c r="F151" s="1">
-        <v>32.69</v>
+        <v>19.23</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
@@ -11541,19 +11538,19 @@
         <v>50</v>
       </c>
       <c r="J151" s="1">
-        <v>21.25</v>
+        <v>12.5</v>
       </c>
       <c r="K151" s="1">
-        <v>32.69</v>
+        <v>19.23</v>
       </c>
       <c r="L151" s="1">
-        <v>17.69</v>
+        <v>10.41</v>
       </c>
       <c r="M151" s="1">
-        <v>29.32</v>
+        <v>17.25</v>
       </c>
       <c r="N151" s="1">
-        <v>34.32</v>
+        <v>20.19</v>
       </c>
       <c r="O151" s="3">
         <v>0.0499</v>
@@ -11565,7 +11562,7 @@
         <v>30</v>
       </c>
       <c r="R151" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S151" t="s">
         <v>25</v>
@@ -11579,22 +11576,22 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>805461</v>
+        <v>867239</v>
       </c>
       <c r="C152" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
+        <v>396</v>
+      </c>
+      <c r="E152" t="s">
         <v>397</v>
       </c>
-      <c r="E152" t="s">
-        <v>398</v>
-      </c>
       <c r="F152" s="1">
-        <v>23.08</v>
+        <v>20.77</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -11606,19 +11603,19 @@
         <v>50</v>
       </c>
       <c r="J152" s="1">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="K152" s="1">
-        <v>23.08</v>
+        <v>20.77</v>
       </c>
       <c r="L152" s="1">
-        <v>12.49</v>
+        <v>11.24</v>
       </c>
       <c r="M152" s="1">
-        <v>20.7</v>
+        <v>18.63</v>
       </c>
       <c r="N152" s="1">
-        <v>24.23</v>
+        <v>21.81</v>
       </c>
       <c r="O152" s="3">
         <v>0.0499</v>
@@ -11630,7 +11627,7 @@
         <v>30</v>
       </c>
       <c r="R152" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="S152" t="s">
         <v>25</v>
@@ -11639,27 +11636,27 @@
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>805470</v>
+        <v>805468</v>
       </c>
       <c r="C153" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E153" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F153" s="1">
-        <v>21.54</v>
+        <v>29.62</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
@@ -11671,19 +11668,19 @@
         <v>50</v>
       </c>
       <c r="J153" s="1">
-        <v>14</v>
+        <v>19.25</v>
       </c>
       <c r="K153" s="1">
-        <v>21.54</v>
+        <v>29.62</v>
       </c>
       <c r="L153" s="1">
-        <v>11.66</v>
+        <v>16.03</v>
       </c>
       <c r="M153" s="1">
-        <v>19.32</v>
+        <v>26.57</v>
       </c>
       <c r="N153" s="1">
-        <v>22.62</v>
+        <v>31.1</v>
       </c>
       <c r="O153" s="3">
         <v>0.0499</v>
@@ -11695,7 +11692,7 @@
         <v>30</v>
       </c>
       <c r="R153" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S153" t="s">
         <v>25</v>
@@ -11704,27 +11701,27 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>805471</v>
+        <v>805469</v>
       </c>
       <c r="C154" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D154" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E154" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="F154" s="1">
-        <v>16.92</v>
+        <v>32.69</v>
       </c>
       <c r="G154" s="2">
         <v>0</v>
@@ -11736,19 +11733,19 @@
         <v>50</v>
       </c>
       <c r="J154" s="1">
-        <v>11</v>
+        <v>21.25</v>
       </c>
       <c r="K154" s="1">
-        <v>16.92</v>
+        <v>32.69</v>
       </c>
       <c r="L154" s="1">
-        <v>9.16</v>
+        <v>17.69</v>
       </c>
       <c r="M154" s="1">
-        <v>15.18</v>
+        <v>29.32</v>
       </c>
       <c r="N154" s="1">
-        <v>17.76</v>
+        <v>34.32</v>
       </c>
       <c r="O154" s="3">
         <v>0.0499</v>
@@ -11760,7 +11757,7 @@
         <v>30</v>
       </c>
       <c r="R154" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S154" t="s">
         <v>25</v>
@@ -11769,27 +11766,27 @@
         <v>0</v>
       </c>
       <c r="U154" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>805472</v>
+        <v>805461</v>
       </c>
       <c r="C155" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D155" t="s">
+        <v>404</v>
+      </c>
+      <c r="E155" t="s">
         <v>405</v>
       </c>
-      <c r="E155" t="s">
-        <v>248</v>
-      </c>
       <c r="F155" s="1">
-        <v>15.38</v>
+        <v>23.08</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -11801,19 +11798,19 @@
         <v>50</v>
       </c>
       <c r="J155" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K155" s="1">
-        <v>15.38</v>
+        <v>23.08</v>
       </c>
       <c r="L155" s="1">
-        <v>8.32</v>
+        <v>12.49</v>
       </c>
       <c r="M155" s="1">
-        <v>13.8</v>
+        <v>20.7</v>
       </c>
       <c r="N155" s="1">
-        <v>16.15</v>
+        <v>24.23</v>
       </c>
       <c r="O155" s="3">
         <v>0.0499</v>
@@ -11839,22 +11836,22 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>805473</v>
+        <v>805470</v>
       </c>
       <c r="C156" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D156" t="s">
         <v>407</v>
       </c>
       <c r="E156" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="F156" s="1">
-        <v>15.38</v>
+        <v>21.54</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -11866,19 +11863,19 @@
         <v>50</v>
       </c>
       <c r="J156" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K156" s="1">
-        <v>15.38</v>
+        <v>21.54</v>
       </c>
       <c r="L156" s="1">
-        <v>8.32</v>
+        <v>11.66</v>
       </c>
       <c r="M156" s="1">
-        <v>13.8</v>
+        <v>19.32</v>
       </c>
       <c r="N156" s="1">
-        <v>16.15</v>
+        <v>22.62</v>
       </c>
       <c r="O156" s="3">
         <v>0.0499</v>
@@ -11890,7 +11887,7 @@
         <v>30</v>
       </c>
       <c r="R156" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S156" t="s">
         <v>25</v>
@@ -11904,22 +11901,22 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>805474</v>
+        <v>805471</v>
       </c>
       <c r="C157" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E157" t="s">
-        <v>398</v>
+        <v>68</v>
       </c>
       <c r="F157" s="1">
-        <v>15.38</v>
+        <v>16.92</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -11931,19 +11928,19 @@
         <v>50</v>
       </c>
       <c r="J157" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K157" s="1">
-        <v>15.38</v>
+        <v>16.92</v>
       </c>
       <c r="L157" s="1">
-        <v>8.32</v>
+        <v>9.16</v>
       </c>
       <c r="M157" s="1">
-        <v>13.8</v>
+        <v>15.18</v>
       </c>
       <c r="N157" s="1">
-        <v>16.15</v>
+        <v>17.76</v>
       </c>
       <c r="O157" s="3">
         <v>0.0499</v>
@@ -11955,7 +11952,7 @@
         <v>30</v>
       </c>
       <c r="R157" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S157" t="s">
         <v>25</v>
@@ -11969,22 +11966,22 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>990712</v>
+        <v>805472</v>
       </c>
       <c r="C158" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E158" t="s">
-        <v>412</v>
+        <v>248</v>
       </c>
       <c r="F158" s="1">
-        <v>8.92</v>
+        <v>15.38</v>
       </c>
       <c r="G158" s="2">
         <v>0</v>
@@ -11996,19 +11993,19 @@
         <v>50</v>
       </c>
       <c r="J158" s="1">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="K158" s="1">
-        <v>8.92</v>
+        <v>15.38</v>
       </c>
       <c r="L158" s="1">
-        <v>4.83</v>
+        <v>8.32</v>
       </c>
       <c r="M158" s="1">
-        <v>8</v>
+        <v>13.8</v>
       </c>
       <c r="N158" s="1">
-        <v>9.37</v>
+        <v>16.15</v>
       </c>
       <c r="O158" s="3">
         <v>0.0499</v>
@@ -12020,7 +12017,7 @@
         <v>30</v>
       </c>
       <c r="R158" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="S158" t="s">
         <v>25</v>
@@ -12034,22 +12031,22 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>805475</v>
+        <v>805473</v>
       </c>
       <c r="C159" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D159" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E159" t="s">
-        <v>401</v>
+        <v>65</v>
       </c>
       <c r="F159" s="1">
-        <v>18.46</v>
+        <v>15.38</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
@@ -12061,19 +12058,19 @@
         <v>50</v>
       </c>
       <c r="J159" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K159" s="1">
-        <v>18.46</v>
+        <v>15.38</v>
       </c>
       <c r="L159" s="1">
-        <v>9.99</v>
+        <v>8.32</v>
       </c>
       <c r="M159" s="1">
-        <v>16.56</v>
+        <v>13.8</v>
       </c>
       <c r="N159" s="1">
-        <v>19.38</v>
+        <v>16.15</v>
       </c>
       <c r="O159" s="3">
         <v>0.0499</v>
@@ -12085,7 +12082,7 @@
         <v>30</v>
       </c>
       <c r="R159" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S159" t="s">
         <v>25</v>
@@ -12099,22 +12096,22 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>805476</v>
+        <v>805474</v>
       </c>
       <c r="C160" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D160" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E160" t="s">
-        <v>68</v>
+        <v>405</v>
       </c>
       <c r="F160" s="1">
-        <v>10.77</v>
+        <v>15.38</v>
       </c>
       <c r="G160" s="2">
         <v>0</v>
@@ -12126,19 +12123,19 @@
         <v>50</v>
       </c>
       <c r="J160" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K160" s="1">
-        <v>10.77</v>
+        <v>15.38</v>
       </c>
       <c r="L160" s="1">
-        <v>5.83</v>
+        <v>8.32</v>
       </c>
       <c r="M160" s="1">
-        <v>9.66</v>
+        <v>13.8</v>
       </c>
       <c r="N160" s="1">
-        <v>11.31</v>
+        <v>16.15</v>
       </c>
       <c r="O160" s="3">
         <v>0.0499</v>
@@ -12150,7 +12147,7 @@
         <v>30</v>
       </c>
       <c r="R160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S160" t="s">
         <v>25</v>
@@ -12164,22 +12161,22 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B161">
-        <v>805477</v>
+        <v>990712</v>
       </c>
       <c r="C161" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D161" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E161" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F161" s="1">
-        <v>18.46</v>
+        <v>8.92</v>
       </c>
       <c r="G161" s="2">
         <v>0</v>
@@ -12191,19 +12188,19 @@
         <v>50</v>
       </c>
       <c r="J161" s="1">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="K161" s="1">
-        <v>18.46</v>
+        <v>8.92</v>
       </c>
       <c r="L161" s="1">
-        <v>9.99</v>
+        <v>4.83</v>
       </c>
       <c r="M161" s="1">
-        <v>16.56</v>
+        <v>8</v>
       </c>
       <c r="N161" s="1">
-        <v>19.38</v>
+        <v>9.37</v>
       </c>
       <c r="O161" s="3">
         <v>0.0499</v>
@@ -12215,7 +12212,7 @@
         <v>30</v>
       </c>
       <c r="R161" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S161" t="s">
         <v>25</v>
@@ -12229,22 +12226,22 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>1011877</v>
+        <v>805475</v>
       </c>
       <c r="C162" t="s">
+        <v>355</v>
+      </c>
+      <c r="D162" t="s">
         <v>420</v>
       </c>
-      <c r="D162" t="s">
-        <v>421</v>
-      </c>
       <c r="E162" t="s">
-        <v>68</v>
+        <v>408</v>
       </c>
       <c r="F162" s="1">
-        <v>14.5</v>
+        <v>18.46</v>
       </c>
       <c r="G162" s="2">
         <v>0</v>
@@ -12256,19 +12253,19 @@
         <v>50</v>
       </c>
       <c r="J162" s="1">
-        <v>9.43</v>
+        <v>12</v>
       </c>
       <c r="K162" s="1">
-        <v>14.5</v>
+        <v>18.46</v>
       </c>
       <c r="L162" s="1">
-        <v>7.85</v>
+        <v>9.99</v>
       </c>
       <c r="M162" s="1">
-        <v>13.01</v>
+        <v>16.56</v>
       </c>
       <c r="N162" s="1">
-        <v>15.22</v>
+        <v>19.38</v>
       </c>
       <c r="O162" s="3">
         <v>0.0499</v>
@@ -12280,36 +12277,36 @@
         <v>30</v>
       </c>
       <c r="R162" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S162" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T162">
         <v>0</v>
       </c>
       <c r="U162" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>1011876</v>
+        <v>805476</v>
       </c>
       <c r="C163" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="D163" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E163" t="s">
         <v>68</v>
       </c>
       <c r="F163" s="1">
-        <v>14.5</v>
+        <v>10.77</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
@@ -12321,19 +12318,19 @@
         <v>50</v>
       </c>
       <c r="J163" s="1">
-        <v>9.43</v>
+        <v>7</v>
       </c>
       <c r="K163" s="1">
-        <v>14.5</v>
+        <v>10.77</v>
       </c>
       <c r="L163" s="1">
-        <v>7.85</v>
+        <v>5.83</v>
       </c>
       <c r="M163" s="1">
-        <v>13.01</v>
+        <v>9.66</v>
       </c>
       <c r="N163" s="1">
-        <v>15.22</v>
+        <v>11.31</v>
       </c>
       <c r="O163" s="3">
         <v>0.0499</v>
@@ -12345,36 +12342,36 @@
         <v>30</v>
       </c>
       <c r="R163" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S163" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T163">
         <v>0</v>
       </c>
       <c r="U163" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>1011872</v>
+        <v>805477</v>
       </c>
       <c r="C164" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="D164" t="s">
+        <v>424</v>
+      </c>
+      <c r="E164" t="s">
         <v>425</v>
       </c>
-      <c r="E164" t="s">
-        <v>426</v>
-      </c>
       <c r="F164" s="1">
-        <v>20</v>
+        <v>18.46</v>
       </c>
       <c r="G164" s="2">
         <v>0</v>
@@ -12386,19 +12383,19 @@
         <v>50</v>
       </c>
       <c r="J164" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K164" s="1">
-        <v>20</v>
+        <v>18.46</v>
       </c>
       <c r="L164" s="1">
-        <v>10.82</v>
+        <v>9.99</v>
       </c>
       <c r="M164" s="1">
-        <v>17.94</v>
+        <v>16.56</v>
       </c>
       <c r="N164" s="1">
-        <v>21</v>
+        <v>19.38</v>
       </c>
       <c r="O164" s="3">
         <v>0.0499</v>
@@ -12407,19 +12404,19 @@
         <v>1</v>
       </c>
       <c r="Q164" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R164" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S164" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T164">
         <v>0</v>
       </c>
       <c r="U164" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -12435,10 +12432,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
-      </c>
-      <c r="B1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12446,7 +12443,7 @@
         <v>0.5412</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12454,7 +12451,7 @@
         <v>0.65</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12462,7 +12459,7 @@
         <v>0.6574</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12470,7 +12467,7 @@
         <v>0.94</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="435">
   <si>
     <t>id</t>
   </si>
@@ -1019,6 +1019,12 @@
     <t xml:space="preserve">This thick, concentrated broth is gelatinous and full of flavor — simply dilute with water to your desired consistency. Lightly salted to enhance its naturally rich, umami profile, it's made with roasted bones, fresh vegetables, and aromatic herbs for a deep, satisfying taste.
 Perfect as a base for ramen, soups, stews, risotto, or just sip on its own.
 Ingredients: Pork Bones, Water, Onion, Carrot, Celery, Garlic, Salt, Thyme, Apple Cider Vinegar, Black Peppercorns, Bay Leaf</t>
+  </si>
+  <si>
+    <t>Classic Turkey Broth</t>
+  </si>
+  <si>
+    <t>This thick, concentrated broth is gelatinous and full of flavor — simply dilute with water to your desired consistency. Lightly salted to enhance its naturally rich, umami profile, it's made with roasted bones, fresh vegetables, and aromatic herbs for a deep, satisfying taste. Perfect as a base for gravy, soups, stews, risotto, stuffing, or just sip on its own. Best to thaw the container in a dish to catch pooling condensation and any potential leaks. Ingredients: Turkey Bones, Water, Onion, Carrot, Celery, Garlic, Salt, Thyme, Apple Cider Vinegar, Black Peppercorns, Bay Leaf</t>
   </si>
   <si>
     <t>English Banger Sausage Links</t>
@@ -1745,7 +1751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U164"/>
+  <dimension ref="A1:U165"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -4811,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -9414,7 +9420,7 @@
         <v>1</v>
       </c>
       <c r="Q118" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R118" t="s">
         <v>324</v>
@@ -9479,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="Q119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R119" t="s">
         <v>326</v>
@@ -9491,15 +9497,15 @@
         <v>0</v>
       </c>
       <c r="U119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B120">
-        <v>840822</v>
+        <v>1019999</v>
       </c>
       <c r="C120" t="s">
         <v>305</v>
@@ -9508,34 +9514,34 @@
         <v>327</v>
       </c>
       <c r="E120" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="F120" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="G120" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H120" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
         <v>50</v>
       </c>
       <c r="J120" s="1">
-        <v>13</v>
+        <v>9.43</v>
       </c>
       <c r="K120" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="L120" s="1">
-        <v>10.82</v>
+        <v>7.85</v>
       </c>
       <c r="M120" s="1">
-        <v>17.94</v>
+        <v>13.01</v>
       </c>
       <c r="N120" s="1">
-        <v>21</v>
+        <v>15.22</v>
       </c>
       <c r="O120" s="3">
         <v>0.0499</v>
@@ -9561,10 +9567,10 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B121">
-        <v>913653</v>
+        <v>840822</v>
       </c>
       <c r="C121" t="s">
         <v>305</v>
@@ -9573,34 +9579,34 @@
         <v>329</v>
       </c>
       <c r="E121" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="F121" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="H121" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
         <v>50</v>
       </c>
       <c r="J121" s="1">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="K121" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L121" s="1">
-        <v>8.12</v>
+        <v>10.82</v>
       </c>
       <c r="M121" s="1">
-        <v>13.45</v>
+        <v>17.94</v>
       </c>
       <c r="N121" s="1">
-        <v>15.75</v>
+        <v>21</v>
       </c>
       <c r="O121" s="3">
         <v>0.0499</v>
@@ -9612,7 +9618,7 @@
         <v>25</v>
       </c>
       <c r="R121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S121" t="s">
         <v>30</v>
@@ -9626,46 +9632,46 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B122">
-        <v>818963</v>
+        <v>913653</v>
       </c>
       <c r="C122" t="s">
         <v>305</v>
       </c>
       <c r="D122" t="s">
+        <v>331</v>
+      </c>
+      <c r="E122" t="s">
         <v>332</v>
       </c>
-      <c r="E122" t="s">
-        <v>307</v>
-      </c>
       <c r="F122" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G122" s="2">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H122" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I122" t="s">
         <v>50</v>
       </c>
       <c r="J122" s="1">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K122" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L122" s="1">
-        <v>10.82</v>
+        <v>8.12</v>
       </c>
       <c r="M122" s="1">
-        <v>17.94</v>
+        <v>13.45</v>
       </c>
       <c r="N122" s="1">
-        <v>21</v>
+        <v>15.75</v>
       </c>
       <c r="O122" s="3">
         <v>0.0499</v>
@@ -9691,10 +9697,10 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B123">
-        <v>871143</v>
+        <v>818963</v>
       </c>
       <c r="C123" t="s">
         <v>305</v>
@@ -9756,10 +9762,10 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B124">
-        <v>913648</v>
+        <v>871143</v>
       </c>
       <c r="C124" t="s">
         <v>305</v>
@@ -9768,34 +9774,34 @@
         <v>336</v>
       </c>
       <c r="E124" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F124" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G124" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H124" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
         <v>50</v>
       </c>
       <c r="J124" s="1">
-        <v>15.6</v>
+        <v>13</v>
       </c>
       <c r="K124" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L124" s="1">
-        <v>12.99</v>
+        <v>10.82</v>
       </c>
       <c r="M124" s="1">
-        <v>21.53</v>
+        <v>17.94</v>
       </c>
       <c r="N124" s="1">
-        <v>25.2</v>
+        <v>21</v>
       </c>
       <c r="O124" s="3">
         <v>0.0499</v>
@@ -9807,7 +9813,7 @@
         <v>25</v>
       </c>
       <c r="R124" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="S124" t="s">
         <v>30</v>
@@ -9816,15 +9822,15 @@
         <v>0</v>
       </c>
       <c r="U124" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B125">
-        <v>805663</v>
+        <v>913648</v>
       </c>
       <c r="C125" t="s">
         <v>305</v>
@@ -9836,31 +9842,31 @@
         <v>339</v>
       </c>
       <c r="F125" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G125" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H125" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I125" t="s">
         <v>50</v>
       </c>
       <c r="J125" s="1">
-        <v>13</v>
+        <v>15.6</v>
       </c>
       <c r="K125" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L125" s="1">
-        <v>10.82</v>
+        <v>12.99</v>
       </c>
       <c r="M125" s="1">
-        <v>17.94</v>
+        <v>21.53</v>
       </c>
       <c r="N125" s="1">
-        <v>21</v>
+        <v>25.2</v>
       </c>
       <c r="O125" s="3">
         <v>0.0499</v>
@@ -9872,7 +9878,7 @@
         <v>25</v>
       </c>
       <c r="R125" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="S125" t="s">
         <v>30</v>
@@ -9881,51 +9887,51 @@
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B126">
-        <v>941045</v>
+        <v>805663</v>
       </c>
       <c r="C126" t="s">
         <v>305</v>
       </c>
       <c r="D126" t="s">
+        <v>340</v>
+      </c>
+      <c r="E126" t="s">
         <v>341</v>
       </c>
-      <c r="E126" t="s">
-        <v>243</v>
-      </c>
       <c r="F126" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G126" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H126" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I126" t="s">
         <v>50</v>
       </c>
       <c r="J126" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K126" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L126" s="1">
-        <v>5.41</v>
+        <v>10.82</v>
       </c>
       <c r="M126" s="1">
-        <v>8.97</v>
+        <v>17.94</v>
       </c>
       <c r="N126" s="1">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="O126" s="3">
         <v>0.0499</v>
@@ -9937,7 +9943,7 @@
         <v>25</v>
       </c>
       <c r="R126" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="S126" t="s">
         <v>30</v>
@@ -9951,46 +9957,46 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B127">
-        <v>805651</v>
+        <v>941045</v>
       </c>
       <c r="C127" t="s">
         <v>305</v>
       </c>
       <c r="D127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E127" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="F127" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I127" t="s">
         <v>50</v>
       </c>
       <c r="J127" s="1">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="K127" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L127" s="1">
-        <v>8.12</v>
+        <v>5.41</v>
       </c>
       <c r="M127" s="1">
-        <v>13.45</v>
+        <v>8.97</v>
       </c>
       <c r="N127" s="1">
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="O127" s="3">
         <v>0.0499</v>
@@ -10002,7 +10008,7 @@
         <v>25</v>
       </c>
       <c r="R127" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S127" t="s">
         <v>30</v>
@@ -10011,15 +10017,15 @@
         <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B128">
-        <v>941062</v>
+        <v>805651</v>
       </c>
       <c r="C128" t="s">
         <v>305</v>
@@ -10028,34 +10034,34 @@
         <v>344</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="F128" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H128" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I128" t="s">
         <v>50</v>
       </c>
       <c r="J128" s="1">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="K128" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L128" s="1">
-        <v>5.41</v>
+        <v>8.12</v>
       </c>
       <c r="M128" s="1">
-        <v>8.97</v>
+        <v>13.45</v>
       </c>
       <c r="N128" s="1">
-        <v>10.5</v>
+        <v>15.75</v>
       </c>
       <c r="O128" s="3">
         <v>0.0499</v>
@@ -10067,7 +10073,7 @@
         <v>25</v>
       </c>
       <c r="R128" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S128" t="s">
         <v>30</v>
@@ -10081,46 +10087,46 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B129">
-        <v>929464</v>
+        <v>941062</v>
       </c>
       <c r="C129" t="s">
         <v>305</v>
       </c>
       <c r="D129" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E129" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="F129" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H129" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I129" t="s">
         <v>50</v>
       </c>
       <c r="J129" s="1">
-        <v>10.4</v>
+        <v>6.5</v>
       </c>
       <c r="K129" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L129" s="1">
-        <v>8.66</v>
+        <v>5.41</v>
       </c>
       <c r="M129" s="1">
-        <v>14.35</v>
+        <v>8.97</v>
       </c>
       <c r="N129" s="1">
-        <v>16.8</v>
+        <v>10.5</v>
       </c>
       <c r="O129" s="3">
         <v>0.0499</v>
@@ -10132,7 +10138,7 @@
         <v>25</v>
       </c>
       <c r="R129" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S129" t="s">
         <v>30</v>
@@ -10141,15 +10147,15 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130">
-        <v>805665</v>
+        <v>929464</v>
       </c>
       <c r="C130" t="s">
         <v>305</v>
@@ -10158,34 +10164,34 @@
         <v>347</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="F130" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G130" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H130" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I130" t="s">
         <v>50</v>
       </c>
       <c r="J130" s="1">
-        <v>6.5</v>
+        <v>10.4</v>
       </c>
       <c r="K130" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L130" s="1">
-        <v>5.41</v>
+        <v>8.66</v>
       </c>
       <c r="M130" s="1">
-        <v>8.97</v>
+        <v>14.35</v>
       </c>
       <c r="N130" s="1">
-        <v>10.5</v>
+        <v>16.8</v>
       </c>
       <c r="O130" s="3">
         <v>0.0499</v>
@@ -10197,7 +10203,7 @@
         <v>25</v>
       </c>
       <c r="R130" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="S130" t="s">
         <v>30</v>
@@ -10211,46 +10217,46 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B131">
-        <v>900310</v>
+        <v>805665</v>
       </c>
       <c r="C131" t="s">
         <v>305</v>
       </c>
       <c r="D131" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E131" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="F131" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H131" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I131" t="s">
         <v>50</v>
       </c>
       <c r="J131" s="1">
-        <v>14.3</v>
+        <v>6.5</v>
       </c>
       <c r="K131" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L131" s="1">
-        <v>11.91</v>
+        <v>5.41</v>
       </c>
       <c r="M131" s="1">
-        <v>19.73</v>
+        <v>8.97</v>
       </c>
       <c r="N131" s="1">
-        <v>23.1</v>
+        <v>10.5</v>
       </c>
       <c r="O131" s="3">
         <v>0.0499</v>
@@ -10262,7 +10268,7 @@
         <v>25</v>
       </c>
       <c r="R131" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S131" t="s">
         <v>30</v>
@@ -10271,15 +10277,15 @@
         <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B132">
-        <v>1011872</v>
+        <v>900310</v>
       </c>
       <c r="C132" t="s">
         <v>305</v>
@@ -10288,34 +10294,34 @@
         <v>350</v>
       </c>
       <c r="E132" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="F132" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G132" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H132" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I132" t="s">
         <v>50</v>
       </c>
       <c r="J132" s="1">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="K132" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L132" s="1">
-        <v>10.82</v>
+        <v>11.91</v>
       </c>
       <c r="M132" s="1">
-        <v>17.94</v>
+        <v>19.73</v>
       </c>
       <c r="N132" s="1">
-        <v>21</v>
+        <v>23.1</v>
       </c>
       <c r="O132" s="3">
         <v>0.0499</v>
@@ -10327,7 +10333,7 @@
         <v>25</v>
       </c>
       <c r="R132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S132" t="s">
         <v>30</v>
@@ -10336,33 +10342,33 @@
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B133">
-        <v>913650</v>
+        <v>1011872</v>
       </c>
       <c r="C133" t="s">
         <v>305</v>
       </c>
       <c r="D133" t="s">
+        <v>352</v>
+      </c>
+      <c r="E133" t="s">
         <v>353</v>
-      </c>
-      <c r="E133" t="s">
-        <v>307</v>
       </c>
       <c r="F133" s="1">
         <v>20</v>
       </c>
       <c r="G133" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H133" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
         <v>50</v>
@@ -10406,46 +10412,46 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B134">
-        <v>911651</v>
+        <v>913650</v>
       </c>
       <c r="C134" t="s">
+        <v>305</v>
+      </c>
+      <c r="D134" t="s">
         <v>355</v>
       </c>
-      <c r="D134" t="s">
-        <v>356</v>
-      </c>
       <c r="E134" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="F134" s="1">
-        <v>16.6</v>
+        <v>20</v>
       </c>
       <c r="G134" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H134" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
         <v>50</v>
       </c>
       <c r="J134" s="1">
-        <v>10.79</v>
+        <v>13</v>
       </c>
       <c r="K134" s="1">
-        <v>16.6</v>
+        <v>20</v>
       </c>
       <c r="L134" s="1">
-        <v>8.98</v>
+        <v>10.82</v>
       </c>
       <c r="M134" s="1">
-        <v>14.89</v>
+        <v>17.94</v>
       </c>
       <c r="N134" s="1">
-        <v>17.43</v>
+        <v>21</v>
       </c>
       <c r="O134" s="3">
         <v>0.0499</v>
@@ -10454,39 +10460,39 @@
         <v>1</v>
       </c>
       <c r="Q134" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="S134" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T134">
         <v>0</v>
       </c>
       <c r="U134" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135">
-        <v>911647</v>
+        <v>911651</v>
       </c>
       <c r="C135" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" t="s">
         <v>359</v>
       </c>
-      <c r="E135" t="s">
-        <v>360</v>
-      </c>
       <c r="F135" s="1">
-        <v>20.77</v>
+        <v>16.6</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -10498,19 +10504,19 @@
         <v>50</v>
       </c>
       <c r="J135" s="1">
-        <v>13.5</v>
+        <v>10.79</v>
       </c>
       <c r="K135" s="1">
-        <v>20.77</v>
+        <v>16.6</v>
       </c>
       <c r="L135" s="1">
-        <v>11.24</v>
+        <v>8.98</v>
       </c>
       <c r="M135" s="1">
-        <v>18.63</v>
+        <v>14.89</v>
       </c>
       <c r="N135" s="1">
-        <v>21.81</v>
+        <v>17.43</v>
       </c>
       <c r="O135" s="3">
         <v>0.0499</v>
@@ -10522,7 +10528,7 @@
         <v>30</v>
       </c>
       <c r="R135" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="S135" t="s">
         <v>25</v>
@@ -10536,13 +10542,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136">
-        <v>911648</v>
+        <v>911647</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
         <v>361</v>
@@ -10551,7 +10557,7 @@
         <v>362</v>
       </c>
       <c r="F136" s="1">
-        <v>21.88</v>
+        <v>20.77</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -10563,19 +10569,19 @@
         <v>50</v>
       </c>
       <c r="J136" s="1">
-        <v>14.22</v>
+        <v>13.5</v>
       </c>
       <c r="K136" s="1">
-        <v>21.88</v>
+        <v>20.77</v>
       </c>
       <c r="L136" s="1">
-        <v>11.84</v>
+        <v>11.24</v>
       </c>
       <c r="M136" s="1">
-        <v>19.63</v>
+        <v>18.63</v>
       </c>
       <c r="N136" s="1">
-        <v>22.97</v>
+        <v>21.81</v>
       </c>
       <c r="O136" s="3">
         <v>0.0499</v>
@@ -10587,7 +10593,7 @@
         <v>30</v>
       </c>
       <c r="R136" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="S136" t="s">
         <v>25</v>
@@ -10601,13 +10607,13 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B137">
-        <v>957423</v>
+        <v>911648</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D137" t="s">
         <v>363</v>
@@ -10616,7 +10622,7 @@
         <v>364</v>
       </c>
       <c r="F137" s="1">
-        <v>19.23</v>
+        <v>21.88</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -10628,19 +10634,19 @@
         <v>50</v>
       </c>
       <c r="J137" s="1">
-        <v>12.5</v>
+        <v>14.22</v>
       </c>
       <c r="K137" s="1">
-        <v>19.23</v>
+        <v>21.88</v>
       </c>
       <c r="L137" s="1">
-        <v>10.41</v>
+        <v>11.84</v>
       </c>
       <c r="M137" s="1">
-        <v>17.25</v>
+        <v>19.63</v>
       </c>
       <c r="N137" s="1">
-        <v>20.19</v>
+        <v>22.97</v>
       </c>
       <c r="O137" s="3">
         <v>0.0499</v>
@@ -10652,7 +10658,7 @@
         <v>30</v>
       </c>
       <c r="R137" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="S137" t="s">
         <v>25</v>
@@ -10666,22 +10672,22 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138">
-        <v>957424</v>
+        <v>957423</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D138" t="s">
+        <v>365</v>
+      </c>
+      <c r="E138" t="s">
         <v>366</v>
       </c>
-      <c r="E138" t="s">
-        <v>367</v>
-      </c>
       <c r="F138" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -10693,19 +10699,19 @@
         <v>50</v>
       </c>
       <c r="J138" s="1">
-        <v>14.22</v>
+        <v>12.5</v>
       </c>
       <c r="K138" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="L138" s="1">
-        <v>11.84</v>
+        <v>10.41</v>
       </c>
       <c r="M138" s="1">
-        <v>19.63</v>
+        <v>17.25</v>
       </c>
       <c r="N138" s="1">
-        <v>22.97</v>
+        <v>20.19</v>
       </c>
       <c r="O138" s="3">
         <v>0.0499</v>
@@ -10717,7 +10723,7 @@
         <v>30</v>
       </c>
       <c r="R138" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="S138" t="s">
         <v>25</v>
@@ -10731,13 +10737,13 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139">
-        <v>936388</v>
+        <v>957424</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D139" t="s">
         <v>368</v>
@@ -10746,7 +10752,7 @@
         <v>369</v>
       </c>
       <c r="F139" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -10758,19 +10764,19 @@
         <v>50</v>
       </c>
       <c r="J139" s="1">
-        <v>10.79</v>
+        <v>14.22</v>
       </c>
       <c r="K139" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="L139" s="1">
-        <v>8.98</v>
+        <v>11.84</v>
       </c>
       <c r="M139" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="N139" s="1">
-        <v>17.43</v>
+        <v>22.97</v>
       </c>
       <c r="O139" s="3">
         <v>0.0499</v>
@@ -10782,7 +10788,7 @@
         <v>30</v>
       </c>
       <c r="R139" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S139" t="s">
         <v>25</v>
@@ -10796,22 +10802,22 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140">
-        <v>936387</v>
+        <v>936388</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D140" t="s">
+        <v>370</v>
+      </c>
+      <c r="E140" t="s">
         <v>371</v>
       </c>
-      <c r="E140" t="s">
-        <v>372</v>
-      </c>
       <c r="F140" s="1">
-        <v>20.77</v>
+        <v>16.6</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -10823,19 +10829,19 @@
         <v>50</v>
       </c>
       <c r="J140" s="1">
-        <v>13.5</v>
+        <v>10.79</v>
       </c>
       <c r="K140" s="1">
-        <v>20.77</v>
+        <v>16.6</v>
       </c>
       <c r="L140" s="1">
-        <v>11.24</v>
+        <v>8.98</v>
       </c>
       <c r="M140" s="1">
-        <v>18.63</v>
+        <v>14.89</v>
       </c>
       <c r="N140" s="1">
-        <v>21.81</v>
+        <v>17.43</v>
       </c>
       <c r="O140" s="3">
         <v>0.0499</v>
@@ -10847,7 +10853,7 @@
         <v>30</v>
       </c>
       <c r="R140" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="S140" t="s">
         <v>25</v>
@@ -10861,13 +10867,13 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141">
-        <v>824228</v>
+        <v>936387</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
         <v>373</v>
@@ -10876,7 +10882,7 @@
         <v>374</v>
       </c>
       <c r="F141" s="1">
-        <v>21.89</v>
+        <v>20.77</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -10888,19 +10894,19 @@
         <v>50</v>
       </c>
       <c r="J141" s="1">
-        <v>14.23</v>
+        <v>13.5</v>
       </c>
       <c r="K141" s="1">
-        <v>21.89</v>
+        <v>20.77</v>
       </c>
       <c r="L141" s="1">
-        <v>11.85</v>
+        <v>11.24</v>
       </c>
       <c r="M141" s="1">
-        <v>19.63</v>
+        <v>18.63</v>
       </c>
       <c r="N141" s="1">
-        <v>22.98</v>
+        <v>21.81</v>
       </c>
       <c r="O141" s="3">
         <v>0.0499</v>
@@ -10912,7 +10918,7 @@
         <v>30</v>
       </c>
       <c r="R141" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="S141" t="s">
         <v>25</v>
@@ -10926,22 +10932,22 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B142">
-        <v>866256</v>
+        <v>824228</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D142" t="s">
         <v>375</v>
       </c>
       <c r="E142" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F142" s="1">
-        <v>16.6</v>
+        <v>21.89</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -10953,19 +10959,19 @@
         <v>50</v>
       </c>
       <c r="J142" s="1">
-        <v>10.79</v>
+        <v>14.23</v>
       </c>
       <c r="K142" s="1">
-        <v>16.6</v>
+        <v>21.89</v>
       </c>
       <c r="L142" s="1">
-        <v>8.98</v>
+        <v>11.85</v>
       </c>
       <c r="M142" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="N142" s="1">
-        <v>17.43</v>
+        <v>22.98</v>
       </c>
       <c r="O142" s="3">
         <v>0.0499</v>
@@ -10977,7 +10983,7 @@
         <v>30</v>
       </c>
       <c r="R142" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S142" t="s">
         <v>25</v>
@@ -10991,22 +10997,22 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143">
-        <v>805464</v>
+        <v>866256</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D143" t="s">
         <v>377</v>
       </c>
       <c r="E143" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F143" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -11018,19 +11024,19 @@
         <v>50</v>
       </c>
       <c r="J143" s="1">
-        <v>12.5</v>
+        <v>10.79</v>
       </c>
       <c r="K143" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="L143" s="1">
-        <v>10.41</v>
+        <v>8.98</v>
       </c>
       <c r="M143" s="1">
-        <v>17.25</v>
+        <v>14.89</v>
       </c>
       <c r="N143" s="1">
-        <v>20.19</v>
+        <v>17.43</v>
       </c>
       <c r="O143" s="3">
         <v>0.0499</v>
@@ -11042,7 +11048,7 @@
         <v>30</v>
       </c>
       <c r="R143" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="S143" t="s">
         <v>25</v>
@@ -11056,22 +11062,22 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144">
-        <v>842611</v>
+        <v>805464</v>
       </c>
       <c r="C144" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E144" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F144" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -11083,19 +11089,19 @@
         <v>50</v>
       </c>
       <c r="J144" s="1">
-        <v>14.22</v>
+        <v>12.5</v>
       </c>
       <c r="K144" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="L144" s="1">
-        <v>11.84</v>
+        <v>10.41</v>
       </c>
       <c r="M144" s="1">
-        <v>19.63</v>
+        <v>17.25</v>
       </c>
       <c r="N144" s="1">
-        <v>22.97</v>
+        <v>20.19</v>
       </c>
       <c r="O144" s="3">
         <v>0.0499</v>
@@ -11107,7 +11113,7 @@
         <v>30</v>
       </c>
       <c r="R144" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="S144" t="s">
         <v>25</v>
@@ -11121,13 +11127,13 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>1015821</v>
+        <v>842611</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D145" t="s">
         <v>380</v>
@@ -11136,7 +11142,7 @@
         <v>381</v>
       </c>
       <c r="F145" s="1">
-        <v>13.5</v>
+        <v>21.88</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -11148,19 +11154,19 @@
         <v>50</v>
       </c>
       <c r="J145" s="1">
-        <v>8.78</v>
+        <v>14.22</v>
       </c>
       <c r="K145" s="1">
-        <v>13.5</v>
+        <v>21.88</v>
       </c>
       <c r="L145" s="1">
-        <v>7.31</v>
+        <v>11.84</v>
       </c>
       <c r="M145" s="1">
-        <v>12.11</v>
+        <v>19.63</v>
       </c>
       <c r="N145" s="1">
-        <v>14.17</v>
+        <v>22.97</v>
       </c>
       <c r="O145" s="3">
         <v>0.0499</v>
@@ -11169,39 +11175,39 @@
         <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R145" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="S145" t="s">
         <v>25</v>
       </c>
       <c r="T145">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B146">
-        <v>1015823</v>
+        <v>1015821</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D146" t="s">
+        <v>382</v>
+      </c>
+      <c r="E146" t="s">
         <v>383</v>
       </c>
-      <c r="E146" t="s">
-        <v>384</v>
-      </c>
       <c r="F146" s="1">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -11213,19 +11219,19 @@
         <v>50</v>
       </c>
       <c r="J146" s="1">
-        <v>9.75</v>
+        <v>8.78</v>
       </c>
       <c r="K146" s="1">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="L146" s="1">
-        <v>8.12</v>
+        <v>7.31</v>
       </c>
       <c r="M146" s="1">
-        <v>13.45</v>
+        <v>12.11</v>
       </c>
       <c r="N146" s="1">
-        <v>15.75</v>
+        <v>14.17</v>
       </c>
       <c r="O146" s="3">
         <v>0.0499</v>
@@ -11237,13 +11243,13 @@
         <v>25</v>
       </c>
       <c r="R146" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S146" t="s">
         <v>25</v>
       </c>
       <c r="T146">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U146" t="s">
         <v>25</v>
@@ -11251,22 +11257,22 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B147">
-        <v>805465</v>
+        <v>1015823</v>
       </c>
       <c r="C147" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D147" t="s">
         <v>385</v>
       </c>
       <c r="E147" t="s">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="F147" s="1">
-        <v>15.38</v>
+        <v>15</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -11278,19 +11284,19 @@
         <v>50</v>
       </c>
       <c r="J147" s="1">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="K147" s="1">
-        <v>15.38</v>
+        <v>15</v>
       </c>
       <c r="L147" s="1">
-        <v>8.32</v>
+        <v>8.12</v>
       </c>
       <c r="M147" s="1">
-        <v>13.8</v>
+        <v>13.45</v>
       </c>
       <c r="N147" s="1">
-        <v>16.15</v>
+        <v>15.75</v>
       </c>
       <c r="O147" s="3">
         <v>0.0499</v>
@@ -11299,16 +11305,16 @@
         <v>1</v>
       </c>
       <c r="Q147" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R147" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="S147" t="s">
         <v>25</v>
       </c>
       <c r="T147">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U147" t="s">
         <v>25</v>
@@ -11316,22 +11322,22 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>990715</v>
+        <v>805465</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
         <v>387</v>
       </c>
       <c r="E148" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="F148" s="1">
-        <v>9.23</v>
+        <v>15.38</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -11343,19 +11349,19 @@
         <v>50</v>
       </c>
       <c r="J148" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K148" s="1">
-        <v>9.23</v>
+        <v>15.38</v>
       </c>
       <c r="L148" s="1">
-        <v>5</v>
+        <v>8.32</v>
       </c>
       <c r="M148" s="1">
-        <v>8.28</v>
+        <v>13.8</v>
       </c>
       <c r="N148" s="1">
-        <v>9.69</v>
+        <v>16.15</v>
       </c>
       <c r="O148" s="3">
         <v>0.0499</v>
@@ -11367,7 +11373,7 @@
         <v>30</v>
       </c>
       <c r="R148" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="S148" t="s">
         <v>25</v>
@@ -11381,22 +11387,22 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B149">
-        <v>881794</v>
+        <v>990715</v>
       </c>
       <c r="C149" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E149" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="F149" s="1">
-        <v>13.85</v>
+        <v>9.23</v>
       </c>
       <c r="G149" s="2">
         <v>0</v>
@@ -11408,19 +11414,19 @@
         <v>50</v>
       </c>
       <c r="J149" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K149" s="1">
-        <v>13.85</v>
+        <v>9.23</v>
       </c>
       <c r="L149" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="M149" s="1">
-        <v>12.42</v>
+        <v>8.28</v>
       </c>
       <c r="N149" s="1">
-        <v>14.54</v>
+        <v>9.69</v>
       </c>
       <c r="O149" s="3">
         <v>0.0499</v>
@@ -11432,7 +11438,7 @@
         <v>30</v>
       </c>
       <c r="R149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S149" t="s">
         <v>25</v>
@@ -11446,22 +11452,22 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>805466</v>
+        <v>881794</v>
       </c>
       <c r="C150" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D150" t="s">
         <v>390</v>
       </c>
       <c r="E150" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
       <c r="F150" s="1">
-        <v>22.66</v>
+        <v>13.85</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -11473,19 +11479,19 @@
         <v>50</v>
       </c>
       <c r="J150" s="1">
-        <v>14.73</v>
+        <v>9</v>
       </c>
       <c r="K150" s="1">
-        <v>22.66</v>
+        <v>13.85</v>
       </c>
       <c r="L150" s="1">
-        <v>12.26</v>
+        <v>7.5</v>
       </c>
       <c r="M150" s="1">
-        <v>20.33</v>
+        <v>12.42</v>
       </c>
       <c r="N150" s="1">
-        <v>23.79</v>
+        <v>14.54</v>
       </c>
       <c r="O150" s="3">
         <v>0.0499</v>
@@ -11497,7 +11503,7 @@
         <v>30</v>
       </c>
       <c r="R150" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S150" t="s">
         <v>25</v>
@@ -11506,27 +11512,27 @@
         <v>0</v>
       </c>
       <c r="U150" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151">
-        <v>836358</v>
+        <v>805466</v>
       </c>
       <c r="C151" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
+        <v>392</v>
+      </c>
+      <c r="E151" t="s">
         <v>393</v>
       </c>
-      <c r="E151" t="s">
-        <v>394</v>
-      </c>
       <c r="F151" s="1">
-        <v>19.23</v>
+        <v>22.66</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
@@ -11538,19 +11544,19 @@
         <v>50</v>
       </c>
       <c r="J151" s="1">
-        <v>12.5</v>
+        <v>14.73</v>
       </c>
       <c r="K151" s="1">
-        <v>19.23</v>
+        <v>22.66</v>
       </c>
       <c r="L151" s="1">
-        <v>10.41</v>
+        <v>12.26</v>
       </c>
       <c r="M151" s="1">
-        <v>17.25</v>
+        <v>20.33</v>
       </c>
       <c r="N151" s="1">
-        <v>20.19</v>
+        <v>23.79</v>
       </c>
       <c r="O151" s="3">
         <v>0.0499</v>
@@ -11562,7 +11568,7 @@
         <v>30</v>
       </c>
       <c r="R151" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S151" t="s">
         <v>25</v>
@@ -11576,22 +11582,22 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
-        <v>867239</v>
+        <v>836358</v>
       </c>
       <c r="C152" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
+        <v>395</v>
+      </c>
+      <c r="E152" t="s">
         <v>396</v>
       </c>
-      <c r="E152" t="s">
-        <v>397</v>
-      </c>
       <c r="F152" s="1">
-        <v>20.77</v>
+        <v>19.23</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -11603,19 +11609,19 @@
         <v>50</v>
       </c>
       <c r="J152" s="1">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="K152" s="1">
-        <v>20.77</v>
+        <v>19.23</v>
       </c>
       <c r="L152" s="1">
-        <v>11.24</v>
+        <v>10.41</v>
       </c>
       <c r="M152" s="1">
-        <v>18.63</v>
+        <v>17.25</v>
       </c>
       <c r="N152" s="1">
-        <v>21.81</v>
+        <v>20.19</v>
       </c>
       <c r="O152" s="3">
         <v>0.0499</v>
@@ -11627,7 +11633,7 @@
         <v>30</v>
       </c>
       <c r="R152" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="S152" t="s">
         <v>25</v>
@@ -11641,13 +11647,13 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153">
-        <v>805468</v>
+        <v>867239</v>
       </c>
       <c r="C153" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D153" t="s">
         <v>398</v>
@@ -11656,7 +11662,7 @@
         <v>399</v>
       </c>
       <c r="F153" s="1">
-        <v>29.62</v>
+        <v>20.77</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
@@ -11668,19 +11674,19 @@
         <v>50</v>
       </c>
       <c r="J153" s="1">
-        <v>19.25</v>
+        <v>13.5</v>
       </c>
       <c r="K153" s="1">
-        <v>29.62</v>
+        <v>20.77</v>
       </c>
       <c r="L153" s="1">
-        <v>16.03</v>
+        <v>11.24</v>
       </c>
       <c r="M153" s="1">
-        <v>26.57</v>
+        <v>18.63</v>
       </c>
       <c r="N153" s="1">
-        <v>31.1</v>
+        <v>21.81</v>
       </c>
       <c r="O153" s="3">
         <v>0.0499</v>
@@ -11692,7 +11698,7 @@
         <v>30</v>
       </c>
       <c r="R153" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S153" t="s">
         <v>25</v>
@@ -11706,22 +11712,22 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>805469</v>
+        <v>805468</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D154" t="s">
+        <v>400</v>
+      </c>
+      <c r="E154" t="s">
         <v>401</v>
       </c>
-      <c r="E154" t="s">
-        <v>402</v>
-      </c>
       <c r="F154" s="1">
-        <v>32.69</v>
+        <v>29.62</v>
       </c>
       <c r="G154" s="2">
         <v>0</v>
@@ -11733,19 +11739,19 @@
         <v>50</v>
       </c>
       <c r="J154" s="1">
-        <v>21.25</v>
+        <v>19.25</v>
       </c>
       <c r="K154" s="1">
-        <v>32.69</v>
+        <v>29.62</v>
       </c>
       <c r="L154" s="1">
-        <v>17.69</v>
+        <v>16.03</v>
       </c>
       <c r="M154" s="1">
-        <v>29.32</v>
+        <v>26.57</v>
       </c>
       <c r="N154" s="1">
-        <v>34.32</v>
+        <v>31.1</v>
       </c>
       <c r="O154" s="3">
         <v>0.0499</v>
@@ -11757,7 +11763,7 @@
         <v>30</v>
       </c>
       <c r="R154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S154" t="s">
         <v>25</v>
@@ -11771,22 +11777,22 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>805461</v>
+        <v>805469</v>
       </c>
       <c r="C155" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
+        <v>403</v>
+      </c>
+      <c r="E155" t="s">
         <v>404</v>
       </c>
-      <c r="E155" t="s">
-        <v>405</v>
-      </c>
       <c r="F155" s="1">
-        <v>23.08</v>
+        <v>32.69</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -11798,19 +11804,19 @@
         <v>50</v>
       </c>
       <c r="J155" s="1">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="K155" s="1">
-        <v>23.08</v>
+        <v>32.69</v>
       </c>
       <c r="L155" s="1">
-        <v>12.49</v>
+        <v>17.69</v>
       </c>
       <c r="M155" s="1">
-        <v>20.7</v>
+        <v>29.32</v>
       </c>
       <c r="N155" s="1">
-        <v>24.23</v>
+        <v>34.32</v>
       </c>
       <c r="O155" s="3">
         <v>0.0499</v>
@@ -11822,7 +11828,7 @@
         <v>30</v>
       </c>
       <c r="R155" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S155" t="s">
         <v>25</v>
@@ -11831,27 +11837,27 @@
         <v>0</v>
       </c>
       <c r="U155" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>805470</v>
+        <v>805461</v>
       </c>
       <c r="C156" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
+        <v>406</v>
+      </c>
+      <c r="E156" t="s">
         <v>407</v>
       </c>
-      <c r="E156" t="s">
-        <v>408</v>
-      </c>
       <c r="F156" s="1">
-        <v>21.54</v>
+        <v>23.08</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -11863,19 +11869,19 @@
         <v>50</v>
       </c>
       <c r="J156" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K156" s="1">
-        <v>21.54</v>
+        <v>23.08</v>
       </c>
       <c r="L156" s="1">
-        <v>11.66</v>
+        <v>12.49</v>
       </c>
       <c r="M156" s="1">
-        <v>19.32</v>
+        <v>20.7</v>
       </c>
       <c r="N156" s="1">
-        <v>22.62</v>
+        <v>24.23</v>
       </c>
       <c r="O156" s="3">
         <v>0.0499</v>
@@ -11887,7 +11893,7 @@
         <v>30</v>
       </c>
       <c r="R156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S156" t="s">
         <v>25</v>
@@ -11901,22 +11907,22 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>805471</v>
+        <v>805470</v>
       </c>
       <c r="C157" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D157" t="s">
+        <v>409</v>
+      </c>
+      <c r="E157" t="s">
         <v>410</v>
       </c>
-      <c r="E157" t="s">
-        <v>68</v>
-      </c>
       <c r="F157" s="1">
-        <v>16.92</v>
+        <v>21.54</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -11928,19 +11934,19 @@
         <v>50</v>
       </c>
       <c r="J157" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K157" s="1">
-        <v>16.92</v>
+        <v>21.54</v>
       </c>
       <c r="L157" s="1">
-        <v>9.16</v>
+        <v>11.66</v>
       </c>
       <c r="M157" s="1">
-        <v>15.18</v>
+        <v>19.32</v>
       </c>
       <c r="N157" s="1">
-        <v>17.76</v>
+        <v>22.62</v>
       </c>
       <c r="O157" s="3">
         <v>0.0499</v>
@@ -11966,22 +11972,22 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>805472</v>
+        <v>805471</v>
       </c>
       <c r="C158" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D158" t="s">
         <v>412</v>
       </c>
       <c r="E158" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="F158" s="1">
-        <v>15.38</v>
+        <v>16.92</v>
       </c>
       <c r="G158" s="2">
         <v>0</v>
@@ -11993,19 +11999,19 @@
         <v>50</v>
       </c>
       <c r="J158" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K158" s="1">
-        <v>15.38</v>
+        <v>16.92</v>
       </c>
       <c r="L158" s="1">
-        <v>8.32</v>
+        <v>9.16</v>
       </c>
       <c r="M158" s="1">
-        <v>13.8</v>
+        <v>15.18</v>
       </c>
       <c r="N158" s="1">
-        <v>16.15</v>
+        <v>17.76</v>
       </c>
       <c r="O158" s="3">
         <v>0.0499</v>
@@ -12031,19 +12037,19 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>805473</v>
+        <v>805472</v>
       </c>
       <c r="C159" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D159" t="s">
         <v>414</v>
       </c>
       <c r="E159" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="F159" s="1">
         <v>15.38</v>
@@ -12096,19 +12102,19 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>805474</v>
+        <v>805473</v>
       </c>
       <c r="C160" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D160" t="s">
         <v>416</v>
       </c>
       <c r="E160" t="s">
-        <v>405</v>
+        <v>65</v>
       </c>
       <c r="F160" s="1">
         <v>15.38</v>
@@ -12161,22 +12167,22 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>990712</v>
+        <v>805474</v>
       </c>
       <c r="C161" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D161" t="s">
         <v>418</v>
       </c>
       <c r="E161" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F161" s="1">
-        <v>8.92</v>
+        <v>15.38</v>
       </c>
       <c r="G161" s="2">
         <v>0</v>
@@ -12188,19 +12194,19 @@
         <v>50</v>
       </c>
       <c r="J161" s="1">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="K161" s="1">
-        <v>8.92</v>
+        <v>15.38</v>
       </c>
       <c r="L161" s="1">
-        <v>4.83</v>
+        <v>8.32</v>
       </c>
       <c r="M161" s="1">
-        <v>8</v>
+        <v>13.8</v>
       </c>
       <c r="N161" s="1">
-        <v>9.37</v>
+        <v>16.15</v>
       </c>
       <c r="O161" s="3">
         <v>0.0499</v>
@@ -12212,7 +12218,7 @@
         <v>30</v>
       </c>
       <c r="R161" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="S161" t="s">
         <v>25</v>
@@ -12226,22 +12232,22 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B162">
-        <v>805475</v>
+        <v>990712</v>
       </c>
       <c r="C162" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D162" t="s">
         <v>420</v>
       </c>
       <c r="E162" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F162" s="1">
-        <v>18.46</v>
+        <v>8.92</v>
       </c>
       <c r="G162" s="2">
         <v>0</v>
@@ -12253,19 +12259,19 @@
         <v>50</v>
       </c>
       <c r="J162" s="1">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="K162" s="1">
-        <v>18.46</v>
+        <v>8.92</v>
       </c>
       <c r="L162" s="1">
-        <v>9.99</v>
+        <v>4.83</v>
       </c>
       <c r="M162" s="1">
-        <v>16.56</v>
+        <v>8</v>
       </c>
       <c r="N162" s="1">
-        <v>19.38</v>
+        <v>9.37</v>
       </c>
       <c r="O162" s="3">
         <v>0.0499</v>
@@ -12277,7 +12283,7 @@
         <v>30</v>
       </c>
       <c r="R162" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="S162" t="s">
         <v>25</v>
@@ -12291,22 +12297,22 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
-        <v>805476</v>
+        <v>805475</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D163" t="s">
         <v>422</v>
       </c>
       <c r="E163" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="F163" s="1">
-        <v>10.77</v>
+        <v>18.46</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
@@ -12318,19 +12324,19 @@
         <v>50</v>
       </c>
       <c r="J163" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K163" s="1">
-        <v>10.77</v>
+        <v>18.46</v>
       </c>
       <c r="L163" s="1">
-        <v>5.83</v>
+        <v>9.99</v>
       </c>
       <c r="M163" s="1">
-        <v>9.66</v>
+        <v>16.56</v>
       </c>
       <c r="N163" s="1">
-        <v>11.31</v>
+        <v>19.38</v>
       </c>
       <c r="O163" s="3">
         <v>0.0499</v>
@@ -12356,22 +12362,22 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164">
-        <v>805477</v>
+        <v>805476</v>
       </c>
       <c r="C164" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D164" t="s">
         <v>424</v>
       </c>
       <c r="E164" t="s">
-        <v>425</v>
+        <v>68</v>
       </c>
       <c r="F164" s="1">
-        <v>18.46</v>
+        <v>10.77</v>
       </c>
       <c r="G164" s="2">
         <v>0</v>
@@ -12383,39 +12389,104 @@
         <v>50</v>
       </c>
       <c r="J164" s="1">
+        <v>7</v>
+      </c>
+      <c r="K164" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="L164" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="M164" s="1">
+        <v>9.66</v>
+      </c>
+      <c r="N164" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="O164" s="3">
+        <v>0.0499</v>
+      </c>
+      <c r="P164">
+        <v>1</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>30</v>
+      </c>
+      <c r="R164" t="s">
+        <v>425</v>
+      </c>
+      <c r="S164" t="s">
+        <v>25</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>805477</v>
+      </c>
+      <c r="C165" t="s">
+        <v>357</v>
+      </c>
+      <c r="D165" t="s">
+        <v>426</v>
+      </c>
+      <c r="E165" t="s">
+        <v>427</v>
+      </c>
+      <c r="F165" s="1">
+        <v>18.46</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>50</v>
+      </c>
+      <c r="J165" s="1">
         <v>12</v>
       </c>
-      <c r="K164" s="1">
+      <c r="K165" s="1">
         <v>18.46</v>
       </c>
-      <c r="L164" s="1">
+      <c r="L165" s="1">
         <v>9.99</v>
       </c>
-      <c r="M164" s="1">
+      <c r="M165" s="1">
         <v>16.56</v>
       </c>
-      <c r="N164" s="1">
+      <c r="N165" s="1">
         <v>19.38</v>
       </c>
-      <c r="O164" s="3">
-        <v>0.0499</v>
-      </c>
-      <c r="P164">
-        <v>1</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>30</v>
-      </c>
-      <c r="R164" t="s">
-        <v>426</v>
-      </c>
-      <c r="S164" t="s">
-        <v>25</v>
-      </c>
-      <c r="T164">
-        <v>0</v>
-      </c>
-      <c r="U164" t="s">
+      <c r="O165" s="3">
+        <v>0.0499</v>
+      </c>
+      <c r="P165">
+        <v>1</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>30</v>
+      </c>
+      <c r="R165" t="s">
+        <v>428</v>
+      </c>
+      <c r="S165" t="s">
+        <v>25</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12432,10 +12503,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12443,7 +12514,7 @@
         <v>0.5412</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12451,7 +12522,7 @@
         <v>0.65</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12459,7 +12530,7 @@
         <v>0.6574</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12467,7 +12538,7 @@
         <v>0.94</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1889,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U2" t="s">
         <v>25</v>
@@ -2604,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="T13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U13" t="s">
         <v>25</v>
@@ -3576,13 +3576,13 @@
         <v>98</v>
       </c>
       <c r="S28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3966,13 +3966,13 @@
         <v>114</v>
       </c>
       <c r="S34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
         <v>25</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U38" t="s">
         <v>25</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
         <v>25</v>
       </c>
       <c r="T44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U44" t="s">
         <v>25</v>
@@ -4811,13 +4811,13 @@
         <v>148</v>
       </c>
       <c r="S47" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U47" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -5136,10 +5136,10 @@
         <v>161</v>
       </c>
       <c r="S52" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U52" t="s">
         <v>25</v>
@@ -6306,13 +6306,13 @@
         <v>209</v>
       </c>
       <c r="S70" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U70" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,7 @@
         <v>25</v>
       </c>
       <c r="T73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U73" t="s">
         <v>25</v>
@@ -6826,13 +6826,13 @@
         <v>230</v>
       </c>
       <c r="S78" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U78" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -7996,10 +7996,10 @@
         <v>274</v>
       </c>
       <c r="S96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U96" t="s">
         <v>25</v>
@@ -8646,13 +8646,13 @@
         <v>296</v>
       </c>
       <c r="S106" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T106">
         <v>4</v>
       </c>
       <c r="U106" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R146" t="s">
         <v>384</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="Q147" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R147" t="s">
         <v>384</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
         <v>60</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R15" t="s">
         <v>62</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -95,6 +95,9 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1886,13 +1886,13 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1906,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1948,10 +1948,10 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -2016,7 +2016,7 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2465,19 +2465,19 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
         <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2601,13 +2601,13 @@
         <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2666,13 +2666,13 @@
         <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2731,13 +2731,13 @@
         <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>66</v>
       </c>
       <c r="S16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>66</v>
       </c>
       <c r="S17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>73</v>
       </c>
       <c r="S19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3121,13 +3121,13 @@
         <v>79</v>
       </c>
       <c r="S21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3251,7 +3251,7 @@
         <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>87</v>
       </c>
       <c r="S24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3381,13 +3381,13 @@
         <v>90</v>
       </c>
       <c r="S25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3446,7 +3446,7 @@
         <v>93</v>
       </c>
       <c r="S26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>96</v>
       </c>
       <c r="S27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U28" t="s">
         <v>25</v>
@@ -3641,13 +3641,13 @@
         <v>101</v>
       </c>
       <c r="S29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3706,10 +3706,10 @@
         <v>104</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30" t="s">
         <v>25</v>
@@ -3771,10 +3771,10 @@
         <v>107</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U31" t="s">
         <v>25</v>
@@ -3830,19 +3830,19 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R32" t="s">
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>111</v>
       </c>
       <c r="S33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="T34">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U34" t="s">
         <v>25</v>
@@ -4031,13 +4031,13 @@
         <v>117</v>
       </c>
       <c r="S35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -4096,13 +4096,13 @@
         <v>120</v>
       </c>
       <c r="S36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -4164,7 +4164,7 @@
         <v>25</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U37" t="s">
         <v>25</v>
@@ -4229,7 +4229,7 @@
         <v>25</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U38" t="s">
         <v>25</v>
@@ -4291,13 +4291,13 @@
         <v>123</v>
       </c>
       <c r="S39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -4356,13 +4356,13 @@
         <v>130</v>
       </c>
       <c r="S40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4421,13 +4421,13 @@
         <v>133</v>
       </c>
       <c r="S41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1">
         <v>15.5</v>
@@ -4486,13 +4486,13 @@
         <v>135</v>
       </c>
       <c r="S42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>137</v>
       </c>
       <c r="S43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4616,13 +4616,13 @@
         <v>140</v>
       </c>
       <c r="S44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>143</v>
       </c>
       <c r="S45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4746,13 +4746,13 @@
         <v>146</v>
       </c>
       <c r="S46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -4814,7 +4814,7 @@
         <v>25</v>
       </c>
       <c r="T47">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="U47" t="s">
         <v>25</v>
@@ -4876,10 +4876,10 @@
         <v>151</v>
       </c>
       <c r="S48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U48" t="s">
         <v>25</v>
@@ -4941,13 +4941,13 @@
         <v>154</v>
       </c>
       <c r="S49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -5006,13 +5006,13 @@
         <v>154</v>
       </c>
       <c r="S50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -5071,13 +5071,13 @@
         <v>158</v>
       </c>
       <c r="S51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5136,10 +5136,10 @@
         <v>161</v>
       </c>
       <c r="S52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U52" t="s">
         <v>25</v>
@@ -5201,7 +5201,7 @@
         <v>164</v>
       </c>
       <c r="S53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>168</v>
       </c>
       <c r="S54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>171</v>
       </c>
       <c r="S55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>173</v>
       </c>
       <c r="S56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>176</v>
       </c>
       <c r="S57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>179</v>
       </c>
       <c r="S58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>182</v>
       </c>
       <c r="S59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>185</v>
       </c>
       <c r="S60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>185</v>
       </c>
       <c r="S61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>185</v>
       </c>
       <c r="S62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T62">
         <v>4</v>
@@ -5851,13 +5851,13 @@
         <v>185</v>
       </c>
       <c r="S63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5916,13 +5916,13 @@
         <v>194</v>
       </c>
       <c r="S64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -5981,7 +5981,7 @@
         <v>194</v>
       </c>
       <c r="S65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>194</v>
       </c>
       <c r="S66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>201</v>
       </c>
       <c r="S67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>204</v>
       </c>
       <c r="S68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -6199,7 +6199,7 @@
         <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1">
         <v>20</v>
@@ -6241,7 +6241,7 @@
         <v>207</v>
       </c>
       <c r="S69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6306,10 +6306,10 @@
         <v>209</v>
       </c>
       <c r="S70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U70" t="s">
         <v>25</v>
@@ -6371,7 +6371,7 @@
         <v>212</v>
       </c>
       <c r="S71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>212</v>
       </c>
       <c r="S72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,7 @@
         <v>25</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U73" t="s">
         <v>25</v>
@@ -6566,13 +6566,13 @@
         <v>220</v>
       </c>
       <c r="S74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>223</v>
       </c>
       <c r="S75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>225</v>
       </c>
       <c r="S76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -6761,7 +6761,7 @@
         <v>227</v>
       </c>
       <c r="S77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6826,10 +6826,10 @@
         <v>230</v>
       </c>
       <c r="S78" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T78">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U78" t="s">
         <v>25</v>
@@ -6891,7 +6891,7 @@
         <v>233</v>
       </c>
       <c r="S79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6950,19 +6950,19 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R80" t="s">
         <v>51</v>
       </c>
       <c r="S80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -7021,13 +7021,13 @@
         <v>237</v>
       </c>
       <c r="S81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -7086,13 +7086,13 @@
         <v>240</v>
       </c>
       <c r="S82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -7151,13 +7151,13 @@
         <v>244</v>
       </c>
       <c r="S83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T83">
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>246</v>
       </c>
       <c r="S84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7281,13 +7281,13 @@
         <v>249</v>
       </c>
       <c r="S85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -7346,7 +7346,7 @@
         <v>251</v>
       </c>
       <c r="S86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>253</v>
       </c>
       <c r="S87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>255</v>
       </c>
       <c r="S88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7541,13 +7541,13 @@
         <v>257</v>
       </c>
       <c r="S89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -7600,19 +7600,19 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R90" t="s">
         <v>259</v>
       </c>
       <c r="S90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>262</v>
       </c>
       <c r="S91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>264</v>
       </c>
       <c r="S92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7801,13 +7801,13 @@
         <v>267</v>
       </c>
       <c r="S93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -7866,7 +7866,7 @@
         <v>270</v>
       </c>
       <c r="S94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>272</v>
       </c>
       <c r="S95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>25</v>
       </c>
       <c r="T96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U96" t="s">
         <v>25</v>
@@ -8061,13 +8061,13 @@
         <v>276</v>
       </c>
       <c r="S97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
         <v>279</v>
       </c>
       <c r="S98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>282</v>
       </c>
       <c r="S99" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>284</v>
       </c>
       <c r="S100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>286</v>
       </c>
       <c r="S101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>288</v>
       </c>
       <c r="S102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -8451,13 +8451,13 @@
         <v>290</v>
       </c>
       <c r="S103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -8516,7 +8516,7 @@
         <v>292</v>
       </c>
       <c r="S104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -8581,13 +8581,13 @@
         <v>294</v>
       </c>
       <c r="S105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T105">
         <v>4</v>
       </c>
       <c r="U105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -8646,13 +8646,13 @@
         <v>296</v>
       </c>
       <c r="S106" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T106">
         <v>4</v>
       </c>
       <c r="U106" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
         <v>300</v>
       </c>
       <c r="S107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>300</v>
       </c>
       <c r="S108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>16</v>
       </c>
       <c r="U109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -8906,13 +8906,13 @@
         <v>308</v>
       </c>
       <c r="S110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -8971,13 +8971,13 @@
         <v>310</v>
       </c>
       <c r="S111" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>312</v>
       </c>
       <c r="S112" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>314</v>
       </c>
       <c r="S113" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>316</v>
       </c>
       <c r="S114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T114">
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>318</v>
       </c>
       <c r="S115" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>320</v>
       </c>
       <c r="S116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -9361,13 +9361,13 @@
         <v>322</v>
       </c>
       <c r="S117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -9426,13 +9426,13 @@
         <v>324</v>
       </c>
       <c r="S118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T118">
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -9491,10 +9491,10 @@
         <v>326</v>
       </c>
       <c r="S119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T119">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U119" t="s">
         <v>25</v>
@@ -9556,10 +9556,10 @@
         <v>328</v>
       </c>
       <c r="S120" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T120">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U120" t="s">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         <v>330</v>
       </c>
       <c r="S121" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>333</v>
       </c>
       <c r="S122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>335</v>
       </c>
       <c r="S123" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>337</v>
       </c>
       <c r="S124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>316</v>
       </c>
       <c r="S125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T125">
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>342</v>
       </c>
       <c r="S126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>342</v>
       </c>
       <c r="S127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -10076,13 +10076,13 @@
         <v>345</v>
       </c>
       <c r="S128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -10141,13 +10141,13 @@
         <v>345</v>
       </c>
       <c r="S129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T129">
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
         <v>348</v>
       </c>
       <c r="S130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>348</v>
       </c>
       <c r="S131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -10336,13 +10336,13 @@
         <v>351</v>
       </c>
       <c r="S132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T132">
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
         <v>354</v>
       </c>
       <c r="S133" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>356</v>
       </c>
       <c r="S134" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="Q135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R135" t="s">
         <v>360</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="U135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="Q136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R136" t="s">
         <v>360</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="U136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R137" t="s">
         <v>360</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="U137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="Q138" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R138" t="s">
         <v>367</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="U138" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="Q139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R139" t="s">
         <v>367</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="U139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="Q140" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R140" t="s">
         <v>372</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="U140" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="Q141" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R141" t="s">
         <v>372</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="U141" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="Q142" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R142" t="s">
         <v>372</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="U142" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="Q143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R143" t="s">
         <v>378</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="U143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R144" t="s">
         <v>378</v>
@@ -11122,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R145" t="s">
         <v>378</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R146" t="s">
         <v>384</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="Q147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R147" t="s">
         <v>384</v>
@@ -11370,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="Q148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R148" t="s">
         <v>388</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="Q149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R149" t="s">
         <v>388</v>
@@ -11500,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="Q150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R150" t="s">
         <v>391</v>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="Q151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R151" t="s">
         <v>394</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="U151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="Q152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R152" t="s">
         <v>397</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="Q153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R153" t="s">
         <v>397</v>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -11760,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="Q154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R154" t="s">
         <v>402</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="U154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="Q155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R155" t="s">
         <v>405</v>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="U155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="Q156" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R156" t="s">
         <v>408</v>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="Q157" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R157" t="s">
         <v>411</v>
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="Q158" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R158" t="s">
         <v>413</v>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="Q159" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R159" t="s">
         <v>415</v>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="Q160" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R160" t="s">
         <v>417</v>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q161" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R161" t="s">
         <v>419</v>
@@ -12280,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="Q162" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R162" t="s">
         <v>419</v>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="Q163" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R163" t="s">
         <v>423</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="Q164" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R164" t="s">
         <v>425</v>
@@ -12475,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="Q165" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R165" t="s">
         <v>428</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -4811,13 +4811,13 @@
         <v>148</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T47">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -95,16 +95,16 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>Ground Pork</t>
+  </si>
+  <si>
+    <t>1.00 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Ground Pork</t>
-  </si>
-  <si>
-    <t>1.00 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1886,13 +1886,13 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1906,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1948,10 +1948,10 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -2016,7 +2016,7 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2465,19 +2465,19 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R11" t="s">
         <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2601,13 +2601,13 @@
         <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2666,13 +2666,13 @@
         <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2731,13 +2731,13 @@
         <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>66</v>
       </c>
       <c r="S16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>66</v>
       </c>
       <c r="S17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>73</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U22" t="s">
         <v>25</v>
@@ -3251,7 +3251,7 @@
         <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>25</v>
       </c>
       <c r="T24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U24" t="s">
         <v>25</v>
@@ -3384,7 +3384,7 @@
         <v>25</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U25" t="s">
         <v>25</v>
@@ -3446,7 +3446,7 @@
         <v>93</v>
       </c>
       <c r="S26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>96</v>
       </c>
       <c r="S27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U28" t="s">
         <v>25</v>
@@ -3641,13 +3641,13 @@
         <v>101</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>104</v>
       </c>
       <c r="S30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>107</v>
       </c>
       <c r="S31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R32" t="s">
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>111</v>
       </c>
       <c r="S33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="T34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U34" t="s">
         <v>25</v>
@@ -4034,7 +4034,7 @@
         <v>25</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U35" t="s">
         <v>25</v>
@@ -4099,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="T36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U36" t="s">
         <v>25</v>
@@ -4356,13 +4356,13 @@
         <v>130</v>
       </c>
       <c r="S40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4421,13 +4421,13 @@
         <v>133</v>
       </c>
       <c r="S41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1">
         <v>15.5</v>
@@ -4486,13 +4486,13 @@
         <v>135</v>
       </c>
       <c r="S42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>137</v>
       </c>
       <c r="S43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4616,13 +4616,13 @@
         <v>140</v>
       </c>
       <c r="S44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>143</v>
       </c>
       <c r="S45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>146</v>
       </c>
       <c r="S46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>148</v>
       </c>
       <c r="S47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>151</v>
       </c>
       <c r="S48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>25</v>
       </c>
       <c r="T49">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="U49" t="s">
         <v>25</v>
@@ -5006,13 +5006,13 @@
         <v>154</v>
       </c>
       <c r="S50" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -5071,13 +5071,13 @@
         <v>158</v>
       </c>
       <c r="S51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T51">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>161</v>
       </c>
       <c r="S52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>164</v>
       </c>
       <c r="S53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>168</v>
       </c>
       <c r="S54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>171</v>
       </c>
       <c r="S55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>173</v>
       </c>
       <c r="S56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>176</v>
       </c>
       <c r="S57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>179</v>
       </c>
       <c r="S58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>182</v>
       </c>
       <c r="S59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>185</v>
       </c>
       <c r="S60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>185</v>
       </c>
       <c r="S61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>185</v>
       </c>
       <c r="S62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T62">
         <v>4</v>
@@ -5851,13 +5851,13 @@
         <v>185</v>
       </c>
       <c r="S63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5916,13 +5916,13 @@
         <v>194</v>
       </c>
       <c r="S64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -5981,7 +5981,7 @@
         <v>194</v>
       </c>
       <c r="S65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>194</v>
       </c>
       <c r="S66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>201</v>
       </c>
       <c r="S67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>204</v>
       </c>
       <c r="S68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -6199,7 +6199,7 @@
         <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F69" s="1">
         <v>20</v>
@@ -6241,7 +6241,7 @@
         <v>207</v>
       </c>
       <c r="S69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>209</v>
       </c>
       <c r="S70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>212</v>
       </c>
       <c r="S71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>212</v>
       </c>
       <c r="S72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -6501,13 +6501,13 @@
         <v>217</v>
       </c>
       <c r="S73" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -6566,13 +6566,13 @@
         <v>220</v>
       </c>
       <c r="S74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>223</v>
       </c>
       <c r="S75" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>225</v>
       </c>
       <c r="S76" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -6761,7 +6761,7 @@
         <v>227</v>
       </c>
       <c r="S77" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>230</v>
       </c>
       <c r="S78" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>233</v>
       </c>
       <c r="S79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6950,19 +6950,19 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R80" t="s">
         <v>51</v>
       </c>
       <c r="S80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>25</v>
       </c>
       <c r="T81">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U81" t="s">
         <v>25</v>
@@ -7086,13 +7086,13 @@
         <v>240</v>
       </c>
       <c r="S82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -7151,13 +7151,13 @@
         <v>244</v>
       </c>
       <c r="S83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>246</v>
       </c>
       <c r="S84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7281,13 +7281,13 @@
         <v>249</v>
       </c>
       <c r="S85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -7346,7 +7346,7 @@
         <v>251</v>
       </c>
       <c r="S86" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>253</v>
       </c>
       <c r="S87" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>255</v>
       </c>
       <c r="S88" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7541,13 +7541,13 @@
         <v>257</v>
       </c>
       <c r="S89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -7600,19 +7600,19 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R90" t="s">
         <v>259</v>
       </c>
       <c r="S90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>262</v>
       </c>
       <c r="S91" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>264</v>
       </c>
       <c r="S92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7801,13 +7801,13 @@
         <v>267</v>
       </c>
       <c r="S93" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -7866,7 +7866,7 @@
         <v>270</v>
       </c>
       <c r="S94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>272</v>
       </c>
       <c r="S95" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>25</v>
       </c>
       <c r="T96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U96" t="s">
         <v>25</v>
@@ -8061,13 +8061,13 @@
         <v>276</v>
       </c>
       <c r="S97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
         <v>279</v>
       </c>
       <c r="S98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>282</v>
       </c>
       <c r="S99" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>284</v>
       </c>
       <c r="S100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>286</v>
       </c>
       <c r="S101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>288</v>
       </c>
       <c r="S102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -8451,13 +8451,13 @@
         <v>290</v>
       </c>
       <c r="S103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -8516,7 +8516,7 @@
         <v>292</v>
       </c>
       <c r="S104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -8581,13 +8581,13 @@
         <v>294</v>
       </c>
       <c r="S105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T105">
         <v>4</v>
       </c>
       <c r="U105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -8646,13 +8646,13 @@
         <v>296</v>
       </c>
       <c r="S106" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T106">
         <v>4</v>
       </c>
       <c r="U106" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
         <v>300</v>
       </c>
       <c r="S107" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>300</v>
       </c>
       <c r="S108" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>16</v>
       </c>
       <c r="U109" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -8906,13 +8906,13 @@
         <v>308</v>
       </c>
       <c r="S110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -8971,13 +8971,13 @@
         <v>310</v>
       </c>
       <c r="S111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>312</v>
       </c>
       <c r="S112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>314</v>
       </c>
       <c r="S113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>316</v>
       </c>
       <c r="S114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T114">
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>318</v>
       </c>
       <c r="S115" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>320</v>
       </c>
       <c r="S116" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -9361,13 +9361,13 @@
         <v>322</v>
       </c>
       <c r="S117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -9426,13 +9426,13 @@
         <v>324</v>
       </c>
       <c r="S118" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T118">
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -9621,7 +9621,7 @@
         <v>330</v>
       </c>
       <c r="S121" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>333</v>
       </c>
       <c r="S122" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>335</v>
       </c>
       <c r="S123" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>337</v>
       </c>
       <c r="S124" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>316</v>
       </c>
       <c r="S125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T125">
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>342</v>
       </c>
       <c r="S126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>342</v>
       </c>
       <c r="S127" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -10076,13 +10076,13 @@
         <v>345</v>
       </c>
       <c r="S128" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -10141,13 +10141,13 @@
         <v>345</v>
       </c>
       <c r="S129" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T129">
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
         <v>348</v>
       </c>
       <c r="S130" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>348</v>
       </c>
       <c r="S131" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -10336,13 +10336,13 @@
         <v>351</v>
       </c>
       <c r="S132" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T132">
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
         <v>354</v>
       </c>
       <c r="S133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>356</v>
       </c>
       <c r="S134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="Q135" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R135" t="s">
         <v>360</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="U135" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="Q136" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R136" t="s">
         <v>360</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="U136" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R137" t="s">
         <v>360</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="U137" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="Q138" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R138" t="s">
         <v>367</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="U138" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="Q139" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R139" t="s">
         <v>367</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="U139" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="Q140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R140" t="s">
         <v>372</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="U140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="Q141" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R141" t="s">
         <v>372</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="U141" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="Q142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R142" t="s">
         <v>372</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="U142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="Q143" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R143" t="s">
         <v>378</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="U143" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q144" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R144" t="s">
         <v>378</v>
@@ -11122,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R145" t="s">
         <v>378</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R146" t="s">
         <v>384</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="Q147" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R147" t="s">
         <v>384</v>
@@ -11370,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="Q148" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R148" t="s">
         <v>388</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="Q149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R149" t="s">
         <v>388</v>
@@ -11500,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="Q150" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R150" t="s">
         <v>391</v>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="Q151" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R151" t="s">
         <v>394</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="U151" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="Q152" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R152" t="s">
         <v>397</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="Q153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R153" t="s">
         <v>397</v>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -11760,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="Q154" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R154" t="s">
         <v>402</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="U154" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="Q155" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R155" t="s">
         <v>405</v>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="U155" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="Q156" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R156" t="s">
         <v>408</v>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="Q157" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R157" t="s">
         <v>411</v>
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="Q158" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R158" t="s">
         <v>413</v>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="Q159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R159" t="s">
         <v>415</v>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="Q160" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R160" t="s">
         <v>417</v>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R161" t="s">
         <v>419</v>
@@ -12280,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="Q162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R162" t="s">
         <v>419</v>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="Q163" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R163" t="s">
         <v>423</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="Q164" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R164" t="s">
         <v>425</v>
@@ -12475,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="Q165" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R165" t="s">
         <v>428</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -95,6 +95,9 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1886,13 +1886,13 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T2">
         <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1906,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1948,10 +1948,10 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -2016,7 +2016,7 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2465,19 +2465,19 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
         <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2601,13 +2601,13 @@
         <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2666,13 +2666,13 @@
         <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2731,13 +2731,13 @@
         <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>66</v>
       </c>
       <c r="S16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>66</v>
       </c>
       <c r="S17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>73</v>
       </c>
       <c r="S19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3121,13 +3121,13 @@
         <v>79</v>
       </c>
       <c r="S21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T21">
         <v>7</v>
       </c>
       <c r="U21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3251,7 +3251,7 @@
         <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>87</v>
       </c>
       <c r="S24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T24">
         <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>25</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U25" t="s">
         <v>25</v>
@@ -3446,7 +3446,7 @@
         <v>93</v>
       </c>
       <c r="S26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>96</v>
       </c>
       <c r="S27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>98</v>
       </c>
       <c r="S28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3641,13 +3641,13 @@
         <v>101</v>
       </c>
       <c r="S29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>104</v>
       </c>
       <c r="S30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>107</v>
       </c>
       <c r="S31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R32" t="s">
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>111</v>
       </c>
       <c r="S33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="T34">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="U34" t="s">
         <v>25</v>
@@ -4034,7 +4034,7 @@
         <v>25</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U35" t="s">
         <v>25</v>
@@ -4096,13 +4096,13 @@
         <v>120</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T36">
         <v>6</v>
       </c>
       <c r="U36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>130</v>
       </c>
       <c r="S40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -4421,13 +4421,13 @@
         <v>133</v>
       </c>
       <c r="S41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1">
         <v>15.5</v>
@@ -4486,13 +4486,13 @@
         <v>135</v>
       </c>
       <c r="S42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>137</v>
       </c>
       <c r="S43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>143</v>
       </c>
       <c r="S45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>146</v>
       </c>
       <c r="S46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>148</v>
       </c>
       <c r="S47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>151</v>
       </c>
       <c r="S48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4941,13 +4941,13 @@
         <v>154</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T49">
         <v>4</v>
       </c>
       <c r="U49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -5006,13 +5006,13 @@
         <v>154</v>
       </c>
       <c r="S50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -5071,13 +5071,13 @@
         <v>158</v>
       </c>
       <c r="S51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>161</v>
       </c>
       <c r="S52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>164</v>
       </c>
       <c r="S53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>168</v>
       </c>
       <c r="S54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>171</v>
       </c>
       <c r="S55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>173</v>
       </c>
       <c r="S56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>176</v>
       </c>
       <c r="S57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>179</v>
       </c>
       <c r="S58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>182</v>
       </c>
       <c r="S59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>185</v>
       </c>
       <c r="S60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>185</v>
       </c>
       <c r="S61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>185</v>
       </c>
       <c r="S62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T62">
         <v>4</v>
@@ -5851,13 +5851,13 @@
         <v>185</v>
       </c>
       <c r="S63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5916,13 +5916,13 @@
         <v>194</v>
       </c>
       <c r="S64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -5981,7 +5981,7 @@
         <v>194</v>
       </c>
       <c r="S65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>194</v>
       </c>
       <c r="S66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>201</v>
       </c>
       <c r="S67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>204</v>
       </c>
       <c r="S68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -6199,7 +6199,7 @@
         <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1">
         <v>20</v>
@@ -6241,7 +6241,7 @@
         <v>207</v>
       </c>
       <c r="S69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>209</v>
       </c>
       <c r="S70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>212</v>
       </c>
       <c r="S71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>212</v>
       </c>
       <c r="S72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -6501,13 +6501,13 @@
         <v>217</v>
       </c>
       <c r="S73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T73">
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -6566,13 +6566,13 @@
         <v>220</v>
       </c>
       <c r="S74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>223</v>
       </c>
       <c r="S75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>225</v>
       </c>
       <c r="S76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -6761,7 +6761,7 @@
         <v>227</v>
       </c>
       <c r="S77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>230</v>
       </c>
       <c r="S78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>233</v>
       </c>
       <c r="S79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6950,19 +6950,19 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R80" t="s">
         <v>51</v>
       </c>
       <c r="S80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -7086,13 +7086,13 @@
         <v>240</v>
       </c>
       <c r="S82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>246</v>
       </c>
       <c r="S84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7281,13 +7281,13 @@
         <v>249</v>
       </c>
       <c r="S85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -7346,7 +7346,7 @@
         <v>251</v>
       </c>
       <c r="S86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>253</v>
       </c>
       <c r="S87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>255</v>
       </c>
       <c r="S88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7541,13 +7541,13 @@
         <v>257</v>
       </c>
       <c r="S89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -7600,19 +7600,19 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R90" t="s">
         <v>259</v>
       </c>
       <c r="S90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>262</v>
       </c>
       <c r="S91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>264</v>
       </c>
       <c r="S92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7801,13 +7801,13 @@
         <v>267</v>
       </c>
       <c r="S93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -7866,7 +7866,7 @@
         <v>270</v>
       </c>
       <c r="S94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>272</v>
       </c>
       <c r="S95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>274</v>
       </c>
       <c r="S96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -8061,13 +8061,13 @@
         <v>276</v>
       </c>
       <c r="S97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
         <v>279</v>
       </c>
       <c r="S98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>282</v>
       </c>
       <c r="S99" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>284</v>
       </c>
       <c r="S100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>286</v>
       </c>
       <c r="S101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>288</v>
       </c>
       <c r="S102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -8451,13 +8451,13 @@
         <v>290</v>
       </c>
       <c r="S103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -8516,7 +8516,7 @@
         <v>292</v>
       </c>
       <c r="S104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -8581,13 +8581,13 @@
         <v>294</v>
       </c>
       <c r="S105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T105">
         <v>4</v>
       </c>
       <c r="U105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -8646,13 +8646,13 @@
         <v>296</v>
       </c>
       <c r="S106" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T106">
         <v>4</v>
       </c>
       <c r="U106" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
         <v>300</v>
       </c>
       <c r="S107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>300</v>
       </c>
       <c r="S108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>16</v>
       </c>
       <c r="U109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -8906,13 +8906,13 @@
         <v>308</v>
       </c>
       <c r="S110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -8971,13 +8971,13 @@
         <v>310</v>
       </c>
       <c r="S111" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>312</v>
       </c>
       <c r="S112" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>314</v>
       </c>
       <c r="S113" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>316</v>
       </c>
       <c r="S114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T114">
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>318</v>
       </c>
       <c r="S115" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>320</v>
       </c>
       <c r="S116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -9361,13 +9361,13 @@
         <v>322</v>
       </c>
       <c r="S117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -9426,13 +9426,13 @@
         <v>324</v>
       </c>
       <c r="S118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T118">
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -9491,13 +9491,13 @@
         <v>326</v>
       </c>
       <c r="S119" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T119">
         <v>12</v>
       </c>
       <c r="U119" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -9556,13 +9556,13 @@
         <v>328</v>
       </c>
       <c r="S120" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T120">
         <v>12</v>
       </c>
       <c r="U120" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -9621,7 +9621,7 @@
         <v>330</v>
       </c>
       <c r="S121" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>333</v>
       </c>
       <c r="S122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>335</v>
       </c>
       <c r="S123" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>337</v>
       </c>
       <c r="S124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>316</v>
       </c>
       <c r="S125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T125">
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>342</v>
       </c>
       <c r="S126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>342</v>
       </c>
       <c r="S127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -10076,13 +10076,13 @@
         <v>345</v>
       </c>
       <c r="S128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -10141,13 +10141,13 @@
         <v>345</v>
       </c>
       <c r="S129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T129">
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
         <v>348</v>
       </c>
       <c r="S130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>348</v>
       </c>
       <c r="S131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -10336,13 +10336,13 @@
         <v>351</v>
       </c>
       <c r="S132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T132">
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
         <v>354</v>
       </c>
       <c r="S133" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>356</v>
       </c>
       <c r="S134" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="Q135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R135" t="s">
         <v>360</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="U135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="Q136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R136" t="s">
         <v>360</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="U136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R137" t="s">
         <v>360</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="U137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="Q138" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R138" t="s">
         <v>367</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="U138" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="Q139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R139" t="s">
         <v>367</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="U139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="Q140" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R140" t="s">
         <v>372</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="U140" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="Q141" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R141" t="s">
         <v>372</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="U141" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="Q142" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R142" t="s">
         <v>372</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="U142" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="Q143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R143" t="s">
         <v>378</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="U143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R144" t="s">
         <v>378</v>
@@ -11122,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R145" t="s">
         <v>378</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R146" t="s">
         <v>384</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="Q147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R147" t="s">
         <v>384</v>
@@ -11370,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="Q148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R148" t="s">
         <v>388</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="Q149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R149" t="s">
         <v>388</v>
@@ -11500,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="Q150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R150" t="s">
         <v>391</v>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="Q151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R151" t="s">
         <v>394</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="U151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="Q152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R152" t="s">
         <v>397</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="Q153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R153" t="s">
         <v>397</v>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -11760,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="Q154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R154" t="s">
         <v>402</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="U154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="Q155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R155" t="s">
         <v>405</v>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="U155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="Q156" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R156" t="s">
         <v>408</v>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="Q157" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R157" t="s">
         <v>411</v>
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="Q158" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R158" t="s">
         <v>413</v>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="Q159" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R159" t="s">
         <v>415</v>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="Q160" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R160" t="s">
         <v>417</v>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q161" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R161" t="s">
         <v>419</v>
@@ -12280,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="Q162" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R162" t="s">
         <v>419</v>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="Q163" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R163" t="s">
         <v>423</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="Q164" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R164" t="s">
         <v>425</v>
@@ -12475,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="Q165" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R165" t="s">
         <v>428</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -95,16 +95,16 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>Ground Pork</t>
+  </si>
+  <si>
+    <t>1.00 lbs</t>
+  </si>
+  <si>
+    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Ground Pork</t>
-  </si>
-  <si>
-    <t>1.00 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1886,13 +1886,13 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T2">
         <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1906,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>17</v>
@@ -1948,10 +1948,10 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -2016,7 +2016,7 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2465,19 +2465,19 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R11" t="s">
         <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2601,13 +2601,13 @@
         <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2666,13 +2666,13 @@
         <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2731,13 +2731,13 @@
         <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>66</v>
       </c>
       <c r="S16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>66</v>
       </c>
       <c r="S17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>73</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -3056,13 +3056,13 @@
         <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -3121,13 +3121,13 @@
         <v>79</v>
       </c>
       <c r="S21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U22" t="s">
         <v>25</v>
@@ -3251,7 +3251,7 @@
         <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>87</v>
       </c>
       <c r="S24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T24">
         <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>25</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U25" t="s">
         <v>25</v>
@@ -3446,7 +3446,7 @@
         <v>93</v>
       </c>
       <c r="S26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>96</v>
       </c>
       <c r="S27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>98</v>
       </c>
       <c r="S28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3641,13 +3641,13 @@
         <v>101</v>
       </c>
       <c r="S29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>104</v>
       </c>
       <c r="S30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>107</v>
       </c>
       <c r="S31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R32" t="s">
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>111</v>
       </c>
       <c r="S33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="T34">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U34" t="s">
         <v>25</v>
@@ -4034,7 +4034,7 @@
         <v>25</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U35" t="s">
         <v>25</v>
@@ -4096,13 +4096,13 @@
         <v>120</v>
       </c>
       <c r="S36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -4161,13 +4161,13 @@
         <v>123</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
         <v>25</v>
       </c>
       <c r="T39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U39" t="s">
         <v>25</v>
@@ -4356,7 +4356,7 @@
         <v>130</v>
       </c>
       <c r="S40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -4421,13 +4421,13 @@
         <v>133</v>
       </c>
       <c r="S41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1">
         <v>15.5</v>
@@ -4486,13 +4486,13 @@
         <v>135</v>
       </c>
       <c r="S42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>137</v>
       </c>
       <c r="S43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
         <v>25</v>
       </c>
       <c r="T44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U44" t="s">
         <v>25</v>
@@ -4681,7 +4681,7 @@
         <v>143</v>
       </c>
       <c r="S45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>146</v>
       </c>
       <c r="S46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>148</v>
       </c>
       <c r="S47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>151</v>
       </c>
       <c r="S48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4941,13 +4941,13 @@
         <v>154</v>
       </c>
       <c r="S49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T49">
         <v>4</v>
       </c>
       <c r="U49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -5006,13 +5006,13 @@
         <v>154</v>
       </c>
       <c r="S50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -5071,13 +5071,13 @@
         <v>158</v>
       </c>
       <c r="S51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>161</v>
       </c>
       <c r="S52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>164</v>
       </c>
       <c r="S53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>168</v>
       </c>
       <c r="S54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>171</v>
       </c>
       <c r="S55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>173</v>
       </c>
       <c r="S56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>176</v>
       </c>
       <c r="S57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>179</v>
       </c>
       <c r="S58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>182</v>
       </c>
       <c r="S59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>185</v>
       </c>
       <c r="S60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>185</v>
       </c>
       <c r="S61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5786,13 +5786,13 @@
         <v>185</v>
       </c>
       <c r="S62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -5851,13 +5851,13 @@
         <v>185</v>
       </c>
       <c r="S63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5916,13 +5916,13 @@
         <v>194</v>
       </c>
       <c r="S64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -5981,7 +5981,7 @@
         <v>194</v>
       </c>
       <c r="S65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>194</v>
       </c>
       <c r="S66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>201</v>
       </c>
       <c r="S67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>204</v>
       </c>
       <c r="S68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -6199,7 +6199,7 @@
         <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F69" s="1">
         <v>20</v>
@@ -6241,7 +6241,7 @@
         <v>207</v>
       </c>
       <c r="S69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>209</v>
       </c>
       <c r="S70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>212</v>
       </c>
       <c r="S71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>212</v>
       </c>
       <c r="S72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -6501,13 +6501,13 @@
         <v>217</v>
       </c>
       <c r="S73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -6566,13 +6566,13 @@
         <v>220</v>
       </c>
       <c r="S74" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>223</v>
       </c>
       <c r="S75" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>225</v>
       </c>
       <c r="S76" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -6761,7 +6761,7 @@
         <v>227</v>
       </c>
       <c r="S77" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>230</v>
       </c>
       <c r="S78" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>233</v>
       </c>
       <c r="S79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6950,19 +6950,19 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R80" t="s">
         <v>51</v>
       </c>
       <c r="S80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>25</v>
       </c>
       <c r="T81">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U81" t="s">
         <v>25</v>
@@ -7086,13 +7086,13 @@
         <v>240</v>
       </c>
       <c r="S82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -7154,7 +7154,7 @@
         <v>25</v>
       </c>
       <c r="T83">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U83" t="s">
         <v>25</v>
@@ -7216,7 +7216,7 @@
         <v>246</v>
       </c>
       <c r="S84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7281,13 +7281,13 @@
         <v>249</v>
       </c>
       <c r="S85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -7346,7 +7346,7 @@
         <v>251</v>
       </c>
       <c r="S86" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>253</v>
       </c>
       <c r="S87" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>255</v>
       </c>
       <c r="S88" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7541,13 +7541,13 @@
         <v>257</v>
       </c>
       <c r="S89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -7600,19 +7600,19 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R90" t="s">
         <v>259</v>
       </c>
       <c r="S90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>262</v>
       </c>
       <c r="S91" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>264</v>
       </c>
       <c r="S92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7801,13 +7801,13 @@
         <v>267</v>
       </c>
       <c r="S93" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -7866,7 +7866,7 @@
         <v>270</v>
       </c>
       <c r="S94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>272</v>
       </c>
       <c r="S95" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>274</v>
       </c>
       <c r="S96" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -8061,13 +8061,13 @@
         <v>276</v>
       </c>
       <c r="S97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
         <v>279</v>
       </c>
       <c r="S98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>282</v>
       </c>
       <c r="S99" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>284</v>
       </c>
       <c r="S100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>286</v>
       </c>
       <c r="S101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>288</v>
       </c>
       <c r="S102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -8451,13 +8451,13 @@
         <v>290</v>
       </c>
       <c r="S103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -8516,7 +8516,7 @@
         <v>292</v>
       </c>
       <c r="S104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -8581,13 +8581,13 @@
         <v>294</v>
       </c>
       <c r="S105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T105">
         <v>4</v>
       </c>
       <c r="U105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -8646,13 +8646,13 @@
         <v>296</v>
       </c>
       <c r="S106" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T106">
         <v>4</v>
       </c>
       <c r="U106" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
         <v>300</v>
       </c>
       <c r="S107" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>300</v>
       </c>
       <c r="S108" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>16</v>
       </c>
       <c r="U109" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -8906,13 +8906,13 @@
         <v>308</v>
       </c>
       <c r="S110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -8971,13 +8971,13 @@
         <v>310</v>
       </c>
       <c r="S111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>312</v>
       </c>
       <c r="S112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>314</v>
       </c>
       <c r="S113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>316</v>
       </c>
       <c r="S114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T114">
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>318</v>
       </c>
       <c r="S115" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>320</v>
       </c>
       <c r="S116" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -9361,13 +9361,13 @@
         <v>322</v>
       </c>
       <c r="S117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -9426,13 +9426,13 @@
         <v>324</v>
       </c>
       <c r="S118" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T118">
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -9491,13 +9491,13 @@
         <v>326</v>
       </c>
       <c r="S119" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U119" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -9556,13 +9556,13 @@
         <v>328</v>
       </c>
       <c r="S120" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T120">
         <v>12</v>
       </c>
       <c r="U120" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -9621,7 +9621,7 @@
         <v>330</v>
       </c>
       <c r="S121" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>333</v>
       </c>
       <c r="S122" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>335</v>
       </c>
       <c r="S123" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>337</v>
       </c>
       <c r="S124" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>316</v>
       </c>
       <c r="S125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T125">
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>342</v>
       </c>
       <c r="S126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>342</v>
       </c>
       <c r="S127" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -10076,13 +10076,13 @@
         <v>345</v>
       </c>
       <c r="S128" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -10141,13 +10141,13 @@
         <v>345</v>
       </c>
       <c r="S129" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T129">
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
         <v>348</v>
       </c>
       <c r="S130" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>348</v>
       </c>
       <c r="S131" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -10336,13 +10336,13 @@
         <v>351</v>
       </c>
       <c r="S132" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T132">
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
         <v>354</v>
       </c>
       <c r="S133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>356</v>
       </c>
       <c r="S134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="Q135" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R135" t="s">
         <v>360</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="U135" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="Q136" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R136" t="s">
         <v>360</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="U136" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R137" t="s">
         <v>360</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="U137" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="Q138" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R138" t="s">
         <v>367</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="U138" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="Q139" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R139" t="s">
         <v>367</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="U139" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="Q140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R140" t="s">
         <v>372</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="U140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="Q141" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R141" t="s">
         <v>372</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="U141" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="Q142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R142" t="s">
         <v>372</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="U142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="Q143" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R143" t="s">
         <v>378</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="U143" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q144" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R144" t="s">
         <v>378</v>
@@ -11122,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R145" t="s">
         <v>378</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R146" t="s">
         <v>384</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="Q147" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R147" t="s">
         <v>384</v>
@@ -11370,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="Q148" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R148" t="s">
         <v>388</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="Q149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R149" t="s">
         <v>388</v>
@@ -11500,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="Q150" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R150" t="s">
         <v>391</v>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="Q151" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R151" t="s">
         <v>394</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="U151" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="Q152" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R152" t="s">
         <v>397</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="Q153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R153" t="s">
         <v>397</v>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -11760,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="Q154" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R154" t="s">
         <v>402</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="U154" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="Q155" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R155" t="s">
         <v>405</v>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="U155" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="Q156" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R156" t="s">
         <v>408</v>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="Q157" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R157" t="s">
         <v>411</v>
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="Q158" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R158" t="s">
         <v>413</v>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="Q159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R159" t="s">
         <v>415</v>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="Q160" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R160" t="s">
         <v>417</v>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R161" t="s">
         <v>419</v>
@@ -12280,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="Q162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R162" t="s">
         <v>419</v>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="Q163" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R163" t="s">
         <v>423</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="Q164" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R164" t="s">
         <v>425</v>
@@ -12475,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="Q165" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R165" t="s">
         <v>428</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="426">
   <si>
     <t>id</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Beef Back Ribs</t>
   </si>
   <si>
-    <t>3.00 - 3.80 lbs</t>
-  </si>
-  <si>
     <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
@@ -689,12 +686,6 @@
   </si>
   <si>
     <t>Our Lamb Neck Slices are a flavorful and tender cut, perfect for slow cooking or braising. Raised on lush, rotating pastures throughout the year, our lambs enjoy a varied, natural diet that enhances the meat's rich flavor and quality. Occasionally grazing on other organic lands and cover crops, these lambs provide a superior product that’s both delicious and sustainable. Ideal for stews, soups, or savory dishes, these neck slices offer an exceptional taste of pasture-raised lamb.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>Lamb Ribs</t>
-  </si>
-  <si>
-    <t>Our Lamb Ribs offer a tender, flavorful cut that's perfect for smoking, braising, or slow cooking. While not overly meaty, these racks are a fun, delicious treat to eat off the bone and can be transformed into melt-in-your-mouth goodness. Try them with a Mediterranean-style barbecue for an unforgettable meal. Raised on rotating pastures and occasionally grazing on organic cover crops, our lambs are nurtured on a natural diet, ensuring exceptional flavor and quality in every bite. Perfect for a unique and tasty dining experience!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Lamb Shank Osso Buco</t>
@@ -959,16 +950,6 @@
     <t>Start your day off right with our Blueberry Maple Linked Sausage! Packed with local blueberries, real maple syrup, and fresh sage from our garden, these sausages are the perfect complement to pancakes, French toast, eggs, or hash browns. Each 4-link pack features a delicious balance of sweet and savory flavors, with ingredients like gluten-free oats, fresh garlic, onion, and aromatic spices. A breakfast favorite that’s sure to delight!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
-    <t>Bulk Cajun Chaurice Sausage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our Bulk Cajun Chaurice Sausage delivers a balanced heat that’s perfect for adding depth to dishes like rice and beans, jambalaya, gumbo, and eggs. This bulk, unlinked sausage is ready to cook, offering the same great flavor without the casing—ideal for your next Creole-inspired meal! 
-Spiciness level - 5/10
-Ingredients: Pork, Onion, Sea Salt, Green Onion, Fresh Parsley, Garlic, Fresh Thyme, Paprika, Cayenne, Bay Leaf, Celery Seed
-Note: The picture shows linked sausages, but this item is bulk, ground sausage.
-  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
     <t>Bulk English Breakfast Sausage</t>
   </si>
   <si>
@@ -979,12 +960,6 @@
   </si>
   <si>
     <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>Bulk Lamb Merguez Sausage</t>
-  </si>
-  <si>
-    <t>Our Lamb Merguez Sausage brings the vibrant flavors of North Africa to your kitchen. Traditionally grilled over coals as street food, this sausage is spiced with harissa paste, crushed spices, and minced onions and garlic. Perfect for pairing with couscous, beans, eggs, or a fresh arugula salad, it can also be enjoyed the French way—grilled on a baguette, smeared with Dijon or mayonnaise, and topped with crispy French fries! With a mild spiciness level of 3/10, it delivers a flavorful heat to complement its rich lamb base.Ingredients: Lamb, onion, sea salt, chiles, fresh garlic, fresh parsley, paprika, black pepper, sumac, coriander, cumin, allspice, cayenne.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
     <t>Bulk Thai Curry Sausage</t>
@@ -1062,6 +1037,9 @@
     <t>4 links/pack 14 oz pack</t>
   </si>
   <si>
+    <t>Our Lamb Merguez Sausage brings the vibrant flavors of North Africa to your kitchen. Traditionally grilled over coals as street food, this sausage is spiced with harissa paste, crushed spices, and minced onions and garlic. Perfect for pairing with couscous, beans, eggs, or a fresh arugula salad, it can also be enjoyed the French way—grilled on a baguette, smeared with Dijon or mayonnaise, and topped with crispy French fries! With a mild spiciness level of 3/10, it delivers a flavorful heat to complement its rich lamb base.Ingredients: Lamb, onion, sea salt, chiles, fresh garlic, fresh parsley, paprika, black pepper, sumac, coriander, cumin, allspice, cayenne.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
+  </si>
+  <si>
     <t>Rendered Beef Tallow, 16 oz</t>
   </si>
   <si>
@@ -1072,15 +1050,6 @@
   </si>
   <si>
     <t>Rendered Beef Tallow, 8 oz</t>
-  </si>
-  <si>
-    <t>Rendered Pork Back Fat, 16 oz</t>
-  </si>
-  <si>
-    <t>Light and creamy, this rendered pork lard is pure white. Lard is used extensively in many traditional cuisines and is very versatile. It can be used as a cooking oil, for baking, or even as a spread. Lard has a high smoke point and also produces flakier pie crusts than butter.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>Rendered Pork Back Fat, 8 oz</t>
   </si>
   <si>
     <t>Rendered Pork Leaf Lard, 16 oz</t>
@@ -1751,7 +1720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U165"/>
+  <dimension ref="A1:U160"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -1889,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" t="s">
         <v>25</v>
@@ -1912,7 +1881,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -1924,19 +1893,19 @@
         <v>24</v>
       </c>
       <c r="J3" s="1">
-        <v>11.05</v>
+        <v>9.1</v>
       </c>
       <c r="K3" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
-        <v>9.2</v>
+        <v>7.58</v>
       </c>
       <c r="M3" s="1">
-        <v>15.25</v>
+        <v>12.56</v>
       </c>
       <c r="N3" s="1">
-        <v>17.85</v>
+        <v>14.7</v>
       </c>
       <c r="O3" s="3">
         <v>0.0499</v>
@@ -2107,7 +2076,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2">
         <v>1.2</v>
@@ -2119,19 +2088,19 @@
         <v>24</v>
       </c>
       <c r="J6" s="1">
-        <v>11.05</v>
+        <v>10.4</v>
       </c>
       <c r="K6" s="1">
-        <v>22.95</v>
+        <v>21.6</v>
       </c>
       <c r="L6" s="1">
-        <v>12.42</v>
+        <v>11.69</v>
       </c>
       <c r="M6" s="1">
-        <v>20.59</v>
+        <v>19.37</v>
       </c>
       <c r="N6" s="1">
-        <v>24.1</v>
+        <v>22.68</v>
       </c>
       <c r="O6" s="3">
         <v>0.0499</v>
@@ -2172,7 +2141,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="1">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2">
         <v>1.2</v>
@@ -2184,19 +2153,19 @@
         <v>24</v>
       </c>
       <c r="J7" s="1">
-        <v>12.68</v>
+        <v>11.7</v>
       </c>
       <c r="K7" s="1">
-        <v>26.33</v>
+        <v>24.3</v>
       </c>
       <c r="L7" s="1">
-        <v>14.25</v>
+        <v>13.15</v>
       </c>
       <c r="M7" s="1">
-        <v>23.61</v>
+        <v>21.8</v>
       </c>
       <c r="N7" s="1">
-        <v>27.64</v>
+        <v>25.51</v>
       </c>
       <c r="O7" s="3">
         <v>0.0499</v>
@@ -2302,7 +2271,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="1">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2">
         <v>2.8</v>
@@ -2314,19 +2283,19 @@
         <v>24</v>
       </c>
       <c r="J9" s="1">
-        <v>12.68</v>
+        <v>11.7</v>
       </c>
       <c r="K9" s="1">
-        <v>61.42</v>
+        <v>56.7</v>
       </c>
       <c r="L9" s="1">
-        <v>33.24</v>
+        <v>30.69</v>
       </c>
       <c r="M9" s="1">
-        <v>55.1</v>
+        <v>50.86</v>
       </c>
       <c r="N9" s="1">
-        <v>64.49</v>
+        <v>59.53</v>
       </c>
       <c r="O9" s="3">
         <v>0.0499</v>
@@ -2367,7 +2336,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="1">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -2379,19 +2348,19 @@
         <v>24</v>
       </c>
       <c r="J10" s="1">
-        <v>12.68</v>
+        <v>11.7</v>
       </c>
       <c r="K10" s="1">
-        <v>46.7</v>
+        <v>43.11</v>
       </c>
       <c r="L10" s="1">
-        <v>25.28</v>
+        <v>23.33</v>
       </c>
       <c r="M10" s="1">
-        <v>41.89</v>
+        <v>38.67</v>
       </c>
       <c r="N10" s="1">
-        <v>49.03</v>
+        <v>45.26</v>
       </c>
       <c r="O10" s="3">
         <v>0.0499</v>
@@ -3124,7 +3093,7 @@
         <v>25</v>
       </c>
       <c r="T21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U21" t="s">
         <v>25</v>
@@ -3144,16 +3113,16 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1">
         <v>16</v>
       </c>
       <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
         <v>3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3.8</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
@@ -3162,16 +3131,16 @@
         <v>10.4</v>
       </c>
       <c r="K22" s="1">
-        <v>54.4</v>
+        <v>40</v>
       </c>
       <c r="L22" s="1">
-        <v>29.44</v>
+        <v>21.65</v>
       </c>
       <c r="M22" s="1">
-        <v>48.8</v>
+        <v>35.88</v>
       </c>
       <c r="N22" s="1">
-        <v>57.12</v>
+        <v>42</v>
       </c>
       <c r="O22" s="3">
         <v>0.0499</v>
@@ -3183,7 +3152,7 @@
         <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
         <v>25</v>
@@ -3206,7 +3175,7 @@
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -3248,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="R23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S23" t="s">
         <v>30</v>
@@ -3271,10 +3240,10 @@
         <v>76</v>
       </c>
       <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
       </c>
       <c r="F24" s="1">
         <v>26</v>
@@ -3313,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S24" t="s">
         <v>25</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="U24" t="s">
         <v>25</v>
@@ -3336,10 +3305,10 @@
         <v>76</v>
       </c>
       <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
         <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
       </c>
       <c r="F25" s="1">
         <v>9.5</v>
@@ -3378,13 +3347,13 @@
         <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S25" t="s">
         <v>25</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U25" t="s">
         <v>25</v>
@@ -3401,10 +3370,10 @@
         <v>76</v>
       </c>
       <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
       </c>
       <c r="F26" s="1">
         <v>26</v>
@@ -3443,7 +3412,7 @@
         <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S26" t="s">
         <v>30</v>
@@ -3466,10 +3435,10 @@
         <v>76</v>
       </c>
       <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
         <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
       </c>
       <c r="F27" s="1">
         <v>26</v>
@@ -3508,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="R27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S27" t="s">
         <v>30</v>
@@ -3531,7 +3500,7 @@
         <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>34</v>
@@ -3573,13 +3542,13 @@
         <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S28" t="s">
         <v>25</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U28" t="s">
         <v>25</v>
@@ -3596,10 +3565,10 @@
         <v>76</v>
       </c>
       <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
         <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>100</v>
       </c>
       <c r="F29" s="1">
         <v>13</v>
@@ -3638,16 +3607,16 @@
         <v>25</v>
       </c>
       <c r="R29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3661,10 +3630,10 @@
         <v>76</v>
       </c>
       <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
         <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>103</v>
       </c>
       <c r="F30" s="1">
         <v>19.5</v>
@@ -3703,7 +3672,7 @@
         <v>25</v>
       </c>
       <c r="R30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S30" t="s">
         <v>30</v>
@@ -3726,10 +3695,10 @@
         <v>76</v>
       </c>
       <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
         <v>105</v>
-      </c>
-      <c r="E31" t="s">
-        <v>106</v>
       </c>
       <c r="F31" s="1">
         <v>19.5</v>
@@ -3768,7 +3737,7 @@
         <v>25</v>
       </c>
       <c r="R31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S31" t="s">
         <v>30</v>
@@ -3791,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>50</v>
@@ -3856,10 +3825,10 @@
         <v>76</v>
       </c>
       <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
         <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
       </c>
       <c r="F33" s="1">
         <v>18.5</v>
@@ -3898,7 +3867,7 @@
         <v>25</v>
       </c>
       <c r="R33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S33" t="s">
         <v>30</v>
@@ -3921,10 +3890,10 @@
         <v>76</v>
       </c>
       <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
         <v>112</v>
-      </c>
-      <c r="E34" t="s">
-        <v>113</v>
       </c>
       <c r="F34" s="1">
         <v>43</v>
@@ -3963,13 +3932,13 @@
         <v>25</v>
       </c>
       <c r="R34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T34">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
         <v>25</v>
@@ -3986,10 +3955,10 @@
         <v>76</v>
       </c>
       <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
         <v>115</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
       </c>
       <c r="F35" s="1">
         <v>9.5</v>
@@ -4028,13 +3997,13 @@
         <v>25</v>
       </c>
       <c r="R35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S35" t="s">
         <v>25</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U35" t="s">
         <v>25</v>
@@ -4051,10 +4020,10 @@
         <v>76</v>
       </c>
       <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
         <v>118</v>
-      </c>
-      <c r="E36" t="s">
-        <v>119</v>
       </c>
       <c r="F36" s="1">
         <v>21</v>
@@ -4093,13 +4062,13 @@
         <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S36" t="s">
         <v>25</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U36" t="s">
         <v>25</v>
@@ -4116,10 +4085,10 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
         <v>121</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
       </c>
       <c r="F37" s="1">
         <v>16</v>
@@ -4158,7 +4127,7 @@
         <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S37" t="s">
         <v>30</v>
@@ -4181,10 +4150,10 @@
         <v>76</v>
       </c>
       <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
         <v>124</v>
-      </c>
-      <c r="E38" t="s">
-        <v>125</v>
       </c>
       <c r="F38" s="1">
         <v>17</v>
@@ -4223,13 +4192,13 @@
         <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S38" t="s">
         <v>25</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U38" t="s">
         <v>25</v>
@@ -4246,10 +4215,10 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
         <v>126</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
       </c>
       <c r="F39" s="1">
         <v>18</v>
@@ -4288,7 +4257,7 @@
         <v>25</v>
       </c>
       <c r="R39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S39" t="s">
         <v>25</v>
@@ -4311,10 +4280,10 @@
         <v>76</v>
       </c>
       <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
         <v>128</v>
-      </c>
-      <c r="E40" t="s">
-        <v>129</v>
       </c>
       <c r="F40" s="1">
         <v>16</v>
@@ -4353,7 +4322,7 @@
         <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S40" t="s">
         <v>30</v>
@@ -4376,10 +4345,10 @@
         <v>76</v>
       </c>
       <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
         <v>131</v>
-      </c>
-      <c r="E41" t="s">
-        <v>132</v>
       </c>
       <c r="F41" s="1">
         <v>26</v>
@@ -4418,16 +4387,16 @@
         <v>25</v>
       </c>
       <c r="R41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4441,7 +4410,7 @@
         <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
@@ -4483,7 +4452,7 @@
         <v>25</v>
       </c>
       <c r="R42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S42" t="s">
         <v>30</v>
@@ -4506,10 +4475,10 @@
         <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="1">
         <v>26</v>
@@ -4548,16 +4517,16 @@
         <v>25</v>
       </c>
       <c r="R43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4571,10 +4540,10 @@
         <v>76</v>
       </c>
       <c r="D44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
         <v>138</v>
-      </c>
-      <c r="E44" t="s">
-        <v>139</v>
       </c>
       <c r="F44" s="1">
         <v>19.5</v>
@@ -4613,16 +4582,16 @@
         <v>25</v>
       </c>
       <c r="R44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4636,10 +4605,10 @@
         <v>76</v>
       </c>
       <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
         <v>141</v>
-      </c>
-      <c r="E45" t="s">
-        <v>142</v>
       </c>
       <c r="F45" s="1">
         <v>12</v>
@@ -4678,7 +4647,7 @@
         <v>25</v>
       </c>
       <c r="R45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S45" t="s">
         <v>30</v>
@@ -4701,10 +4670,10 @@
         <v>76</v>
       </c>
       <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" t="s">
         <v>144</v>
-      </c>
-      <c r="E46" t="s">
-        <v>145</v>
       </c>
       <c r="F46" s="1">
         <v>37</v>
@@ -4743,7 +4712,7 @@
         <v>25</v>
       </c>
       <c r="R46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S46" t="s">
         <v>30</v>
@@ -4766,10 +4735,10 @@
         <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" s="1">
         <v>12</v>
@@ -4808,7 +4777,7 @@
         <v>25</v>
       </c>
       <c r="R47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S47" t="s">
         <v>30</v>
@@ -4831,10 +4800,10 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
         <v>149</v>
-      </c>
-      <c r="E48" t="s">
-        <v>150</v>
       </c>
       <c r="F48" s="1">
         <v>40.5</v>
@@ -4873,7 +4842,7 @@
         <v>25</v>
       </c>
       <c r="R48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S48" t="s">
         <v>30</v>
@@ -4896,10 +4865,10 @@
         <v>76</v>
       </c>
       <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" t="s">
         <v>152</v>
-      </c>
-      <c r="E49" t="s">
-        <v>153</v>
       </c>
       <c r="F49" s="1">
         <v>26</v>
@@ -4938,13 +4907,13 @@
         <v>25</v>
       </c>
       <c r="R49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S49" t="s">
         <v>25</v>
       </c>
       <c r="T49">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U49" t="s">
         <v>25</v>
@@ -4961,10 +4930,10 @@
         <v>76</v>
       </c>
       <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
         <v>155</v>
-      </c>
-      <c r="E50" t="s">
-        <v>156</v>
       </c>
       <c r="F50" s="1">
         <v>26</v>
@@ -5003,13 +4972,13 @@
         <v>25</v>
       </c>
       <c r="R50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S50" t="s">
         <v>25</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U50" t="s">
         <v>25</v>
@@ -5026,10 +4995,10 @@
         <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1">
         <v>26</v>
@@ -5068,16 +5037,16 @@
         <v>25</v>
       </c>
       <c r="R51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5091,10 +5060,10 @@
         <v>76</v>
       </c>
       <c r="D52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" t="s">
         <v>159</v>
-      </c>
-      <c r="E52" t="s">
-        <v>160</v>
       </c>
       <c r="F52" s="1">
         <v>25</v>
@@ -5133,7 +5102,7 @@
         <v>25</v>
       </c>
       <c r="R52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S52" t="s">
         <v>30</v>
@@ -5156,10 +5125,10 @@
         <v>76</v>
       </c>
       <c r="D53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" t="s">
         <v>162</v>
-      </c>
-      <c r="E53" t="s">
-        <v>163</v>
       </c>
       <c r="F53" s="1">
         <v>5</v>
@@ -5198,7 +5167,7 @@
         <v>25</v>
       </c>
       <c r="R53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S53" t="s">
         <v>30</v>
@@ -5218,13 +5187,13 @@
         <v>813079</v>
       </c>
       <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
         <v>165</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>166</v>
-      </c>
-      <c r="E54" t="s">
-        <v>167</v>
       </c>
       <c r="F54" s="1">
         <v>9.5</v>
@@ -5263,7 +5232,7 @@
         <v>25</v>
       </c>
       <c r="R54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S54" t="s">
         <v>30</v>
@@ -5283,13 +5252,13 @@
         <v>818957</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" t="s">
         <v>169</v>
-      </c>
-      <c r="E55" t="s">
-        <v>170</v>
       </c>
       <c r="F55" s="1">
         <v>9.5</v>
@@ -5328,7 +5297,7 @@
         <v>25</v>
       </c>
       <c r="R55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S55" t="s">
         <v>30</v>
@@ -5348,13 +5317,13 @@
         <v>805677</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F56" s="1">
         <v>12</v>
@@ -5393,7 +5362,7 @@
         <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S56" t="s">
         <v>30</v>
@@ -5413,13 +5382,13 @@
         <v>805669</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
         <v>174</v>
-      </c>
-      <c r="E57" t="s">
-        <v>175</v>
       </c>
       <c r="F57" s="1">
         <v>18</v>
@@ -5458,7 +5427,7 @@
         <v>25</v>
       </c>
       <c r="R57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S57" t="s">
         <v>30</v>
@@ -5478,13 +5447,13 @@
         <v>805676</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
         <v>177</v>
-      </c>
-      <c r="E58" t="s">
-        <v>178</v>
       </c>
       <c r="F58" s="1">
         <v>15.5</v>
@@ -5523,7 +5492,7 @@
         <v>25</v>
       </c>
       <c r="R58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S58" t="s">
         <v>30</v>
@@ -5543,13 +5512,13 @@
         <v>805679</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
         <v>180</v>
-      </c>
-      <c r="E59" t="s">
-        <v>181</v>
       </c>
       <c r="F59" s="1">
         <v>12</v>
@@ -5588,7 +5557,7 @@
         <v>25</v>
       </c>
       <c r="R59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S59" t="s">
         <v>30</v>
@@ -5608,13 +5577,13 @@
         <v>805673</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" t="s">
         <v>183</v>
-      </c>
-      <c r="E60" t="s">
-        <v>184</v>
       </c>
       <c r="F60" s="1">
         <v>9</v>
@@ -5653,7 +5622,7 @@
         <v>25</v>
       </c>
       <c r="R60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S60" t="s">
         <v>30</v>
@@ -5673,13 +5642,13 @@
         <v>953035</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" t="s">
         <v>186</v>
-      </c>
-      <c r="E61" t="s">
-        <v>187</v>
       </c>
       <c r="F61" s="1">
         <v>9.5</v>
@@ -5718,7 +5687,7 @@
         <v>25</v>
       </c>
       <c r="R61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S61" t="s">
         <v>30</v>
@@ -5727,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -5738,13 +5707,13 @@
         <v>953036</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s">
         <v>188</v>
-      </c>
-      <c r="E62" t="s">
-        <v>189</v>
       </c>
       <c r="F62" s="1">
         <v>10</v>
@@ -5783,7 +5752,7 @@
         <v>25</v>
       </c>
       <c r="R62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S62" t="s">
         <v>30</v>
@@ -5803,13 +5772,13 @@
         <v>953039</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" t="s">
         <v>190</v>
-      </c>
-      <c r="E63" t="s">
-        <v>191</v>
       </c>
       <c r="F63" s="1">
         <v>10.5</v>
@@ -5848,7 +5817,7 @@
         <v>25</v>
       </c>
       <c r="R63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S63" t="s">
         <v>30</v>
@@ -5868,13 +5837,13 @@
         <v>1004600</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" t="s">
         <v>192</v>
-      </c>
-      <c r="E64" t="s">
-        <v>193</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
@@ -5913,7 +5882,7 @@
         <v>25</v>
       </c>
       <c r="R64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S64" t="s">
         <v>30</v>
@@ -5933,13 +5902,13 @@
         <v>1004599</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" t="s">
         <v>195</v>
-      </c>
-      <c r="E65" t="s">
-        <v>196</v>
       </c>
       <c r="F65" s="1">
         <v>12</v>
@@ -5978,7 +5947,7 @@
         <v>25</v>
       </c>
       <c r="R65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S65" t="s">
         <v>30</v>
@@ -5998,13 +5967,13 @@
         <v>805661</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" t="s">
         <v>197</v>
-      </c>
-      <c r="E66" t="s">
-        <v>198</v>
       </c>
       <c r="F66" s="1">
         <v>12</v>
@@ -6043,7 +6012,7 @@
         <v>25</v>
       </c>
       <c r="R66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S66" t="s">
         <v>30</v>
@@ -6063,13 +6032,13 @@
         <v>805685</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" t="s">
         <v>199</v>
-      </c>
-      <c r="E67" t="s">
-        <v>200</v>
       </c>
       <c r="F67" s="1">
         <v>18.5</v>
@@ -6108,7 +6077,7 @@
         <v>25</v>
       </c>
       <c r="R67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S67" t="s">
         <v>30</v>
@@ -6128,13 +6097,13 @@
         <v>814849</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" t="s">
         <v>202</v>
-      </c>
-      <c r="E68" t="s">
-        <v>203</v>
       </c>
       <c r="F68" s="1">
         <v>12</v>
@@ -6173,7 +6142,7 @@
         <v>25</v>
       </c>
       <c r="R68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S68" t="s">
         <v>30</v>
@@ -6193,10 +6162,10 @@
         <v>813092</v>
       </c>
       <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
         <v>205</v>
-      </c>
-      <c r="D69" t="s">
-        <v>206</v>
       </c>
       <c r="E69" t="s">
         <v>28</v>
@@ -6238,7 +6207,7 @@
         <v>25</v>
       </c>
       <c r="R69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S69" t="s">
         <v>30</v>
@@ -6258,10 +6227,10 @@
         <v>825835</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E70" t="s">
         <v>34</v>
@@ -6303,7 +6272,7 @@
         <v>25</v>
       </c>
       <c r="R70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S70" t="s">
         <v>30</v>
@@ -6323,13 +6292,13 @@
         <v>922133</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" t="s">
         <v>210</v>
-      </c>
-      <c r="E71" t="s">
-        <v>211</v>
       </c>
       <c r="F71" s="1">
         <v>24</v>
@@ -6368,7 +6337,7 @@
         <v>25</v>
       </c>
       <c r="R71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S71" t="s">
         <v>30</v>
@@ -6388,13 +6357,13 @@
         <v>913064</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" t="s">
         <v>213</v>
-      </c>
-      <c r="E72" t="s">
-        <v>214</v>
       </c>
       <c r="F72" s="1">
         <v>24</v>
@@ -6433,7 +6402,7 @@
         <v>25</v>
       </c>
       <c r="R72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S72" t="s">
         <v>30</v>
@@ -6453,13 +6422,13 @@
         <v>939774</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" t="s">
         <v>215</v>
-      </c>
-      <c r="E73" t="s">
-        <v>216</v>
       </c>
       <c r="F73" s="1">
         <v>9.5</v>
@@ -6498,13 +6467,13 @@
         <v>25</v>
       </c>
       <c r="R73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S73" t="s">
         <v>25</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U73" t="s">
         <v>25</v>
@@ -6518,13 +6487,13 @@
         <v>825839</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" t="s">
+        <v>217</v>
+      </c>
+      <c r="E74" t="s">
         <v>218</v>
-      </c>
-      <c r="E74" t="s">
-        <v>219</v>
       </c>
       <c r="F74" s="1">
         <v>21.5</v>
@@ -6563,16 +6532,16 @@
         <v>25</v>
       </c>
       <c r="R74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -6583,13 +6552,13 @@
         <v>805703</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" t="s">
         <v>221</v>
-      </c>
-      <c r="E75" t="s">
-        <v>222</v>
       </c>
       <c r="F75" s="1">
         <v>15.5</v>
@@ -6628,7 +6597,7 @@
         <v>25</v>
       </c>
       <c r="R75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S75" t="s">
         <v>30</v>
@@ -6642,46 +6611,46 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>805705</v>
+        <v>825840</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F76" s="1">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="G76" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="H76" s="2">
         <v>1.4</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1.9</v>
       </c>
       <c r="I76" t="s">
         <v>24</v>
       </c>
       <c r="J76" s="1">
-        <v>12.03</v>
+        <v>10.4</v>
       </c>
       <c r="K76" s="1">
-        <v>30.52</v>
+        <v>20</v>
       </c>
       <c r="L76" s="1">
-        <v>16.52</v>
+        <v>10.82</v>
       </c>
       <c r="M76" s="1">
-        <v>27.38</v>
+        <v>17.94</v>
       </c>
       <c r="N76" s="1">
-        <v>32.05</v>
+        <v>21</v>
       </c>
       <c r="O76" s="3">
         <v>0.0499</v>
@@ -6693,7 +6662,7 @@
         <v>25</v>
       </c>
       <c r="R76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S76" t="s">
         <v>30</v>
@@ -6707,28 +6676,28 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>825840</v>
+        <v>805710</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" t="s">
         <v>226</v>
-      </c>
-      <c r="E77" t="s">
-        <v>132</v>
       </c>
       <c r="F77" s="1">
         <v>16</v>
       </c>
       <c r="G77" s="2">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="2">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="I77" t="s">
         <v>24</v>
@@ -6737,16 +6706,16 @@
         <v>10.4</v>
       </c>
       <c r="K77" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L77" s="1">
-        <v>10.82</v>
+        <v>19.48</v>
       </c>
       <c r="M77" s="1">
-        <v>17.94</v>
+        <v>32.29</v>
       </c>
       <c r="N77" s="1">
-        <v>21</v>
+        <v>37.8</v>
       </c>
       <c r="O77" s="3">
         <v>0.0499</v>
@@ -6772,13 +6741,13 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>805710</v>
+        <v>805711</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D78" t="s">
         <v>228</v>
@@ -6787,31 +6756,31 @@
         <v>229</v>
       </c>
       <c r="F78" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H78" s="2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I78" t="s">
         <v>24</v>
       </c>
       <c r="J78" s="1">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="K78" s="1">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L78" s="1">
-        <v>19.48</v>
+        <v>27.06</v>
       </c>
       <c r="M78" s="1">
-        <v>32.29</v>
+        <v>44.85</v>
       </c>
       <c r="N78" s="1">
-        <v>37.8</v>
+        <v>52.5</v>
       </c>
       <c r="O78" s="3">
         <v>0.0499</v>
@@ -6837,46 +6806,46 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>75</v>
-      </c>
-      <c r="B79">
-        <v>805711</v>
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
       </c>
       <c r="E79" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="F79" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G79" s="2">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H79" s="2">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J79" s="1">
+        <v>8.45</v>
+      </c>
+      <c r="K79" s="1">
         <v>13</v>
       </c>
-      <c r="K79" s="1">
-        <v>50</v>
-      </c>
       <c r="L79" s="1">
-        <v>27.06</v>
+        <v>7.04</v>
       </c>
       <c r="M79" s="1">
-        <v>44.85</v>
+        <v>11.66</v>
       </c>
       <c r="N79" s="1">
-        <v>52.5</v>
+        <v>13.65</v>
       </c>
       <c r="O79" s="3">
         <v>0.0499</v>
@@ -6885,10 +6854,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R79" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="S79" t="s">
         <v>30</v>
@@ -6897,63 +6866,63 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>65</v>
-      </c>
-      <c r="B80" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <v>805712</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="1">
+        <v>13.97</v>
+      </c>
+      <c r="K80" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="L80" s="1">
+        <v>11.64</v>
+      </c>
+      <c r="M80" s="1">
+        <v>19.29</v>
+      </c>
+      <c r="N80" s="1">
+        <v>22.57</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0.0499</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" t="s">
         <v>234</v>
-      </c>
-      <c r="E80" t="s">
-        <v>50</v>
-      </c>
-      <c r="F80" s="1">
-        <v>13</v>
-      </c>
-      <c r="G80" s="2">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>50</v>
-      </c>
-      <c r="J80" s="1">
-        <v>8.45</v>
-      </c>
-      <c r="K80" s="1">
-        <v>13</v>
-      </c>
-      <c r="L80" s="1">
-        <v>7.04</v>
-      </c>
-      <c r="M80" s="1">
-        <v>11.66</v>
-      </c>
-      <c r="N80" s="1">
-        <v>13.65</v>
-      </c>
-      <c r="O80" s="3">
-        <v>0.0499</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>30</v>
-      </c>
-      <c r="R80" t="s">
-        <v>51</v>
       </c>
       <c r="S80" t="s">
         <v>30</v>
@@ -6967,13 +6936,13 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B81">
-        <v>805712</v>
+        <v>805659</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
         <v>235</v>
@@ -6985,10 +6954,10 @@
         <v>21.5</v>
       </c>
       <c r="G81" s="2">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H81" s="2">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="I81" t="s">
         <v>24</v>
@@ -6997,16 +6966,16 @@
         <v>13.97</v>
       </c>
       <c r="K81" s="1">
-        <v>21.5</v>
+        <v>60.2</v>
       </c>
       <c r="L81" s="1">
-        <v>11.64</v>
+        <v>32.58</v>
       </c>
       <c r="M81" s="1">
-        <v>19.29</v>
+        <v>54</v>
       </c>
       <c r="N81" s="1">
-        <v>22.57</v>
+        <v>63.21</v>
       </c>
       <c r="O81" s="3">
         <v>0.0499</v>
@@ -7021,57 +6990,57 @@
         <v>237</v>
       </c>
       <c r="S81" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T81">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B82">
-        <v>805659</v>
+        <v>805653</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F82" s="1">
-        <v>21.5</v>
+        <v>14.5</v>
       </c>
       <c r="G82" s="2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J82" s="1">
-        <v>13.97</v>
+        <v>9.43</v>
       </c>
       <c r="K82" s="1">
-        <v>60.2</v>
+        <v>14.5</v>
       </c>
       <c r="L82" s="1">
-        <v>32.58</v>
+        <v>7.85</v>
       </c>
       <c r="M82" s="1">
-        <v>54</v>
+        <v>13.01</v>
       </c>
       <c r="N82" s="1">
-        <v>63.21</v>
+        <v>15.22</v>
       </c>
       <c r="O82" s="3">
         <v>0.0499</v>
@@ -7083,36 +7052,36 @@
         <v>25</v>
       </c>
       <c r="R82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83">
-        <v>805653</v>
+        <v>805724</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" t="s">
         <v>242</v>
       </c>
       <c r="E83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F83" s="1">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="G83" s="2">
         <v>0</v>
@@ -7124,19 +7093,19 @@
         <v>50</v>
       </c>
       <c r="J83" s="1">
-        <v>9.43</v>
+        <v>11.38</v>
       </c>
       <c r="K83" s="1">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="L83" s="1">
-        <v>7.85</v>
+        <v>9.47</v>
       </c>
       <c r="M83" s="1">
-        <v>13.01</v>
+        <v>15.7</v>
       </c>
       <c r="N83" s="1">
-        <v>15.22</v>
+        <v>18.37</v>
       </c>
       <c r="O83" s="3">
         <v>0.0499</v>
@@ -7148,13 +7117,13 @@
         <v>25</v>
       </c>
       <c r="R83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S83" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U83" t="s">
         <v>25</v>
@@ -7162,22 +7131,22 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84">
-        <v>805724</v>
+        <v>813084</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" t="s">
         <v>245</v>
       </c>
-      <c r="E84" t="s">
-        <v>243</v>
-      </c>
       <c r="F84" s="1">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -7189,19 +7158,19 @@
         <v>50</v>
       </c>
       <c r="J84" s="1">
-        <v>11.38</v>
+        <v>12.68</v>
       </c>
       <c r="K84" s="1">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="L84" s="1">
-        <v>9.47</v>
+        <v>10.55</v>
       </c>
       <c r="M84" s="1">
-        <v>15.7</v>
+        <v>17.49</v>
       </c>
       <c r="N84" s="1">
-        <v>18.37</v>
+        <v>20.47</v>
       </c>
       <c r="O84" s="3">
         <v>0.0499</v>
@@ -7216,10 +7185,10 @@
         <v>246</v>
       </c>
       <c r="S84" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U84" t="s">
         <v>25</v>
@@ -7227,22 +7196,22 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85">
-        <v>813084</v>
+        <v>813086</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
         <v>247</v>
       </c>
       <c r="E85" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F85" s="1">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -7254,19 +7223,19 @@
         <v>50</v>
       </c>
       <c r="J85" s="1">
-        <v>12.68</v>
+        <v>10.08</v>
       </c>
       <c r="K85" s="1">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="L85" s="1">
-        <v>10.55</v>
+        <v>8.39</v>
       </c>
       <c r="M85" s="1">
-        <v>17.49</v>
+        <v>13.9</v>
       </c>
       <c r="N85" s="1">
-        <v>20.47</v>
+        <v>16.27</v>
       </c>
       <c r="O85" s="3">
         <v>0.0499</v>
@@ -7278,7 +7247,7 @@
         <v>25</v>
       </c>
       <c r="R85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S85" t="s">
         <v>30</v>
@@ -7287,27 +7256,27 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>813086</v>
+        <v>805686</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E86" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F86" s="1">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="G86" s="2">
         <v>0</v>
@@ -7319,19 +7288,19 @@
         <v>50</v>
       </c>
       <c r="J86" s="1">
-        <v>10.08</v>
+        <v>12.68</v>
       </c>
       <c r="K86" s="1">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="L86" s="1">
-        <v>8.39</v>
+        <v>10.55</v>
       </c>
       <c r="M86" s="1">
-        <v>13.9</v>
+        <v>17.49</v>
       </c>
       <c r="N86" s="1">
-        <v>16.27</v>
+        <v>20.47</v>
       </c>
       <c r="O86" s="3">
         <v>0.0499</v>
@@ -7343,7 +7312,7 @@
         <v>25</v>
       </c>
       <c r="R86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S86" t="s">
         <v>30</v>
@@ -7357,19 +7326,19 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>805686</v>
+        <v>805693</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F87" s="1">
         <v>19.5</v>
@@ -7408,7 +7377,7 @@
         <v>25</v>
       </c>
       <c r="R87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S87" t="s">
         <v>30</v>
@@ -7422,22 +7391,22 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88">
-        <v>805693</v>
+        <v>882704</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F88" s="1">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="G88" s="2">
         <v>0</v>
@@ -7449,19 +7418,19 @@
         <v>50</v>
       </c>
       <c r="J88" s="1">
-        <v>12.68</v>
+        <v>13.97</v>
       </c>
       <c r="K88" s="1">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="L88" s="1">
-        <v>10.55</v>
+        <v>11.64</v>
       </c>
       <c r="M88" s="1">
-        <v>17.49</v>
+        <v>19.29</v>
       </c>
       <c r="N88" s="1">
-        <v>20.47</v>
+        <v>22.57</v>
       </c>
       <c r="O88" s="3">
         <v>0.0499</v>
@@ -7473,7 +7442,7 @@
         <v>25</v>
       </c>
       <c r="R88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S88" t="s">
         <v>30</v>
@@ -7482,24 +7451,24 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89">
-        <v>882704</v>
+        <v>963826</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E89" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F89" s="1">
         <v>21.5</v>
@@ -7535,10 +7504,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S89" t="s">
         <v>30</v>
@@ -7552,22 +7521,22 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90">
-        <v>963826</v>
+        <v>805713</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D90" t="s">
+        <v>257</v>
+      </c>
+      <c r="E90" t="s">
         <v>258</v>
       </c>
-      <c r="E90" t="s">
-        <v>248</v>
-      </c>
       <c r="F90" s="1">
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
@@ -7579,19 +7548,19 @@
         <v>50</v>
       </c>
       <c r="J90" s="1">
-        <v>13.97</v>
+        <v>10.72</v>
       </c>
       <c r="K90" s="1">
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
       <c r="L90" s="1">
-        <v>11.64</v>
+        <v>8.93</v>
       </c>
       <c r="M90" s="1">
-        <v>19.29</v>
+        <v>14.8</v>
       </c>
       <c r="N90" s="1">
-        <v>22.57</v>
+        <v>17.32</v>
       </c>
       <c r="O90" s="3">
         <v>0.0499</v>
@@ -7600,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R90" t="s">
         <v>259</v>
@@ -7612,27 +7581,27 @@
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91">
-        <v>805713</v>
+        <v>827440</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D91" t="s">
         <v>260</v>
       </c>
       <c r="E91" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F91" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2">
         <v>0</v>
@@ -7644,19 +7613,19 @@
         <v>50</v>
       </c>
       <c r="J91" s="1">
-        <v>10.72</v>
+        <v>13</v>
       </c>
       <c r="K91" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="L91" s="1">
-        <v>8.93</v>
+        <v>10.82</v>
       </c>
       <c r="M91" s="1">
-        <v>14.8</v>
+        <v>17.94</v>
       </c>
       <c r="N91" s="1">
-        <v>17.32</v>
+        <v>21</v>
       </c>
       <c r="O91" s="3">
         <v>0.0499</v>
@@ -7668,7 +7637,7 @@
         <v>25</v>
       </c>
       <c r="R91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S91" t="s">
         <v>30</v>
@@ -7682,22 +7651,22 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92">
-        <v>827440</v>
+        <v>901753</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" t="s">
         <v>263</v>
       </c>
-      <c r="E92" t="s">
-        <v>248</v>
-      </c>
       <c r="F92" s="1">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
@@ -7709,19 +7678,19 @@
         <v>50</v>
       </c>
       <c r="J92" s="1">
-        <v>13</v>
+        <v>13.97</v>
       </c>
       <c r="K92" s="1">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="L92" s="1">
-        <v>10.82</v>
+        <v>11.64</v>
       </c>
       <c r="M92" s="1">
-        <v>17.94</v>
+        <v>19.29</v>
       </c>
       <c r="N92" s="1">
-        <v>21</v>
+        <v>22.57</v>
       </c>
       <c r="O92" s="3">
         <v>0.0499</v>
@@ -7742,18 +7711,18 @@
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93">
-        <v>901753</v>
+        <v>859028</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
         <v>265</v>
@@ -7762,7 +7731,7 @@
         <v>266</v>
       </c>
       <c r="F93" s="1">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
@@ -7774,19 +7743,19 @@
         <v>50</v>
       </c>
       <c r="J93" s="1">
-        <v>13.97</v>
+        <v>11.7</v>
       </c>
       <c r="K93" s="1">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="L93" s="1">
-        <v>11.64</v>
+        <v>9.74</v>
       </c>
       <c r="M93" s="1">
-        <v>19.29</v>
+        <v>16.15</v>
       </c>
       <c r="N93" s="1">
-        <v>22.57</v>
+        <v>18.9</v>
       </c>
       <c r="O93" s="3">
         <v>0.0499</v>
@@ -7807,24 +7776,24 @@
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94">
-        <v>859028</v>
+        <v>805675</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
         <v>268</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F94" s="1">
         <v>18</v>
@@ -7863,7 +7832,7 @@
         <v>25</v>
       </c>
       <c r="R94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S94" t="s">
         <v>30</v>
@@ -7877,22 +7846,22 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95">
-        <v>805675</v>
+        <v>805719</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F95" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -7904,19 +7873,19 @@
         <v>50</v>
       </c>
       <c r="J95" s="1">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="K95" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L95" s="1">
-        <v>9.74</v>
+        <v>10.82</v>
       </c>
       <c r="M95" s="1">
-        <v>16.15</v>
+        <v>17.94</v>
       </c>
       <c r="N95" s="1">
-        <v>18.9</v>
+        <v>21</v>
       </c>
       <c r="O95" s="3">
         <v>0.0499</v>
@@ -7928,36 +7897,36 @@
         <v>25</v>
       </c>
       <c r="R95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S95" t="s">
         <v>30</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U95" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B96">
-        <v>805719</v>
+        <v>805720</v>
       </c>
       <c r="C96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E96" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F96" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -7969,19 +7938,19 @@
         <v>50</v>
       </c>
       <c r="J96" s="1">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="K96" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L96" s="1">
-        <v>10.82</v>
+        <v>9.74</v>
       </c>
       <c r="M96" s="1">
-        <v>17.94</v>
+        <v>16.15</v>
       </c>
       <c r="N96" s="1">
-        <v>21</v>
+        <v>18.9</v>
       </c>
       <c r="O96" s="3">
         <v>0.0499</v>
@@ -7993,13 +7962,13 @@
         <v>25</v>
       </c>
       <c r="R96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S96" t="s">
         <v>30</v>
       </c>
       <c r="T96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U96" t="s">
         <v>30</v>
@@ -8007,46 +7976,46 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B97">
-        <v>805720</v>
+        <v>805721</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
+        <v>274</v>
+      </c>
+      <c r="E97" t="s">
         <v>275</v>
       </c>
-      <c r="E97" t="s">
-        <v>261</v>
-      </c>
       <c r="F97" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H97" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I97" t="s">
         <v>50</v>
       </c>
       <c r="J97" s="1">
-        <v>11.7</v>
+        <v>9.75</v>
       </c>
       <c r="K97" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L97" s="1">
-        <v>9.74</v>
+        <v>8.12</v>
       </c>
       <c r="M97" s="1">
-        <v>16.15</v>
+        <v>13.45</v>
       </c>
       <c r="N97" s="1">
-        <v>18.9</v>
+        <v>15.75</v>
       </c>
       <c r="O97" s="3">
         <v>0.0499</v>
@@ -8067,18 +8036,18 @@
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B98">
-        <v>805721</v>
+        <v>858286</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D98" t="s">
         <v>277</v>
@@ -8087,31 +8056,31 @@
         <v>278</v>
       </c>
       <c r="F98" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G98" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H98" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>50</v>
       </c>
       <c r="J98" s="1">
-        <v>9.75</v>
+        <v>5.85</v>
       </c>
       <c r="K98" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L98" s="1">
-        <v>8.12</v>
+        <v>4.87</v>
       </c>
       <c r="M98" s="1">
-        <v>13.45</v>
+        <v>8.07</v>
       </c>
       <c r="N98" s="1">
-        <v>15.75</v>
+        <v>9.45</v>
       </c>
       <c r="O98" s="3">
         <v>0.0499</v>
@@ -8137,22 +8106,22 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99">
-        <v>858286</v>
+        <v>805682</v>
       </c>
       <c r="C99" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
         <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="F99" s="1">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
@@ -8164,19 +8133,19 @@
         <v>50</v>
       </c>
       <c r="J99" s="1">
-        <v>5.85</v>
+        <v>12.68</v>
       </c>
       <c r="K99" s="1">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="L99" s="1">
-        <v>4.87</v>
+        <v>10.55</v>
       </c>
       <c r="M99" s="1">
-        <v>8.07</v>
+        <v>17.49</v>
       </c>
       <c r="N99" s="1">
-        <v>9.45</v>
+        <v>20.47</v>
       </c>
       <c r="O99" s="3">
         <v>0.0499</v>
@@ -8188,13 +8157,13 @@
         <v>25</v>
       </c>
       <c r="R99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S99" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U99" t="s">
         <v>25</v>
@@ -8202,22 +8171,22 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100">
-        <v>805682</v>
+        <v>805670</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F100" s="1">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2">
         <v>0</v>
@@ -8229,19 +8198,19 @@
         <v>50</v>
       </c>
       <c r="J100" s="1">
-        <v>12.68</v>
+        <v>13</v>
       </c>
       <c r="K100" s="1">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="L100" s="1">
-        <v>10.55</v>
+        <v>10.82</v>
       </c>
       <c r="M100" s="1">
-        <v>17.49</v>
+        <v>17.94</v>
       </c>
       <c r="N100" s="1">
-        <v>20.47</v>
+        <v>21</v>
       </c>
       <c r="O100" s="3">
         <v>0.0499</v>
@@ -8253,7 +8222,7 @@
         <v>25</v>
       </c>
       <c r="R100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S100" t="s">
         <v>30</v>
@@ -8267,22 +8236,22 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101">
-        <v>805670</v>
+        <v>805678</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F101" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
@@ -8294,19 +8263,19 @@
         <v>50</v>
       </c>
       <c r="J101" s="1">
-        <v>13</v>
+        <v>10.72</v>
       </c>
       <c r="K101" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="L101" s="1">
-        <v>10.82</v>
+        <v>8.93</v>
       </c>
       <c r="M101" s="1">
-        <v>17.94</v>
+        <v>14.8</v>
       </c>
       <c r="N101" s="1">
-        <v>21</v>
+        <v>17.32</v>
       </c>
       <c r="O101" s="3">
         <v>0.0499</v>
@@ -8318,7 +8287,7 @@
         <v>25</v>
       </c>
       <c r="R101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S101" t="s">
         <v>30</v>
@@ -8332,46 +8301,46 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B102">
-        <v>805678</v>
+        <v>940154</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="F102" s="1">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H102" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I102" t="s">
         <v>50</v>
       </c>
       <c r="J102" s="1">
-        <v>10.72</v>
+        <v>7.15</v>
       </c>
       <c r="K102" s="1">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="L102" s="1">
-        <v>8.93</v>
+        <v>5.95</v>
       </c>
       <c r="M102" s="1">
-        <v>14.8</v>
+        <v>9.87</v>
       </c>
       <c r="N102" s="1">
-        <v>17.32</v>
+        <v>11.55</v>
       </c>
       <c r="O102" s="3">
         <v>0.0499</v>
@@ -8383,7 +8352,7 @@
         <v>25</v>
       </c>
       <c r="R102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S102" t="s">
         <v>30</v>
@@ -8392,51 +8361,51 @@
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B103">
-        <v>940154</v>
+        <v>805687</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F103" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H103" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
         <v>50</v>
       </c>
       <c r="J103" s="1">
-        <v>7.15</v>
+        <v>11.05</v>
       </c>
       <c r="K103" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L103" s="1">
-        <v>5.95</v>
+        <v>9.2</v>
       </c>
       <c r="M103" s="1">
-        <v>9.87</v>
+        <v>15.25</v>
       </c>
       <c r="N103" s="1">
-        <v>11.55</v>
+        <v>17.85</v>
       </c>
       <c r="O103" s="3">
         <v>0.0499</v>
@@ -8448,7 +8417,7 @@
         <v>25</v>
       </c>
       <c r="R103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S103" t="s">
         <v>30</v>
@@ -8457,27 +8426,27 @@
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104">
-        <v>805687</v>
+        <v>805692</v>
       </c>
       <c r="C104" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F104" s="1">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="G104" s="2">
         <v>0</v>
@@ -8489,19 +8458,19 @@
         <v>50</v>
       </c>
       <c r="J104" s="1">
-        <v>11.05</v>
+        <v>12.68</v>
       </c>
       <c r="K104" s="1">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="L104" s="1">
-        <v>9.2</v>
+        <v>10.55</v>
       </c>
       <c r="M104" s="1">
-        <v>15.25</v>
+        <v>17.49</v>
       </c>
       <c r="N104" s="1">
-        <v>17.85</v>
+        <v>20.47</v>
       </c>
       <c r="O104" s="3">
         <v>0.0499</v>
@@ -8513,36 +8482,36 @@
         <v>25</v>
       </c>
       <c r="R104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S104" t="s">
         <v>30</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U104" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105">
-        <v>805692</v>
+        <v>805694</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D105" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E105" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F105" s="1">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2">
         <v>0</v>
@@ -8554,19 +8523,19 @@
         <v>50</v>
       </c>
       <c r="J105" s="1">
-        <v>12.68</v>
+        <v>11.7</v>
       </c>
       <c r="K105" s="1">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="L105" s="1">
-        <v>10.55</v>
+        <v>9.74</v>
       </c>
       <c r="M105" s="1">
-        <v>17.49</v>
+        <v>16.15</v>
       </c>
       <c r="N105" s="1">
-        <v>20.47</v>
+        <v>18.9</v>
       </c>
       <c r="O105" s="3">
         <v>0.0499</v>
@@ -8578,7 +8547,7 @@
         <v>25</v>
       </c>
       <c r="R105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S105" t="s">
         <v>30</v>
@@ -8592,46 +8561,46 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106">
-        <v>805694</v>
+        <v>941005</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="D106" t="s">
         <v>295</v>
       </c>
       <c r="E106" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="F106" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="s">
         <v>50</v>
       </c>
       <c r="J106" s="1">
-        <v>11.7</v>
+        <v>7.8</v>
       </c>
       <c r="K106" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L106" s="1">
-        <v>9.74</v>
+        <v>6.49</v>
       </c>
       <c r="M106" s="1">
-        <v>16.15</v>
+        <v>10.76</v>
       </c>
       <c r="N106" s="1">
-        <v>18.9</v>
+        <v>12.6</v>
       </c>
       <c r="O106" s="3">
         <v>0.0499</v>
@@ -8643,27 +8612,27 @@
         <v>25</v>
       </c>
       <c r="R106" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S106" t="s">
         <v>30</v>
       </c>
       <c r="T106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107">
-        <v>941005</v>
+        <v>805459</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
         <v>298</v>
@@ -8672,31 +8641,31 @@
         <v>299</v>
       </c>
       <c r="F107" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G107" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H107" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I107" t="s">
         <v>50</v>
       </c>
       <c r="J107" s="1">
-        <v>7.8</v>
+        <v>4.55</v>
       </c>
       <c r="K107" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L107" s="1">
-        <v>6.49</v>
+        <v>3.79</v>
       </c>
       <c r="M107" s="1">
-        <v>10.76</v>
+        <v>6.28</v>
       </c>
       <c r="N107" s="1">
-        <v>12.6</v>
+        <v>7.35</v>
       </c>
       <c r="O107" s="3">
         <v>0.0499</v>
@@ -8708,7 +8677,7 @@
         <v>25</v>
       </c>
       <c r="R107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S107" t="s">
         <v>30</v>
@@ -8722,46 +8691,46 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="B108">
-        <v>805459</v>
+        <v>995135</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D108" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E108" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F108" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H108" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
         <v>50</v>
       </c>
       <c r="J108" s="1">
-        <v>4.55</v>
+        <v>6.5</v>
       </c>
       <c r="K108" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L108" s="1">
-        <v>3.79</v>
+        <v>5.41</v>
       </c>
       <c r="M108" s="1">
-        <v>6.28</v>
+        <v>8.97</v>
       </c>
       <c r="N108" s="1">
-        <v>7.35</v>
+        <v>10.5</v>
       </c>
       <c r="O108" s="3">
         <v>0.0499</v>
@@ -8773,60 +8742,60 @@
         <v>25</v>
       </c>
       <c r="R108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S108" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T108">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U108" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>995135</v>
+        <v>900311</v>
       </c>
       <c r="C109" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D109" t="s">
         <v>303</v>
       </c>
       <c r="E109" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F109" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H109" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I109" t="s">
         <v>50</v>
       </c>
       <c r="J109" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K109" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L109" s="1">
-        <v>5.41</v>
+        <v>10.82</v>
       </c>
       <c r="M109" s="1">
-        <v>8.97</v>
+        <v>17.94</v>
       </c>
       <c r="N109" s="1">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="O109" s="3">
         <v>0.0499</v>
@@ -8838,13 +8807,13 @@
         <v>25</v>
       </c>
       <c r="R109" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S109" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T109">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U109" t="s">
         <v>30</v>
@@ -8852,46 +8821,46 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110">
-        <v>900311</v>
+        <v>840823</v>
       </c>
       <c r="C110" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D110" t="s">
         <v>306</v>
       </c>
       <c r="E110" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="F110" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G110" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H110" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I110" t="s">
         <v>50</v>
       </c>
       <c r="J110" s="1">
-        <v>13</v>
+        <v>10.72</v>
       </c>
       <c r="K110" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="L110" s="1">
-        <v>10.82</v>
+        <v>8.93</v>
       </c>
       <c r="M110" s="1">
-        <v>17.94</v>
+        <v>14.8</v>
       </c>
       <c r="N110" s="1">
-        <v>21</v>
+        <v>17.32</v>
       </c>
       <c r="O110" s="3">
         <v>0.0499</v>
@@ -8903,7 +8872,7 @@
         <v>25</v>
       </c>
       <c r="R110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S110" t="s">
         <v>30</v>
@@ -8912,24 +8881,24 @@
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111">
-        <v>840848</v>
+        <v>913652</v>
       </c>
       <c r="C111" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E111" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F111" s="1">
         <v>16.5</v>
@@ -8968,7 +8937,7 @@
         <v>25</v>
       </c>
       <c r="R111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S111" t="s">
         <v>30</v>
@@ -8977,24 +8946,24 @@
         <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B112">
-        <v>840823</v>
+        <v>913651</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D112" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E112" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F112" s="1">
         <v>16.5</v>
@@ -9033,7 +9002,7 @@
         <v>25</v>
       </c>
       <c r="R112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S112" t="s">
         <v>30</v>
@@ -9047,46 +9016,46 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B113">
-        <v>913652</v>
+        <v>816905</v>
       </c>
       <c r="C113" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D113" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E113" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="F113" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G113" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H113" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
         <v>50</v>
       </c>
       <c r="J113" s="1">
-        <v>10.72</v>
+        <v>13</v>
       </c>
       <c r="K113" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="L113" s="1">
-        <v>8.93</v>
+        <v>10.82</v>
       </c>
       <c r="M113" s="1">
-        <v>14.8</v>
+        <v>17.94</v>
       </c>
       <c r="N113" s="1">
-        <v>17.32</v>
+        <v>21</v>
       </c>
       <c r="O113" s="3">
         <v>0.0499</v>
@@ -9098,7 +9067,7 @@
         <v>25</v>
       </c>
       <c r="R113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S113" t="s">
         <v>30</v>
@@ -9112,22 +9081,22 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B114">
-        <v>805696</v>
+        <v>932132</v>
       </c>
       <c r="C114" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E114" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="F114" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2">
         <v>14</v>
@@ -9139,19 +9108,19 @@
         <v>50</v>
       </c>
       <c r="J114" s="1">
-        <v>11.05</v>
+        <v>13</v>
       </c>
       <c r="K114" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L114" s="1">
-        <v>9.2</v>
+        <v>10.82</v>
       </c>
       <c r="M114" s="1">
-        <v>15.25</v>
+        <v>17.94</v>
       </c>
       <c r="N114" s="1">
-        <v>17.85</v>
+        <v>21</v>
       </c>
       <c r="O114" s="3">
         <v>0.0499</v>
@@ -9163,7 +9132,7 @@
         <v>25</v>
       </c>
       <c r="R114" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S114" t="s">
         <v>30</v>
@@ -9177,46 +9146,46 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B115">
-        <v>913651</v>
+        <v>1011877</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E115" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="F115" s="1">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="G115" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H115" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>50</v>
       </c>
       <c r="J115" s="1">
-        <v>10.72</v>
+        <v>9.43</v>
       </c>
       <c r="K115" s="1">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="L115" s="1">
-        <v>8.93</v>
+        <v>7.85</v>
       </c>
       <c r="M115" s="1">
-        <v>14.8</v>
+        <v>13.01</v>
       </c>
       <c r="N115" s="1">
-        <v>17.32</v>
+        <v>15.22</v>
       </c>
       <c r="O115" s="3">
         <v>0.0499</v>
@@ -9228,7 +9197,7 @@
         <v>25</v>
       </c>
       <c r="R115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S115" t="s">
         <v>30</v>
@@ -9237,51 +9206,51 @@
         <v>0</v>
       </c>
       <c r="U115" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="B116">
-        <v>816905</v>
+        <v>1011876</v>
       </c>
       <c r="C116" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E116" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="F116" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="G116" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H116" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
         <v>50</v>
       </c>
       <c r="J116" s="1">
-        <v>13</v>
+        <v>9.43</v>
       </c>
       <c r="K116" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="L116" s="1">
-        <v>10.82</v>
+        <v>7.85</v>
       </c>
       <c r="M116" s="1">
-        <v>17.94</v>
+        <v>13.01</v>
       </c>
       <c r="N116" s="1">
-        <v>21</v>
+        <v>15.22</v>
       </c>
       <c r="O116" s="3">
         <v>0.0499</v>
@@ -9293,13 +9262,13 @@
         <v>25</v>
       </c>
       <c r="R116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S116" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U116" t="s">
         <v>25</v>
@@ -9307,46 +9276,46 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="B117">
-        <v>932132</v>
+        <v>1019999</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E117" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="F117" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="G117" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H117" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
         <v>50</v>
       </c>
       <c r="J117" s="1">
-        <v>13</v>
+        <v>9.43</v>
       </c>
       <c r="K117" s="1">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="L117" s="1">
-        <v>10.82</v>
+        <v>7.85</v>
       </c>
       <c r="M117" s="1">
-        <v>17.94</v>
+        <v>13.01</v>
       </c>
       <c r="N117" s="1">
-        <v>21</v>
+        <v>15.22</v>
       </c>
       <c r="O117" s="3">
         <v>0.0499</v>
@@ -9358,7 +9327,7 @@
         <v>25</v>
       </c>
       <c r="R117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S117" t="s">
         <v>30</v>
@@ -9372,46 +9341,46 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B118">
-        <v>1011877</v>
+        <v>840822</v>
       </c>
       <c r="C118" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E118" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="F118" s="1">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="G118" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H118" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I118" t="s">
         <v>50</v>
       </c>
       <c r="J118" s="1">
-        <v>9.43</v>
+        <v>13</v>
       </c>
       <c r="K118" s="1">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="L118" s="1">
-        <v>7.85</v>
+        <v>10.82</v>
       </c>
       <c r="M118" s="1">
-        <v>13.01</v>
+        <v>17.94</v>
       </c>
       <c r="N118" s="1">
-        <v>15.22</v>
+        <v>21</v>
       </c>
       <c r="O118" s="3">
         <v>0.0499</v>
@@ -9423,7 +9392,7 @@
         <v>25</v>
       </c>
       <c r="R118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S118" t="s">
         <v>30</v>
@@ -9432,51 +9401,51 @@
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="B119">
-        <v>1011876</v>
+        <v>913653</v>
       </c>
       <c r="C119" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D119" t="s">
+        <v>324</v>
+      </c>
+      <c r="E119" t="s">
         <v>325</v>
       </c>
-      <c r="E119" t="s">
-        <v>68</v>
-      </c>
       <c r="F119" s="1">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="H119" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I119" t="s">
         <v>50</v>
       </c>
       <c r="J119" s="1">
-        <v>9.43</v>
+        <v>9.75</v>
       </c>
       <c r="K119" s="1">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="L119" s="1">
-        <v>7.85</v>
+        <v>8.12</v>
       </c>
       <c r="M119" s="1">
-        <v>13.01</v>
+        <v>13.45</v>
       </c>
       <c r="N119" s="1">
-        <v>15.22</v>
+        <v>15.75</v>
       </c>
       <c r="O119" s="3">
         <v>0.0499</v>
@@ -9491,10 +9460,10 @@
         <v>326</v>
       </c>
       <c r="S119" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T119">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U119" t="s">
         <v>25</v>
@@ -9502,46 +9471,46 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>1019999</v>
+        <v>818963</v>
       </c>
       <c r="C120" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D120" t="s">
         <v>327</v>
       </c>
       <c r="E120" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="F120" s="1">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="G120" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H120" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I120" t="s">
         <v>50</v>
       </c>
       <c r="J120" s="1">
-        <v>9.43</v>
+        <v>13</v>
       </c>
       <c r="K120" s="1">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="L120" s="1">
-        <v>7.85</v>
+        <v>10.82</v>
       </c>
       <c r="M120" s="1">
-        <v>13.01</v>
+        <v>17.94</v>
       </c>
       <c r="N120" s="1">
-        <v>15.22</v>
+        <v>21</v>
       </c>
       <c r="O120" s="3">
         <v>0.0499</v>
@@ -9559,27 +9528,27 @@
         <v>30</v>
       </c>
       <c r="T120">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U120" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B121">
-        <v>840822</v>
+        <v>871143</v>
       </c>
       <c r="C121" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D121" t="s">
         <v>329</v>
       </c>
       <c r="E121" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F121" s="1">
         <v>20</v>
@@ -9632,13 +9601,13 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B122">
-        <v>913653</v>
+        <v>913648</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D122" t="s">
         <v>331</v>
@@ -9647,31 +9616,31 @@
         <v>332</v>
       </c>
       <c r="F122" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G122" s="2">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H122" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I122" t="s">
         <v>50</v>
       </c>
       <c r="J122" s="1">
-        <v>9.75</v>
+        <v>15.6</v>
       </c>
       <c r="K122" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L122" s="1">
-        <v>8.12</v>
+        <v>12.99</v>
       </c>
       <c r="M122" s="1">
-        <v>13.45</v>
+        <v>21.53</v>
       </c>
       <c r="N122" s="1">
-        <v>15.75</v>
+        <v>25.2</v>
       </c>
       <c r="O122" s="3">
         <v>0.0499</v>
@@ -9692,33 +9661,33 @@
         <v>0</v>
       </c>
       <c r="U122" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B123">
-        <v>818963</v>
+        <v>805663</v>
       </c>
       <c r="C123" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D123" t="s">
         <v>334</v>
       </c>
       <c r="E123" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="F123" s="1">
         <v>20</v>
       </c>
       <c r="G123" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H123" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I123" t="s">
         <v>50</v>
@@ -9748,7 +9717,7 @@
         <v>25</v>
       </c>
       <c r="R123" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S123" t="s">
         <v>30</v>
@@ -9762,46 +9731,46 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B124">
-        <v>871143</v>
+        <v>941045</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D124" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E124" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="F124" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H124" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I124" t="s">
         <v>50</v>
       </c>
       <c r="J124" s="1">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="K124" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L124" s="1">
-        <v>10.82</v>
+        <v>5.41</v>
       </c>
       <c r="M124" s="1">
-        <v>17.94</v>
+        <v>8.97</v>
       </c>
       <c r="N124" s="1">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="O124" s="3">
         <v>0.0499</v>
@@ -9813,7 +9782,7 @@
         <v>25</v>
       </c>
       <c r="R124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S124" t="s">
         <v>30</v>
@@ -9827,46 +9796,46 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>913648</v>
+        <v>929464</v>
       </c>
       <c r="C125" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D125" t="s">
         <v>338</v>
       </c>
       <c r="E125" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F125" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H125" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I125" t="s">
         <v>50</v>
       </c>
       <c r="J125" s="1">
-        <v>15.6</v>
+        <v>10.4</v>
       </c>
       <c r="K125" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L125" s="1">
-        <v>12.99</v>
+        <v>8.66</v>
       </c>
       <c r="M125" s="1">
-        <v>21.53</v>
+        <v>14.35</v>
       </c>
       <c r="N125" s="1">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="O125" s="3">
         <v>0.0499</v>
@@ -9878,7 +9847,7 @@
         <v>25</v>
       </c>
       <c r="R125" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="S125" t="s">
         <v>30</v>
@@ -9887,51 +9856,51 @@
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>805663</v>
+        <v>805665</v>
       </c>
       <c r="C126" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D126" t="s">
         <v>340</v>
       </c>
       <c r="E126" t="s">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="F126" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H126" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I126" t="s">
         <v>50</v>
       </c>
       <c r="J126" s="1">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="K126" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L126" s="1">
-        <v>10.82</v>
+        <v>5.41</v>
       </c>
       <c r="M126" s="1">
-        <v>17.94</v>
+        <v>8.97</v>
       </c>
       <c r="N126" s="1">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="O126" s="3">
         <v>0.0499</v>
@@ -9943,7 +9912,7 @@
         <v>25</v>
       </c>
       <c r="R126" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="S126" t="s">
         <v>30</v>
@@ -9957,46 +9926,46 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>941045</v>
+        <v>900310</v>
       </c>
       <c r="C127" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="F127" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G127" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H127" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I127" t="s">
         <v>50</v>
       </c>
       <c r="J127" s="1">
-        <v>6.5</v>
+        <v>14.3</v>
       </c>
       <c r="K127" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L127" s="1">
-        <v>5.41</v>
+        <v>11.91</v>
       </c>
       <c r="M127" s="1">
-        <v>8.97</v>
+        <v>19.73</v>
       </c>
       <c r="N127" s="1">
-        <v>10.5</v>
+        <v>23.1</v>
       </c>
       <c r="O127" s="3">
         <v>0.0499</v>
@@ -10017,51 +9986,51 @@
         <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B128">
-        <v>805651</v>
+        <v>1011872</v>
       </c>
       <c r="C128" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D128" t="s">
+        <v>343</v>
+      </c>
+      <c r="E128" t="s">
         <v>344</v>
       </c>
-      <c r="E128" t="s">
-        <v>341</v>
-      </c>
       <c r="F128" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G128" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H128" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
         <v>50</v>
       </c>
       <c r="J128" s="1">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="K128" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L128" s="1">
-        <v>8.12</v>
+        <v>10.82</v>
       </c>
       <c r="M128" s="1">
-        <v>13.45</v>
+        <v>17.94</v>
       </c>
       <c r="N128" s="1">
-        <v>15.75</v>
+        <v>21</v>
       </c>
       <c r="O128" s="3">
         <v>0.0499</v>
@@ -10082,51 +10051,51 @@
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B129">
-        <v>941062</v>
+        <v>913650</v>
       </c>
       <c r="C129" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D129" t="s">
         <v>346</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="F129" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H129" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
         <v>50</v>
       </c>
       <c r="J129" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K129" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L129" s="1">
-        <v>5.41</v>
+        <v>10.82</v>
       </c>
       <c r="M129" s="1">
-        <v>8.97</v>
+        <v>17.94</v>
       </c>
       <c r="N129" s="1">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="O129" s="3">
         <v>0.0499</v>
@@ -10138,7 +10107,7 @@
         <v>25</v>
       </c>
       <c r="R129" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="S129" t="s">
         <v>30</v>
@@ -10147,51 +10116,51 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B130">
-        <v>929464</v>
+        <v>911651</v>
       </c>
       <c r="C130" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="D130" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E130" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="F130" s="1">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="G130" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H130" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
         <v>50</v>
       </c>
       <c r="J130" s="1">
-        <v>10.4</v>
+        <v>10.79</v>
       </c>
       <c r="K130" s="1">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="L130" s="1">
-        <v>8.66</v>
+        <v>8.98</v>
       </c>
       <c r="M130" s="1">
-        <v>14.35</v>
+        <v>14.89</v>
       </c>
       <c r="N130" s="1">
-        <v>16.8</v>
+        <v>17.43</v>
       </c>
       <c r="O130" s="3">
         <v>0.0499</v>
@@ -10200,63 +10169,63 @@
         <v>1</v>
       </c>
       <c r="Q130" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R130" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="S130" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T130">
         <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B131">
-        <v>805665</v>
+        <v>911647</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="D131" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="F131" s="1">
-        <v>10</v>
+        <v>20.77</v>
       </c>
       <c r="G131" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H131" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
         <v>50</v>
       </c>
       <c r="J131" s="1">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="K131" s="1">
-        <v>10</v>
+        <v>20.77</v>
       </c>
       <c r="L131" s="1">
-        <v>5.41</v>
+        <v>11.24</v>
       </c>
       <c r="M131" s="1">
-        <v>8.97</v>
+        <v>18.63</v>
       </c>
       <c r="N131" s="1">
-        <v>10.5</v>
+        <v>21.81</v>
       </c>
       <c r="O131" s="3">
         <v>0.0499</v>
@@ -10265,63 +10234,63 @@
         <v>1</v>
       </c>
       <c r="Q131" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R131" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="S131" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T131">
         <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B132">
-        <v>900310</v>
+        <v>911648</v>
       </c>
       <c r="C132" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="D132" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E132" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="F132" s="1">
-        <v>22</v>
+        <v>21.88</v>
       </c>
       <c r="G132" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H132" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
         <v>50</v>
       </c>
       <c r="J132" s="1">
-        <v>14.3</v>
+        <v>14.22</v>
       </c>
       <c r="K132" s="1">
-        <v>22</v>
+        <v>21.88</v>
       </c>
       <c r="L132" s="1">
-        <v>11.91</v>
+        <v>11.84</v>
       </c>
       <c r="M132" s="1">
-        <v>19.73</v>
+        <v>19.63</v>
       </c>
       <c r="N132" s="1">
-        <v>23.1</v>
+        <v>22.97</v>
       </c>
       <c r="O132" s="3">
         <v>0.0499</v>
@@ -10330,13 +10299,13 @@
         <v>1</v>
       </c>
       <c r="Q132" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R132" t="s">
         <v>351</v>
       </c>
       <c r="S132" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -10347,22 +10316,22 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B133">
-        <v>1011872</v>
+        <v>957423</v>
       </c>
       <c r="C133" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="D133" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E133" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F133" s="1">
-        <v>20</v>
+        <v>19.23</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -10374,19 +10343,19 @@
         <v>50</v>
       </c>
       <c r="J133" s="1">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="K133" s="1">
-        <v>20</v>
+        <v>19.23</v>
       </c>
       <c r="L133" s="1">
-        <v>10.82</v>
+        <v>10.41</v>
       </c>
       <c r="M133" s="1">
-        <v>17.94</v>
+        <v>17.25</v>
       </c>
       <c r="N133" s="1">
-        <v>21</v>
+        <v>20.19</v>
       </c>
       <c r="O133" s="3">
         <v>0.0499</v>
@@ -10395,63 +10364,63 @@
         <v>1</v>
       </c>
       <c r="Q133" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R133" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="S133" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T133">
         <v>0</v>
       </c>
       <c r="U133" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B134">
-        <v>913650</v>
+        <v>957424</v>
       </c>
       <c r="C134" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="D134" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E134" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="F134" s="1">
-        <v>20</v>
+        <v>21.88</v>
       </c>
       <c r="G134" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H134" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>50</v>
       </c>
       <c r="J134" s="1">
-        <v>13</v>
+        <v>14.22</v>
       </c>
       <c r="K134" s="1">
-        <v>20</v>
+        <v>21.88</v>
       </c>
       <c r="L134" s="1">
-        <v>10.82</v>
+        <v>11.84</v>
       </c>
       <c r="M134" s="1">
-        <v>17.94</v>
+        <v>19.63</v>
       </c>
       <c r="N134" s="1">
-        <v>21</v>
+        <v>22.97</v>
       </c>
       <c r="O134" s="3">
         <v>0.0499</v>
@@ -10460,36 +10429,36 @@
         <v>1</v>
       </c>
       <c r="Q134" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R134" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="S134" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T134">
         <v>0</v>
       </c>
       <c r="U134" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B135">
-        <v>911651</v>
+        <v>936388</v>
       </c>
       <c r="C135" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D135" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E135" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F135" s="1">
         <v>16.6</v>
@@ -10528,7 +10497,7 @@
         <v>30</v>
       </c>
       <c r="R135" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S135" t="s">
         <v>25</v>
@@ -10542,19 +10511,19 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B136">
-        <v>911647</v>
+        <v>936387</v>
       </c>
       <c r="C136" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D136" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E136" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F136" s="1">
         <v>20.77</v>
@@ -10593,7 +10562,7 @@
         <v>30</v>
       </c>
       <c r="R136" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S136" t="s">
         <v>25</v>
@@ -10607,22 +10576,22 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B137">
-        <v>911648</v>
+        <v>824228</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D137" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E137" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F137" s="1">
-        <v>21.88</v>
+        <v>21.89</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -10634,19 +10603,19 @@
         <v>50</v>
       </c>
       <c r="J137" s="1">
-        <v>14.22</v>
+        <v>14.23</v>
       </c>
       <c r="K137" s="1">
-        <v>21.88</v>
+        <v>21.89</v>
       </c>
       <c r="L137" s="1">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="M137" s="1">
         <v>19.63</v>
       </c>
       <c r="N137" s="1">
-        <v>22.97</v>
+        <v>22.98</v>
       </c>
       <c r="O137" s="3">
         <v>0.0499</v>
@@ -10658,7 +10627,7 @@
         <v>30</v>
       </c>
       <c r="R137" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S137" t="s">
         <v>25</v>
@@ -10672,22 +10641,22 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B138">
-        <v>957423</v>
+        <v>866256</v>
       </c>
       <c r="C138" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E138" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F138" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -10699,19 +10668,19 @@
         <v>50</v>
       </c>
       <c r="J138" s="1">
-        <v>12.5</v>
+        <v>10.79</v>
       </c>
       <c r="K138" s="1">
-        <v>19.23</v>
+        <v>16.6</v>
       </c>
       <c r="L138" s="1">
-        <v>10.41</v>
+        <v>8.98</v>
       </c>
       <c r="M138" s="1">
-        <v>17.25</v>
+        <v>14.89</v>
       </c>
       <c r="N138" s="1">
-        <v>20.19</v>
+        <v>17.43</v>
       </c>
       <c r="O138" s="3">
         <v>0.0499</v>
@@ -10723,7 +10692,7 @@
         <v>30</v>
       </c>
       <c r="R138" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="S138" t="s">
         <v>25</v>
@@ -10737,22 +10706,22 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B139">
-        <v>957424</v>
+        <v>805464</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D139" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E139" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F139" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -10764,19 +10733,19 @@
         <v>50</v>
       </c>
       <c r="J139" s="1">
-        <v>14.22</v>
+        <v>12.5</v>
       </c>
       <c r="K139" s="1">
-        <v>21.88</v>
+        <v>19.23</v>
       </c>
       <c r="L139" s="1">
-        <v>11.84</v>
+        <v>10.41</v>
       </c>
       <c r="M139" s="1">
-        <v>19.63</v>
+        <v>17.25</v>
       </c>
       <c r="N139" s="1">
-        <v>22.97</v>
+        <v>20.19</v>
       </c>
       <c r="O139" s="3">
         <v>0.0499</v>
@@ -10788,7 +10757,7 @@
         <v>30</v>
       </c>
       <c r="R139" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="S139" t="s">
         <v>25</v>
@@ -10802,22 +10771,22 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B140">
-        <v>936388</v>
+        <v>842611</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D140" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E140" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F140" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -10829,19 +10798,19 @@
         <v>50</v>
       </c>
       <c r="J140" s="1">
-        <v>10.79</v>
+        <v>14.22</v>
       </c>
       <c r="K140" s="1">
-        <v>16.6</v>
+        <v>21.88</v>
       </c>
       <c r="L140" s="1">
-        <v>8.98</v>
+        <v>11.84</v>
       </c>
       <c r="M140" s="1">
-        <v>14.89</v>
+        <v>19.63</v>
       </c>
       <c r="N140" s="1">
-        <v>17.43</v>
+        <v>22.97</v>
       </c>
       <c r="O140" s="3">
         <v>0.0499</v>
@@ -10853,7 +10822,7 @@
         <v>30</v>
       </c>
       <c r="R140" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="S140" t="s">
         <v>25</v>
@@ -10867,13 +10836,13 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B141">
-        <v>936387</v>
+        <v>1015821</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D141" t="s">
         <v>373</v>
@@ -10882,7 +10851,7 @@
         <v>374</v>
       </c>
       <c r="F141" s="1">
-        <v>20.77</v>
+        <v>13.5</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -10894,19 +10863,19 @@
         <v>50</v>
       </c>
       <c r="J141" s="1">
+        <v>8.78</v>
+      </c>
+      <c r="K141" s="1">
         <v>13.5</v>
       </c>
-      <c r="K141" s="1">
-        <v>20.77</v>
-      </c>
       <c r="L141" s="1">
-        <v>11.24</v>
+        <v>7.31</v>
       </c>
       <c r="M141" s="1">
-        <v>18.63</v>
+        <v>12.11</v>
       </c>
       <c r="N141" s="1">
-        <v>21.81</v>
+        <v>14.17</v>
       </c>
       <c r="O141" s="3">
         <v>0.0499</v>
@@ -10918,36 +10887,36 @@
         <v>30</v>
       </c>
       <c r="R141" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="S141" t="s">
         <v>25</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U141" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B142">
-        <v>824228</v>
+        <v>1015823</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D142" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F142" s="1">
-        <v>21.89</v>
+        <v>15</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -10959,19 +10928,19 @@
         <v>50</v>
       </c>
       <c r="J142" s="1">
-        <v>14.23</v>
+        <v>9.75</v>
       </c>
       <c r="K142" s="1">
-        <v>21.89</v>
+        <v>15</v>
       </c>
       <c r="L142" s="1">
-        <v>11.85</v>
+        <v>8.12</v>
       </c>
       <c r="M142" s="1">
-        <v>19.63</v>
+        <v>13.45</v>
       </c>
       <c r="N142" s="1">
-        <v>22.98</v>
+        <v>15.75</v>
       </c>
       <c r="O142" s="3">
         <v>0.0499</v>
@@ -10983,36 +10952,36 @@
         <v>30</v>
       </c>
       <c r="R142" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="S142" t="s">
         <v>25</v>
       </c>
       <c r="T142">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U142" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B143">
-        <v>866256</v>
+        <v>805465</v>
       </c>
       <c r="C143" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E143" t="s">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="F143" s="1">
-        <v>16.6</v>
+        <v>15.38</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -11024,19 +10993,19 @@
         <v>50</v>
       </c>
       <c r="J143" s="1">
-        <v>10.79</v>
+        <v>10</v>
       </c>
       <c r="K143" s="1">
-        <v>16.6</v>
+        <v>15.38</v>
       </c>
       <c r="L143" s="1">
-        <v>8.98</v>
+        <v>8.32</v>
       </c>
       <c r="M143" s="1">
-        <v>14.89</v>
+        <v>13.8</v>
       </c>
       <c r="N143" s="1">
-        <v>17.43</v>
+        <v>16.15</v>
       </c>
       <c r="O143" s="3">
         <v>0.0499</v>
@@ -11048,7 +11017,7 @@
         <v>30</v>
       </c>
       <c r="R143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S143" t="s">
         <v>25</v>
@@ -11057,27 +11026,27 @@
         <v>0</v>
       </c>
       <c r="U143" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B144">
-        <v>805464</v>
+        <v>990715</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D144" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E144" t="s">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="F144" s="1">
-        <v>19.23</v>
+        <v>9.23</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -11089,19 +11058,19 @@
         <v>50</v>
       </c>
       <c r="J144" s="1">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="K144" s="1">
-        <v>19.23</v>
+        <v>9.23</v>
       </c>
       <c r="L144" s="1">
-        <v>10.41</v>
+        <v>5</v>
       </c>
       <c r="M144" s="1">
-        <v>17.25</v>
+        <v>8.28</v>
       </c>
       <c r="N144" s="1">
-        <v>20.19</v>
+        <v>9.69</v>
       </c>
       <c r="O144" s="3">
         <v>0.0499</v>
@@ -11113,7 +11082,7 @@
         <v>30</v>
       </c>
       <c r="R144" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S144" t="s">
         <v>25</v>
@@ -11122,27 +11091,27 @@
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B145">
-        <v>842611</v>
+        <v>881794</v>
       </c>
       <c r="C145" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E145" t="s">
-        <v>381</v>
+        <v>65</v>
       </c>
       <c r="F145" s="1">
-        <v>21.88</v>
+        <v>13.85</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -11154,19 +11123,19 @@
         <v>50</v>
       </c>
       <c r="J145" s="1">
-        <v>14.22</v>
+        <v>9</v>
       </c>
       <c r="K145" s="1">
-        <v>21.88</v>
+        <v>13.85</v>
       </c>
       <c r="L145" s="1">
-        <v>11.84</v>
+        <v>7.5</v>
       </c>
       <c r="M145" s="1">
-        <v>19.63</v>
+        <v>12.42</v>
       </c>
       <c r="N145" s="1">
-        <v>22.97</v>
+        <v>14.54</v>
       </c>
       <c r="O145" s="3">
         <v>0.0499</v>
@@ -11178,7 +11147,7 @@
         <v>30</v>
       </c>
       <c r="R145" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="S145" t="s">
         <v>25</v>
@@ -11187,27 +11156,27 @@
         <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B146">
-        <v>1015821</v>
+        <v>805466</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D146" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F146" s="1">
-        <v>13.5</v>
+        <v>22.66</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -11219,19 +11188,19 @@
         <v>50</v>
       </c>
       <c r="J146" s="1">
-        <v>8.78</v>
+        <v>14.73</v>
       </c>
       <c r="K146" s="1">
-        <v>13.5</v>
+        <v>22.66</v>
       </c>
       <c r="L146" s="1">
-        <v>7.31</v>
+        <v>12.26</v>
       </c>
       <c r="M146" s="1">
-        <v>12.11</v>
+        <v>20.33</v>
       </c>
       <c r="N146" s="1">
-        <v>14.17</v>
+        <v>23.79</v>
       </c>
       <c r="O146" s="3">
         <v>0.0499</v>
@@ -11243,36 +11212,36 @@
         <v>30</v>
       </c>
       <c r="R146" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S146" t="s">
         <v>25</v>
       </c>
       <c r="T146">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U146" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B147">
-        <v>1015823</v>
+        <v>836358</v>
       </c>
       <c r="C147" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E147" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F147" s="1">
-        <v>15</v>
+        <v>19.23</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -11284,19 +11253,19 @@
         <v>50</v>
       </c>
       <c r="J147" s="1">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="K147" s="1">
-        <v>15</v>
+        <v>19.23</v>
       </c>
       <c r="L147" s="1">
-        <v>8.12</v>
+        <v>10.41</v>
       </c>
       <c r="M147" s="1">
-        <v>13.45</v>
+        <v>17.25</v>
       </c>
       <c r="N147" s="1">
-        <v>15.75</v>
+        <v>20.19</v>
       </c>
       <c r="O147" s="3">
         <v>0.0499</v>
@@ -11308,36 +11277,36 @@
         <v>30</v>
       </c>
       <c r="R147" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="S147" t="s">
         <v>25</v>
       </c>
       <c r="T147">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U147" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B148">
-        <v>805465</v>
+        <v>867239</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D148" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E148" t="s">
-        <v>68</v>
+        <v>390</v>
       </c>
       <c r="F148" s="1">
-        <v>15.38</v>
+        <v>20.77</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -11349,19 +11318,19 @@
         <v>50</v>
       </c>
       <c r="J148" s="1">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="K148" s="1">
-        <v>15.38</v>
+        <v>20.77</v>
       </c>
       <c r="L148" s="1">
-        <v>8.32</v>
+        <v>11.24</v>
       </c>
       <c r="M148" s="1">
-        <v>13.8</v>
+        <v>18.63</v>
       </c>
       <c r="N148" s="1">
-        <v>16.15</v>
+        <v>21.81</v>
       </c>
       <c r="O148" s="3">
         <v>0.0499</v>
@@ -11382,27 +11351,27 @@
         <v>0</v>
       </c>
       <c r="U148" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B149">
-        <v>990715</v>
+        <v>805468</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D149" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E149" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="F149" s="1">
-        <v>9.23</v>
+        <v>29.62</v>
       </c>
       <c r="G149" s="2">
         <v>0</v>
@@ -11414,19 +11383,19 @@
         <v>50</v>
       </c>
       <c r="J149" s="1">
-        <v>6</v>
+        <v>19.25</v>
       </c>
       <c r="K149" s="1">
-        <v>9.23</v>
+        <v>29.62</v>
       </c>
       <c r="L149" s="1">
-        <v>5</v>
+        <v>16.03</v>
       </c>
       <c r="M149" s="1">
-        <v>8.28</v>
+        <v>26.57</v>
       </c>
       <c r="N149" s="1">
-        <v>9.69</v>
+        <v>31.1</v>
       </c>
       <c r="O149" s="3">
         <v>0.0499</v>
@@ -11438,7 +11407,7 @@
         <v>30</v>
       </c>
       <c r="R149" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="S149" t="s">
         <v>25</v>
@@ -11447,27 +11416,27 @@
         <v>0</v>
       </c>
       <c r="U149" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B150">
-        <v>881794</v>
+        <v>805469</v>
       </c>
       <c r="C150" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D150" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E150" t="s">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="F150" s="1">
-        <v>13.85</v>
+        <v>32.69</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -11479,19 +11448,19 @@
         <v>50</v>
       </c>
       <c r="J150" s="1">
-        <v>9</v>
+        <v>21.25</v>
       </c>
       <c r="K150" s="1">
-        <v>13.85</v>
+        <v>32.69</v>
       </c>
       <c r="L150" s="1">
-        <v>7.5</v>
+        <v>17.69</v>
       </c>
       <c r="M150" s="1">
-        <v>12.42</v>
+        <v>29.32</v>
       </c>
       <c r="N150" s="1">
-        <v>14.54</v>
+        <v>34.32</v>
       </c>
       <c r="O150" s="3">
         <v>0.0499</v>
@@ -11503,7 +11472,7 @@
         <v>30</v>
       </c>
       <c r="R150" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="S150" t="s">
         <v>25</v>
@@ -11512,27 +11481,27 @@
         <v>0</v>
       </c>
       <c r="U150" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B151">
-        <v>805466</v>
+        <v>805461</v>
       </c>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D151" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E151" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F151" s="1">
-        <v>22.66</v>
+        <v>23.08</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
@@ -11544,19 +11513,19 @@
         <v>50</v>
       </c>
       <c r="J151" s="1">
-        <v>14.73</v>
+        <v>15</v>
       </c>
       <c r="K151" s="1">
-        <v>22.66</v>
+        <v>23.08</v>
       </c>
       <c r="L151" s="1">
-        <v>12.26</v>
+        <v>12.49</v>
       </c>
       <c r="M151" s="1">
-        <v>20.33</v>
+        <v>20.7</v>
       </c>
       <c r="N151" s="1">
-        <v>23.79</v>
+        <v>24.23</v>
       </c>
       <c r="O151" s="3">
         <v>0.0499</v>
@@ -11568,7 +11537,7 @@
         <v>30</v>
       </c>
       <c r="R151" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="S151" t="s">
         <v>25</v>
@@ -11577,27 +11546,27 @@
         <v>0</v>
       </c>
       <c r="U151" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B152">
-        <v>836358</v>
+        <v>805470</v>
       </c>
       <c r="C152" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D152" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E152" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F152" s="1">
-        <v>19.23</v>
+        <v>21.54</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -11609,19 +11578,19 @@
         <v>50</v>
       </c>
       <c r="J152" s="1">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="K152" s="1">
-        <v>19.23</v>
+        <v>21.54</v>
       </c>
       <c r="L152" s="1">
-        <v>10.41</v>
+        <v>11.66</v>
       </c>
       <c r="M152" s="1">
-        <v>17.25</v>
+        <v>19.32</v>
       </c>
       <c r="N152" s="1">
-        <v>20.19</v>
+        <v>22.62</v>
       </c>
       <c r="O152" s="3">
         <v>0.0499</v>
@@ -11633,7 +11602,7 @@
         <v>30</v>
       </c>
       <c r="R152" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="S152" t="s">
         <v>25</v>
@@ -11642,27 +11611,27 @@
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B153">
-        <v>867239</v>
+        <v>805471</v>
       </c>
       <c r="C153" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D153" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E153" t="s">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="F153" s="1">
-        <v>20.77</v>
+        <v>16.92</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
@@ -11674,19 +11643,19 @@
         <v>50</v>
       </c>
       <c r="J153" s="1">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="K153" s="1">
-        <v>20.77</v>
+        <v>16.92</v>
       </c>
       <c r="L153" s="1">
-        <v>11.24</v>
+        <v>9.16</v>
       </c>
       <c r="M153" s="1">
-        <v>18.63</v>
+        <v>15.18</v>
       </c>
       <c r="N153" s="1">
-        <v>21.81</v>
+        <v>17.76</v>
       </c>
       <c r="O153" s="3">
         <v>0.0499</v>
@@ -11698,7 +11667,7 @@
         <v>30</v>
       </c>
       <c r="R153" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="S153" t="s">
         <v>25</v>
@@ -11707,27 +11676,27 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B154">
-        <v>805468</v>
+        <v>805472</v>
       </c>
       <c r="C154" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D154" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E154" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="F154" s="1">
-        <v>29.62</v>
+        <v>15.38</v>
       </c>
       <c r="G154" s="2">
         <v>0</v>
@@ -11739,19 +11708,19 @@
         <v>50</v>
       </c>
       <c r="J154" s="1">
-        <v>19.25</v>
+        <v>10</v>
       </c>
       <c r="K154" s="1">
-        <v>29.62</v>
+        <v>15.38</v>
       </c>
       <c r="L154" s="1">
-        <v>16.03</v>
+        <v>8.32</v>
       </c>
       <c r="M154" s="1">
-        <v>26.57</v>
+        <v>13.8</v>
       </c>
       <c r="N154" s="1">
-        <v>31.1</v>
+        <v>16.15</v>
       </c>
       <c r="O154" s="3">
         <v>0.0499</v>
@@ -11763,7 +11732,7 @@
         <v>30</v>
       </c>
       <c r="R154" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="S154" t="s">
         <v>25</v>
@@ -11772,27 +11741,27 @@
         <v>0</v>
       </c>
       <c r="U154" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B155">
-        <v>805469</v>
+        <v>805473</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D155" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E155" t="s">
-        <v>404</v>
+        <v>65</v>
       </c>
       <c r="F155" s="1">
-        <v>32.69</v>
+        <v>15.38</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -11804,19 +11773,19 @@
         <v>50</v>
       </c>
       <c r="J155" s="1">
-        <v>21.25</v>
+        <v>10</v>
       </c>
       <c r="K155" s="1">
-        <v>32.69</v>
+        <v>15.38</v>
       </c>
       <c r="L155" s="1">
-        <v>17.69</v>
+        <v>8.32</v>
       </c>
       <c r="M155" s="1">
-        <v>29.32</v>
+        <v>13.8</v>
       </c>
       <c r="N155" s="1">
-        <v>34.32</v>
+        <v>16.15</v>
       </c>
       <c r="O155" s="3">
         <v>0.0499</v>
@@ -11828,7 +11797,7 @@
         <v>30</v>
       </c>
       <c r="R155" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="S155" t="s">
         <v>25</v>
@@ -11837,27 +11806,27 @@
         <v>0</v>
       </c>
       <c r="U155" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B156">
-        <v>805461</v>
+        <v>805474</v>
       </c>
       <c r="C156" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D156" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E156" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F156" s="1">
-        <v>23.08</v>
+        <v>15.38</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -11869,19 +11838,19 @@
         <v>50</v>
       </c>
       <c r="J156" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K156" s="1">
-        <v>23.08</v>
+        <v>15.38</v>
       </c>
       <c r="L156" s="1">
-        <v>12.49</v>
+        <v>8.32</v>
       </c>
       <c r="M156" s="1">
-        <v>20.7</v>
+        <v>13.8</v>
       </c>
       <c r="N156" s="1">
-        <v>24.23</v>
+        <v>16.15</v>
       </c>
       <c r="O156" s="3">
         <v>0.0499</v>
@@ -11893,7 +11862,7 @@
         <v>30</v>
       </c>
       <c r="R156" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S156" t="s">
         <v>25</v>
@@ -11907,22 +11876,22 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B157">
-        <v>805470</v>
+        <v>990712</v>
       </c>
       <c r="C157" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D157" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E157" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F157" s="1">
-        <v>21.54</v>
+        <v>8.92</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -11934,19 +11903,19 @@
         <v>50</v>
       </c>
       <c r="J157" s="1">
-        <v>14</v>
+        <v>5.8</v>
       </c>
       <c r="K157" s="1">
-        <v>21.54</v>
+        <v>8.92</v>
       </c>
       <c r="L157" s="1">
-        <v>11.66</v>
+        <v>4.83</v>
       </c>
       <c r="M157" s="1">
-        <v>19.32</v>
+        <v>8</v>
       </c>
       <c r="N157" s="1">
-        <v>22.62</v>
+        <v>9.37</v>
       </c>
       <c r="O157" s="3">
         <v>0.0499</v>
@@ -11958,7 +11927,7 @@
         <v>30</v>
       </c>
       <c r="R157" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S157" t="s">
         <v>25</v>
@@ -11972,22 +11941,22 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B158">
-        <v>805471</v>
+        <v>805475</v>
       </c>
       <c r="C158" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D158" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E158" t="s">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="F158" s="1">
-        <v>16.92</v>
+        <v>18.46</v>
       </c>
       <c r="G158" s="2">
         <v>0</v>
@@ -11999,19 +11968,19 @@
         <v>50</v>
       </c>
       <c r="J158" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K158" s="1">
-        <v>16.92</v>
+        <v>18.46</v>
       </c>
       <c r="L158" s="1">
-        <v>9.16</v>
+        <v>9.99</v>
       </c>
       <c r="M158" s="1">
-        <v>15.18</v>
+        <v>16.56</v>
       </c>
       <c r="N158" s="1">
-        <v>17.76</v>
+        <v>19.38</v>
       </c>
       <c r="O158" s="3">
         <v>0.0499</v>
@@ -12023,7 +11992,7 @@
         <v>30</v>
       </c>
       <c r="R158" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S158" t="s">
         <v>25</v>
@@ -12037,22 +12006,22 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B159">
-        <v>805472</v>
+        <v>805476</v>
       </c>
       <c r="C159" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D159" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E159" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="F159" s="1">
-        <v>15.38</v>
+        <v>10.77</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
@@ -12064,19 +12033,19 @@
         <v>50</v>
       </c>
       <c r="J159" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K159" s="1">
-        <v>15.38</v>
+        <v>10.77</v>
       </c>
       <c r="L159" s="1">
-        <v>8.32</v>
+        <v>5.83</v>
       </c>
       <c r="M159" s="1">
-        <v>13.8</v>
+        <v>9.66</v>
       </c>
       <c r="N159" s="1">
-        <v>16.15</v>
+        <v>11.31</v>
       </c>
       <c r="O159" s="3">
         <v>0.0499</v>
@@ -12088,7 +12057,7 @@
         <v>30</v>
       </c>
       <c r="R159" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S159" t="s">
         <v>25</v>
@@ -12102,22 +12071,22 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B160">
-        <v>805473</v>
+        <v>805477</v>
       </c>
       <c r="C160" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E160" t="s">
-        <v>65</v>
+        <v>418</v>
       </c>
       <c r="F160" s="1">
-        <v>15.38</v>
+        <v>18.46</v>
       </c>
       <c r="G160" s="2">
         <v>0</v>
@@ -12129,19 +12098,19 @@
         <v>50</v>
       </c>
       <c r="J160" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K160" s="1">
-        <v>15.38</v>
+        <v>18.46</v>
       </c>
       <c r="L160" s="1">
-        <v>8.32</v>
+        <v>9.99</v>
       </c>
       <c r="M160" s="1">
-        <v>13.8</v>
+        <v>16.56</v>
       </c>
       <c r="N160" s="1">
-        <v>16.15</v>
+        <v>19.38</v>
       </c>
       <c r="O160" s="3">
         <v>0.0499</v>
@@ -12153,7 +12122,7 @@
         <v>30</v>
       </c>
       <c r="R160" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="S160" t="s">
         <v>25</v>
@@ -12162,331 +12131,6 @@
         <v>0</v>
       </c>
       <c r="U160" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <v>805474</v>
-      </c>
-      <c r="C161" t="s">
-        <v>357</v>
-      </c>
-      <c r="D161" t="s">
-        <v>418</v>
-      </c>
-      <c r="E161" t="s">
-        <v>407</v>
-      </c>
-      <c r="F161" s="1">
-        <v>15.38</v>
-      </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-      <c r="H161" s="2">
-        <v>0</v>
-      </c>
-      <c r="I161" t="s">
-        <v>50</v>
-      </c>
-      <c r="J161" s="1">
-        <v>10</v>
-      </c>
-      <c r="K161" s="1">
-        <v>15.38</v>
-      </c>
-      <c r="L161" s="1">
-        <v>8.32</v>
-      </c>
-      <c r="M161" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="N161" s="1">
-        <v>16.15</v>
-      </c>
-      <c r="O161" s="3">
-        <v>0.0499</v>
-      </c>
-      <c r="P161">
-        <v>1</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>30</v>
-      </c>
-      <c r="R161" t="s">
-        <v>419</v>
-      </c>
-      <c r="S161" t="s">
-        <v>25</v>
-      </c>
-      <c r="T161">
-        <v>0</v>
-      </c>
-      <c r="U161" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>165</v>
-      </c>
-      <c r="B162">
-        <v>990712</v>
-      </c>
-      <c r="C162" t="s">
-        <v>357</v>
-      </c>
-      <c r="D162" t="s">
-        <v>420</v>
-      </c>
-      <c r="E162" t="s">
-        <v>421</v>
-      </c>
-      <c r="F162" s="1">
-        <v>8.92</v>
-      </c>
-      <c r="G162" s="2">
-        <v>0</v>
-      </c>
-      <c r="H162" s="2">
-        <v>0</v>
-      </c>
-      <c r="I162" t="s">
-        <v>50</v>
-      </c>
-      <c r="J162" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="K162" s="1">
-        <v>8.92</v>
-      </c>
-      <c r="L162" s="1">
-        <v>4.83</v>
-      </c>
-      <c r="M162" s="1">
-        <v>8</v>
-      </c>
-      <c r="N162" s="1">
-        <v>9.37</v>
-      </c>
-      <c r="O162" s="3">
-        <v>0.0499</v>
-      </c>
-      <c r="P162">
-        <v>1</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>30</v>
-      </c>
-      <c r="R162" t="s">
-        <v>419</v>
-      </c>
-      <c r="S162" t="s">
-        <v>25</v>
-      </c>
-      <c r="T162">
-        <v>0</v>
-      </c>
-      <c r="U162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>805475</v>
-      </c>
-      <c r="C163" t="s">
-        <v>357</v>
-      </c>
-      <c r="D163" t="s">
-        <v>422</v>
-      </c>
-      <c r="E163" t="s">
-        <v>410</v>
-      </c>
-      <c r="F163" s="1">
-        <v>18.46</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0</v>
-      </c>
-      <c r="I163" t="s">
-        <v>50</v>
-      </c>
-      <c r="J163" s="1">
-        <v>12</v>
-      </c>
-      <c r="K163" s="1">
-        <v>18.46</v>
-      </c>
-      <c r="L163" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="M163" s="1">
-        <v>16.56</v>
-      </c>
-      <c r="N163" s="1">
-        <v>19.38</v>
-      </c>
-      <c r="O163" s="3">
-        <v>0.0499</v>
-      </c>
-      <c r="P163">
-        <v>1</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>30</v>
-      </c>
-      <c r="R163" t="s">
-        <v>423</v>
-      </c>
-      <c r="S163" t="s">
-        <v>25</v>
-      </c>
-      <c r="T163">
-        <v>0</v>
-      </c>
-      <c r="U163" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>805476</v>
-      </c>
-      <c r="C164" t="s">
-        <v>357</v>
-      </c>
-      <c r="D164" t="s">
-        <v>424</v>
-      </c>
-      <c r="E164" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" s="1">
-        <v>10.77</v>
-      </c>
-      <c r="G164" s="2">
-        <v>0</v>
-      </c>
-      <c r="H164" s="2">
-        <v>0</v>
-      </c>
-      <c r="I164" t="s">
-        <v>50</v>
-      </c>
-      <c r="J164" s="1">
-        <v>7</v>
-      </c>
-      <c r="K164" s="1">
-        <v>10.77</v>
-      </c>
-      <c r="L164" s="1">
-        <v>5.83</v>
-      </c>
-      <c r="M164" s="1">
-        <v>9.66</v>
-      </c>
-      <c r="N164" s="1">
-        <v>11.31</v>
-      </c>
-      <c r="O164" s="3">
-        <v>0.0499</v>
-      </c>
-      <c r="P164">
-        <v>1</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>30</v>
-      </c>
-      <c r="R164" t="s">
-        <v>425</v>
-      </c>
-      <c r="S164" t="s">
-        <v>25</v>
-      </c>
-      <c r="T164">
-        <v>0</v>
-      </c>
-      <c r="U164" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>805477</v>
-      </c>
-      <c r="C165" t="s">
-        <v>357</v>
-      </c>
-      <c r="D165" t="s">
-        <v>426</v>
-      </c>
-      <c r="E165" t="s">
-        <v>427</v>
-      </c>
-      <c r="F165" s="1">
-        <v>18.46</v>
-      </c>
-      <c r="G165" s="2">
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
-        <v>0</v>
-      </c>
-      <c r="I165" t="s">
-        <v>50</v>
-      </c>
-      <c r="J165" s="1">
-        <v>12</v>
-      </c>
-      <c r="K165" s="1">
-        <v>18.46</v>
-      </c>
-      <c r="L165" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="M165" s="1">
-        <v>16.56</v>
-      </c>
-      <c r="N165" s="1">
-        <v>19.38</v>
-      </c>
-      <c r="O165" s="3">
-        <v>0.0499</v>
-      </c>
-      <c r="P165">
-        <v>1</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>30</v>
-      </c>
-      <c r="R165" t="s">
-        <v>428</v>
-      </c>
-      <c r="S165" t="s">
-        <v>25</v>
-      </c>
-      <c r="T165">
-        <v>0</v>
-      </c>
-      <c r="U165" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12503,10 +12147,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12514,7 +12158,7 @@
         <v>0.5412</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12522,7 +12166,7 @@
         <v>0.65</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12530,7 +12174,7 @@
         <v>0.6574</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12538,7 +12182,7 @@
         <v>0.94</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -6993,10 +6993,10 @@
         <v>30</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -7504,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R89" t="s">
         <v>256</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -95,6 +95,9 @@
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>Our Heritage Ground Pork is the perfect choice for a quick and delicious meal. Whether you're craving succulent pork meatballs, a flavorful pork Bolognese, or even a juicy pork burger, this versatile meat brings rich, savory taste to any dish. Sourced from heritage hogs raised on open pastures and oak woodlands, with a diet of dairy, hazelnuts, and custom-milled grains, our pork is high-quality, flavorful, and consistently praised for its natural taste. Treat yourself to a meaty feast with this wholesome, delicious ground pork!  Our products come from pasture‑raised animals and are tended on pastures and forests with care. Because they are not factory‑farmed, natural variation in size, shape, weight, and flavor is expected. These differences are a hallmark of truly humane, artisanal farming.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Pet Food, Organ Blend</t>
@@ -1855,13 +1855,13 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1875,10 +1875,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>14</v>
@@ -1917,10 +1917,10 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -1985,7 +1985,7 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2115,13 +2115,13 @@
         <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
         <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2434,19 +2434,19 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
         <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2635,13 +2635,13 @@
         <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2700,13 +2700,13 @@
         <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>66</v>
       </c>
       <c r="S16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>66</v>
       </c>
       <c r="S17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2960,13 +2960,13 @@
         <v>73</v>
       </c>
       <c r="S19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -3025,13 +3025,13 @@
         <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="T22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U22" t="s">
         <v>25</v>
@@ -3220,7 +3220,7 @@
         <v>83</v>
       </c>
       <c r="S23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>25</v>
       </c>
       <c r="T24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U24" t="s">
         <v>25</v>
@@ -3353,7 +3353,7 @@
         <v>25</v>
       </c>
       <c r="T25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U25" t="s">
         <v>25</v>
@@ -3415,7 +3415,7 @@
         <v>92</v>
       </c>
       <c r="S26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>95</v>
       </c>
       <c r="S27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="T28">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="U28" t="s">
         <v>25</v>
@@ -3610,13 +3610,13 @@
         <v>100</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
         <v>103</v>
       </c>
       <c r="S30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>106</v>
       </c>
       <c r="S31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R32" t="s">
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3870,7 +3870,7 @@
         <v>110</v>
       </c>
       <c r="S33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>113</v>
       </c>
       <c r="S34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>25</v>
       </c>
       <c r="T35">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U35" t="s">
         <v>25</v>
@@ -4065,13 +4065,13 @@
         <v>119</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -4130,13 +4130,13 @@
         <v>122</v>
       </c>
       <c r="S37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v>129</v>
       </c>
       <c r="S40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>25</v>
       </c>
       <c r="T41">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U41" t="s">
         <v>25</v>
@@ -4413,7 +4413,7 @@
         <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1">
         <v>15.5</v>
@@ -4455,13 +4455,13 @@
         <v>134</v>
       </c>
       <c r="S42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4520,13 +4520,13 @@
         <v>136</v>
       </c>
       <c r="S43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4585,13 +4585,13 @@
         <v>139</v>
       </c>
       <c r="S44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
         <v>142</v>
       </c>
       <c r="S45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>145</v>
       </c>
       <c r="S46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>147</v>
       </c>
       <c r="S47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>150</v>
       </c>
       <c r="S48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>25</v>
       </c>
       <c r="T49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U49" t="s">
         <v>25</v>
@@ -4978,7 +4978,7 @@
         <v>25</v>
       </c>
       <c r="T50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U50" t="s">
         <v>25</v>
@@ -5043,7 +5043,7 @@
         <v>25</v>
       </c>
       <c r="T51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U51" t="s">
         <v>25</v>
@@ -5105,7 +5105,7 @@
         <v>160</v>
       </c>
       <c r="S52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>163</v>
       </c>
       <c r="S53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>167</v>
       </c>
       <c r="S54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>170</v>
       </c>
       <c r="S55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>172</v>
       </c>
       <c r="S56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5430,7 +5430,7 @@
         <v>175</v>
       </c>
       <c r="S57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         <v>178</v>
       </c>
       <c r="S58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>181</v>
       </c>
       <c r="S59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>184</v>
       </c>
       <c r="S60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5690,13 +5690,13 @@
         <v>184</v>
       </c>
       <c r="S61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -5755,13 +5755,13 @@
         <v>184</v>
       </c>
       <c r="S62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -5820,13 +5820,13 @@
         <v>184</v>
       </c>
       <c r="S63" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U63" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5885,13 +5885,13 @@
         <v>193</v>
       </c>
       <c r="S64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -5950,10 +5950,10 @@
         <v>193</v>
       </c>
       <c r="S65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U65" t="s">
         <v>25</v>
@@ -6015,10 +6015,10 @@
         <v>193</v>
       </c>
       <c r="S66" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U66" t="s">
         <v>25</v>
@@ -6080,7 +6080,7 @@
         <v>200</v>
       </c>
       <c r="S67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6145,13 +6145,13 @@
         <v>203</v>
       </c>
       <c r="S68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -6168,7 +6168,7 @@
         <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1">
         <v>20</v>
@@ -6210,7 +6210,7 @@
         <v>206</v>
       </c>
       <c r="S69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>208</v>
       </c>
       <c r="S70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>211</v>
       </c>
       <c r="S71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6405,13 +6405,13 @@
         <v>211</v>
       </c>
       <c r="S72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>25</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U73" t="s">
         <v>25</v>
@@ -6535,10 +6535,10 @@
         <v>219</v>
       </c>
       <c r="S74" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U74" t="s">
         <v>25</v>
@@ -6600,7 +6600,7 @@
         <v>222</v>
       </c>
       <c r="S75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6665,13 +6665,13 @@
         <v>224</v>
       </c>
       <c r="S76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
         <v>227</v>
       </c>
       <c r="S77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>230</v>
       </c>
       <c r="S78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6854,19 +6854,19 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R79" t="s">
         <v>51</v>
       </c>
       <c r="S79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -6925,13 +6925,13 @@
         <v>234</v>
       </c>
       <c r="S80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -6990,10 +6990,10 @@
         <v>237</v>
       </c>
       <c r="S81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U81" t="s">
         <v>25</v>
@@ -7058,7 +7058,7 @@
         <v>25</v>
       </c>
       <c r="T82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U82" t="s">
         <v>25</v>
@@ -7120,7 +7120,7 @@
         <v>243</v>
       </c>
       <c r="S83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>25</v>
       </c>
       <c r="T84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U84" t="s">
         <v>25</v>
@@ -7250,7 +7250,7 @@
         <v>248</v>
       </c>
       <c r="S85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>250</v>
       </c>
       <c r="S86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>252</v>
       </c>
       <c r="S87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7445,13 +7445,13 @@
         <v>254</v>
       </c>
       <c r="S88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T88">
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -7510,13 +7510,13 @@
         <v>256</v>
       </c>
       <c r="S89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -7575,7 +7575,7 @@
         <v>259</v>
       </c>
       <c r="S90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -7640,7 +7640,7 @@
         <v>261</v>
       </c>
       <c r="S91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7705,13 +7705,13 @@
         <v>264</v>
       </c>
       <c r="S92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T92">
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <v>267</v>
       </c>
       <c r="S93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>269</v>
       </c>
       <c r="S94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7900,13 +7900,13 @@
         <v>271</v>
       </c>
       <c r="S95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -7965,13 +7965,13 @@
         <v>273</v>
       </c>
       <c r="S96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T96">
         <v>0</v>
       </c>
       <c r="U96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -8030,7 +8030,7 @@
         <v>276</v>
       </c>
       <c r="S97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>279</v>
       </c>
       <c r="S98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8160,13 +8160,13 @@
         <v>281</v>
       </c>
       <c r="S99" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T99">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -8225,7 +8225,7 @@
         <v>283</v>
       </c>
       <c r="S100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -8290,7 +8290,7 @@
         <v>285</v>
       </c>
       <c r="S101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -8355,13 +8355,13 @@
         <v>287</v>
       </c>
       <c r="S102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -8420,7 +8420,7 @@
         <v>289</v>
       </c>
       <c r="S103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -8485,13 +8485,13 @@
         <v>291</v>
       </c>
       <c r="S104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T104">
         <v>4</v>
       </c>
       <c r="U104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -8550,13 +8550,13 @@
         <v>293</v>
       </c>
       <c r="S105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T105">
         <v>4</v>
       </c>
       <c r="U105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -8615,7 +8615,7 @@
         <v>297</v>
       </c>
       <c r="S106" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T106">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>297</v>
       </c>
       <c r="S107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>16</v>
       </c>
       <c r="U108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -8810,13 +8810,13 @@
         <v>305</v>
       </c>
       <c r="S109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -8875,7 +8875,7 @@
         <v>307</v>
       </c>
       <c r="S110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T110">
         <v>0</v>
@@ -8940,7 +8940,7 @@
         <v>309</v>
       </c>
       <c r="S111" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>311</v>
       </c>
       <c r="S112" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>313</v>
       </c>
       <c r="S113" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -9135,13 +9135,13 @@
         <v>315</v>
       </c>
       <c r="S114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T114">
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -9200,13 +9200,13 @@
         <v>317</v>
       </c>
       <c r="S115" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T115">
         <v>0</v>
       </c>
       <c r="U115" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -9330,13 +9330,13 @@
         <v>321</v>
       </c>
       <c r="S117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -9395,7 +9395,7 @@
         <v>323</v>
       </c>
       <c r="S118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>326</v>
       </c>
       <c r="S119" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>328</v>
       </c>
       <c r="S120" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T120">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>330</v>
       </c>
       <c r="S121" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>333</v>
       </c>
       <c r="S122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T122">
         <v>0</v>
       </c>
       <c r="U122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>336</v>
       </c>
       <c r="S123" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>336</v>
       </c>
       <c r="S124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>339</v>
       </c>
       <c r="S125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T125">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>339</v>
       </c>
       <c r="S126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -9980,13 +9980,13 @@
         <v>342</v>
       </c>
       <c r="S127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T127">
         <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -10045,7 +10045,7 @@
         <v>345</v>
       </c>
       <c r="S128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -10110,7 +10110,7 @@
         <v>347</v>
       </c>
       <c r="S129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="Q130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R130" t="s">
         <v>351</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="Q131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R131" t="s">
         <v>351</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="Q132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R132" t="s">
         <v>351</v>
@@ -10311,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="Q133" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R133" t="s">
         <v>358</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="U133" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="Q134" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R134" t="s">
         <v>358</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="U134" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="Q135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R135" t="s">
         <v>363</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="U135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="Q136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R136" t="s">
         <v>363</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="U136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R137" t="s">
         <v>363</v>
@@ -10636,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="U137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -10689,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="Q138" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R138" t="s">
         <v>369</v>
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="U138" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -10754,7 +10754,7 @@
         <v>1</v>
       </c>
       <c r="Q139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R139" t="s">
         <v>369</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="U139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -10819,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="Q140" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R140" t="s">
         <v>369</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="U140" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="Q141" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R141" t="s">
         <v>375</v>
@@ -10949,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="Q142" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R142" t="s">
         <v>375</v>
@@ -11014,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="Q143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R143" t="s">
         <v>379</v>
@@ -11079,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="Q144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R144" t="s">
         <v>379</v>
@@ -11144,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R145" t="s">
         <v>382</v>
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R146" t="s">
         <v>385</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="U146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -11274,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="Q147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R147" t="s">
         <v>388</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="U147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="Q148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R148" t="s">
         <v>388</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="U148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -11404,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="Q149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R149" t="s">
         <v>393</v>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="U149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
@@ -11469,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="Q150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R150" t="s">
         <v>396</v>
@@ -11481,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="U150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
@@ -11534,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="Q151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R151" t="s">
         <v>399</v>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="Q152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R152" t="s">
         <v>402</v>
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="Q153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R153" t="s">
         <v>404</v>
@@ -11729,7 +11729,7 @@
         <v>1</v>
       </c>
       <c r="Q154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R154" t="s">
         <v>406</v>
@@ -11794,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="Q155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R155" t="s">
         <v>408</v>
@@ -11859,7 +11859,7 @@
         <v>1</v>
       </c>
       <c r="Q156" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R156" t="s">
         <v>410</v>
@@ -11924,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="Q157" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R157" t="s">
         <v>410</v>
@@ -11989,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="Q158" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R158" t="s">
         <v>414</v>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="Q159" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R159" t="s">
         <v>416</v>
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="Q160" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R160" t="s">
         <v>419</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -3093,7 +3093,7 @@
         <v>25</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U21" t="s">
         <v>25</v>
@@ -3158,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="T22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U22" t="s">
         <v>25</v>
@@ -3288,7 +3288,7 @@
         <v>25</v>
       </c>
       <c r="T24">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="U24" t="s">
         <v>25</v>
@@ -3548,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U28" t="s">
         <v>25</v>
@@ -4003,7 +4003,7 @@
         <v>25</v>
       </c>
       <c r="T35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U35" t="s">
         <v>25</v>
@@ -4198,7 +4198,7 @@
         <v>25</v>
       </c>
       <c r="T38">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U38" t="s">
         <v>25</v>
@@ -4588,10 +4588,10 @@
         <v>25</v>
       </c>
       <c r="T44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4913,10 +4913,10 @@
         <v>25</v>
       </c>
       <c r="T49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>25</v>
       </c>
       <c r="T50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U50" t="s">
         <v>25</v>
@@ -5953,7 +5953,7 @@
         <v>25</v>
       </c>
       <c r="T65">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U65" t="s">
         <v>25</v>
@@ -7058,10 +7058,10 @@
         <v>25</v>
       </c>
       <c r="T82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -7188,10 +7188,10 @@
         <v>25</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2180,10 +2180,10 @@
         <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U7" t="s">
         <v>25</v>
@@ -3288,7 +3288,7 @@
         <v>25</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U24" t="s">
         <v>25</v>
@@ -3548,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U28" t="s">
         <v>25</v>
@@ -3610,13 +3610,13 @@
         <v>100</v>
       </c>
       <c r="S29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -4065,13 +4065,13 @@
         <v>119</v>
       </c>
       <c r="S36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>25</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U38" t="s">
         <v>25</v>
@@ -4393,7 +4393,7 @@
         <v>25</v>
       </c>
       <c r="T41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U41" t="s">
         <v>25</v>
@@ -4978,7 +4978,7 @@
         <v>25</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U50" t="s">
         <v>25</v>
@@ -5043,10 +5043,10 @@
         <v>25</v>
       </c>
       <c r="T51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5625,10 +5625,10 @@
         <v>184</v>
       </c>
       <c r="S60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U60" t="s">
         <v>25</v>
@@ -5690,10 +5690,10 @@
         <v>184</v>
       </c>
       <c r="S61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U61" t="s">
         <v>25</v>
@@ -5956,7 +5956,7 @@
         <v>12</v>
       </c>
       <c r="U65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -6993,7 +6993,7 @@
         <v>25</v>
       </c>
       <c r="T81">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U81" t="s">
         <v>25</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-17T20:52:22.986Z</t>
+    <t>2026-01-18T11:16:02.151Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-18T11:16:02.151Z</t>
+    <t>2026-01-19T11:16:02.117Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-19T11:16:02.117Z</t>
+    <t>2026-01-20T11:16:02.503Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-20T11:16:02.503Z</t>
+    <t>2026-01-21T11:16:02.706Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-21T11:16:02.706Z</t>
+    <t>2026-01-22T11:16:02.205Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-22T11:16:02.205Z</t>
+    <t>2026-01-23T11:16:02.591Z</t>
   </si>
   <si>
     <t>Environment</t>
@@ -3375,7 +3375,7 @@
         <v>55</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U21" t="s">
         <v>55</v>
@@ -3570,7 +3570,7 @@
         <v>55</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U24" t="s">
         <v>55</v>
@@ -3830,7 +3830,7 @@
         <v>55</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U28" t="s">
         <v>55</v>
@@ -3895,7 +3895,7 @@
         <v>55</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U29" t="s">
         <v>55</v>
@@ -4220,10 +4220,10 @@
         <v>57</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
         <v>55</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
@@ -4415,10 +4415,10 @@
         <v>57</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -4480,7 +4480,7 @@
         <v>55</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
@@ -4675,7 +4675,7 @@
         <v>55</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U41" t="s">
         <v>55</v>
@@ -5195,10 +5195,10 @@
         <v>55</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>55</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U50" t="s">
         <v>55</v>
@@ -5325,10 +5325,10 @@
         <v>55</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5975,10 +5975,10 @@
         <v>55</v>
       </c>
       <c r="T61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -6040,10 +6040,10 @@
         <v>57</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -6238,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="U65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-23T11:16:02.591Z</t>
+    <t>2026-01-24T11:16:02.263Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-24T11:16:02.263Z</t>
+    <t>2026-01-25T11:16:02.673Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-25T11:16:02.673Z</t>
+    <t>2026-01-26T11:16:02.662Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-26T11:16:02.662Z</t>
+    <t>2026-01-27T11:16:02.152Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-27T11:16:02.152Z</t>
+    <t>2026-01-28T11:16:02.362Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-28T11:16:02.362Z</t>
+    <t>2026-01-29T11:16:02.821Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-29T11:16:02.821Z</t>
+    <t>2026-01-30T11:16:03.226Z</t>
   </si>
   <si>
     <t>Environment</t>
@@ -3830,7 +3830,7 @@
         <v>55</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U28" t="s">
         <v>55</v>
@@ -3895,7 +3895,7 @@
         <v>55</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U29" t="s">
         <v>55</v>
@@ -4220,7 +4220,7 @@
         <v>57</v>
       </c>
       <c r="T34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="T49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U49" t="s">
         <v>55</v>
@@ -5260,7 +5260,7 @@
         <v>55</v>
       </c>
       <c r="T50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U50" t="s">
         <v>55</v>
@@ -5325,7 +5325,7 @@
         <v>55</v>
       </c>
       <c r="T51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U51" t="s">
         <v>55</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -6040,10 +6040,10 @@
         <v>57</v>
       </c>
       <c r="T62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -6105,10 +6105,10 @@
         <v>55</v>
       </c>
       <c r="T63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -6170,10 +6170,10 @@
         <v>57</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>55</v>
       </c>
       <c r="T65">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U65" t="s">
         <v>55</v>
@@ -6303,7 +6303,7 @@
         <v>10</v>
       </c>
       <c r="U66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -7275,7 +7275,7 @@
         <v>55</v>
       </c>
       <c r="T81">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U81" t="s">
         <v>55</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -8838,7 +8838,7 @@
         <v>4</v>
       </c>
       <c r="U105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -9872,10 +9872,10 @@
         <v>360</v>
       </c>
       <c r="S121" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U121" t="s">
         <v>55</v>
@@ -10132,13 +10132,13 @@
         <v>369</v>
       </c>
       <c r="S125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-30T11:16:03.226Z</t>
+    <t>2026-01-31T11:16:02.288Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-01-31T11:16:02.288Z</t>
+    <t>2026-02-01T11:16:02.344Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-01T11:16:02.344Z</t>
+    <t>2026-02-02T11:16:03.093Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-02T11:16:03.093Z</t>
+    <t>2026-02-03T11:16:02.812Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-03T11:16:02.812Z</t>
+    <t>2026-02-04T11:16:02.751Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-04T11:16:02.751Z</t>
+    <t>2026-02-05T11:16:02.726Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-05T11:16:02.726Z</t>
+    <t>2026-02-06T11:16:02.444Z</t>
   </si>
   <si>
     <t>Environment</t>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
         <v>55</v>
       </c>
       <c r="T7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U7" t="s">
         <v>55</v>
@@ -3375,10 +3375,10 @@
         <v>55</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>55</v>
       </c>
       <c r="T24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U24" t="s">
         <v>55</v>
@@ -4350,7 +4350,7 @@
         <v>55</v>
       </c>
       <c r="T36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
@@ -4675,7 +4675,7 @@
         <v>55</v>
       </c>
       <c r="T41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U41" t="s">
         <v>55</v>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="T49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U49" t="s">
         <v>55</v>
@@ -5260,7 +5260,7 @@
         <v>55</v>
       </c>
       <c r="T50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U50" t="s">
         <v>55</v>
@@ -5325,7 +5325,7 @@
         <v>55</v>
       </c>
       <c r="T51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U51" t="s">
         <v>55</v>
@@ -5910,7 +5910,7 @@
         <v>55</v>
       </c>
       <c r="T60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U60" t="s">
         <v>55</v>
@@ -5975,7 +5975,7 @@
         <v>55</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U61" t="s">
         <v>57</v>
@@ -6105,7 +6105,7 @@
         <v>55</v>
       </c>
       <c r="T63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U63" t="s">
         <v>57</v>
@@ -6303,7 +6303,7 @@
         <v>10</v>
       </c>
       <c r="U66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -8773,7 +8773,7 @@
         <v>4</v>
       </c>
       <c r="U104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -9550,7 +9550,7 @@
         <v>55</v>
       </c>
       <c r="T116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U116" t="s">
         <v>55</v>
@@ -9875,7 +9875,7 @@
         <v>55</v>
       </c>
       <c r="T121">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U121" t="s">
         <v>55</v>
@@ -10200,7 +10200,7 @@
         <v>57</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U126" t="s">
         <v>55</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-06T11:16:02.444Z</t>
+    <t>2026-02-07T11:16:02.390Z</t>
   </si>
   <si>
     <t>Environment</t>
@@ -9553,7 +9553,7 @@
         <v>4</v>
       </c>
       <c r="U116" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-07T11:16:02.390Z</t>
+    <t>2026-02-08T11:16:02.214Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-08T11:16:02.214Z</t>
+    <t>2026-02-09T11:16:02.190Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-09T11:16:02.190Z</t>
+    <t>2026-02-10T11:16:02.964Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-10T11:16:02.964Z</t>
+    <t>2026-02-11T11:16:02.365Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-11T11:16:02.365Z</t>
+    <t>2026-02-12T11:16:03.134Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-12T11:16:03.134Z</t>
+    <t>2026-02-13T11:16:03.169Z</t>
   </si>
   <si>
     <t>Environment</t>
@@ -2140,10 +2140,10 @@
         <v>57</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2465,10 +2465,10 @@
         <v>55</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>55</v>
       </c>
       <c r="T24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U24" t="s">
         <v>55</v>
@@ -3895,7 +3895,7 @@
         <v>55</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U29" t="s">
         <v>55</v>
@@ -4220,7 +4220,7 @@
         <v>57</v>
       </c>
       <c r="T34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
@@ -4480,7 +4480,7 @@
         <v>55</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="s">
         <v>55</v>
@@ -5260,10 +5260,10 @@
         <v>55</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -5325,10 +5325,10 @@
         <v>55</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="U61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -6105,7 +6105,7 @@
         <v>55</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U63" t="s">
         <v>57</v>
@@ -6167,7 +6167,7 @@
         <v>223</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T64">
         <v>15</v>
@@ -7340,10 +7340,10 @@
         <v>55</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -8770,7 +8770,7 @@
         <v>57</v>
       </c>
       <c r="T104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U104" t="s">
         <v>55</v>
@@ -8835,7 +8835,7 @@
         <v>57</v>
       </c>
       <c r="T105">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U105" t="s">
         <v>55</v>
@@ -9496,7 +9496,7 @@
         <v>168</v>
       </c>
       <c r="B116">
-        <v>1011876</v>
+        <v>1061161</v>
       </c>
       <c r="C116" t="s">
         <v>332</v>
@@ -9553,7 +9553,7 @@
         <v>4</v>
       </c>
       <c r="U116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -9875,10 +9875,10 @@
         <v>55</v>
       </c>
       <c r="T121">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U121" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -10135,7 +10135,7 @@
         <v>55</v>
       </c>
       <c r="T125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U125" t="s">
         <v>55</v>
@@ -10197,10 +10197,10 @@
         <v>369</v>
       </c>
       <c r="S126" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T126">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U126" t="s">
         <v>55</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-13T11:16:03.169Z</t>
+    <t>2026-02-14T11:16:02.353Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-14T11:16:02.353Z</t>
+    <t>2026-02-15T11:16:02.640Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-15T11:16:02.640Z</t>
+    <t>2026-02-16T11:16:02.917Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-16T11:16:02.917Z</t>
+    <t>2026-02-17T11:16:02.859Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-17T11:16:02.859Z</t>
+    <t>2026-02-18T11:16:02.294Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-18T11:16:02.294Z</t>
+    <t>2026-02-19T11:16:02.949Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-19T11:16:02.949Z</t>
+    <t>2026-02-20T11:16:03.174Z</t>
   </si>
   <si>
     <t>Environment</t>
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3635,7 +3635,7 @@
         <v>55</v>
       </c>
       <c r="T25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U25" t="s">
         <v>55</v>
@@ -3830,7 +3830,7 @@
         <v>55</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28" t="s">
         <v>55</v>
@@ -3895,10 +3895,10 @@
         <v>55</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>57</v>
       </c>
       <c r="T34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
@@ -4285,7 +4285,7 @@
         <v>55</v>
       </c>
       <c r="T35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
@@ -4350,7 +4350,7 @@
         <v>55</v>
       </c>
       <c r="T36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
@@ -4415,7 +4415,7 @@
         <v>57</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U37" t="s">
         <v>55</v>
@@ -4480,7 +4480,7 @@
         <v>55</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
@@ -4545,7 +4545,7 @@
         <v>55</v>
       </c>
       <c r="T39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U39" t="s">
         <v>55</v>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -6560,10 +6560,10 @@
         <v>57</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -6758,7 +6758,7 @@
         <v>5</v>
       </c>
       <c r="U73" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -10138,7 +10138,7 @@
         <v>2</v>
       </c>
       <c r="U125" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -10203,7 +10203,7 @@
         <v>2</v>
       </c>
       <c r="U126" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-20T11:16:03.174Z</t>
+    <t>2026-02-21T11:16:03.165Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-21T11:16:03.165Z</t>
+    <t>2026-02-22T11:16:02.815Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-22T11:16:02.815Z</t>
+    <t>2026-02-23T11:16:03.055Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-23T11:16:03.055Z</t>
+    <t>2026-02-24T11:16:03.391Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-24T11:16:03.391Z</t>
+    <t>2026-02-25T11:16:02.332Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-25T11:16:02.332Z</t>
+    <t>2026-02-26T11:16:02.436Z</t>
   </si>
   <si>
     <t>Environment</t>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-26T11:16:02.436Z</t>
+    <t>2026-02-27T11:16:03.382Z</t>
   </si>
   <si>
     <t>Environment</t>
@@ -4412,7 +4412,7 @@
         <v>152</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T37">
         <v>3</v>
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="U61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -6167,7 +6167,7 @@
         <v>223</v>
       </c>
       <c r="S64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T64">
         <v>15</v>
@@ -6232,7 +6232,7 @@
         <v>223</v>
       </c>
       <c r="S65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T65">
         <v>15</v>
@@ -6297,7 +6297,7 @@
         <v>223</v>
       </c>
       <c r="S66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T66">
         <v>10</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -27,7 +27,7 @@
     <t>Sync time (UTC)</t>
   </si>
   <si>
-    <t>2026-02-27T11:16:03.382Z</t>
+    <t>2026-02-28T11:16:02.461Z</t>
   </si>
   <si>
     <t>Environment</t>
